--- a/disasterinfosite/data/snuggets-es.xlsx
+++ b/disasterinfosite/data/snuggets-es.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="460" windowWidth="23260" windowHeight="21120" tabRatio="500"/>
+    <workbookView xWindow="1440" yWindow="480" windowWidth="23260" windowHeight="21120" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="snuggets.csv" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1405" uniqueCount="406">
   <si>
     <t>section</t>
   </si>
@@ -416,9 +416,6 @@
     <t>&lt;p&gt; Mount Rainier has had a long history of &lt;a href=https://volcanoes.usgs.gov/volcanoes/mount_rainier/geo_hist_eruption_history.html target=_blank&gt;eruptions&lt;/a&gt; and &lt;a href=https://volcanoes.usgs.gov/volcanoes/mount_rainier/geo_hist_lahars.html target=_blank&gt;lahars&lt;/a&gt;.About 500 years ago the Electron Mudflow surged downhill travelling through Puyallup and as far as Sumner&amp;#44; WA. In the thousands of years before that many lahars travelled along local rivers reaching as far as Auburn.  &lt;b&gt;Some towns (NE Tacoma&amp;#44; Orting&amp;#44; and Puyallup) are built on historical lahar deposits.&lt;/b&gt;&lt;/p&gt;</t>
   </si>
   <si>
-    <t>Has it been raining hard or for many days? Have rising temperatures been causing rapid snowmelt in the mountains? Do water levels in local rivers look high? Chances of flooding could be increasing. Check news reports by the weather service for local alerts.</t>
-  </si>
-  <si>
     <t>Winter Weather</t>
   </si>
   <si>
@@ -464,162 +461,12 @@
     <t>LSLD_existing_features</t>
   </si>
   <si>
-    <t>&lt;p&gt;Nearby creeks&amp;#44; streams&amp;#44; and rivers are flooding. This makes some roadways impassable &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_500yr.jpg target=_blank&gt;(map)&lt;/a&gt; . Sign up for flood alerts by &lt;a href=https://green2.kingcounty.gov/floodalertsystem/ target=_blank&gt;email or text&lt;/a&gt;  or download the &lt;a href=http://kingcounty.gov/services/environment/water-and-land/flooding/warning-system/app.aspx target=_blank&gt;flood alert app&lt;/a&gt; on your smart phone.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Dam failures are very rare. However&amp;#44; if the &lt;a href=https://goo.gl/maps/X2HGtZX6Kyz target=_blank&gt; George Culmback Dam &lt;/a&gt; or the &lt;a href=https://goo.gl/maps/DpotpRjYDvG2 target=_blank&gt;Tolt River Dam&lt;/a&gt; failed this area could be flooded &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_DamInundation.jpg target=_blank&gt;(map)&lt;/a&gt;.  Sign up for flood alerts by &lt;a href=https://green2.kingcounty.gov/floodalertsystem/ target=_blank&gt;email or text&lt;/a&gt;  or download the &lt;a href=http://kingcounty.gov/services/environment/water-and-land/flooding/warning-system/app.aspx target=_blank&gt;flood alert app&lt;/a&gt; on your smart phone.</t>
-  </si>
-  <si>
-    <t>Dam failures are very rare. However&amp;#44; if the &lt;a href=https://goo.gl/maps/RMaHnAY8RCp target=_blank&gt; Lake Youngs Dam &lt;/a&gt;  failed this area is at risk for flooding &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_DamInundation.jpg target=_blank&gt;(map)&lt;/a&gt;.  Sign up for flood alerts by &lt;a href=https://green2.kingcounty.gov/floodalertsystem/ target=_blank&gt;email or text&lt;/a&gt;  or download the &lt;a href=http://kingcounty.gov/services/environment/water-and-land/flooding/warning-system/app.aspx target=_blank&gt;flood alert app&lt;/a&gt; on your smart phone.</t>
-  </si>
-  <si>
-    <t>Dam failures are very rare. However&amp;#44; if the &lt;a href=https://goo.gl/maps/RMaHnAY8RCp target=_blank&gt; Lake Youngs Dam &lt;/a&gt;  failed this area is at moderate risk for flooding &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_DamInundation.jpg target=_blank&gt;(map)&lt;/a&gt;.  Sign up for flood alerts by &lt;a href=https://green2.kingcounty.gov/floodalertsystem/ target=_blank&gt;email or text&lt;/a&gt;  or download the &lt;a href=http://kingcounty.gov/services/environment/water-and-land/flooding/warning-system/app.aspx target=_blank&gt;flood alert app&lt;/a&gt; on your smart phone.</t>
-  </si>
-  <si>
-    <t>Dam failures are very rare. However&amp;#44; if the &lt;a href=https://goo.gl/maps/RMaHnAY8RCp target=_blank&gt; Lake Youngs Dam &lt;/a&gt;  failed this area is at high risk for flooding &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_DamInundation.jpg target=_blank&gt;(map)&lt;/a&gt;.  Sign up for flood alerts by &lt;a href=https://green2.kingcounty.gov/floodalertsystem/ target=_blank&gt;email or text&lt;/a&gt;  or download the &lt;a href=http://kingcounty.gov/services/environment/water-and-land/flooding/warning-system/app.aspx target=_blank&gt;flood alert app&lt;/a&gt; on your smart phone.</t>
-  </si>
-  <si>
-    <t>Dam failures are very rare. However&amp;#44; if the &lt;a href=https://goo.gl/maps/DpotpRjYDvG2 target=_blank&gt;Tolt River Dam&lt;/a&gt; failed this area could be flooded &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_DamInundation.jpg target=_blank&gt;(map)&lt;/a&gt;.  Sign up for flood alerts by &lt;a href=https://green2.kingcounty.gov/floodalertsystem/ target=_blank&gt;email or text&lt;/a&gt;  or download the &lt;a href=http://kingcounty.gov/services/environment/water-and-land/flooding/warning-system/app.aspx target=_blank&gt;flood alert app&lt;/a&gt; on your smart phone.</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;b&gt;There is a high chance of flooding here&lt;/b&gt;. It sits in the 100-year floodplain. This means there's a 25% chance of a floodwaters reaching here in the next 30 years &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_100yr.jpg target=_blank&gt;(map)&lt;/a&gt; . Sign up for flood alerts by &lt;a href=https://green2.kingcounty.gov/floodalertsystem/ target=_blank&gt;email or text&lt;/a&gt;  or download the &lt;a href=http://kingcounty.gov/services/environment/water-and-land/flooding/warning-system/app.aspx target=_blank&gt;flood alert app&lt;/a&gt; on your smart phone.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;b&gt;Flooding is unlikely here&lt;/b&gt;. Water levels may rise slightly during floods or heavy storms. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_100yr.jpg target=_blank&gt;(map)&lt;/a&gt;  &lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;b&gt;Flooding is unlikely here&lt;/b&gt;. Reservoir levels may rise slightly during floods or heavy storms. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_100yr.jpg target=_blank&gt;(map)&lt;/a&gt;  &lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;b&gt;Bridges can be unsafe when flooding is occurring&lt;/b&gt;. If you suspect a bridge has been compromised&amp;#44; be wary and report it to the Flood Warning Center by calling 206-296-8200 or 800-945-9263. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_100yr.jpg target=_blank&gt;(map)&lt;/a&gt; &lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;b&gt;This is outside the high-risk flood areas&gt;&lt;/b&gt; &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_100yr.jpg target=_blank&gt;(map)&lt;/a&gt;. BUT if you live near a creek or small river be aware that it could flood too. See the &lt;a href=http://www.kingcounty.gov/depts/dnrp/wlr/sections-programs/river-floodplain-section.aspx target=_blank&gt;River and Floodplain Management website&lt;/a&gt; for more information. &lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt; &lt;b&gt;This area has flooded in the past when large rainstorms have hit Seattle&lt;/b&gt;.  It could happen again if another strong storm causes water to pool and drain poorly. Scroll down for how to prepare. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_100yr.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;b&gt;There is a high chance of flooding here. It sits in the 100-year floodplain.&lt;/b&gt; This means there's a 25% chance of a floodwaters reaching here in the next 30 years &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_100yr.jpg target=_blank&gt;(map)&lt;/a&gt; . Sign up for flood alerts by &lt;a href=https://green2.kingcounty.gov/floodalertsystem/ target=_blank&gt;email or text&lt;/a&gt;  or download the &lt;a href=http://kingcounty.gov/services/environment/water-and-land/flooding/warning-system/app.aspx target=_blank&gt;flood alert app&lt;/a&gt; on your smart phone.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Rain&amp;#44; snowmelt&amp;#44; or both cause waters to rise rapidly. Floodwaters overtop riverbanks&amp;#44; spill into neighborhoods&amp;#44; and impact roadways. &lt;b&gt;This area is in the mapped 500-year floodplain and will be flooded.&lt;/b&gt; There's a 6% chance you'll see a flood of this size in the next 30 years. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_500yr.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;p/&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Rain&amp;#44; snowmelt&amp;#44; or both cause waters to rise rapidly. Floodwaters overtop riverbanks&amp;#44; spill into neighborhoods&amp;#44; and impact roadways. &lt;b&gt; This area in the mapped 500-year floodplain and will be flooded.&lt;/b&gt; There's a 6% chance you'll see a flood of this size in the next 30 years. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_500yr.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;p/&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;b&gt;This area is prone to urban flooding&lt;/b&gt;. The bigger the storm the more flooding you could see near here. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_500yr.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;b&gt;It's unlikely you'll see flooding here&lt;/b&gt;. Large storms may cause nearby creeks&amp;#44; streams&amp;#44; and rivers to rise. Heavy rainfall could create pools of standing water on streets. If you spot localized flooding call the King County Flood Warning Center at 206-296-8200 or 800-945-9263. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_500yr.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Like most things&amp;#44; rivers follow the path of least resistance and change course over time. They change most during and after floods. &lt;b&gt;This zone has a high chance of the Green River running through here in the future.&lt;/b&gt; &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Like most things&amp;#44; rivers follow the path of least resistance and change course over time. They change most during and after floods. &lt;b&gt;This zone has a high chance of the Cedar River running through here in the future.&lt;/b&gt; &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Like most things&amp;#44; rivers follow the path of least resistance and change course over time. They change most during and after floods. &lt;b&gt;This zone has a high chance of the Raging River running through here in the future. &lt;/b&gt;&lt;a href=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Like most things&amp;#44; rivers follow the path of least resistance and change course over time. They change most during and after floods. &lt;b&gt;This zone has a high chance of the Snoqualmie River running through here in the future.&lt;/b&gt; &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Like most things&amp;#44; rivers follow the path of least resistance and change course over time. They change most during and after floods. &lt;b&gt;This zone has a high chance of the Tolt River running through here in the future.&lt;/b&gt; &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Like most things&amp;#44; rivers follow the path of least resistance and change course over time. They change most during and after floods. &lt;b&gt;This zone has a moderate chance of the Cedar River running through here in the future.&lt;/b&gt; &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Like most things&amp;#44; rivers follow the path of least resistance and change course over time. They change most during and after floods. &lt;b&gt;This zone has a moderate chance of the Green River running through here in the future.&lt;/b&gt; &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Like most things&amp;#44; rivers follow the path of least resistance and change course over time. They change most during and after floods. &lt;b&gt;This zone has a moderate chance of the Raging River running through here in the future. &lt;/b&gt;&lt;a href=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Like most things&amp;#44; rivers follow the path of least resistance and change course over time. They change most during and after floods. &lt;b&gt;This zone has a moderate chance of the Snoqualmie River running through here in the future.&lt;/b&gt; &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Like most things&amp;#44; rivers follow the path of least resistance and change course over time. They change most during and after floods. &lt;b&gt; This zone has a moderate chance of the Tolt River running through here in the future. &lt;/b&gt;&lt;a href=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Like most things&amp;#44; rivers follow the path of least resistance and change course over time. They change most during and after floods. &lt;b&gt;This zone has a low chance of the Green River running through here in the future. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;/b&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Like most things&amp;#44; rivers follow the path of least resistance and change course over time. They change most during and after floods. &lt;b&gt;This zone has a low chance of the Snoqualmie River running through here in the future. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;/b&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Like most things&amp;#44; rivers follow the path of least resistance and change course over time. They change most during and after floods. &lt;b&gt;This zone has a low chance of the Tolt River running through here in the future. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;/b&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Like most things&amp;#44; rivers follow the path of least resistance and change course over time. &lt;b&gt;No study has been done here to see if the river is likely to move over time&amp;#44; but be aware that it could.&lt;/b&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;This is inside the current river channel. Over time the location of the channel may change. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;If your home has been flooded&amp;#44; &lt;b&gt;be wary reentering it as it could have structural damage&lt;/b&gt;.&lt;/li&gt;&lt;li&gt;&lt;b&gt;Have a professional check utilities&lt;/b&gt; before turning them back on.&lt;/li&gt;&lt;li&gt;&lt;b&gt;Document losses&lt;/b&gt; by photographing damages and recording repair costs.&lt;/li&gt;&lt;li&gt;Find out more &lt;b&gt; &lt;a href=http://www.kingcounty.gov/services/environment/water-and-land/flooding/prepare.aspx target=_blank&gt;here&lt;/a&gt;&lt;/b&gt;.&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ol&gt;&lt;li&gt;&lt;b&gt;PLAN&lt;/b&gt; - Make a plan of what to do and where to go if waters rise. &lt;b&gt;Have essential items ready&lt;/b&gt; (birth certificates&amp;#44; important documents&amp;#44; photos&amp;#44; etc). Acquire flood insurance if you need it.&lt;/li&gt;&lt;li&gt;&lt;b&gt;PREPARE&lt;/b&gt; - Store valuables and household chemicals above flood levels and &lt;b&gt;learn how to turn off utilities&lt;/b&gt; (&lt;a href=http://www.seattle.gov/emergency-management/preparedness/prepare-your-home target=_blank&gt;water&amp;#44; gas&amp;#44; and electricity&lt;/a&gt;).&lt;/li&gt;&lt;/ol&gt;</t>
-  </si>
-  <si>
-    <t>Prepare for a flood by picking up and filling sandbags. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;p&gt;DISTRIBUTION CENTER NEAREST YOU IS&amp;#44; &lt;center&gt;&lt;b&gt; Russell Road Park &lt;br&gt; btwn Russell Rd. and S. 240th St.&lt;br&gt; Kent&amp;#44; WA&amp;#44; 98032 &lt;br&gt;  Sand only pickup (no sandbags)&lt;br&gt; M-F 8:00 am - 4:00 pm &lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Prepare for a flood by picking up and filling sandbags.&lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(map)&lt;/a&gt;&amp;#44;&lt;p&gt;DISTRIBUTION CENTER NEAREST YOU IS&amp;#44; &lt;center&gt;&lt;b&gt;Public Works Shops &lt;br&gt;1155 East North Bend Way &lt;br&gt; North Bend&amp;#44; WA 98045&lt;br&gt; Sandbag and sand pickup* &lt;br&gt; *Following flood announcement for Snoqualmie River&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Prepare for a flood by picking up and filling sandbags. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;p&gt;DISTRIBUTION CENTER NEAREST YOU IS&amp;#44; &lt;center&gt;&lt;b&gt; 33100 NE 45th Street &lt;br&gt; Carnation&amp;#44; WA 98014 &lt;br&gt;M-F 8:00am - 4:30pm &lt;br&gt;sandbags and sand can be picked up here (supplies are limited) &lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Prepare for a flood by picking up and filling sandbags. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;p&gt;DISTRIBUTION CENTER NEAREST YOU IS&amp;#44; &lt;center&gt;&lt;b&gt; Meadowbrook Community Center&lt;br&gt;10517 35th Ave. NE &lt;br&gt; Seattle&amp;#44; WA 98125&lt;br&gt;Sandbags and sand will be left outside for public pick-up&lt;br&gt; Limit 25 per address&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Prepare for a flood by picking up and filling sandbags. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;p&gt;DISTRIBUTION CENTER NEAREST YOU IS&amp;#44; &lt;center&gt;&lt;b&gt; 1305 C St. SW &lt;br&gt; Auburn&amp;#44; WA 98001&lt;br&gt; M-F 6:30am - 4:00pm&lt;br&gt;sandbag and sand pickup are available by request &lt;br&gt;(call 253-931-3048)&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;.</t>
-  </si>
-  <si>
-    <t>Prepare for a flood by picking up and filling sandbags. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;p&gt;DISTRIBUTION CENTER NEAREST YOU IS&amp;#44; &lt;center&gt;&lt;b&gt; Kent City Public Works&lt;br&gt; 5821 S. 240th St. &lt;br&gt; Kent&amp;#44; WA 98032&lt;br&gt; M-F 8:00am - 4:00pm &lt;br&gt;sandbags can be picked up here (sand not provided).&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Prepare for a flood by picking up and filling sandbags. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;p&gt;DISTRIBUTION CENTER NEAREST YOU IS&amp;#44; &lt;center&gt;&lt;b&gt; Tahoma School District &lt;br&gt; 23015 SE 216th Way&lt;br&gt; Maple Valley&amp;#44; WA 98038&lt;br&gt; 8:00am - 5:00pm (or until dusk)*&lt;br&gt;*When Cedar River flooding is likely sandbag and sand pickup will be available&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Prepare for a flood by picking up and filling sandbags. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;p&gt;DISTRIBUTION CENTER NEAREST YOU IS&amp;#44; &lt;center&gt;&lt;b&gt; Pacific City Park &lt;br&gt; 600 3rd Ave. SE &lt;br&gt; Pacific&amp;#44; WA 98047&lt;br&gt;Sandbag and sand pickup will be announced when White River flooding is imminent&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Prepare for a flood by picking up and filling sandbags. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;p&gt;DISTRIBUTION CENTER NEAREST YOU IS&amp;#44; &lt;center&gt;&lt;b&gt; Pacific/Algona Community Center &lt;br&gt; 100 3rd Ave. SE &lt;br&gt; Pacific&amp;#44; WA 98047 &lt;br&gt;Sandbag and sand pickup will be announced when White River flooding flooding is imminent.&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Prepare for a flood by picking up and filling sandbags. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;p&gt;DISTRIBUTION CENTER NEAREST YOU IS&amp;#44; &lt;center&gt;&lt;b&gt; City Property @ &lt;br&gt; Railroad Avenue SE and SE King Street &lt;br&gt; Snoqualmie&amp;#44; WA 98065&lt;br&gt;Sandbag and sand pickup*&lt;br&gt;*Announced when Snoqualmie River flooding is imminent &lt;br&gt;or as directed by emergency personnel&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Prepare for a flood by picking up and filling sandbags. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;p&gt;DISTRIBUTION CENTER NEAREST YOU IS&amp;#44; &lt;center&gt;&lt;b&gt; Preston-Snoqualmie Trail parking lot &lt;br&gt; Lake Alice Road SE and SE 56th Place &lt;br&gt; Fall City&amp;#44; WA 98024&lt;br&gt;Sandbag and sand pickup*&lt;br&gt; *Announced when Snoqualmie River flooding is imminent&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Prepare for a flood by picking up and filling sandbags. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;p&gt;DISTRIBUTION CENTER NEAREST YOU IS&amp;#44; &lt;center&gt;&lt;b&gt; Haller Lake Neighborhood &lt;br&gt; 12551 Ashworth Ave N.&lt;br&gt; Seattle&amp;#44; WA 98133&lt;br&gt;Sandbags and sand will be left outside for public pick-up&lt;br&gt; Limit 25 per address&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Prepare for a flood by picking up and filling sandbags. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;p&gt;DISTRIBUTION CENTER NEAREST YOU IS&amp;#44; &lt;center&gt;&lt;b&gt; South Park Neighborhood &lt;br&gt; 731 S. Sullivan &lt;br&gt; Seattle&amp;#44; WA 98108&lt;br&gt;Sandbags and sand will be left outside for public pick-up&lt;br&gt; Limit 25 per address&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Prepare for a flood by picking up and filling sandbags. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;p&gt;DISTRIBUTION CENTER NEAREST YOU IS&amp;#44; &lt;center&gt;&lt;b&gt; Delridge Community Center &lt;br&gt; 4501 Delridge Way SW &lt;br&gt; Seattle&amp;#44; WA 98106&lt;br&gt; Sandbags and sand will be left outside for public pick-up&lt;br&gt; Limit 25 per address&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>With the many rivers in King County flooding is common during periods of heavy rainfall or rapid snowmelt. &lt;b&gt;Flooding is most common from November to February&lt;/b&gt;&amp;#44; but can happen whenever the conditions are right.</t>
-  </si>
-  <si>
     <t>&lt;p&gt;&lt;b&gt;This area has a shallow slope and is less likely to have landslides here&lt;/b&gt;. Landslides tend to happen when the ground is wet from lots of rain OR from ground shaking caused by earthquakes. Scroll down to historical events see if any landslides have been documented in your area. (&lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_SteepSlope.jpg target=_blank&gt;map&lt;/a&gt;)&lt;/p&gt;</t>
   </si>
   <si>
     <t>&lt;p&gt;&lt;b&gt;Due to the steeper slopes&amp;#44; this area has an increased chance for shallow landslides here&lt;/b&gt;.  Landslides tend to happen when the ground is wet from lots of rain OR from ground shaking caused by earthquakes. Scroll down to historical events to see if any landslide activity has been documented in your area. (&lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_SteepSlope.jpg target=_blank&gt;map&lt;/a&gt;)&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;&lt;b&gt;It's unlikely you will see a slide here&amp;#44; but you could see one on nearby steep slopes if conditions are right.&lt;/b&gt; Keep an eye out for unstable areas. Especially roads that have been blocked by fallen debris or washed out. &lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_SteepSlope.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>&lt;ol&gt;&lt;li&gt;&lt;b&gt;ASSESS&lt;/b&gt; - If the area around your home may be prone to landslides &lt;b&gt;seek advice of geotechnical experts&lt;/b&gt;. They can evaluate landslide hazard and/or design corrective techniques to reduce landslide risk.&lt;/li&gt;&lt;li&gt;&lt;b&gt;REDUCE RISK&lt;/b&gt; - Plant ground cover on slopes and/or build a retaining wall to &lt;b&gt;stabilize hillsides&lt;/b&gt;&lt;/li&gt;&lt;li&gt;&lt;b&gt;PREPARE&lt;/b&gt; - &lt;b&gt;Make a supply kit and family plan&lt;/b&gt; designating at least two evacuation routes&lt;/ol&gt;</t>
   </si>
   <si>
@@ -656,21 +503,6 @@
     <t>&lt;p&gt;&lt;b&gt;A LANDSLIDE HAS HAPPENED HERE&lt;/b&gt; according to a 1995 study on slides in the City of Seattle (&lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_existing.jpg =en target=_blank&gt;map&lt;/a&gt;). Historical slides may or may not indicate potential for future sliding. To find out if a hazard still exists a site-specific assessment needs to be done by a geotechnical consultant.&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;&lt;b&gt;This is a very high-risk community for wildfire&lt;/b&gt;. It sits at a boundary between humans and the forest. Western Washington is temperate&amp;#44; but wildfires do strike the eastern part of King County every year. &lt;a href=https://hazardready.org/seattle/static/img/data/Wildfire_WUI.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;b&gt;This is a high-risk community for wildfire&lt;/b&gt;. It sits at a boundary between humans and the forest. Western Washington is temperate&amp;#44; but wildfires do strike the eastern part of King County every year. &lt;a href=https://hazardready.org/seattle/static/img/data/Wildfire_WUI.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;b&gt;This area has not been identified as having high risk for wildfire&lt;/b&gt;&amp;#44; but it is within a half mile of a high-risk community. In the right conditions wildfire will spread. &lt;a href=https://hazardready.org/seattle/static/img/data/Wildfire_WUI.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;b&gt;This area has a low to very low risk of wildfire&lt;/b&gt;. If you live near a wooded area be aware that wildfires can happen. &lt;a href=https://hazardready.org/seattle/static/img/data/Wildfire_WUI.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;b&gt;As this is water&amp;#44; no wildfire potential exists here&lt;/b&gt;. &lt;a href=https://hazardready.org/seattle/static/img/data/Wildfire_WUI.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>&lt;p&gt;&lt;b&gt;You could experience a major wildfire here&lt;/b&gt;. It will be fast moving&amp;#44; with large flames and may change direction quickly. It could take firefighters days or weeks to contain it. SMOKE from distant wildfires can travel far and can be a factor even if none are burning nearby. Check on your local air quality &lt;a href=http://www.pscleanair.org/airquality/ourairquality/Pages/default.aspx target=_blank&gt;here&lt;/a&gt;.&lt;/p&gt;</t>
   </si>
   <si>
@@ -689,18 +521,6 @@
     <t>&lt;p&gt;Lahars (volcanic mudflows) are the main hazard associated with Mount Rainier. &lt;b&gt;South King County residents have a 1 in 10 chance of experiencing a lahar in their lifetime&lt;/b&gt;. Mount Rainier is considered an active volcano&amp;#44; but it could be many years until it erupts again.&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;If a lahar is triggered on Mount Rainier&amp;#44; &lt;b&gt;this area is could see flooding and sediment like mud&amp;#44; sand&amp;#44; rocks&amp;#44; and other debris brought down river by the lahar&lt;/b&gt;. This could occur for years to decades after the lahar.&lt;a href=https://hazardready.org/seattle/static/img/data/Volcano_Lahar.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;b&gt;A 10% - 40% chance exists of a lahar from Mount Rainier flowing through this region in the next 50 years.&lt;/b&gt; Lahars behave and look like wet flowing concrete. Thick mud and debris will cover the area if one happens. This could severely damage property and take a long time to recover. &lt;a href=https://hazardready.org/seattle/static/img/data/Volcano_Lahar.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;b&gt;A 5% - 10% chance exists of a lahar from Mount Rainier flowing through this area in the next 50 years&lt;/b&gt;. Lahars behave and look like wet flowing concrete. Thick mud and debris will cover the area if one happens. This could severely damage property and take a long time to recover. &lt;a href=https://hazardready.org/seattle/static/img/data/Volcano_Lahar.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;b&gt;You are OUTSIDE THE LAHAR HAZARD ZONE&lt;/b&gt;. If Mount Rainier erupts ash will cover the region. It will look much like areas impacted by the Mount Saint Helen's eruption in 1980. Ash thickness will vary with distance from eruption. &lt;a href=https://hazardready.org/seattle/static/img/data/Volcano_Lahar.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>&lt;ol&gt;&lt;li&gt;&lt;b&gt;ASK&lt;/b&gt; - Find out what steps local officials have taken to prepare for volcanic events. &lt;b&gt;Ask public officials what their plan is and how they will communicate with you during an event&lt;/b&gt;. You can do this by contacting the King County &lt;a href=http://www.kingcounty.gov/depts/emergency-management/hazards/volcano.aspx target=_blank&gt; Office of Emergency Management&lt;/a&gt;.&lt;/li&gt;&lt;li&gt;&lt;b&gt;PLAN&lt;/b&gt; - Talk to your friends and neighbors. If you are in a high risk zone&amp;#44; &lt;b&gt;decide where you would go&amp;#44; what you would bring&amp;#44; and who you would contact&lt;/b&gt;.&lt;/li&gt;&lt;/ol&gt;</t>
   </si>
   <si>
@@ -725,9 +545,6 @@
     <t>&lt;p&gt;In 2015&amp;#44; King County had a record number of days that exceeded 90F. &lt;b&gt;July 2015 was the hottest month ever recorded in King County!&lt;/b&gt;&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;GET READY&lt;/b&gt; - Gather emergency items (warm clothes&amp;#44; flashlight&amp;#44; cell phone&amp;#44; portable radio&amp;#44; etc). If time permits and it seems necessary&amp;#44; shut off utilities&lt;/li&gt;&lt;li&gt;&lt;b&gt;LISTEN&lt;/b&gt; - Listen to the news and if advised&amp;#44; evacuate to higher ground.&lt;/li&gt;&lt;li&gt;&lt;b&gt;AVOID HAZARDS - DO NOT wade or drive through floodwaters&lt;/b&gt;. It only takes 6 inches of moving water to knock you down and 2 feet to sweep a car away!&lt;/li&gt;&lt;/ul&gt;&lt;img src="https://hazardready.org/images/seattle-ready/snuggets/Flood_during.jpg" alt="This is a panel of four cartoon images showing what to do during an a flood collect essentials&amp;#44; get to high ground&amp;#44; avoid water&amp;#44; and shutt off utilities." title="During Flood Image"&gt;</t>
-  </si>
-  <si>
     <t>&lt;p&gt;If you think your property could be at risk &lt;b&gt;King County has information for landowners&amp;#44; incentive programs&amp;#44; and host training workshops&lt;/b&gt;. You can find out more &lt;a href=http://www.kingcounty.gov/environment/water-and-land/forestry.aspx target=_blank&gt;here&lt;/a&gt;.&lt;/p&gt;</t>
   </si>
   <si>
@@ -746,12 +563,6 @@
     <t>&lt;p&gt;&lt;b&gt;Due to the steeper slopes&amp;#44; this area has an increased chance for shallow landslides here&lt;/b&gt;.  Landslides tend to happen when the ground is wet from lots of rain OR from ground shaking caused by earthquakes.  Scroll down to historical events to see if any landslide activity has been documented in your area. (&lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_SteepSlope.jpg target=_blank&gt;map&lt;/a&gt;)&lt;/p&gt;</t>
   </si>
   <si>
-    <t>Prepare for a flood by picking up and filling sandbags. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;p&gt;DISTRIBUTION CENTER NEAREST YOU IS&amp;#44; &lt;center&gt;&lt;b&gt; 14701 Main St. NE &lt;br&gt; Duvall&amp;#44; WA 98019&lt;br&gt; Sandbag and sand pickup*&lt;br&gt;*Announced when flooding is imminent &lt;br&gt;or contact the City of Duvall&amp;#44; 425-788-3332&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Are the steep slopes nearby unvegetated? Has it been raining for days? &lt;b&gt;If yes&amp;#44; the steep slopes make it more likely for a landslide to happen here&lt;/b&gt;. Keep an eye out for unstable areas. Especially roads that have been blocked by fallen debris or washed out. &lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_SteepSlope.jpg target=_blank&gt;(map)&lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>lsld_steepgradezone</t>
   </si>
   <si>
@@ -773,15 +584,9 @@
     <t>&lt;p&gt;&lt;b&gt;Hay POSIBILIDADES MODERADAS&lt;/b&gt; (10 a 30%) de que haya un terremoto de magnitud 8+ en Casacadia en el noroeste en los próximos 50 años. &lt;b&gt;Cuando suceda, sentirá temblores muy fuertes que persistirán durante minutos. Será difícil mantenerse en pie y muchas personas resultarán heridas. Ladrillos y vidrios rotos cubrirán las calles.&lt;/b&gt; Habrá cortes de electricidad y agua durante días hasta semanas. &lt;a href="https://hazardready.org/seattle/static/img/data/Earthquake_Cascadia.jpg" target="_blank"&gt;(mapa)&lt;/a&gt;&lt;/p&gt;</t>
   </si>
   <si>
-    <t>Severe storms are expected to increase in the next 50 years.They will bring with them rain and snow. Rivers will have higher flows leading to more flooding in the Fall/Winter. Click the image to find out more. &lt;br&gt;</t>
-  </si>
-  <si>
     <t>&lt;a href="http://kingcounty.gov/services/environment/climate/why-act/infographic.aspx" target=_blank&gt;</t>
   </si>
   <si>
-    <t>&lt;img src="https://hazardready.org/images/seattle-ready/snuggets/Climate_Rivers.jpg" alt="Climate Change Rivers Infographic"&gt;</t>
-  </si>
-  <si>
     <t>&lt;/a&gt;</t>
   </si>
   <si>
@@ -1251,6 +1056,195 @@
   </si>
   <si>
     <t>&lt;p&gt; Los Centros Comunitarios de Emergencia son lugares donde los vecinos pueden reunirse después de un desastre para ayudarse entre sí. &lt;p&gt;EL CENTRO MÁS CERCANO A SU DOMICILIO ES,&lt;center&gt;&lt;b&gt;Grace Lutheran Church Hub &lt;br&gt; Hub Location: 11051 Phinney Ave N (Greenwood Avenue N &amp; N 112th Street)&lt;br /&gt;Capitán del centro: Dale Johnson&lt;br /&gt;Correo electrónico: &lt;a href="mailto:dalerayjohnson@comcast.net" target="_top"&gt;dalerayjohnson@comcast.net&lt;/a&gt;&lt;br /&gt;Teléfono:  206-362-2980&lt;br /&gt;Página web: &lt;a href="http://seattleemergencyhubs.org/" target=_blank&gt;http://seattleemergencyhubs.org &lt;/a&gt;&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Hay muchas posibilidades de inundaciones aquí. Está emplazada en la llanura aluvial de 100 años.&lt;/b&gt; Esto significa que hay un 25% de probabilidades de que las aguas de inundaciones lleguen aquí en los próximos 30 años &lt;a href="https://hazardready.org/seattle/static/img/data/Flood_100yr.jpg" target="_blank"&gt;(mapa)&lt;/a&gt; . Inscríbase para recibir alertas de inundaciones enviando un &lt;a href="https://green2.kingcounty.gov/floodalertsystem/" target="_blank"&gt;correo electrónico o mensaje de texto&lt;/a&gt;  o descargue la &lt;a href="http://kingcounty.gov/services/environment/water-and-land/flooding/warning-system/app.aspx" target="_blank"&gt;aplicación de alerta de inundación&lt;/a&gt; en su teléfono inteligente.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Hay muchas posibilidades de inundaciones aquí.&lt;/b&gt; Está emplazada en la llanura aluvial de 100 años. Esto significa que hay un 25% de probabilidades de que las aguas de inundaciones lleguen aquí en los próximos 30 años &lt;a href="https://hazardready.org/seattle/static/img/data/Flood_100yr.jpg" target="_blank"&gt;(mapa)&lt;/a&gt; . Inscríbase para recibir alertas de inundaciones enviando un &lt;a href="https://green2.kingcounty.gov/floodalertsystem/" target="_blank"&gt;correo electrónico o mensaje de texto&lt;/a&gt;  o descargue la &lt;a href="http://kingcounty.gov/services/environment/water-and-land/flooding/warning-system/app.aspx" target="_blank"&gt;aplicación de alerta de inundación&lt;/a&gt; en su teléfono inteligente.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Las inundaciones son poco probables aquí.&lt;/b&gt; Los niveles de agua pueden aumentar ligeramente durante inundaciones o fuertes tormentas. &lt;a href="https://hazardready.org/seattle/static/img/data/Flood_100yr.jpg" target="_blank"&gt;(mapa)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Las inundaciones son poco probables aquí.&lt;/b&gt; Los niveles de los embalses pueden aumentar ligeramente durante inundaciones o fuertes tormentas. &lt;a href="https://hazardready.org/seattle/static/img/data/Flood_100yr.jpg" target="_blank"&gt;(mapa)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Los puentes pueden ser inseguros en caso de inundaciones.&lt;/b&gt; Si sospecha que un puente puede estar afectado, tenga cuidado e infórmelo al Centro de Advertencias de Inundaciones (Flood Warning Center) llamando al 206-296-8200 o al 800-945-9263. &lt;a href="https://hazardready.org/seattle/static/img/data/Flood_100yr.jpg" target="_blank"&gt;(mapa)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Esto es fuera de las áreas con alto riesgo de inundaciones&amp;gt;&lt;/b&gt; &lt;a href="https://hazardready.org/seattle/static/img/data/Flood_100yr.jpg" target="_blank"&gt;(mapa)&lt;/a&gt; . Sin embargo, si vive cerca de un arroyo o un pequeño río, tenga en cuenta que también se puede inundar. Consulte el &lt;a href="http://www.kingcounty.gov/depts/dnrp/wlr/sections-programs/river-floodplain-section.aspx" target="_blank"&gt;sitio web de Gestión de Ríos y Llanuras Aluviales&lt;/a&gt;  para obtener más información.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Esta área se ha inundado en el pasado cuando grandes tormentas golpearon a Seattle.&lt;/b&gt; Podría pasar nuevamente si otra gran tormenta provoca acumulación del agua y el drenaje es insuficiente. Desplácese hacia abajo para ver cómo prepararse. &lt;a href="https://hazardready.org/seattle/static/img/data/Flood_100yr.jpg" target="_blank"&gt;(mapa)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;La lluvia, el deshielo o ambas causan rápido aumento del nivel de agua. Las aguas de inundaciones superan las orillas de los ríos, llegan a los vecindarios y afectan los caminos. &lt;b&gt;Esta área está en la llanura aluvial de 500 años demarcada y se inundará.&lt;/b&gt; Hay 6% de posibilidades de que verá una inundación de esta magnitud en los próximos 30 años. &lt;a href="https://hazardready.org/seattle/static/img/data/Flood_500yr.jpg" target="_blank"&gt;(mapa)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;p&gt;La lluvia, el deshielo o ambas causan rápido aumento del nivel de agua. Las aguas de inundaciones superan las orillas de los ríos, llegan a los vecindarios y afectan los caminos. &lt;b&gt;Esta área está en la llanura aluvial de 500 años demarcada y se inundará.&lt;/b&gt; Hay 6% de posibilidades de que verá una inundación de esta magnitud en los próximos 30 años. &lt;a href="https://hazardready.org/seattle/static/img/data/Flood_500yr.jpg" target="_blank"&gt;(mapa)&lt;/a&gt;&lt;/p&gt; &lt;/td&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Los arroyos, riachuelos y ríos cercanos se están inundando. Esto hace que algunos caminos sean intransitables &lt;a href="https://hazardready.org/seattle/static/img/data/Flood_500yr.jpg" target="_blank"&gt;(mapa)&lt;/a&gt; . Inscríbase para recibir alertas de inundaciones enviando un &lt;a href="https://green2.kingcounty.gov/floodalertsystem/" target="_blank"&gt;correo electrónico o mensaje de texto&lt;/a&gt;  o descargue la &lt;a href="http://kingcounty.gov/services/environment/water-and-land/flooding/warning-system/app.aspx" target="_blank"&gt;aplicación de alerta de inundación&lt;/a&gt; en su teléfono inteligente.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Es poco probable que esta área se inunde.&lt;/b&gt; Las grandes tormentas pueden provocar que los arroyos, riachuelos y ríos cercanos suban de nivel. Las lluvias torrenciales pueden crear charcos de agua inmóvil en las calles. Si ve una inundación localizada llame al Centro de Advertencias de Inundaciones del Condado King al 206-296-8200 o al 800-945-9263. &lt;a href="https://hazardready.org/seattle/static/img/data/Flood_500yr.jpg" target="_blank"&gt;(mapa)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Esta área es propensa a inundaciones urbanas.&lt;/b&gt; Mientras más grande la tormenta, mayor la inundación que verá cerca de esta área. &lt;a href="https://hazardready.org/seattle/static/img/data/Flood_500yr.jpg" target="_blank"&gt;(mapa)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Como la mayoría de las cosas, los ríos siguen el camino de menor resistencia y cambian el curso con el tiempo. &lt;b&gt;Aquí no hicieron estudios para determinar si el río tiene posibilidades de trasladarse con el paso del tiempo, pero tenga en cuenta que es posible.&lt;/b&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Esto es dentro del actual canal del río. Con el tiempo, la ubicación del canal puede cambiar. &lt;a href="https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg" target="_blank"&gt;(mapa)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Como la mayoría de las cosas, los ríos siguen el camino de menor resistencia y cambian el curso con el tiempo. Cuando más cambian es durante y después de las inundaciones. &lt;b&gt;Esta zona tiene grandes posibilidades de que el río Cedar la atraviese en el futuro.&lt;/b&gt;&lt;ahref=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(mapa)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Como la mayoría de las cosas, los ríos siguen el camino de menor resistencia y cambian el curso con el tiempo. Cuando más cambian es durante y después de las inundaciones. &lt;b&gt;Esta zona tiene grandes posibilidades de que el río Green la atraviese en el futuro.&lt;/b&gt;&lt;ahref=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(mapa)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Como la mayoría de las cosas, los ríos siguen el camino de menor resistencia y cambian el curso con el tiempo. Cuando más cambian es durante y después de las inundaciones. &lt;b&gt;Esta zona tiene grandes posibilidades de que el río Raging la atraviese en el futuro.&lt;/b&gt;&lt;ahref=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(mapa)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Como la mayoría de las cosas, los ríos siguen el camino de menor resistencia y cambian el curso con el tiempo. Cuando más cambian es durante y después de las inundaciones. &lt;b&gt;Esta zona tiene grandes posibilidades de que el río Snoqualmie la atraviese en el futuro.&lt;/b&gt;&lt;ahref=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(mapa)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Como la mayoría de las cosas, los ríos siguen el camino de menor resistencia y cambian el curso con el tiempo. Cuando más cambian es durante y después de las inundaciones. &lt;b&gt;Esta zona tiene grandes posibilidades de que el río Tolt la atraviese en el futuro.&lt;/b&gt;&lt;ahref=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(mapa)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Como la mayoría de las cosas, los ríos siguen el camino de menor resistencia y cambian el curso con el tiempo. Cuando más cambian es durante y después de las inundaciones. &lt;b&gt;Esta zona tiene posibilidades moderadas de que el río Cedar la atraviese en el futuro.&lt;/b&gt;&lt;ahref=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(mapa)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Como la mayoría de las cosas, los ríos siguen el camino de menor resistencia y cambian el curso con el tiempo. Cuando más cambian es durante y después de las inundaciones. &lt;b&gt;Esta zona tiene posibilidades moderadas de que el río Green la atraviese en el futuro.&lt;/b&gt;&lt;ahref=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(mapa)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Como la mayoría de las cosas, los ríos siguen el camino de menor resistencia y cambian el curso con el tiempo. Cuando más cambian es durante y después de las inundaciones. &lt;b&gt;Esta zona tiene posibilidades moderadas de que el río Raging la atraviese en el futuro.&lt;/b&gt;&lt;ahref=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(mapa)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Como la mayoría de las cosas, los ríos siguen el camino de menor resistencia y cambian el curso con el tiempo. Cuando más cambian es durante y después de las inundaciones. &lt;b&gt;Esta zona tiene posibilidades moderadas de que el río Snoqualmie la atraviese en el futuro.&lt;/b&gt;&lt;ahref=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(mapa)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Como la mayoría de las cosas, los ríos siguen el camino de menor resistencia y cambian el curso con el tiempo. Cuando más cambian es durante y después de las inundaciones. &lt;b&gt;Esta zona tiene posibilidades moderadas de que el río Tolt la atraviese en el futuro.&lt;/b&gt;&lt;ahref=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(mapa)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Como la mayoría de las cosas, los ríos siguen el camino de menor resistencia y cambian el curso con el tiempo. Cuando más cambian es durante y después de las inundaciones. &lt;b&gt;Esta zona tiene pocas posibilidades de que el río Green la atraviese en el futuro. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(mapa)&lt;/a&gt;&lt;/b&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Como la mayoría de las cosas, los ríos siguen el camino de menor resistencia y cambian el curso con el tiempo. Cuando más cambian es durante y después de las inundaciones. &lt;b&gt;Esta zona tiene pocas posibilidades de que el río Snoqualmie la atraviese en el futuro. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(mapa)&lt;/a&gt;&lt;/b&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Como la mayoría de las cosas, los ríos siguen el camino de menor resistencia y cambian el curso con el tiempo. Cuando más cambian es durante y después de las inundaciones. &lt;b&gt;Esta zona tiene pocas posibilidades de que el río Tolt la atraviese en el futuro. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(mapa)&lt;/a&gt;&lt;/b&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;It's unlikely you will see a slide here&amp;#44; but you could see one on nearby steep slopes if conditions are right.&lt;/b&gt; Keep an eye out for unstable areas. Especially roads that have been blocked by fallen debris or washed out. &lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_SteepSlope.jpg target=_blank&gt;(mapa)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Are the steep slopes nearby unvegetated? Has it been raining for days? &lt;b&gt;If yes&amp;#44; the steep slopes make it more likely for a landslide to happen here&lt;/b&gt;. Keep an eye out for unstable areas. Especially roads that have been blocked by fallen debris or washed out. &lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_SteepSlope.jpg target=_blank&gt;(mapa)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;This is a very high-risk community for wildfire&lt;/b&gt;. It sits at a boundary between humans and the forest. Western Washington is temperate&amp;#44; but wildfires do strike the eastern part of King County every year. &lt;a href=https://hazardready.org/seattle/static/img/data/Wildfire_WUI.jpg target=_blank&gt;(mapa)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;This is a high-risk community for wildfire&lt;/b&gt;. It sits at a boundary between humans and the forest. Western Washington is temperate&amp;#44; but wildfires do strike the eastern part of King County every year. &lt;a href=https://hazardready.org/seattle/static/img/data/Wildfire_WUI.jpg target=_blank&gt;(mapa)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;This area has not been identified as having high risk for wildfire&lt;/b&gt;&amp;#44; but it is within a half mile of a high-risk community. In the right conditions wildfire will spread. &lt;a href=https://hazardready.org/seattle/static/img/data/Wildfire_WUI.jpg target=_blank&gt;(mapa)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;This area has a low to very low risk of wildfire&lt;/b&gt;. If you live near a wooded area be aware that wildfires can happen. &lt;a href=https://hazardready.org/seattle/static/img/data/Wildfire_WUI.jpg target=_blank&gt;(mapa)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;As this is water&amp;#44; no wildfire potential exists here&lt;/b&gt;. &lt;a href=https://hazardready.org/seattle/static/img/data/Wildfire_WUI.jpg target=_blank&gt;(mapa)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;If a lahar is triggered on Mount Rainier&amp;#44; &lt;b&gt;this area is could see flooding and sediment like mud&amp;#44; sand&amp;#44; rocks&amp;#44; and other debris brought down river by the lahar&lt;/b&gt;. This could occur for years to decades after the lahar.&lt;a href=https://hazardready.org/seattle/static/img/data/Volcano_Lahar.jpg target=_blank&gt;(mapa)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;A 10% - 40% chance exists of a lahar from Mount Rainier flowing through this region in the next 50 years.&lt;/b&gt; Lahars behave and look like wet flowing concrete. Thick mud and debris will cover the area if one happens. This could severely damage property and take a long time to recover. &lt;a href=https://hazardready.org/seattle/static/img/data/Volcano_Lahar.jpg target=_blank&gt;(mapa)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;A 5% - 10% chance exists of a lahar from Mount Rainier flowing through this area in the next 50 years&lt;/b&gt;. Lahars behave and look like wet flowing concrete. Thick mud and debris will cover the area if one happens. This could severely damage property and take a long time to recover. &lt;a href=https://hazardready.org/seattle/static/img/data/Volcano_Lahar.jpg target=_blank&gt;(mapa)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;You are OUTSIDE THE LAHAR HAZARD ZONE&lt;/b&gt;. If Mount Rainier erupts ash will cover the region. It will look much like areas impacted by the Mount Saint Helen's eruption in 1980. Ash thickness will vary with distance from eruption. &lt;a href=https://hazardready.org/seattle/static/img/data/Volcano_Lahar.jpg target=_blank&gt;(mapa)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Las fallas de represas son muy infrecuentes. Sin embargo, si la &lt;a href="https://goo.gl/maps/X2HGtZX6Kyz" target="_blank"&gt;Represa George Culmback&lt;/a&gt; o la &lt;a href="https://goo.gl/maps/DpotpRjYDvG2" target="_blank"&gt;Represa Tolt River&lt;/a&gt; fallaran, esta área se podría inundar &lt;a href="https://hazardready.org/seattle/static/img/data/Flood_DamInundation.jpg" target="_blank"&gt;(mapa)&lt;/a&gt; . Inscríbase para recibir alertas de inundaciones enviando un &lt;a href="https://green2.kingcounty.gov/floodalertsystem/" target="_blank"&gt;correo electrónico o mensaje de texto&lt;/a&gt;  o descargue la &lt;a href="http://kingcounty.gov/services/environment/water-and-land/flooding/warning-system/app.aspx" target="_blank"&gt;aplicación de alerta de inundación&lt;/a&gt; en su teléfono inteligente.</t>
+  </si>
+  <si>
+    <t>Las fallas de represas son muy infrecuentes. Sin embargo, si la &lt;a href="https://goo.gl/maps/RMaHnAY8RCp" target="_blank"&gt;Represa Lake Youngs&lt;/a&gt; fallara, esta área tendría riesgo de inundación &lt;a href="https://hazardready.org/seattle/static/img/data/Flood_DamInundation.jpg" target="_blank"&gt;(mapa)&lt;/a&gt; . Inscríbase para recibir alertas de inundaciones enviando un &lt;a href="https://green2.kingcounty.gov/floodalertsystem/" target="_blank"&gt;correo electrónico o mensaje de texto&lt;/a&gt;  o descargue la &lt;a href="http://kingcounty.gov/services/environment/water-and-land/flooding/warning-system/app.aspx" target="_blank"&gt;aplicación de alerta de inundación&lt;/a&gt; en su teléfono inteligente.</t>
+  </si>
+  <si>
+    <t>Las fallas de represas son muy infrecuentes. Sin embargo, si la &lt;a href="https://goo.gl/maps/RMaHnAY8RCp" target="_blank"&gt;Represa Lake Youngs&lt;/a&gt; fallara, esta área tendría un riesgo moderado de inundación &lt;a href="https://hazardready.org/seattle/static/img/data/Flood_DamInundation.jpg" target="_blank"&gt;(mapa)&lt;/a&gt; . Inscríbase para recibir alertas de inundaciones enviando un &lt;a href="https://green2.kingcounty.gov/floodalertsystem/" target="_blank"&gt;correo electrónico o mensaje de texto&lt;/a&gt;  o descargue la &lt;a href="http://kingcounty.gov/services/environment/water-and-land/flooding/warning-system/app.aspx" target="_blank"&gt;aplicación de alerta de inundación&lt;/a&gt; en su teléfono inteligente.</t>
+  </si>
+  <si>
+    <t>Las fallas de represas son muy infrecuentes. Sin embargo, si la &lt;a href="https://goo.gl/maps/RMaHnAY8RCp" target="_blank"&gt;Represa Lake Youngs&lt;/a&gt; fallara, esta área tendría un alto riesgo de inundación &lt;a href="https://hazardready.org/seattle/static/img/data/Flood_DamInundation.jpg" target="_blank"&gt;(mapa)&lt;/a&gt; . Inscríbase para recibir alertas de inundaciones enviando un &lt;a href="https://green2.kingcounty.gov/floodalertsystem/" target="_blank"&gt;correo electrónico o mensaje de texto&lt;/a&gt;  o descargue la &lt;a href="http://kingcounty.gov/services/environment/water-and-land/flooding/warning-system/app.aspx" target="_blank"&gt;aplicación de alerta de inundación&lt;/a&gt; en su teléfono inteligente. Las fallas de represas son muy infrecuentes.</t>
+  </si>
+  <si>
+    <t>Las fallas de represas son muy infrecuentes. Sin embargo, si la &lt;a href="https://goo.gl/maps/DpotpRjYDvG2" target="_blank"&gt;Represa Tolt River&lt;/a&gt; fallara, esta área se podría inundar &lt;a href="https://hazardready.org/seattle/static/img/data/Flood_DamInundation.jpg" target="_blank"&gt;(mapa)&lt;/a&gt; . Inscríbase para recibir alertas de inundaciones enviando un &lt;a href="https://green2.kingcounty.gov/floodalertsystem/" target="_blank"&gt;correo electrónico o mensaje de texto&lt;/a&gt;  o descargue la &lt;a href="http://kingcounty.gov/services/environment/water-and-land/flooding/warning-system/app.aspx" target="_blank"&gt;aplicación de alerta de inundación&lt;/a&gt; en su teléfono inteligente.</t>
+  </si>
+  <si>
+    <t>Se espera que las grandes tormentas aumenten en los próximos 50 años. Vendrán acompañadas de lluvia y nieve. Los ríos tendrán mayores caudales, lo que provocará mayores inundaciones en el otoño e invierno. Haga clic en la imagen para obtener más información.&lt;br /&gt;&lt;a href="http://kingcounty.gov/services/environment/climate/why-act/infographic.aspx" target="_blank"&gt;&lt;img border=0 width=140 height=125 id="Picture 11" src="Snugget_for_translation_Edits_Carson_5_15_17_SPL.fld/image014.png" alt="Climate Change Rivers Infographic"&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;ol&gt; &lt;li&gt;&lt;b&gt;PLANIFIQUE&lt;/b&gt;: haga un plan de qué hacer y dónde ir si el nivel del agua aumenta. &lt;b&gt;Tenga listos los artículos esenciales&lt;/b&gt; (certificados de nacimiento, documentos importantes, fotografías, etc.). Contrate un seguro contra inundaciones si lo necesita. &lt;/li&gt; &lt;li&gt;&lt;b&gt;PREPÁRESE:&lt;/b&gt; guarde los objetos valiosos y los productos químicos caseros por encima de los niveles de inundaciones y &lt;b&gt;aprenda a cortar los servicios públicos&lt;/b&gt; ( &lt;a href="http://www.seattle.gov/emergency-management/preparedness/prepare-your-home" target="_blank"&gt;agua, gas y electricidad&lt;/a&gt; ). &lt;/li&gt; &lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt; &lt;li&gt;&lt;b&gt;ESTÉ LISTO&lt;/b&gt; : reúna artículos de emergencia (prendas abrigadas, linternas, teléfonos celulares, radios portátiles, etc.). Si tiene tiempo y lo considera necesario, corte los servicios públicos. &lt;/li&gt; &lt;li&gt;&lt;b&gt;ESCUCHE:&lt;/b&gt; escuche las noticias y, si lo recomiendan, evacúe hacia tierras más altas. &lt;/li&gt; &lt;li&gt;&lt;b&gt;EVITE PELIGROS - NO vadee ni maneje a través de aguas de inundaciones.&lt;/b&gt; Solo se necesitan 6 pulgadas de agua en movimiento para derribarlo y 2 pies para arrastrar un auto. &lt;/li&gt; &lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt; &lt;li&gt; Si su casa se inundó, &lt;b&gt;tenga cuidado al ingresar nuevamente, ya que podría tener daños estructurales.&lt;/b&gt; &lt;/li&gt; &lt;li&gt;&lt;b&gt;Haga que un profesional controle los servicios públicos&lt;/b&gt; antes de volver a conectarlos. &lt;/li&gt; &lt;li&gt;&lt;b&gt;Documente las pérdidas&lt;/b&gt;tomando fotos de los daños y registrando los costos de reparaciones. &lt;/li&gt; &lt;li&gt; Obtenga más información &lt;a href="http://www.kingcounty.gov/services/environment/water-and-land/flooding/prepare.aspx" target="_blank"&gt;&lt;b&gt; aquí&lt;/b&gt;&lt;/a&gt; . &lt;/li&gt; &lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>Prepárese para una inundación retirando y llenando bolsas de arena. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(mapa)&lt;/a&gt;&lt;p&gt;EL CENTRO DE DISTRIBUCIÓN MÁS CERCANO A SU DOMICILIO ES, &lt;center&gt;&lt;b&gt; Meadowbrook Community Center&lt;br&gt;10517 35th Ave. NE &lt;br&gt; Seattle&amp;#44; WA 98125&lt;br&gt;Sandbags and sand will be left outside for public pick-up&lt;br&gt; Limit 25 per address&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Prepárese para una inundación retirando y llenando bolsas de arena. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(mapa)&lt;/a&gt;&lt;p&gt;EL CENTRO DE DISTRIBUCIÓN MÁS CERCANO A SU DOMICILIO ES, &lt;center&gt;&lt;b&gt; Tahoma School District &lt;br&gt; 23015 SE 216th Way&lt;br&gt; Maple Valley&amp;#44; WA 98038&lt;br&gt; 8:00am - 5:00pm (or until dusk)*&lt;br&gt;*When Cedar River flooding is likely sandbag and sand pickup will be available&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Prepárese para una inundación retirando y llenando bolsas de arena. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(mapa)&lt;/a&gt;&lt;p&gt;EL CENTRO DE DISTRIBUCIÓN MÁS CERCANO A SU DOMICILIO ES, &lt;center&gt;&lt;b&gt; Pacific City Park &lt;br&gt; 600 3rd Ave. SE &lt;br&gt; Pacific&amp;#44; WA 98047&lt;br&gt;Sandbag and sand pickup will be announced when White River flooding is imminent&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Prepárese para una inundación retirando y llenando bolsas de arena. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(mapa)&lt;/a&gt;&lt;p&gt;EL CENTRO DE DISTRIBUCIÓN MÁS CERCANO A SU DOMICILIO ES, &lt;center&gt;&lt;b&gt; Pacific/Algona Community Center &lt;br&gt; 100 3rd Ave. SE &lt;br&gt; Pacific&amp;#44; WA 98047 &lt;br&gt;Sandbag and sand pickup will be announced when White River flooding flooding is imminent.&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Prepárese para una inundación retirando y llenando bolsas de arena. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(mapa)&lt;/a&gt;&lt;p&gt;EL CENTRO DE DISTRIBUCIÓN MÁS CERCANO A SU DOMICILIO ES, &lt;center&gt;&lt;b&gt; City Property @ &lt;br&gt; Railroad Avenue SE and SE King Street &lt;br&gt; Snoqualmie&amp;#44; WA 98065&lt;br&gt;Sandbag and sand pickup*&lt;br&gt;*Announced when Snoqualmie River flooding is imminent &lt;br&gt;or as directed by emergency personnel&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Prepárese para una inundación retirando y llenando bolsas de arena. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(mapa)&lt;/a&gt;&lt;p&gt;EL CENTRO DE DISTRIBUCIÓN MÁS CERCANO A SU DOMICILIO ES, &lt;center&gt;&lt;b&gt; Preston-Snoqualmie Trail parking lot &lt;br&gt; Lake Alice Road SE and SE 56th Place &lt;br&gt; Fall City&amp;#44; WA 98024&lt;br&gt;Sandbag and sand pickup*&lt;br&gt; *Announced when Snoqualmie River flooding is imminent&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Prepárese para una inundación retirando y llenando bolsas de arena. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(mapa)&lt;/a&gt;&lt;p&gt;EL CENTRO DE DISTRIBUCIÓN MÁS CERCANO A SU DOMICILIO ES, &lt;center&gt;&lt;b&gt; 14701 Main St. NE &lt;br&gt; Duvall&amp;#44; WA 98019&lt;br&gt; Sandbag and sand pickup*&lt;br&gt;*Announced when flooding is imminent &lt;br&gt;or contact the City of Duvall&amp;#44; 425-788-3332&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Prepárese para una inundación retirando y llenando bolsas de arena. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(mapa)&lt;/a&gt;&lt;p&gt;EL CENTRO DE DISTRIBUCIÓN MÁS CERCANO A SU DOMICILIO ES, &lt;center&gt;&lt;b&gt; Haller Lake Neighborhood &lt;br&gt; 12551 Ashworth Ave N.&lt;br&gt; Seattle&amp;#44; WA 98133&lt;br&gt;Sandbags and sand will be left outside for public pick-up&lt;br&gt; Limit 25 per address&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Prepárese para una inundación retirando y llenando bolsas de arena. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(mapa)&lt;/a&gt;&lt;p&gt;EL CENTRO DE DISTRIBUCIÓN MÁS CERCANO A SU DOMICILIO ES, &lt;center&gt;&lt;b&gt; South Park Neighborhood &lt;br&gt; 731 S. Sullivan &lt;br&gt; Seattle&amp;#44; WA 98108&lt;br&gt;Sandbags and sand will be left outside for public pick-up&lt;br&gt; Limit 25 per address&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Prepárese para una inundación retirando y llenando bolsas de arena. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(mapa)&lt;/a&gt;&lt;p&gt;EL CENTRO DE DISTRIBUCIÓN MÁS CERCANO A SU DOMICILIO ES, &lt;center&gt;&lt;b&gt; Delridge Community Center &lt;br&gt; 4501 Delridge Way SW &lt;br&gt; Seattle&amp;#44; WA 98106&lt;br&gt; Sandbags and sand will be left outside for public pick-up&lt;br&gt; Limit 25 per address&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Prepárese para una inundación retirando y llenando bolsas de arena. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(mapa)&lt;/a&gt;&lt;p&gt;EL CENTRO DE DISTRIBUCIÓN MÁS CERCANO A SU DOMICILIO ES, &lt;center&gt;&lt;b&gt;Public Works Shops &lt;br&gt;1155 East North Bend Way &lt;br&gt; North Bend&amp;#44; WA 98045&lt;br&gt; Sandbag and sand pickup* &lt;br&gt; *Following flood announcement for Snoqualmie River&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Prepárese para una inundación retirando y llenando bolsas de arena. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(mapa)&lt;/a&gt;&lt;p&gt;EL CENTRO DE DISTRIBUCIÓN MÁS CERCANO A SU DOMICILIO ES, &lt;center&gt;&lt;b&gt; Russell Road Park &lt;br&gt; entre Russell Rd. y S. 240th St.&lt;br&gt; Kent&amp;#44; WA&amp;#44; 98032 &lt;br&gt;Solo retiro de arena (no hay bolsas de arena).&lt;br&gt; L. a V. 8:00 am - 4:00 pm &lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Prepárese para una inundación retirando y llenando bolsas de arena. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(mapa)&lt;/a&gt;&lt;p&gt;EL CENTRO DE DISTRIBUCIÓN MÁS CERCANO A SU DOMICILIO ES, &lt;center&gt;&lt;b&gt; 33100 NE 45th Street &lt;br&gt; Carnation&amp;#44; WA 98014 &lt;br&gt;L. a V. 8:00am - 4:30pm &lt;br&gt;sandbags and sand can be picked up here (supplies are limited) &lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Prepárese para una inundación retirando y llenando bolsas de arena. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(mapa)&lt;/a&gt;&lt;p&gt;EL CENTRO DE DISTRIBUCIÓN MÁS CERCANO A SU DOMICILIO ES, &lt;center&gt;&lt;b&gt; 1305 C St. SW &lt;br&gt; Auburn&amp;#44; WA 98001&lt;br&gt; L. a V. 6:30am - 4:00pm&lt;br&gt;sandbag and sand pickup are available by request &lt;br&gt;(call 253-931-3048)&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;.</t>
+  </si>
+  <si>
+    <t>Prepárese para una inundación retirando y llenando bolsas de arena. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_Sandbag_Distr_Centers.jpg target=_blank&gt;(mapa)&lt;/a&gt;&lt;p&gt;EL CENTRO DE DISTRIBUCIÓN MÁS CERCANO A SU DOMICILIO ES, &lt;center&gt;&lt;b&gt; Kent City Public Works&lt;br&gt; 5821 S. 240th St. &lt;br&gt; Kent&amp;#44; WA 98032&lt;br&gt; L. a V. 8:00am - 4:00pm &lt;br&gt;sandbags can be picked up here (sand not provided).&lt;/b&gt;&lt;/center&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Debido a la gran cantidad de ríos en el Condado King, las inundaciones son comunes durante períodos de lluvias torrenciales o rápidos deshielos. &lt;b&gt;Las inundaciones son más frecuentes de noviembre a febrero&lt;/b&gt;, pero pueden suceder cada vez que las condiciones sean las correctas.</t>
   </si>
 </sst>
 </file>
@@ -1289,18 +1283,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -2045,38 +2033,37 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="683">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -3095,13 +3082,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H355"/>
+  <dimension ref="A1:H352"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D88" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D142" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H114" sqref="H114"/>
+      <selection pane="bottomRight" activeCell="H179" sqref="H179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3112,6 +3099,7 @@
     <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.83203125" style="2"/>
     <col min="8" max="8" width="53.1640625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -3127,7 +3115,7 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
@@ -3150,10 +3138,10 @@
       <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="6">
+      <c r="D2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="5">
         <v>5</v>
       </c>
       <c r="F2" s="3">
@@ -3161,7 +3149,7 @@
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3" t="s">
-        <v>242</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -3174,10 +3162,10 @@
       <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="6">
+      <c r="D3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="5">
         <v>6</v>
       </c>
       <c r="F3" s="3">
@@ -3185,7 +3173,7 @@
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3" t="s">
-        <v>243</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -3198,10 +3186,10 @@
       <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="6">
+      <c r="D4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="5">
         <v>7</v>
       </c>
       <c r="F4" s="3">
@@ -3209,15 +3197,15 @@
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3" t="s">
-        <v>244</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="5"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -3232,10 +3220,10 @@
       <c r="C6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="6">
+      <c r="D6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="5">
         <v>5</v>
       </c>
       <c r="F6" s="3">
@@ -3243,7 +3231,7 @@
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3" t="s">
-        <v>313</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -3256,10 +3244,10 @@
       <c r="C7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="6">
+      <c r="D7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="5">
         <v>6</v>
       </c>
       <c r="F7" s="3">
@@ -3267,7 +3255,7 @@
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3" t="s">
-        <v>314</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -3280,10 +3268,10 @@
       <c r="C8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="6">
+      <c r="D8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="5">
         <v>7</v>
       </c>
       <c r="F8" s="3">
@@ -3291,7 +3279,7 @@
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3" t="s">
-        <v>315</v>
+        <v>250</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -3304,10 +3292,10 @@
       <c r="C9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="6">
+      <c r="D9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="5">
         <v>8</v>
       </c>
       <c r="F9" s="3">
@@ -3315,7 +3303,7 @@
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3" t="s">
-        <v>316</v>
+        <v>251</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -3328,10 +3316,10 @@
       <c r="C10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="6">
+      <c r="D10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="5">
         <v>9</v>
       </c>
       <c r="F10" s="3">
@@ -3339,15 +3327,15 @@
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>317</v>
+        <v>252</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="5"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -3362,10 +3350,10 @@
       <c r="C12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="6">
+      <c r="D12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="5">
         <v>5</v>
       </c>
       <c r="F12" s="3">
@@ -3373,7 +3361,7 @@
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>245</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -3386,10 +3374,10 @@
       <c r="C13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="6">
+      <c r="D13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="5">
         <v>6</v>
       </c>
       <c r="F13" s="3">
@@ -3397,7 +3385,7 @@
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>246</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -3410,10 +3398,10 @@
       <c r="C14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="6">
+      <c r="D14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="5">
         <v>7</v>
       </c>
       <c r="F14" s="3">
@@ -3421,15 +3409,15 @@
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
-        <v>247</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="5"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -3444,10 +3432,10 @@
       <c r="C16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="6">
+      <c r="D16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="5">
         <v>1</v>
       </c>
       <c r="F16" s="3"/>
@@ -3455,7 +3443,7 @@
         <v>18</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>318</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -3468,10 +3456,10 @@
       <c r="C17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="6">
+      <c r="D17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="5">
         <v>2</v>
       </c>
       <c r="F17" s="3"/>
@@ -3479,7 +3467,7 @@
         <v>18</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>319</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -3492,10 +3480,10 @@
       <c r="C18" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="6">
+      <c r="D18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="5">
         <v>3</v>
       </c>
       <c r="F18" s="3"/>
@@ -3503,7 +3491,7 @@
         <v>18</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>320</v>
+        <v>255</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -3516,10 +3504,10 @@
       <c r="C19" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="6">
+      <c r="D19" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="5">
         <v>4</v>
       </c>
       <c r="F19" s="3"/>
@@ -3527,7 +3515,7 @@
         <v>19</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>321</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -3540,10 +3528,10 @@
       <c r="C20" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="6">
+      <c r="D20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="5">
         <v>5</v>
       </c>
       <c r="F20" s="3"/>
@@ -3551,7 +3539,7 @@
         <v>18</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>322</v>
+        <v>257</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -3564,10 +3552,10 @@
       <c r="C21" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="6">
+      <c r="D21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="5">
         <v>7</v>
       </c>
       <c r="F21" s="3"/>
@@ -3575,15 +3563,15 @@
         <v>20</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>323</v>
+        <v>258</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="5"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -3598,10 +3586,10 @@
       <c r="C23" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="6" t="s">
+      <c r="D23" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="5" t="s">
         <v>23</v>
       </c>
       <c r="F23" s="3"/>
@@ -3609,7 +3597,7 @@
         <v>24</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>324</v>
+        <v>259</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -3622,10 +3610,10 @@
       <c r="C24" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="6" t="s">
+      <c r="D24" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="5" t="s">
         <v>25</v>
       </c>
       <c r="F24" s="3"/>
@@ -3633,7 +3621,7 @@
         <v>26</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>325</v>
+        <v>260</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -3646,10 +3634,10 @@
       <c r="C25" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="6" t="s">
+      <c r="D25" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F25" s="3"/>
@@ -3657,7 +3645,7 @@
         <v>28</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>326</v>
+        <v>261</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -3670,10 +3658,10 @@
       <c r="C26" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="6" t="s">
+      <c r="D26" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F26" s="3"/>
@@ -3681,7 +3669,7 @@
         <v>30</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>327</v>
+        <v>262</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -3694,10 +3682,10 @@
       <c r="C27" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" s="6" t="s">
+      <c r="D27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F27" s="3"/>
@@ -3705,7 +3693,7 @@
         <v>32</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>328</v>
+        <v>263</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -3718,10 +3706,10 @@
       <c r="C28" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="6" t="s">
+      <c r="D28" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="5" t="s">
         <v>33</v>
       </c>
       <c r="F28" s="3"/>
@@ -3729,7 +3717,7 @@
         <v>34</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>329</v>
+        <v>264</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -3742,10 +3730,10 @@
       <c r="C29" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" s="6" t="s">
+      <c r="D29" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="5" t="s">
         <v>35</v>
       </c>
       <c r="F29" s="3"/>
@@ -3753,7 +3741,7 @@
         <v>36</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>330</v>
+        <v>265</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -3766,10 +3754,10 @@
       <c r="C30" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" s="6" t="s">
+      <c r="D30" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="5" t="s">
         <v>37</v>
       </c>
       <c r="F30" s="3"/>
@@ -3777,7 +3765,7 @@
         <v>38</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>331</v>
+        <v>266</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -3790,10 +3778,10 @@
       <c r="C31" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D31" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31" s="6" t="s">
+      <c r="D31" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="5" t="s">
         <v>39</v>
       </c>
       <c r="F31" s="3"/>
@@ -3801,15 +3789,15 @@
         <v>40</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>332</v>
+        <v>267</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="5"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
@@ -3824,10 +3812,10 @@
       <c r="C33" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D33" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E33" s="6">
+      <c r="D33" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="5">
         <v>10</v>
       </c>
       <c r="F33" s="3"/>
@@ -3835,7 +3823,7 @@
         <v>43</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>333</v>
+        <v>268</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
@@ -3848,10 +3836,10 @@
       <c r="C34" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D34" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E34" s="6">
+      <c r="D34" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="5">
         <v>25</v>
       </c>
       <c r="F34" s="3"/>
@@ -3859,7 +3847,7 @@
         <v>43</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>334</v>
+        <v>269</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
@@ -3872,10 +3860,10 @@
       <c r="C35" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D35" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E35" s="6">
+      <c r="D35" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="5">
         <v>50</v>
       </c>
       <c r="F35" s="3"/>
@@ -3883,7 +3871,7 @@
         <v>43</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>335</v>
+        <v>270</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
@@ -3896,10 +3884,10 @@
       <c r="C36" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D36" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E36" s="6">
+      <c r="D36" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="5">
         <v>100</v>
       </c>
       <c r="F36" s="3"/>
@@ -3907,7 +3895,7 @@
         <v>43</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>336</v>
+        <v>271</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
@@ -3920,10 +3908,10 @@
       <c r="C37" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D37" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E37" s="6">
+      <c r="D37" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="5">
         <v>247</v>
       </c>
       <c r="F37" s="3"/>
@@ -3931,15 +3919,15 @@
         <v>43</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>337</v>
+        <v>272</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="5"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
@@ -3954,10 +3942,10 @@
       <c r="C39" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D39" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E39" s="6" t="s">
+      <c r="D39" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="5" t="s">
         <v>46</v>
       </c>
       <c r="F39" s="3"/>
@@ -3965,15 +3953,15 @@
         <v>47</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>338</v>
+        <v>273</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="5"/>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
@@ -3988,16 +3976,16 @@
       <c r="C41" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D41" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E41" s="6" t="s">
+      <c r="D41" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" s="5" t="s">
         <v>46</v>
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
       <c r="H41" s="3" t="s">
-        <v>340</v>
+        <v>275</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
@@ -4010,16 +3998,16 @@
       <c r="C42" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D42" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E42" s="6" t="s">
+      <c r="D42" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" s="5" t="s">
         <v>46</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3" t="s">
-        <v>341</v>
+        <v>276</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
@@ -4032,24 +4020,24 @@
       <c r="C43" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D43" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E43" s="6" t="s">
+      <c r="D43" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" s="5" t="s">
         <v>46</v>
       </c>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
       <c r="H43" s="3" t="s">
-        <v>342</v>
+        <v>277</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="5"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
@@ -4064,16 +4052,16 @@
       <c r="C45" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D45" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E45" s="6">
+      <c r="D45" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" s="5">
         <v>1</v>
       </c>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
       <c r="H45" s="3" t="s">
-        <v>343</v>
+        <v>278</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
@@ -4086,16 +4074,16 @@
       <c r="C46" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D46" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E46" s="6">
+      <c r="D46" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" s="5">
         <v>2</v>
       </c>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
       <c r="H46" s="3" t="s">
-        <v>344</v>
+        <v>279</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
@@ -4108,16 +4096,16 @@
       <c r="C47" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D47" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E47" s="6">
+      <c r="D47" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" s="5">
         <v>3</v>
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
       <c r="H47" s="3" t="s">
-        <v>345</v>
+        <v>280</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
@@ -4130,16 +4118,16 @@
       <c r="C48" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D48" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E48" s="6">
+      <c r="D48" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" s="5">
         <v>4</v>
       </c>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
       <c r="H48" s="3" t="s">
-        <v>346</v>
+        <v>281</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
@@ -4152,16 +4140,16 @@
       <c r="C49" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D49" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E49" s="6">
+      <c r="D49" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" s="5">
         <v>5</v>
       </c>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
       <c r="H49" s="3" t="s">
-        <v>347</v>
+        <v>282</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
@@ -4174,16 +4162,16 @@
       <c r="C50" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D50" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E50" s="6">
+      <c r="D50" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" s="5">
         <v>6</v>
       </c>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
       <c r="H50" s="3" t="s">
-        <v>348</v>
+        <v>283</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
@@ -4196,16 +4184,16 @@
       <c r="C51" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D51" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E51" s="6">
+      <c r="D51" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" s="5">
         <v>7</v>
       </c>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
       <c r="H51" s="3" t="s">
-        <v>349</v>
+        <v>284</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
@@ -4218,16 +4206,16 @@
       <c r="C52" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D52" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E52" s="6">
+      <c r="D52" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" s="5">
         <v>8</v>
       </c>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
       <c r="H52" s="3" t="s">
-        <v>350</v>
+        <v>285</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
@@ -4240,16 +4228,16 @@
       <c r="C53" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D53" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E53" s="6">
+      <c r="D53" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" s="5">
         <v>9</v>
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
       <c r="H53" s="3" t="s">
-        <v>351</v>
+        <v>286</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.2">
@@ -4262,16 +4250,16 @@
       <c r="C54" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D54" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E54" s="6">
+      <c r="D54" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" s="5">
         <v>10</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
       <c r="H54" s="3" t="s">
-        <v>352</v>
+        <v>287</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
@@ -4284,16 +4272,16 @@
       <c r="C55" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D55" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E55" s="6">
+      <c r="D55" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" s="5">
         <v>11</v>
       </c>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="H55" s="3" t="s">
-        <v>353</v>
+        <v>288</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
@@ -4306,16 +4294,16 @@
       <c r="C56" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D56" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E56" s="6">
+      <c r="D56" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" s="5">
         <v>12</v>
       </c>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="H56" s="3" t="s">
-        <v>354</v>
+        <v>289</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
@@ -4328,16 +4316,16 @@
       <c r="C57" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D57" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E57" s="6">
+      <c r="D57" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" s="5">
         <v>13</v>
       </c>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
       <c r="H57" s="3" t="s">
-        <v>355</v>
+        <v>290</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
@@ -4350,16 +4338,16 @@
       <c r="C58" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D58" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E58" s="6">
+      <c r="D58" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" s="5">
         <v>14</v>
       </c>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="H58" s="3" t="s">
-        <v>356</v>
+        <v>291</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
@@ -4372,16 +4360,16 @@
       <c r="C59" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D59" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E59" s="6">
+      <c r="D59" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" s="5">
         <v>15</v>
       </c>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
       <c r="H59" s="3" t="s">
-        <v>357</v>
+        <v>292</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
@@ -4394,16 +4382,16 @@
       <c r="C60" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E60" s="6">
+      <c r="D60" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E60" s="5">
         <v>16</v>
       </c>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
       <c r="H60" s="3" t="s">
-        <v>358</v>
+        <v>293</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
@@ -4416,16 +4404,16 @@
       <c r="C61" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D61" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E61" s="6">
+      <c r="D61" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E61" s="5">
         <v>17</v>
       </c>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
       <c r="H61" s="3" t="s">
-        <v>359</v>
+        <v>294</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
@@ -4438,16 +4426,16 @@
       <c r="C62" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D62" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E62" s="6">
+      <c r="D62" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E62" s="5">
         <v>18</v>
       </c>
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
       <c r="H62" s="3" t="s">
-        <v>360</v>
+        <v>295</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
@@ -4460,16 +4448,16 @@
       <c r="C63" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D63" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E63" s="6">
+      <c r="D63" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63" s="5">
         <v>19</v>
       </c>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
       <c r="H63" s="3" t="s">
-        <v>361</v>
+        <v>296</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
@@ -4482,16 +4470,16 @@
       <c r="C64" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D64" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E64" s="6">
+      <c r="D64" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E64" s="5">
         <v>20</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
       <c r="H64" s="3" t="s">
-        <v>362</v>
+        <v>297</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
@@ -4504,16 +4492,16 @@
       <c r="C65" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D65" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E65" s="6">
+      <c r="D65" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E65" s="5">
         <v>21</v>
       </c>
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
       <c r="H65" s="3" t="s">
-        <v>363</v>
+        <v>298</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
@@ -4526,16 +4514,16 @@
       <c r="C66" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D66" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E66" s="6">
+      <c r="D66" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E66" s="5">
         <v>22</v>
       </c>
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
       <c r="H66" s="3" t="s">
-        <v>364</v>
+        <v>299</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
@@ -4548,16 +4536,16 @@
       <c r="C67" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D67" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E67" s="6">
+      <c r="D67" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E67" s="5">
         <v>23</v>
       </c>
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
       <c r="H67" s="3" t="s">
-        <v>365</v>
+        <v>300</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
@@ -4570,16 +4558,16 @@
       <c r="C68" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D68" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E68" s="6">
+      <c r="D68" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E68" s="5">
         <v>24</v>
       </c>
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
       <c r="H68" s="3" t="s">
-        <v>366</v>
+        <v>301</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
@@ -4592,16 +4580,16 @@
       <c r="C69" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D69" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E69" s="6">
+      <c r="D69" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E69" s="5">
         <v>25</v>
       </c>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
       <c r="H69" s="3" t="s">
-        <v>367</v>
+        <v>302</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
@@ -4614,16 +4602,16 @@
       <c r="C70" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D70" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E70" s="6">
+      <c r="D70" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E70" s="5">
         <v>26</v>
       </c>
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
       <c r="H70" s="3" t="s">
-        <v>368</v>
+        <v>303</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
@@ -4636,16 +4624,16 @@
       <c r="C71" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D71" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E71" s="6">
+      <c r="D71" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E71" s="5">
         <v>27</v>
       </c>
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
       <c r="H71" s="3" t="s">
-        <v>369</v>
+        <v>304</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
@@ -4658,16 +4646,16 @@
       <c r="C72" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D72" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E72" s="6">
+      <c r="D72" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E72" s="5">
         <v>28</v>
       </c>
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
       <c r="H72" s="3" t="s">
-        <v>370</v>
+        <v>305</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
@@ -4680,16 +4668,16 @@
       <c r="C73" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D73" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E73" s="6">
+      <c r="D73" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E73" s="5">
         <v>29</v>
       </c>
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
       <c r="H73" s="3" t="s">
-        <v>371</v>
+        <v>306</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
@@ -4702,16 +4690,16 @@
       <c r="C74" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D74" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E74" s="6">
+      <c r="D74" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E74" s="5">
         <v>30</v>
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
       <c r="H74" s="3" t="s">
-        <v>372</v>
+        <v>307</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
@@ -4724,16 +4712,16 @@
       <c r="C75" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D75" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E75" s="6">
+      <c r="D75" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E75" s="5">
         <v>31</v>
       </c>
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
       <c r="H75" s="3" t="s">
-        <v>373</v>
+        <v>308</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
@@ -4746,16 +4734,16 @@
       <c r="C76" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D76" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E76" s="6">
+      <c r="D76" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E76" s="5">
         <v>32</v>
       </c>
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
       <c r="H76" s="3" t="s">
-        <v>374</v>
+        <v>309</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
@@ -4768,16 +4756,16 @@
       <c r="C77" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D77" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E77" s="6">
+      <c r="D77" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E77" s="5">
         <v>33</v>
       </c>
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
       <c r="H77" s="3" t="s">
-        <v>375</v>
+        <v>310</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
@@ -4790,16 +4778,16 @@
       <c r="C78" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D78" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E78" s="6">
+      <c r="D78" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E78" s="5">
         <v>34</v>
       </c>
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
       <c r="H78" s="3" t="s">
-        <v>376</v>
+        <v>311</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
@@ -4812,16 +4800,16 @@
       <c r="C79" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D79" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E79" s="6">
+      <c r="D79" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E79" s="5">
         <v>35</v>
       </c>
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
       <c r="H79" s="3" t="s">
-        <v>377</v>
+        <v>312</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
@@ -4834,16 +4822,16 @@
       <c r="C80" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D80" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E80" s="6">
+      <c r="D80" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E80" s="5">
         <v>36</v>
       </c>
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
       <c r="H80" s="3" t="s">
-        <v>378</v>
+        <v>313</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
@@ -4856,16 +4844,16 @@
       <c r="C81" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D81" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E81" s="6">
+      <c r="D81" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E81" s="5">
         <v>37</v>
       </c>
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
       <c r="H81" s="3" t="s">
-        <v>379</v>
+        <v>314</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
@@ -4878,16 +4866,16 @@
       <c r="C82" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D82" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E82" s="6">
+      <c r="D82" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E82" s="5">
         <v>38</v>
       </c>
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
       <c r="H82" s="3" t="s">
-        <v>380</v>
+        <v>315</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
@@ -4900,16 +4888,16 @@
       <c r="C83" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D83" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E83" s="6">
+      <c r="D83" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E83" s="5">
         <v>39</v>
       </c>
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
       <c r="H83" s="3" t="s">
-        <v>381</v>
+        <v>316</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
@@ -4922,16 +4910,16 @@
       <c r="C84" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D84" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E84" s="6">
+      <c r="D84" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E84" s="5">
         <v>40</v>
       </c>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
       <c r="H84" s="3" t="s">
-        <v>382</v>
+        <v>317</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
@@ -4944,16 +4932,16 @@
       <c r="C85" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D85" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E85" s="6">
+      <c r="D85" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E85" s="5">
         <v>41</v>
       </c>
       <c r="F85" s="3"/>
       <c r="G85" s="3"/>
       <c r="H85" s="3" t="s">
-        <v>383</v>
+        <v>318</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
@@ -4966,16 +4954,16 @@
       <c r="C86" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D86" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E86" s="6">
+      <c r="D86" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E86" s="5">
         <v>42</v>
       </c>
       <c r="F86" s="3"/>
       <c r="G86" s="3"/>
       <c r="H86" s="3" t="s">
-        <v>384</v>
+        <v>319</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
@@ -4988,16 +4976,16 @@
       <c r="C87" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D87" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E87" s="6">
+      <c r="D87" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E87" s="5">
         <v>43</v>
       </c>
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
       <c r="H87" s="3" t="s">
-        <v>385</v>
+        <v>320</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
@@ -5010,16 +4998,16 @@
       <c r="C88" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D88" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E88" s="6">
+      <c r="D88" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E88" s="5">
         <v>44</v>
       </c>
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
       <c r="H88" s="3" t="s">
-        <v>386</v>
+        <v>321</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
@@ -5032,16 +5020,16 @@
       <c r="C89" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D89" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E89" s="6">
+      <c r="D89" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E89" s="5">
         <v>45</v>
       </c>
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
       <c r="H89" s="3" t="s">
-        <v>387</v>
+        <v>322</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
@@ -5054,16 +5042,16 @@
       <c r="C90" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D90" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E90" s="6">
+      <c r="D90" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E90" s="5">
         <v>46</v>
       </c>
       <c r="F90" s="3"/>
       <c r="G90" s="3"/>
       <c r="H90" s="3" t="s">
-        <v>388</v>
+        <v>323</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
@@ -5076,16 +5064,16 @@
       <c r="C91" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D91" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E91" s="6">
+      <c r="D91" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E91" s="5">
         <v>47</v>
       </c>
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
       <c r="H91" s="3" t="s">
-        <v>389</v>
+        <v>324</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
@@ -5098,16 +5086,16 @@
       <c r="C92" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D92" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E92" s="6">
+      <c r="D92" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E92" s="5">
         <v>48</v>
       </c>
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
       <c r="H92" s="3" t="s">
-        <v>390</v>
+        <v>325</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
@@ -5120,16 +5108,16 @@
       <c r="C93" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D93" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E93" s="6">
+      <c r="D93" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E93" s="5">
         <v>49</v>
       </c>
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
       <c r="H93" s="3" t="s">
-        <v>391</v>
+        <v>326</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
@@ -5142,16 +5130,16 @@
       <c r="C94" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D94" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E94" s="6">
+      <c r="D94" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E94" s="5">
         <v>50</v>
       </c>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
       <c r="H94" s="3" t="s">
-        <v>392</v>
+        <v>327</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
@@ -5164,16 +5152,16 @@
       <c r="C95" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D95" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E95" s="6">
+      <c r="D95" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E95" s="5">
         <v>51</v>
       </c>
       <c r="F95" s="3"/>
       <c r="G95" s="3"/>
       <c r="H95" s="3" t="s">
-        <v>393</v>
+        <v>328</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
@@ -5186,16 +5174,16 @@
       <c r="C96" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D96" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E96" s="6">
+      <c r="D96" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E96" s="5">
         <v>52</v>
       </c>
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
       <c r="H96" s="3" t="s">
-        <v>394</v>
+        <v>329</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
@@ -5208,16 +5196,16 @@
       <c r="C97" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D97" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E97" s="6">
+      <c r="D97" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E97" s="5">
         <v>53</v>
       </c>
       <c r="F97" s="3"/>
       <c r="G97" s="3"/>
       <c r="H97" s="3" t="s">
-        <v>395</v>
+        <v>330</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
@@ -5230,16 +5218,16 @@
       <c r="C98" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D98" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E98" s="6">
+      <c r="D98" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E98" s="5">
         <v>54</v>
       </c>
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
       <c r="H98" s="3" t="s">
-        <v>396</v>
+        <v>331</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
@@ -5252,16 +5240,16 @@
       <c r="C99" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D99" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E99" s="6">
+      <c r="D99" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E99" s="5">
         <v>55</v>
       </c>
       <c r="F99" s="3"/>
       <c r="G99" s="3"/>
       <c r="H99" s="3" t="s">
-        <v>397</v>
+        <v>332</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
@@ -5274,16 +5262,16 @@
       <c r="C100" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D100" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E100" s="6">
+      <c r="D100" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E100" s="5">
         <v>56</v>
       </c>
       <c r="F100" s="3"/>
       <c r="G100" s="3"/>
       <c r="H100" s="3" t="s">
-        <v>398</v>
+        <v>333</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
@@ -5296,16 +5284,16 @@
       <c r="C101" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D101" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E101" s="6">
+      <c r="D101" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E101" s="5">
         <v>57</v>
       </c>
       <c r="F101" s="3"/>
       <c r="G101" s="3"/>
       <c r="H101" s="3" t="s">
-        <v>399</v>
+        <v>334</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
@@ -5318,16 +5306,16 @@
       <c r="C102" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D102" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E102" s="6">
+      <c r="D102" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E102" s="5">
         <v>58</v>
       </c>
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>
       <c r="H102" s="3" t="s">
-        <v>400</v>
+        <v>335</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
@@ -5340,16 +5328,16 @@
       <c r="C103" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D103" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E103" s="6">
+      <c r="D103" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E103" s="5">
         <v>59</v>
       </c>
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
       <c r="H103" s="3" t="s">
-        <v>401</v>
+        <v>336</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
@@ -5362,16 +5350,16 @@
       <c r="C104" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D104" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E104" s="6">
+      <c r="D104" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E104" s="5">
         <v>60</v>
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
       <c r="H104" s="3" t="s">
-        <v>402</v>
+        <v>337</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
@@ -5384,16 +5372,16 @@
       <c r="C105" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D105" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E105" s="6">
+      <c r="D105" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E105" s="5">
         <v>61</v>
       </c>
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
       <c r="H105" s="3" t="s">
-        <v>403</v>
+        <v>338</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
@@ -5406,16 +5394,16 @@
       <c r="C106" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D106" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E106" s="6">
+      <c r="D106" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E106" s="5">
         <v>62</v>
       </c>
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
       <c r="H106" s="3" t="s">
-        <v>404</v>
+        <v>339</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
@@ -5428,16 +5416,16 @@
       <c r="C107" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D107" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E107" s="6">
+      <c r="D107" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E107" s="5">
         <v>63</v>
       </c>
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
       <c r="H107" s="3" t="s">
-        <v>405</v>
+        <v>340</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
@@ -5450,16 +5438,16 @@
       <c r="C108" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D108" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E108" s="6">
+      <c r="D108" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E108" s="5">
         <v>64</v>
       </c>
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
       <c r="H108" s="3" t="s">
-        <v>406</v>
+        <v>341</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
@@ -5472,24 +5460,24 @@
       <c r="C109" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D109" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E109" s="6">
+      <c r="D109" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E109" s="5">
         <v>65</v>
       </c>
       <c r="F109" s="3"/>
       <c r="G109" s="3"/>
       <c r="H109" s="3" t="s">
-        <v>407</v>
+        <v>342</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
-      <c r="D110" s="7"/>
-      <c r="E110" s="6"/>
+      <c r="D110" s="6"/>
+      <c r="E110" s="5"/>
       <c r="F110" s="3"/>
       <c r="G110" s="3"/>
       <c r="H110" s="3"/>
@@ -5504,37 +5492,37 @@
       <c r="C111" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D111" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E111" s="6" t="s">
+      <c r="D111" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E111" s="5" t="s">
         <v>46</v>
       </c>
       <c r="F111" s="3"/>
       <c r="G111" s="3"/>
       <c r="H111" s="3" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="8"/>
-      <c r="B112" s="8"/>
-      <c r="C112" s="8"/>
-      <c r="D112" s="8"/>
-      <c r="E112" s="9"/>
-      <c r="F112" s="8"/>
-      <c r="G112" s="8"/>
-      <c r="H112" s="8"/>
-    </row>
-    <row r="113" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="8"/>
-      <c r="B113" s="8"/>
-      <c r="C113" s="8"/>
-      <c r="D113" s="8"/>
-      <c r="E113" s="9"/>
-      <c r="F113" s="8"/>
-      <c r="G113" s="8"/>
-      <c r="H113" s="8"/>
+        <v>274</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A112" s="7"/>
+      <c r="B112" s="7"/>
+      <c r="C112" s="7"/>
+      <c r="D112" s="7"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="7"/>
+      <c r="G112" s="7"/>
+      <c r="H112" s="7"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A113" s="7"/>
+      <c r="B113" s="7"/>
+      <c r="C113" s="7"/>
+      <c r="D113" s="7"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="7"/>
+      <c r="G113" s="7"/>
+      <c r="H113" s="7"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
@@ -5546,10 +5534,10 @@
       <c r="C114" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D114" s="10" t="s">
+      <c r="D114" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E114" s="6">
+      <c r="E114" s="5">
         <v>1</v>
       </c>
       <c r="F114" s="3">
@@ -5557,7 +5545,7 @@
       </c>
       <c r="G114" s="3"/>
       <c r="H114" s="3" t="s">
-        <v>157</v>
+        <v>343</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
@@ -5570,10 +5558,10 @@
       <c r="C115" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D115" s="10" t="s">
+      <c r="D115" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E115" s="6">
+      <c r="E115" s="5">
         <v>2</v>
       </c>
       <c r="F115" s="3">
@@ -5581,7 +5569,7 @@
       </c>
       <c r="G115" s="3"/>
       <c r="H115" s="3" t="s">
-        <v>151</v>
+        <v>344</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
@@ -5594,10 +5582,10 @@
       <c r="C116" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D116" s="10" t="s">
+      <c r="D116" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E116" s="6">
+      <c r="E116" s="5">
         <v>3</v>
       </c>
       <c r="F116" s="3">
@@ -5605,7 +5593,7 @@
       </c>
       <c r="G116" s="3"/>
       <c r="H116" s="3" t="s">
-        <v>152</v>
+        <v>345</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
@@ -5618,10 +5606,10 @@
       <c r="C117" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D117" s="10" t="s">
+      <c r="D117" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E117" s="6">
+      <c r="E117" s="5">
         <v>5</v>
       </c>
       <c r="F117" s="3">
@@ -5629,7 +5617,7 @@
       </c>
       <c r="G117" s="3"/>
       <c r="H117" s="3" t="s">
-        <v>153</v>
+        <v>346</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
@@ -5642,10 +5630,10 @@
       <c r="C118" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D118" s="10" t="s">
+      <c r="D118" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E118" s="6">
+      <c r="E118" s="5">
         <v>6</v>
       </c>
       <c r="F118" s="3">
@@ -5653,7 +5641,7 @@
       </c>
       <c r="G118" s="3"/>
       <c r="H118" s="3" t="s">
-        <v>152</v>
+        <v>345</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
@@ -5666,10 +5654,10 @@
       <c r="C119" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D119" s="10" t="s">
+      <c r="D119" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E119" s="6">
+      <c r="E119" s="5">
         <v>7</v>
       </c>
       <c r="F119" s="3">
@@ -5677,7 +5665,7 @@
       </c>
       <c r="G119" s="3"/>
       <c r="H119" s="3" t="s">
-        <v>154</v>
+        <v>347</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
@@ -5690,10 +5678,10 @@
       <c r="C120" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D120" s="10" t="s">
+      <c r="D120" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E120" s="6">
+      <c r="E120" s="5">
         <v>8</v>
       </c>
       <c r="F120" s="3">
@@ -5701,7 +5689,7 @@
       </c>
       <c r="G120" s="3"/>
       <c r="H120" s="3" t="s">
-        <v>155</v>
+        <v>348</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
@@ -5714,10 +5702,10 @@
       <c r="C121" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D121" s="10" t="s">
+      <c r="D121" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E121" s="6">
+      <c r="E121" s="5">
         <v>9</v>
       </c>
       <c r="F121" s="3">
@@ -5725,15 +5713,15 @@
       </c>
       <c r="G121" s="3"/>
       <c r="H121" s="3" t="s">
-        <v>156</v>
+        <v>349</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
-      <c r="D122" s="10"/>
-      <c r="E122" s="6"/>
+      <c r="D122" s="9"/>
+      <c r="E122" s="5"/>
       <c r="F122" s="3"/>
       <c r="G122" s="3"/>
       <c r="H122" s="3"/>
@@ -5748,10 +5736,10 @@
       <c r="C123" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D123" s="10" t="s">
+      <c r="D123" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E123" s="6">
+      <c r="E123" s="5">
         <v>1</v>
       </c>
       <c r="F123" s="3">
@@ -5759,7 +5747,7 @@
       </c>
       <c r="G123" s="3"/>
       <c r="H123" s="3" t="s">
-        <v>158</v>
+        <v>350</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
@@ -5772,10 +5760,10 @@
       <c r="C124" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D124" s="10" t="s">
+      <c r="D124" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E124" s="6">
+      <c r="E124" s="5">
         <v>2</v>
       </c>
       <c r="F124" s="3">
@@ -5783,7 +5771,7 @@
       </c>
       <c r="G124" s="3"/>
       <c r="H124" s="3" t="s">
-        <v>159</v>
+        <v>351</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
@@ -5796,10 +5784,10 @@
       <c r="C125" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D125" s="10" t="s">
+      <c r="D125" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E125" s="6">
+      <c r="E125" s="5">
         <v>3</v>
       </c>
       <c r="F125" s="3">
@@ -5807,7 +5795,7 @@
       </c>
       <c r="G125" s="3"/>
       <c r="H125" s="3" t="s">
-        <v>145</v>
+        <v>352</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
@@ -5820,10 +5808,10 @@
       <c r="C126" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D126" s="10" t="s">
+      <c r="D126" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E126" s="6">
+      <c r="E126" s="5">
         <v>5</v>
       </c>
       <c r="F126" s="3">
@@ -5831,7 +5819,7 @@
       </c>
       <c r="G126" s="3"/>
       <c r="H126" s="3" t="s">
-        <v>161</v>
+        <v>353</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
@@ -5844,10 +5832,10 @@
       <c r="C127" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D127" s="10" t="s">
+      <c r="D127" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E127" s="6">
+      <c r="E127" s="5">
         <v>6</v>
       </c>
       <c r="F127" s="3">
@@ -5855,7 +5843,7 @@
       </c>
       <c r="G127" s="3"/>
       <c r="H127" s="3" t="s">
-        <v>161</v>
+        <v>353</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
@@ -5868,10 +5856,10 @@
       <c r="C128" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D128" s="10" t="s">
+      <c r="D128" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E128" s="6">
+      <c r="E128" s="5">
         <v>7</v>
       </c>
       <c r="F128" s="3">
@@ -5879,7 +5867,7 @@
       </c>
       <c r="G128" s="3"/>
       <c r="H128" s="3" t="s">
-        <v>161</v>
+        <v>353</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
@@ -5892,10 +5880,10 @@
       <c r="C129" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D129" s="10" t="s">
+      <c r="D129" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E129" s="6">
+      <c r="E129" s="5">
         <v>8</v>
       </c>
       <c r="F129" s="3">
@@ -5903,7 +5891,7 @@
       </c>
       <c r="G129" s="3"/>
       <c r="H129" s="3" t="s">
-        <v>161</v>
+        <v>353</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
@@ -5916,10 +5904,10 @@
       <c r="C130" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D130" s="10" t="s">
+      <c r="D130" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E130" s="6">
+      <c r="E130" s="5">
         <v>9</v>
       </c>
       <c r="F130" s="3">
@@ -5927,15 +5915,15 @@
       </c>
       <c r="G130" s="3"/>
       <c r="H130" s="3" t="s">
-        <v>160</v>
+        <v>354</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
-      <c r="D131" s="10"/>
-      <c r="E131" s="6"/>
+      <c r="D131" s="9"/>
+      <c r="E131" s="5"/>
       <c r="F131" s="3"/>
       <c r="G131" s="3"/>
       <c r="H131" s="3"/>
@@ -5950,10 +5938,10 @@
       <c r="C132" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D132" s="10" t="s">
+      <c r="D132" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E132" s="6" t="s">
+      <c r="E132" s="5" t="s">
         <v>61</v>
       </c>
       <c r="F132" s="3"/>
@@ -5961,7 +5949,7 @@
         <v>62</v>
       </c>
       <c r="H132" s="3" t="s">
-        <v>163</v>
+        <v>357</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
@@ -5974,10 +5962,10 @@
       <c r="C133" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D133" s="10" t="s">
+      <c r="D133" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E133" s="6" t="s">
+      <c r="E133" s="5" t="s">
         <v>63</v>
       </c>
       <c r="F133" s="3"/>
@@ -5985,7 +5973,7 @@
         <v>62</v>
       </c>
       <c r="H133" s="3" t="s">
-        <v>162</v>
+        <v>358</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
@@ -5998,10 +5986,10 @@
       <c r="C134" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D134" s="10" t="s">
+      <c r="D134" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E134" s="6" t="s">
+      <c r="E134" s="5" t="s">
         <v>64</v>
       </c>
       <c r="F134" s="3"/>
@@ -6009,7 +5997,7 @@
         <v>62</v>
       </c>
       <c r="H134" s="3" t="s">
-        <v>164</v>
+        <v>359</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
@@ -6022,10 +6010,10 @@
       <c r="C135" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D135" s="10" t="s">
+      <c r="D135" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E135" s="6" t="s">
+      <c r="E135" s="5" t="s">
         <v>65</v>
       </c>
       <c r="F135" s="3"/>
@@ -6033,7 +6021,7 @@
         <v>62</v>
       </c>
       <c r="H135" s="3" t="s">
-        <v>165</v>
+        <v>360</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
@@ -6046,10 +6034,10 @@
       <c r="C136" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D136" s="10" t="s">
+      <c r="D136" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E136" s="6" t="s">
+      <c r="E136" s="5" t="s">
         <v>66</v>
       </c>
       <c r="F136" s="3"/>
@@ -6057,7 +6045,7 @@
         <v>62</v>
       </c>
       <c r="H136" s="3" t="s">
-        <v>166</v>
+        <v>361</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
@@ -6070,10 +6058,10 @@
       <c r="C137" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D137" s="10" t="s">
+      <c r="D137" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E137" s="6" t="s">
+      <c r="E137" s="5" t="s">
         <v>67</v>
       </c>
       <c r="F137" s="3"/>
@@ -6081,7 +6069,7 @@
         <v>68</v>
       </c>
       <c r="H137" s="3" t="s">
-        <v>167</v>
+        <v>362</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
@@ -6094,10 +6082,10 @@
       <c r="C138" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D138" s="10" t="s">
+      <c r="D138" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E138" s="6" t="s">
+      <c r="E138" s="5" t="s">
         <v>69</v>
       </c>
       <c r="F138" s="3"/>
@@ -6105,7 +6093,7 @@
         <v>68</v>
       </c>
       <c r="H138" s="3" t="s">
-        <v>168</v>
+        <v>363</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
@@ -6118,10 +6106,10 @@
       <c r="C139" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D139" s="10" t="s">
+      <c r="D139" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E139" s="6" t="s">
+      <c r="E139" s="5" t="s">
         <v>70</v>
       </c>
       <c r="F139" s="3"/>
@@ -6129,7 +6117,7 @@
         <v>68</v>
       </c>
       <c r="H139" s="3" t="s">
-        <v>169</v>
+        <v>364</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
@@ -6142,10 +6130,10 @@
       <c r="C140" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D140" s="10" t="s">
+      <c r="D140" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E140" s="6" t="s">
+      <c r="E140" s="5" t="s">
         <v>71</v>
       </c>
       <c r="F140" s="3"/>
@@ -6153,7 +6141,7 @@
         <v>68</v>
       </c>
       <c r="H140" s="3" t="s">
-        <v>170</v>
+        <v>365</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
@@ -6166,10 +6154,10 @@
       <c r="C141" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D141" s="10" t="s">
+      <c r="D141" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E141" s="6" t="s">
+      <c r="E141" s="5" t="s">
         <v>72</v>
       </c>
       <c r="F141" s="3"/>
@@ -6177,7 +6165,7 @@
         <v>68</v>
       </c>
       <c r="H141" s="3" t="s">
-        <v>171</v>
+        <v>366</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
@@ -6190,10 +6178,10 @@
       <c r="C142" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D142" s="10" t="s">
+      <c r="D142" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E142" s="6" t="s">
+      <c r="E142" s="5" t="s">
         <v>73</v>
       </c>
       <c r="F142" s="3"/>
@@ -6201,7 +6189,7 @@
         <v>74</v>
       </c>
       <c r="H142" s="3" t="s">
-        <v>172</v>
+        <v>367</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
@@ -6214,10 +6202,10 @@
       <c r="C143" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D143" s="10" t="s">
+      <c r="D143" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E143" s="6" t="s">
+      <c r="E143" s="5" t="s">
         <v>75</v>
       </c>
       <c r="F143" s="3"/>
@@ -6225,7 +6213,7 @@
         <v>74</v>
       </c>
       <c r="H143" s="3" t="s">
-        <v>173</v>
+        <v>368</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
@@ -6238,10 +6226,10 @@
       <c r="C144" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D144" s="10" t="s">
+      <c r="D144" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E144" s="6" t="s">
+      <c r="E144" s="5" t="s">
         <v>76</v>
       </c>
       <c r="F144" s="3"/>
@@ -6249,7 +6237,7 @@
         <v>74</v>
       </c>
       <c r="H144" s="3" t="s">
-        <v>174</v>
+        <v>369</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
@@ -6262,10 +6250,10 @@
       <c r="C145" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D145" s="10" t="s">
+      <c r="D145" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E145" s="6" t="s">
+      <c r="E145" s="5" t="s">
         <v>77</v>
       </c>
       <c r="F145" s="3"/>
@@ -6273,7 +6261,7 @@
         <v>78</v>
       </c>
       <c r="H145" s="3" t="s">
-        <v>175</v>
+        <v>355</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
@@ -6286,10 +6274,10 @@
       <c r="C146" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D146" s="10" t="s">
+      <c r="D146" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E146" s="6" t="s">
+      <c r="E146" s="5" t="s">
         <v>79</v>
       </c>
       <c r="F146" s="3"/>
@@ -6297,15 +6285,15 @@
         <v>78</v>
       </c>
       <c r="H146" s="3" t="s">
-        <v>176</v>
+        <v>356</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
-      <c r="D147" s="10"/>
-      <c r="E147" s="6"/>
+      <c r="D147" s="9"/>
+      <c r="E147" s="5"/>
       <c r="F147" s="3"/>
       <c r="G147" s="3"/>
       <c r="H147" s="3"/>
@@ -6320,10 +6308,10 @@
       <c r="C148" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D148" s="10" t="s">
+      <c r="D148" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E148" s="6" t="s">
+      <c r="E148" s="5" t="s">
         <v>82</v>
       </c>
       <c r="F148" s="3">
@@ -6331,7 +6319,7 @@
       </c>
       <c r="G148" s="3"/>
       <c r="H148" s="3" t="s">
-        <v>146</v>
+        <v>381</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
@@ -6344,10 +6332,10 @@
       <c r="C149" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D149" s="10" t="s">
+      <c r="D149" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E149" s="6" t="s">
+      <c r="E149" s="5" t="s">
         <v>83</v>
       </c>
       <c r="F149" s="3">
@@ -6355,7 +6343,7 @@
       </c>
       <c r="G149" s="3"/>
       <c r="H149" s="3" t="s">
-        <v>147</v>
+        <v>382</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
@@ -6368,10 +6356,10 @@
       <c r="C150" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D150" s="10" t="s">
+      <c r="D150" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E150" s="6" t="s">
+      <c r="E150" s="5" t="s">
         <v>84</v>
       </c>
       <c r="F150" s="3">
@@ -6379,7 +6367,7 @@
       </c>
       <c r="G150" s="3"/>
       <c r="H150" s="3" t="s">
-        <v>148</v>
+        <v>383</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
@@ -6392,10 +6380,10 @@
       <c r="C151" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D151" s="10" t="s">
+      <c r="D151" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E151" s="6" t="s">
+      <c r="E151" s="5" t="s">
         <v>85</v>
       </c>
       <c r="F151" s="3">
@@ -6403,7 +6391,7 @@
       </c>
       <c r="G151" s="3"/>
       <c r="H151" s="3" t="s">
-        <v>149</v>
+        <v>384</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
@@ -6416,10 +6404,10 @@
       <c r="C152" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D152" s="10" t="s">
+      <c r="D152" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E152" s="6" t="s">
+      <c r="E152" s="5" t="s">
         <v>86</v>
       </c>
       <c r="F152" s="3">
@@ -6427,163 +6415,183 @@
       </c>
       <c r="G152" s="3"/>
       <c r="H152" s="3" t="s">
-        <v>150</v>
+        <v>385</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
-      <c r="D153" s="10"/>
-      <c r="E153" s="6"/>
+      <c r="D153" s="9"/>
+      <c r="E153" s="5"/>
       <c r="F153" s="3"/>
       <c r="G153" s="3"/>
       <c r="H153" s="3"/>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A154" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B154" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="C154" s="15" t="s">
+      <c r="A154" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C154" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D154" s="22" t="s">
+      <c r="D154" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E154" s="16"/>
-      <c r="F154" s="15"/>
-      <c r="G154" s="15" t="s">
-        <v>140</v>
+      <c r="E154" s="5"/>
+      <c r="F154" s="3"/>
+      <c r="G154" s="3" t="s">
+        <v>139</v>
       </c>
       <c r="H154" s="3" t="s">
-        <v>248</v>
+        <v>386</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A155" s="15"/>
-      <c r="B155" s="15"/>
-      <c r="C155" s="15"/>
-      <c r="D155" s="22"/>
-      <c r="E155" s="16"/>
-      <c r="F155" s="15"/>
-      <c r="G155" s="15"/>
-      <c r="H155" s="3" t="s">
-        <v>249</v>
-      </c>
+      <c r="A155" s="3"/>
+      <c r="B155" s="3"/>
+      <c r="C155" s="3"/>
+      <c r="D155" s="9"/>
+      <c r="E155" s="5"/>
+      <c r="F155" s="3"/>
+      <c r="G155" s="3"/>
+      <c r="H155" s="3"/>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A156" s="15"/>
-      <c r="B156" s="15"/>
-      <c r="C156" s="15"/>
-      <c r="D156" s="22"/>
-      <c r="E156" s="16"/>
-      <c r="F156" s="15"/>
-      <c r="G156" s="15"/>
+      <c r="A156" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D156" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E156" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F156" s="3"/>
+      <c r="G156" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="H156" s="3" t="s">
-        <v>250</v>
+        <v>386</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A157" s="15"/>
-      <c r="B157" s="15"/>
-      <c r="C157" s="15"/>
-      <c r="D157" s="22"/>
-      <c r="E157" s="16"/>
-      <c r="F157" s="15"/>
-      <c r="G157" s="15"/>
-      <c r="H157" s="3" t="s">
-        <v>251</v>
-      </c>
+      <c r="A157" s="3"/>
+      <c r="B157" s="3"/>
+      <c r="C157" s="3"/>
+      <c r="D157" s="9"/>
+      <c r="E157" s="5"/>
+      <c r="F157" s="3"/>
+      <c r="G157" s="3"/>
+      <c r="H157" s="3"/>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A158" s="3"/>
-      <c r="B158" s="3"/>
-      <c r="C158" s="3"/>
-      <c r="D158" s="10"/>
-      <c r="E158" s="6"/>
+      <c r="A158" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D158" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E158" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="F158" s="3"/>
       <c r="G158" s="3"/>
-      <c r="H158" s="3"/>
+      <c r="H158" s="3" t="s">
+        <v>387</v>
+      </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C159" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D159" s="10" t="s">
+      <c r="D159" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E159" s="6" t="s">
+      <c r="E159" s="5" t="s">
         <v>46</v>
       </c>
       <c r="F159" s="3"/>
-      <c r="G159" s="3" t="s">
-        <v>47</v>
-      </c>
+      <c r="G159" s="3"/>
       <c r="H159" s="3" t="s">
-        <v>129</v>
+        <v>388</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A160" s="3"/>
-      <c r="B160" s="3"/>
-      <c r="C160" s="3"/>
-      <c r="D160" s="10"/>
-      <c r="E160" s="6"/>
+      <c r="A160" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D160" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E160" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="F160" s="3"/>
       <c r="G160" s="3"/>
-      <c r="H160" s="3"/>
+      <c r="H160" s="3" t="s">
+        <v>389</v>
+      </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A161" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B161" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C161" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D161" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E161" s="6" t="s">
-        <v>46</v>
-      </c>
+      <c r="A161" s="3"/>
+      <c r="B161" s="3"/>
+      <c r="C161" s="3"/>
+      <c r="D161" s="9"/>
+      <c r="E161" s="5"/>
       <c r="F161" s="3"/>
       <c r="G161" s="3"/>
-      <c r="H161" s="3" t="s">
-        <v>178</v>
-      </c>
+      <c r="H161" s="3"/>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D162" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D162" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E162" s="6" t="s">
-        <v>46</v>
+      <c r="E162" s="5" t="s">
+        <v>89</v>
       </c>
       <c r="F162" s="3"/>
-      <c r="G162" s="3"/>
+      <c r="G162" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="H162" s="3" t="s">
-        <v>232</v>
+        <v>401</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.2">
@@ -6591,32 +6599,48 @@
         <v>48</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D163" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D163" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E163" s="6" t="s">
-        <v>46</v>
+      <c r="E163" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="F163" s="3"/>
-      <c r="G163" s="3"/>
+      <c r="G163" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="H163" s="3" t="s">
-        <v>177</v>
+        <v>400</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A164" s="3"/>
-      <c r="B164" s="3"/>
-      <c r="C164" s="3"/>
-      <c r="D164" s="10"/>
-      <c r="E164" s="6"/>
+      <c r="A164" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D164" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E164" s="5" t="s">
+        <v>92</v>
+      </c>
       <c r="F164" s="3"/>
-      <c r="G164" s="3"/>
-      <c r="H164" s="3"/>
+      <c r="G164" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="H164" s="3" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="s">
@@ -6628,18 +6652,18 @@
       <c r="C165" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D165" s="10" t="s">
+      <c r="D165" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E165" s="6" t="s">
-        <v>89</v>
+      <c r="E165" s="5" t="s">
+        <v>93</v>
       </c>
       <c r="F165" s="3"/>
       <c r="G165" s="3" t="s">
         <v>90</v>
       </c>
       <c r="H165" s="3" t="s">
-        <v>179</v>
+        <v>390</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.2">
@@ -6652,18 +6676,18 @@
       <c r="C166" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D166" s="10" t="s">
+      <c r="D166" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E166" s="6" t="s">
-        <v>91</v>
+      <c r="E166" s="5" t="s">
+        <v>94</v>
       </c>
       <c r="F166" s="3"/>
       <c r="G166" s="3" t="s">
         <v>90</v>
       </c>
       <c r="H166" s="3" t="s">
-        <v>180</v>
+        <v>403</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">
@@ -6676,18 +6700,18 @@
       <c r="C167" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D167" s="10" t="s">
+      <c r="D167" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E167" s="6" t="s">
-        <v>92</v>
+      <c r="E167" s="5" t="s">
+        <v>95</v>
       </c>
       <c r="F167" s="3"/>
       <c r="G167" s="3" t="s">
         <v>90</v>
       </c>
       <c r="H167" s="3" t="s">
-        <v>181</v>
+        <v>404</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.2">
@@ -6700,18 +6724,18 @@
       <c r="C168" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D168" s="10" t="s">
+      <c r="D168" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E168" s="6" t="s">
-        <v>93</v>
+      <c r="E168" s="5" t="s">
+        <v>96</v>
       </c>
       <c r="F168" s="3"/>
       <c r="G168" s="3" t="s">
         <v>90</v>
       </c>
       <c r="H168" s="3" t="s">
-        <v>182</v>
+        <v>391</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.2">
@@ -6724,18 +6748,18 @@
       <c r="C169" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D169" s="10" t="s">
+      <c r="D169" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E169" s="6" t="s">
-        <v>94</v>
+      <c r="E169" s="5" t="s">
+        <v>97</v>
       </c>
       <c r="F169" s="3"/>
       <c r="G169" s="3" t="s">
         <v>90</v>
       </c>
       <c r="H169" s="3" t="s">
-        <v>183</v>
+        <v>392</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.2">
@@ -6748,18 +6772,18 @@
       <c r="C170" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D170" s="10" t="s">
+      <c r="D170" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E170" s="6" t="s">
-        <v>95</v>
+      <c r="E170" s="5" t="s">
+        <v>98</v>
       </c>
       <c r="F170" s="3"/>
       <c r="G170" s="3" t="s">
         <v>90</v>
       </c>
       <c r="H170" s="3" t="s">
-        <v>184</v>
+        <v>393</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
@@ -6772,18 +6796,18 @@
       <c r="C171" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D171" s="10" t="s">
+      <c r="D171" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E171" s="6" t="s">
-        <v>96</v>
+      <c r="E171" s="5" t="s">
+        <v>99</v>
       </c>
       <c r="F171" s="3"/>
       <c r="G171" s="3" t="s">
         <v>90</v>
       </c>
       <c r="H171" s="3" t="s">
-        <v>185</v>
+        <v>394</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.2">
@@ -6796,18 +6820,18 @@
       <c r="C172" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D172" s="10" t="s">
+      <c r="D172" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E172" s="6" t="s">
-        <v>97</v>
+      <c r="E172" s="5" t="s">
+        <v>100</v>
       </c>
       <c r="F172" s="3"/>
       <c r="G172" s="3" t="s">
         <v>90</v>
       </c>
       <c r="H172" s="3" t="s">
-        <v>186</v>
+        <v>395</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.2">
@@ -6820,18 +6844,18 @@
       <c r="C173" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D173" s="10" t="s">
+      <c r="D173" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E173" s="6" t="s">
-        <v>98</v>
+      <c r="E173" s="5" t="s">
+        <v>101</v>
       </c>
       <c r="F173" s="3"/>
       <c r="G173" s="3" t="s">
         <v>90</v>
       </c>
       <c r="H173" s="3" t="s">
-        <v>187</v>
+        <v>396</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.2">
@@ -6844,18 +6868,18 @@
       <c r="C174" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D174" s="10" t="s">
+      <c r="D174" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E174" s="6" t="s">
-        <v>99</v>
+      <c r="E174" s="5" t="s">
+        <v>102</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3" t="s">
         <v>90</v>
       </c>
       <c r="H174" s="3" t="s">
-        <v>188</v>
+        <v>397</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.2">
@@ -6868,18 +6892,18 @@
       <c r="C175" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D175" s="10" t="s">
+      <c r="D175" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E175" s="6" t="s">
-        <v>100</v>
+      <c r="E175" s="5" t="s">
+        <v>103</v>
       </c>
       <c r="F175" s="3"/>
       <c r="G175" s="3" t="s">
         <v>90</v>
       </c>
       <c r="H175" s="3" t="s">
-        <v>189</v>
+        <v>398</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.2">
@@ -6892,143 +6916,143 @@
       <c r="C176" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D176" s="10" t="s">
+      <c r="D176" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E176" s="6" t="s">
-        <v>101</v>
+      <c r="E176" s="5" t="s">
+        <v>104</v>
       </c>
       <c r="F176" s="3"/>
       <c r="G176" s="3" t="s">
         <v>90</v>
       </c>
       <c r="H176" s="3" t="s">
-        <v>239</v>
+        <v>399</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A177" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B177" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C177" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D177" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E177" s="6" t="s">
-        <v>102</v>
-      </c>
+      <c r="A177" s="3"/>
+      <c r="B177" s="3"/>
+      <c r="C177" s="3"/>
+      <c r="D177" s="9"/>
+      <c r="E177" s="5"/>
       <c r="F177" s="3"/>
-      <c r="G177" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="H177" s="3" t="s">
-        <v>190</v>
-      </c>
+      <c r="G177" s="3"/>
+      <c r="H177" s="3"/>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" s="3" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D178" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D178" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E178" s="6" t="s">
-        <v>103</v>
+      <c r="E178" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="F178" s="3"/>
-      <c r="G178" s="3" t="s">
-        <v>90</v>
-      </c>
+      <c r="G178" s="3"/>
       <c r="H178" s="3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B179" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C179" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D179" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E179" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="F179" s="3"/>
-      <c r="G179" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="H179" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="3"/>
-      <c r="B180" s="3"/>
-      <c r="C180" s="3"/>
-      <c r="D180" s="10"/>
-      <c r="E180" s="6"/>
-      <c r="F180" s="3"/>
-      <c r="G180" s="3"/>
-      <c r="H180" s="3"/>
+        <v>405</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A179" s="7"/>
+      <c r="B179" s="7"/>
+      <c r="C179" s="7"/>
+      <c r="D179" s="7"/>
+      <c r="E179" s="8"/>
+      <c r="F179" s="7"/>
+      <c r="G179" s="7"/>
+      <c r="H179" s="7"/>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A180" s="7"/>
+      <c r="B180" s="7"/>
+      <c r="C180" s="7"/>
+      <c r="D180" s="7"/>
+      <c r="E180" s="8"/>
+      <c r="F180" s="7"/>
+      <c r="G180" s="7"/>
+      <c r="H180" s="7"/>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" s="3" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D181" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E181" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F181" s="3"/>
+        <v>178</v>
+      </c>
+      <c r="D181" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E181" s="3">
+        <v>0</v>
+      </c>
+      <c r="F181" s="3">
+        <v>10</v>
+      </c>
       <c r="G181" s="3"/>
       <c r="H181" s="3" t="s">
-        <v>193</v>
+        <v>144</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A182" s="8"/>
-      <c r="B182" s="8"/>
-      <c r="C182" s="8"/>
-      <c r="D182" s="8"/>
-      <c r="E182" s="9"/>
-      <c r="F182" s="8"/>
-      <c r="G182" s="8"/>
-      <c r="H182" s="8"/>
+      <c r="A182" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D182" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E182" s="3">
+        <v>2</v>
+      </c>
+      <c r="F182" s="3">
+        <v>60</v>
+      </c>
+      <c r="G182" s="3"/>
+      <c r="H182" s="3" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A183" s="8"/>
-      <c r="B183" s="8"/>
-      <c r="C183" s="8"/>
-      <c r="D183" s="8"/>
-      <c r="E183" s="9"/>
-      <c r="F183" s="8"/>
-      <c r="G183" s="8"/>
-      <c r="H183" s="8"/>
+      <c r="A183" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C183" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D183" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E183" s="3">
+        <v>3</v>
+      </c>
+      <c r="F183" s="3">
+        <v>60</v>
+      </c>
+      <c r="G183" s="3"/>
+      <c r="H183" s="3" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184" s="3" t="s">
@@ -7038,20 +7062,20 @@
         <v>9</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="D184" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D184" s="4" t="s">
         <v>105</v>
       </c>
       <c r="E184" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F184" s="3">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G184" s="3"/>
       <c r="H184" s="3" t="s">
-        <v>194</v>
+        <v>145</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.2">
@@ -7062,20 +7086,20 @@
         <v>9</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="D185" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D185" s="4" t="s">
         <v>105</v>
       </c>
       <c r="E185" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F185" s="3">
         <v>60</v>
       </c>
       <c r="G185" s="3"/>
       <c r="H185" s="3" t="s">
-        <v>238</v>
+        <v>145</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.2">
@@ -7086,20 +7110,20 @@
         <v>9</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="D186" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D186" s="4" t="s">
         <v>105</v>
       </c>
       <c r="E186" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F186" s="3">
         <v>60</v>
       </c>
       <c r="G186" s="3"/>
       <c r="H186" s="3" t="s">
-        <v>195</v>
+        <v>145</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.2">
@@ -7110,20 +7134,20 @@
         <v>9</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="D187" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D187" s="4" t="s">
         <v>105</v>
       </c>
       <c r="E187" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F187" s="3">
         <v>60</v>
       </c>
       <c r="G187" s="3"/>
       <c r="H187" s="3" t="s">
-        <v>195</v>
+        <v>145</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.2">
@@ -7134,20 +7158,20 @@
         <v>9</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="D188" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D188" s="4" t="s">
         <v>105</v>
       </c>
       <c r="E188" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F188" s="3">
         <v>60</v>
       </c>
       <c r="G188" s="3"/>
       <c r="H188" s="3" t="s">
-        <v>195</v>
+        <v>145</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.2">
@@ -7158,68 +7182,54 @@
         <v>9</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="D189" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D189" s="4" t="s">
         <v>105</v>
       </c>
       <c r="E189" s="3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F189" s="3">
         <v>60</v>
       </c>
       <c r="G189" s="3"/>
       <c r="H189" s="3" t="s">
-        <v>195</v>
+        <v>145</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A190" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B190" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C190" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="D190" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="E190" s="3">
-        <v>7</v>
-      </c>
-      <c r="F190" s="3">
-        <v>60</v>
-      </c>
+      <c r="A190" s="3"/>
+      <c r="B190" s="3"/>
+      <c r="C190" s="3"/>
+      <c r="D190" s="4"/>
+      <c r="E190" s="3"/>
+      <c r="F190" s="3"/>
       <c r="G190" s="3"/>
-      <c r="H190" s="3" t="s">
-        <v>195</v>
-      </c>
+      <c r="H190" s="3"/>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="D191" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D191" s="4" t="s">
         <v>105</v>
       </c>
       <c r="E191" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F191" s="3">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="G191" s="3"/>
       <c r="H191" s="3" t="s">
-        <v>195</v>
+        <v>370</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.2">
@@ -7227,34 +7237,48 @@
         <v>8</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="D192" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D192" s="4" t="s">
         <v>105</v>
       </c>
       <c r="E192" s="3">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F192" s="3">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="G192" s="3"/>
       <c r="H192" s="3" t="s">
-        <v>195</v>
+        <v>371</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A193" s="3"/>
-      <c r="B193" s="3"/>
-      <c r="C193" s="3"/>
-      <c r="D193" s="5"/>
-      <c r="E193" s="3"/>
-      <c r="F193" s="3"/>
+      <c r="A193" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D193" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E193" s="3">
+        <v>3</v>
+      </c>
+      <c r="F193" s="3">
+        <v>80</v>
+      </c>
       <c r="G193" s="3"/>
-      <c r="H193" s="3"/>
+      <c r="H193" s="3" t="s">
+        <v>371</v>
+      </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" s="3" t="s">
@@ -7264,20 +7288,20 @@
         <v>12</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="D194" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D194" s="4" t="s">
         <v>105</v>
       </c>
       <c r="E194" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F194" s="3">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="G194" s="3"/>
       <c r="H194" s="3" t="s">
-        <v>196</v>
+        <v>371</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.2">
@@ -7288,20 +7312,20 @@
         <v>12</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="D195" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D195" s="4" t="s">
         <v>105</v>
       </c>
       <c r="E195" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F195" s="3">
         <v>80</v>
       </c>
       <c r="G195" s="3"/>
       <c r="H195" s="3" t="s">
-        <v>240</v>
+        <v>371</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.2">
@@ -7312,20 +7336,20 @@
         <v>12</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="D196" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D196" s="4" t="s">
         <v>105</v>
       </c>
       <c r="E196" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F196" s="3">
         <v>80</v>
       </c>
       <c r="G196" s="3"/>
       <c r="H196" s="3" t="s">
-        <v>240</v>
+        <v>371</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.2">
@@ -7336,20 +7360,20 @@
         <v>12</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="D197" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D197" s="4" t="s">
         <v>105</v>
       </c>
       <c r="E197" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F197" s="3">
         <v>80</v>
       </c>
       <c r="G197" s="3"/>
       <c r="H197" s="3" t="s">
-        <v>240</v>
+        <v>371</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.2">
@@ -7360,20 +7384,20 @@
         <v>12</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="D198" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D198" s="4" t="s">
         <v>105</v>
       </c>
       <c r="E198" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F198" s="3">
         <v>80</v>
       </c>
       <c r="G198" s="3"/>
       <c r="H198" s="3" t="s">
-        <v>240</v>
+        <v>371</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.2">
@@ -7384,303 +7408,297 @@
         <v>12</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="D199" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D199" s="4" t="s">
         <v>105</v>
       </c>
       <c r="E199" s="3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F199" s="3">
         <v>80</v>
       </c>
       <c r="G199" s="3"/>
       <c r="H199" s="3" t="s">
-        <v>240</v>
+        <v>371</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A200" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B200" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C200" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="D200" s="5" t="s">
+      <c r="A200" s="3"/>
+      <c r="B200" s="3"/>
+      <c r="C200" s="3"/>
+      <c r="D200" s="4"/>
+      <c r="E200" s="3"/>
+      <c r="F200" s="3"/>
+      <c r="G200" s="3"/>
+      <c r="H200" s="3"/>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A201" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B201" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="C201" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="D201" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="E200" s="3">
-        <v>7</v>
-      </c>
-      <c r="F200" s="3">
-        <v>80</v>
-      </c>
-      <c r="G200" s="3"/>
-      <c r="H200" s="3" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A201" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B201" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C201" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="D201" s="5" t="s">
+      <c r="E201" s="15"/>
+      <c r="F201" s="14"/>
+      <c r="G201" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="H201" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A202" s="14"/>
+      <c r="B202" s="14"/>
+      <c r="C202" s="14"/>
+      <c r="D202" s="20"/>
+      <c r="E202" s="15"/>
+      <c r="F202" s="14"/>
+      <c r="G202" s="14"/>
+      <c r="H202" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A203" s="14"/>
+      <c r="B203" s="14"/>
+      <c r="C203" s="14"/>
+      <c r="D203" s="20"/>
+      <c r="E203" s="15"/>
+      <c r="F203" s="14"/>
+      <c r="G203" s="14"/>
+      <c r="H203" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A204" s="14"/>
+      <c r="B204" s="14"/>
+      <c r="C204" s="14"/>
+      <c r="D204" s="20"/>
+      <c r="E204" s="15"/>
+      <c r="F204" s="14"/>
+      <c r="G204" s="14"/>
+      <c r="H204" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A205" s="3"/>
+      <c r="B205" s="3"/>
+      <c r="C205" s="3"/>
+      <c r="D205" s="4"/>
+      <c r="E205" s="5"/>
+      <c r="F205" s="3"/>
+      <c r="G205" s="3"/>
+      <c r="H205" s="3"/>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A206" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C206" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D206" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E201" s="3">
-        <v>8</v>
-      </c>
-      <c r="F201" s="3">
-        <v>80</v>
-      </c>
-      <c r="G201" s="3"/>
-      <c r="H201" s="3" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A202" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B202" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C202" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="D202" s="5" t="s">
+      <c r="E206" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F206" s="3"/>
+      <c r="G206" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H206" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A207" s="3"/>
+      <c r="B207" s="3"/>
+      <c r="C207" s="3"/>
+      <c r="D207" s="4"/>
+      <c r="E207" s="5"/>
+      <c r="F207" s="3"/>
+      <c r="G207" s="3"/>
+      <c r="H207" s="3"/>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A208" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C208" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D208" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E202" s="3">
-        <v>9</v>
-      </c>
-      <c r="F202" s="3">
-        <v>80</v>
-      </c>
-      <c r="G202" s="3"/>
-      <c r="H202" s="3" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A203" s="3"/>
-      <c r="B203" s="3"/>
-      <c r="C203" s="3"/>
-      <c r="D203" s="5"/>
-      <c r="E203" s="3"/>
-      <c r="F203" s="3"/>
-      <c r="G203" s="3"/>
-      <c r="H203" s="3"/>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A204" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B204" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="C204" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="D204" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="E204" s="16"/>
-      <c r="F204" s="15"/>
-      <c r="G204" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="H204" s="3" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A205" s="15"/>
-      <c r="B205" s="15"/>
-      <c r="C205" s="15"/>
-      <c r="D205" s="21"/>
-      <c r="E205" s="16"/>
-      <c r="F205" s="15"/>
-      <c r="G205" s="15"/>
-      <c r="H205" s="3" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A206" s="15"/>
-      <c r="B206" s="15"/>
-      <c r="C206" s="15"/>
-      <c r="D206" s="21"/>
-      <c r="E206" s="16"/>
-      <c r="F206" s="15"/>
-      <c r="G206" s="15"/>
-      <c r="H206" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A207" s="15"/>
-      <c r="B207" s="15"/>
-      <c r="C207" s="15"/>
-      <c r="D207" s="21"/>
-      <c r="E207" s="16"/>
-      <c r="F207" s="15"/>
-      <c r="G207" s="15"/>
-      <c r="H207" s="3" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A208" s="3"/>
-      <c r="B208" s="3"/>
-      <c r="C208" s="3"/>
-      <c r="D208" s="5"/>
-      <c r="E208" s="6"/>
+      <c r="E208" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="F208" s="3"/>
       <c r="G208" s="3"/>
-      <c r="H208" s="3"/>
+      <c r="H208" s="3" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A209" s="3" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C209" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D209" s="5" t="s">
+      <c r="D209" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E209" s="6" t="s">
+      <c r="E209" s="5" t="s">
         <v>46</v>
       </c>
       <c r="F209" s="3"/>
-      <c r="G209" s="3" t="s">
-        <v>47</v>
-      </c>
+      <c r="G209" s="3"/>
       <c r="H209" s="3" t="s">
-        <v>107</v>
+        <v>147</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A210" s="3"/>
-      <c r="B210" s="3"/>
-      <c r="C210" s="3"/>
-      <c r="D210" s="5"/>
-      <c r="E210" s="6"/>
+      <c r="A210" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C210" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D210" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E210" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="F210" s="3"/>
       <c r="G210" s="3"/>
-      <c r="H210" s="3"/>
+      <c r="H210" s="3" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A211" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C211" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D211" s="5" t="s">
+      <c r="D211" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E211" s="6" t="s">
+      <c r="E211" s="5" t="s">
         <v>46</v>
       </c>
       <c r="F211" s="3"/>
       <c r="G211" s="3"/>
       <c r="H211" s="3" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A212" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B212" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C212" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D212" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="E212" s="6" t="s">
-        <v>46</v>
-      </c>
+      <c r="A212" s="3"/>
+      <c r="B212" s="3"/>
+      <c r="C212" s="3"/>
+      <c r="D212" s="4"/>
+      <c r="E212" s="5"/>
       <c r="F212" s="3"/>
       <c r="G212" s="3"/>
-      <c r="H212" s="3" t="s">
-        <v>198</v>
-      </c>
+      <c r="H212" s="3"/>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A213" s="3" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D213" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D213" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E213" s="6" t="s">
-        <v>46</v>
+      <c r="E213" s="5">
+        <v>1</v>
       </c>
       <c r="F213" s="3"/>
       <c r="G213" s="3"/>
       <c r="H213" s="3" t="s">
-        <v>199</v>
+        <v>149</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A214" s="3" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D214" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D214" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E214" s="6" t="s">
-        <v>46</v>
+      <c r="E214" s="5">
+        <v>2</v>
       </c>
       <c r="F214" s="3"/>
       <c r="G214" s="3"/>
       <c r="H214" s="3" t="s">
-        <v>237</v>
+        <v>150</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A215" s="3"/>
-      <c r="B215" s="3"/>
-      <c r="C215" s="3"/>
-      <c r="D215" s="5"/>
-      <c r="E215" s="6"/>
+      <c r="A215" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C215" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D215" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E215" s="5">
+        <v>3</v>
+      </c>
       <c r="F215" s="3"/>
       <c r="G215" s="3"/>
-      <c r="H215" s="3"/>
+      <c r="H215" s="3" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A216" s="3" t="s">
@@ -7690,18 +7708,18 @@
         <v>55</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D216" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D216" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E216" s="6">
-        <v>1</v>
+      <c r="E216" s="5">
+        <v>4</v>
       </c>
       <c r="F216" s="3"/>
       <c r="G216" s="3"/>
       <c r="H216" s="3" t="s">
-        <v>200</v>
+        <v>152</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.2">
@@ -7712,18 +7730,18 @@
         <v>55</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D217" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D217" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E217" s="6">
-        <v>2</v>
+      <c r="E217" s="5" t="s">
+        <v>130</v>
       </c>
       <c r="F217" s="3"/>
       <c r="G217" s="3"/>
       <c r="H217" s="3" t="s">
-        <v>201</v>
+        <v>153</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.2">
@@ -7734,18 +7752,18 @@
         <v>55</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D218" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D218" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E218" s="6">
-        <v>3</v>
+      <c r="E218" s="5" t="s">
+        <v>132</v>
       </c>
       <c r="F218" s="3"/>
       <c r="G218" s="3"/>
       <c r="H218" s="3" t="s">
-        <v>202</v>
+        <v>154</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.2">
@@ -7756,21 +7774,21 @@
         <v>55</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D219" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D219" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E219" s="6">
-        <v>4</v>
+      <c r="E219" s="5" t="s">
+        <v>133</v>
       </c>
       <c r="F219" s="3"/>
       <c r="G219" s="3"/>
       <c r="H219" s="3" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A220" s="3" t="s">
         <v>54</v>
       </c>
@@ -7778,21 +7796,21 @@
         <v>55</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D220" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D220" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E220" s="6" t="s">
-        <v>131</v>
+      <c r="E220" s="5" t="s">
+        <v>134</v>
       </c>
       <c r="F220" s="3"/>
       <c r="G220" s="3"/>
       <c r="H220" s="3" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A221" s="3" t="s">
         <v>54</v>
       </c>
@@ -7800,18 +7818,18 @@
         <v>55</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D221" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D221" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E221" s="6" t="s">
-        <v>133</v>
+      <c r="E221" s="5" t="s">
+        <v>135</v>
       </c>
       <c r="F221" s="3"/>
       <c r="G221" s="3"/>
       <c r="H221" s="3" t="s">
-        <v>205</v>
+        <v>156</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.2">
@@ -7822,105 +7840,111 @@
         <v>55</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D222" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D222" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E222" s="6" t="s">
-        <v>134</v>
+      <c r="E222" s="5" t="s">
+        <v>131</v>
       </c>
       <c r="F222" s="3"/>
       <c r="G222" s="3"/>
       <c r="H222" s="3" t="s">
-        <v>206</v>
+        <v>157</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A223" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B223" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C223" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D223" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="E223" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="F223" s="3"/>
-      <c r="G223" s="3"/>
-      <c r="H223" s="3" t="s">
-        <v>254</v>
-      </c>
+      <c r="A223" s="7"/>
+      <c r="B223" s="7"/>
+      <c r="C223" s="7"/>
+      <c r="D223" s="7"/>
+      <c r="E223" s="8"/>
+      <c r="F223" s="7"/>
+      <c r="G223" s="7"/>
+      <c r="H223" s="7"/>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A224" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B224" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C224" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D224" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="E224" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="F224" s="3"/>
-      <c r="G224" s="3"/>
-      <c r="H224" s="3" t="s">
-        <v>207</v>
-      </c>
+      <c r="A224" s="7"/>
+      <c r="B224" s="7"/>
+      <c r="C224" s="7"/>
+      <c r="D224" s="7"/>
+      <c r="E224" s="8"/>
+      <c r="F224" s="7"/>
+      <c r="G224" s="7"/>
+      <c r="H224" s="7"/>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A225" s="3" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D225" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="E225" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="F225" s="3"/>
+        <v>108</v>
+      </c>
+      <c r="D225" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="E225" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="F225" s="3">
+        <v>70</v>
+      </c>
       <c r="G225" s="3"/>
       <c r="H225" s="3" t="s">
-        <v>208</v>
+        <v>372</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A226" s="8"/>
-      <c r="B226" s="8"/>
-      <c r="C226" s="8"/>
-      <c r="D226" s="8"/>
-      <c r="E226" s="9"/>
-      <c r="F226" s="8"/>
-      <c r="G226" s="8"/>
-      <c r="H226" s="8"/>
+      <c r="A226" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B226" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C226" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D226" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="E226" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F226" s="3">
+        <v>60</v>
+      </c>
+      <c r="G226" s="3"/>
+      <c r="H226" s="3" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A227" s="8"/>
-      <c r="B227" s="8"/>
-      <c r="C227" s="8"/>
-      <c r="D227" s="8"/>
-      <c r="E227" s="9"/>
-      <c r="F227" s="8"/>
-      <c r="G227" s="8"/>
-      <c r="H227" s="8"/>
+      <c r="A227" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B227" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C227" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D227" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="E227" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F227" s="3">
+        <v>50</v>
+      </c>
+      <c r="G227" s="3"/>
+      <c r="H227" s="3" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A228" s="3" t="s">
@@ -7932,18 +7956,18 @@
       <c r="C228" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D228" s="11" t="s">
+      <c r="D228" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="E228" s="6" t="s">
-        <v>110</v>
+      <c r="E228" s="5" t="s">
+        <v>113</v>
       </c>
       <c r="F228" s="3">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G228" s="3"/>
       <c r="H228" s="3" t="s">
-        <v>209</v>
+        <v>375</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.2">
@@ -7956,66 +7980,52 @@
       <c r="C229" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D229" s="11" t="s">
+      <c r="D229" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="E229" s="6" t="s">
-        <v>111</v>
+      <c r="E229" s="5" t="s">
+        <v>114</v>
       </c>
       <c r="F229" s="3">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G229" s="3"/>
       <c r="H229" s="3" t="s">
-        <v>210</v>
+        <v>376</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A230" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B230" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C230" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D230" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="E230" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="F230" s="3">
-        <v>50</v>
-      </c>
+      <c r="A230" s="3"/>
+      <c r="B230" s="3"/>
+      <c r="C230" s="3"/>
+      <c r="D230" s="10"/>
+      <c r="E230" s="5"/>
+      <c r="F230" s="3"/>
       <c r="G230" s="3"/>
-      <c r="H230" s="3" t="s">
-        <v>211</v>
-      </c>
+      <c r="H230" s="3"/>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A231" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C231" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D231" s="11" t="s">
+      <c r="D231" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="E231" s="6" t="s">
-        <v>113</v>
+      <c r="E231" s="5" t="s">
+        <v>110</v>
       </c>
       <c r="F231" s="3">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="G231" s="3"/>
       <c r="H231" s="3" t="s">
-        <v>212</v>
+        <v>158</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.2">
@@ -8023,34 +8033,48 @@
         <v>8</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C232" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D232" s="11" t="s">
+      <c r="D232" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="E232" s="6" t="s">
-        <v>114</v>
+      <c r="E232" s="5" t="s">
+        <v>111</v>
       </c>
       <c r="F232" s="3">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G232" s="3"/>
       <c r="H232" s="3" t="s">
-        <v>213</v>
+        <v>158</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A233" s="3"/>
-      <c r="B233" s="3"/>
-      <c r="C233" s="3"/>
-      <c r="D233" s="11"/>
-      <c r="E233" s="6"/>
-      <c r="F233" s="3"/>
+      <c r="A233" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B233" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C233" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D233" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="E233" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F233" s="3">
+        <v>70</v>
+      </c>
       <c r="G233" s="3"/>
-      <c r="H233" s="3"/>
+      <c r="H233" s="3" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A234" s="3" t="s">
@@ -8062,387 +8086,387 @@
       <c r="C234" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D234" s="11" t="s">
+      <c r="D234" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="E234" s="6" t="s">
-        <v>110</v>
+      <c r="E234" s="5" t="s">
+        <v>113</v>
       </c>
       <c r="F234" s="3">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="G234" s="3"/>
       <c r="H234" s="3" t="s">
-        <v>214</v>
+        <v>160</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A235" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B235" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C235" s="3" t="s">
+      <c r="A235" s="3"/>
+      <c r="B235" s="3"/>
+      <c r="C235" s="3"/>
+      <c r="D235" s="10"/>
+      <c r="E235" s="5"/>
+      <c r="F235" s="3"/>
+      <c r="G235" s="3"/>
+      <c r="H235" s="3"/>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A236" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B236" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="C236" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="D235" s="11" t="s">
+      <c r="D236" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="E235" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="F235" s="3">
-        <v>80</v>
-      </c>
-      <c r="G235" s="3"/>
-      <c r="H235" s="3" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A236" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B236" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C236" s="3" t="s">
+      <c r="E236" s="15"/>
+      <c r="F236" s="14"/>
+      <c r="G236" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="H236" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A237" s="14"/>
+      <c r="B237" s="14"/>
+      <c r="C237" s="14"/>
+      <c r="D237" s="19"/>
+      <c r="E237" s="15"/>
+      <c r="F237" s="14"/>
+      <c r="G237" s="14"/>
+      <c r="H237" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A238" s="14"/>
+      <c r="B238" s="14"/>
+      <c r="C238" s="14"/>
+      <c r="D238" s="19"/>
+      <c r="E238" s="15"/>
+      <c r="F238" s="14"/>
+      <c r="G238" s="14"/>
+      <c r="H238" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A239" s="3"/>
+      <c r="B239" s="3"/>
+      <c r="C239" s="3"/>
+      <c r="D239" s="10"/>
+      <c r="E239" s="5"/>
+      <c r="F239" s="3"/>
+      <c r="G239" s="3"/>
+      <c r="H239" s="3"/>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A240" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B240" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C240" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D236" s="11" t="s">
+      <c r="D240" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="E236" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="F236" s="3">
-        <v>70</v>
-      </c>
-      <c r="G236" s="3"/>
-      <c r="H236" s="3" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A237" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B237" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C237" s="3" t="s">
+      <c r="E240" s="5"/>
+      <c r="F240" s="3"/>
+      <c r="G240" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H240" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A241" s="3"/>
+      <c r="B241" s="3"/>
+      <c r="C241" s="3"/>
+      <c r="D241" s="10"/>
+      <c r="E241" s="5"/>
+      <c r="F241" s="3"/>
+      <c r="G241" s="3"/>
+      <c r="H241" s="3"/>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A242" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B242" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C242" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D237" s="11" t="s">
+      <c r="D242" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="E237" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="F237" s="3">
-        <v>20</v>
-      </c>
-      <c r="G237" s="3"/>
-      <c r="H237" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A238" s="3"/>
-      <c r="B238" s="3"/>
-      <c r="C238" s="3"/>
-      <c r="D238" s="11"/>
-      <c r="E238" s="6"/>
-      <c r="F238" s="3"/>
-      <c r="G238" s="3"/>
-      <c r="H238" s="3"/>
-    </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A239" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B239" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="C239" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="D239" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="E239" s="16"/>
-      <c r="F239" s="15"/>
-      <c r="G239" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="H239" s="3" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A240" s="15"/>
-      <c r="B240" s="15"/>
-      <c r="C240" s="15"/>
-      <c r="D240" s="20"/>
-      <c r="E240" s="16"/>
-      <c r="F240" s="15"/>
-      <c r="G240" s="15"/>
-      <c r="H240" s="3" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A241" s="15"/>
-      <c r="B241" s="15"/>
-      <c r="C241" s="15"/>
-      <c r="D241" s="20"/>
-      <c r="E241" s="16"/>
-      <c r="F241" s="15"/>
-      <c r="G241" s="15"/>
-      <c r="H241" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A242" s="3"/>
-      <c r="B242" s="3"/>
-      <c r="C242" s="3"/>
-      <c r="D242" s="11"/>
-      <c r="E242" s="6"/>
+      <c r="E242" s="5"/>
       <c r="F242" s="3"/>
       <c r="G242" s="3"/>
-      <c r="H242" s="3"/>
+      <c r="H242" s="3" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A243" s="3" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C243" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D243" s="11" t="s">
+      <c r="D243" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="E243" s="6"/>
+      <c r="E243" s="5"/>
       <c r="F243" s="3"/>
-      <c r="G243" s="3" t="s">
-        <v>47</v>
-      </c>
+      <c r="G243" s="3"/>
       <c r="H243" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A244" s="3"/>
-      <c r="B244" s="3"/>
-      <c r="C244" s="3"/>
-      <c r="D244" s="11"/>
-      <c r="E244" s="6"/>
-      <c r="F244" s="3"/>
-      <c r="G244" s="3"/>
-      <c r="H244" s="3"/>
-    </row>
-    <row r="245" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A245" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B245" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C245" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A244" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B244" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C244" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="D245" s="11" t="s">
+      <c r="D244" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="E245" s="6"/>
-      <c r="F245" s="3"/>
-      <c r="G245" s="3"/>
+      <c r="E244" s="15"/>
+      <c r="F244" s="14"/>
+      <c r="G244" s="14"/>
+      <c r="H244" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A245" s="14"/>
+      <c r="B245" s="14"/>
+      <c r="C245" s="14"/>
+      <c r="D245" s="19"/>
+      <c r="E245" s="15"/>
+      <c r="F245" s="14"/>
+      <c r="G245" s="14"/>
       <c r="H245" s="3" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A246" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B246" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C246" s="3" t="s">
+      <c r="A246" s="14"/>
+      <c r="B246" s="14"/>
+      <c r="C246" s="14"/>
+      <c r="D246" s="19"/>
+      <c r="E246" s="15"/>
+      <c r="F246" s="14"/>
+      <c r="G246" s="14"/>
+      <c r="H246" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A247" s="3"/>
+      <c r="B247" s="3"/>
+      <c r="C247" s="3"/>
+      <c r="D247" s="10"/>
+      <c r="E247" s="5"/>
+      <c r="F247" s="3"/>
+      <c r="G247" s="3"/>
+      <c r="H247" s="3"/>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A248" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B248" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C248" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D246" s="11" t="s">
+      <c r="D248" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="E246" s="6"/>
-      <c r="F246" s="3"/>
-      <c r="G246" s="3"/>
-      <c r="H246" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A247" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B247" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C247" s="15" t="s">
+      <c r="E248" s="5"/>
+      <c r="F248" s="3"/>
+      <c r="G248" s="3"/>
+      <c r="H248" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A249" s="3"/>
+      <c r="B249" s="3"/>
+      <c r="C249" s="3"/>
+      <c r="D249" s="10"/>
+      <c r="E249" s="5"/>
+      <c r="F249" s="3"/>
+      <c r="G249" s="3"/>
+      <c r="H249" s="3"/>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A250" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B250" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C250" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D247" s="20" t="s">
+      <c r="D250" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="E247" s="16"/>
-      <c r="F247" s="15"/>
-      <c r="G247" s="15"/>
-      <c r="H247" s="3" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A248" s="15"/>
-      <c r="B248" s="15"/>
-      <c r="C248" s="15"/>
-      <c r="D248" s="20"/>
-      <c r="E248" s="16"/>
-      <c r="F248" s="15"/>
-      <c r="G248" s="15"/>
-      <c r="H248" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A249" s="15"/>
-      <c r="B249" s="15"/>
-      <c r="C249" s="15"/>
-      <c r="D249" s="20"/>
-      <c r="E249" s="16"/>
-      <c r="F249" s="15"/>
-      <c r="G249" s="15"/>
-      <c r="H249" s="3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A250" s="3"/>
-      <c r="B250" s="3"/>
-      <c r="C250" s="3"/>
-      <c r="D250" s="11"/>
-      <c r="E250" s="6"/>
+      <c r="E250" s="5"/>
       <c r="F250" s="3"/>
       <c r="G250" s="3"/>
-      <c r="H250" s="3"/>
+      <c r="H250" s="3" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A251" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B251" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C251" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D251" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="E251" s="6"/>
-      <c r="F251" s="3"/>
-      <c r="G251" s="3"/>
-      <c r="H251" s="3" t="s">
-        <v>233</v>
-      </c>
+      <c r="A251" s="7"/>
+      <c r="B251" s="7"/>
+      <c r="C251" s="7"/>
+      <c r="D251" s="7"/>
+      <c r="E251" s="8"/>
+      <c r="F251" s="7"/>
+      <c r="G251" s="7"/>
+      <c r="H251" s="7"/>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A252" s="3"/>
-      <c r="B252" s="3"/>
-      <c r="C252" s="3"/>
-      <c r="D252" s="11"/>
-      <c r="E252" s="6"/>
-      <c r="F252" s="3"/>
-      <c r="G252" s="3"/>
-      <c r="H252" s="3"/>
+      <c r="A252" s="7"/>
+      <c r="B252" s="7"/>
+      <c r="C252" s="7"/>
+      <c r="D252" s="7"/>
+      <c r="E252" s="8"/>
+      <c r="F252" s="7"/>
+      <c r="G252" s="7"/>
+      <c r="H252" s="7"/>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A253" s="3" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C253" s="3" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="D253" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="E253" s="6"/>
+        <v>118</v>
+      </c>
+      <c r="E253" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="F253" s="3"/>
-      <c r="G253" s="3"/>
+      <c r="G253" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="H253" s="3" t="s">
-        <v>116</v>
+        <v>163</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A254" s="8"/>
-      <c r="B254" s="8"/>
-      <c r="C254" s="8"/>
-      <c r="D254" s="8"/>
-      <c r="E254" s="9"/>
-      <c r="F254" s="8"/>
-      <c r="G254" s="8"/>
-      <c r="H254" s="8"/>
+      <c r="A254" s="3"/>
+      <c r="B254" s="3"/>
+      <c r="C254" s="3"/>
+      <c r="D254" s="11"/>
+      <c r="E254" s="5"/>
+      <c r="F254" s="3"/>
+      <c r="G254" s="3"/>
+      <c r="H254" s="3"/>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A255" s="8"/>
-      <c r="B255" s="8"/>
-      <c r="C255" s="8"/>
-      <c r="D255" s="8"/>
-      <c r="E255" s="9"/>
-      <c r="F255" s="8"/>
-      <c r="G255" s="8"/>
-      <c r="H255" s="8"/>
+      <c r="A255" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B255" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C255" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D255" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="E255" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F255" s="3"/>
+      <c r="G255" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="H255" s="3" t="s">
+        <v>377</v>
+      </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A256" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C256" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D256" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D256" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="E256" s="6" t="s">
-        <v>46</v>
+      <c r="E256" s="5" t="s">
+        <v>123</v>
       </c>
       <c r="F256" s="3"/>
       <c r="G256" s="3" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="H256" s="3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A257" s="3"/>
-      <c r="B257" s="3"/>
-      <c r="C257" s="3"/>
-      <c r="D257" s="12"/>
-      <c r="E257" s="6"/>
+        <v>378</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A257" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B257" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C257" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D257" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="E257" s="5" t="s">
+        <v>124</v>
+      </c>
       <c r="F257" s="3"/>
-      <c r="G257" s="3"/>
-      <c r="H257" s="3"/>
+      <c r="G257" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="H257" s="3" t="s">
+        <v>379</v>
+      </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A258" s="3" t="s">
@@ -8454,1508 +8478,1429 @@
       <c r="C258" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D258" s="12" t="s">
+      <c r="D258" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="E258" s="6" t="s">
-        <v>121</v>
+      <c r="E258" s="5" t="s">
+        <v>125</v>
       </c>
       <c r="F258" s="3"/>
       <c r="G258" s="3" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="H258" s="3" t="s">
-        <v>220</v>
+        <v>380</v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A259" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B259" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C259" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D259" s="12" t="s">
+      <c r="A259" s="3"/>
+      <c r="B259" s="3"/>
+      <c r="C259" s="3"/>
+      <c r="D259" s="11"/>
+      <c r="E259" s="5"/>
+      <c r="F259" s="3"/>
+      <c r="G259" s="3"/>
+      <c r="H259" s="3"/>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A260" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B260" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C260" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D260" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="E259" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="F259" s="3"/>
-      <c r="G259" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="H259" s="3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="260" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A260" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B260" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C260" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D260" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="E260" s="6" t="s">
-        <v>124</v>
+      <c r="E260" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="F260" s="3"/>
       <c r="G260" s="3" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="H260" s="3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="261" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A261" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B261" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C261" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D261" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A261" s="3"/>
+      <c r="B261" s="3"/>
+      <c r="C261" s="3"/>
+      <c r="D261" s="11"/>
+      <c r="E261" s="5"/>
+      <c r="F261" s="3"/>
+      <c r="G261" s="3"/>
+      <c r="H261" s="3"/>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A262" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B262" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C262" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D262" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="E261" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="F261" s="3"/>
-      <c r="G261" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="H261" s="3" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="262" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A262" s="3"/>
-      <c r="B262" s="3"/>
-      <c r="C262" s="3"/>
-      <c r="D262" s="12"/>
-      <c r="E262" s="6"/>
+      <c r="E262" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="F262" s="3"/>
       <c r="G262" s="3"/>
-      <c r="H262" s="3"/>
+      <c r="H262" s="3" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A263" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B263" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C263" s="3" t="s">
+      <c r="A263" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B263" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C263" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="D263" s="12" t="s">
+      <c r="D263" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="E263" s="6" t="s">
+      <c r="E263" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="F263" s="3"/>
-      <c r="G263" s="3" t="s">
-        <v>47</v>
-      </c>
+      <c r="F263" s="14"/>
+      <c r="G263" s="14"/>
       <c r="H263" s="3" t="s">
-        <v>127</v>
+        <v>196</v>
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A264" s="3"/>
-      <c r="B264" s="3"/>
-      <c r="C264" s="3"/>
-      <c r="D264" s="12"/>
-      <c r="E264" s="6"/>
-      <c r="F264" s="3"/>
-      <c r="G264" s="3"/>
-      <c r="H264" s="3"/>
+      <c r="A264" s="14"/>
+      <c r="B264" s="14"/>
+      <c r="C264" s="14"/>
+      <c r="D264" s="18"/>
+      <c r="E264" s="15"/>
+      <c r="F264" s="14"/>
+      <c r="G264" s="14"/>
+      <c r="H264" s="3" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A265" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B265" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C265" s="3" t="s">
+      <c r="A265" s="14"/>
+      <c r="B265" s="14"/>
+      <c r="C265" s="14"/>
+      <c r="D265" s="18"/>
+      <c r="E265" s="15"/>
+      <c r="F265" s="14"/>
+      <c r="G265" s="14"/>
+      <c r="H265" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A266" s="14"/>
+      <c r="B266" s="14"/>
+      <c r="C266" s="14"/>
+      <c r="D266" s="18"/>
+      <c r="E266" s="15"/>
+      <c r="F266" s="14"/>
+      <c r="G266" s="14"/>
+      <c r="H266" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A267" s="14"/>
+      <c r="B267" s="14"/>
+      <c r="C267" s="14"/>
+      <c r="D267" s="18"/>
+      <c r="E267" s="15"/>
+      <c r="F267" s="14"/>
+      <c r="G267" s="14"/>
+      <c r="H267" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A268" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B268" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C268" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="D265" s="12" t="s">
+      <c r="D268" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="E265" s="6" t="s">
+      <c r="E268" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F265" s="3"/>
-      <c r="G265" s="3"/>
-      <c r="H265" s="3" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A266" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B266" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C266" s="15" t="s">
+      <c r="F268" s="3"/>
+      <c r="G268" s="3"/>
+      <c r="H268" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A269" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B269" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C269" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="D266" s="19" t="s">
+      <c r="D269" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="E266" s="16" t="s">
+      <c r="E269" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F266" s="15"/>
-      <c r="G266" s="15"/>
-      <c r="H266" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A267" s="15"/>
-      <c r="B267" s="15"/>
-      <c r="C267" s="15"/>
-      <c r="D267" s="19"/>
-      <c r="E267" s="16"/>
-      <c r="F267" s="15"/>
-      <c r="G267" s="15"/>
-      <c r="H267" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A268" s="15"/>
-      <c r="B268" s="15"/>
-      <c r="C268" s="15"/>
-      <c r="D268" s="19"/>
-      <c r="E268" s="16"/>
-      <c r="F268" s="15"/>
-      <c r="G268" s="15"/>
-      <c r="H268" s="3" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A269" s="15"/>
-      <c r="B269" s="15"/>
-      <c r="C269" s="15"/>
-      <c r="D269" s="19"/>
-      <c r="E269" s="16"/>
-      <c r="F269" s="15"/>
-      <c r="G269" s="15"/>
+      <c r="F269" s="3"/>
+      <c r="G269" s="3"/>
       <c r="H269" s="3" t="s">
-        <v>264</v>
+        <v>166</v>
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A270" s="15"/>
-      <c r="B270" s="15"/>
-      <c r="C270" s="15"/>
-      <c r="D270" s="19"/>
-      <c r="E270" s="16"/>
-      <c r="F270" s="15"/>
-      <c r="G270" s="15"/>
-      <c r="H270" s="3" t="s">
-        <v>265</v>
-      </c>
+      <c r="A270" s="3"/>
+      <c r="B270" s="3"/>
+      <c r="C270" s="3"/>
+      <c r="D270" s="11"/>
+      <c r="E270" s="5"/>
+      <c r="F270" s="3"/>
+      <c r="G270" s="3"/>
+      <c r="H270" s="3"/>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A271" s="3" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C271" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="D271" s="12" t="s">
+      <c r="D271" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="E271" s="6" t="s">
+      <c r="E271" s="5" t="s">
         <v>46</v>
       </c>
       <c r="F271" s="3"/>
       <c r="G271" s="3"/>
       <c r="H271" s="3" t="s">
-        <v>225</v>
+        <v>128</v>
       </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A272" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B272" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C272" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D272" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="E272" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F272" s="3"/>
-      <c r="G272" s="3"/>
-      <c r="H272" s="3" t="s">
-        <v>226</v>
-      </c>
+      <c r="A272" s="7"/>
+      <c r="B272" s="7"/>
+      <c r="C272" s="7"/>
+      <c r="D272" s="7"/>
+      <c r="E272" s="8"/>
+      <c r="F272" s="7"/>
+      <c r="G272" s="7"/>
+      <c r="H272" s="7"/>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A273" s="3"/>
-      <c r="B273" s="3"/>
-      <c r="C273" s="3"/>
-      <c r="D273" s="12"/>
-      <c r="E273" s="6"/>
-      <c r="F273" s="3"/>
-      <c r="G273" s="3"/>
-      <c r="H273" s="3"/>
+      <c r="A273" s="7"/>
+      <c r="B273" s="7"/>
+      <c r="C273" s="7"/>
+      <c r="D273" s="7"/>
+      <c r="E273" s="8"/>
+      <c r="F273" s="7"/>
+      <c r="G273" s="7"/>
+      <c r="H273" s="7"/>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A274" s="3" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C274" s="3" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="D274" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="E274" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F274" s="3"/>
+        <v>129</v>
+      </c>
+      <c r="E274" s="5"/>
+      <c r="F274" s="3">
+        <v>50</v>
+      </c>
       <c r="G274" s="3"/>
       <c r="H274" s="3" t="s">
-        <v>128</v>
+        <v>167</v>
       </c>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A275" s="8"/>
-      <c r="B275" s="8"/>
-      <c r="C275" s="8"/>
-      <c r="D275" s="8"/>
-      <c r="E275" s="9"/>
-      <c r="F275" s="8"/>
-      <c r="G275" s="8"/>
-      <c r="H275" s="8"/>
+      <c r="A275" s="3"/>
+      <c r="B275" s="3"/>
+      <c r="C275" s="3"/>
+      <c r="D275" s="12"/>
+      <c r="E275" s="5"/>
+      <c r="F275" s="3"/>
+      <c r="G275" s="3"/>
+      <c r="H275" s="3"/>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A276" s="8"/>
-      <c r="B276" s="8"/>
-      <c r="C276" s="8"/>
-      <c r="D276" s="8"/>
-      <c r="E276" s="9"/>
-      <c r="F276" s="8"/>
-      <c r="G276" s="8"/>
-      <c r="H276" s="8"/>
-    </row>
-    <row r="277" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A277" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B277" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C277" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="D277" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="E277" s="6"/>
-      <c r="F277" s="3">
-        <v>50</v>
-      </c>
+      <c r="A276" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B276" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C276" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D276" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="E276" s="5"/>
+      <c r="F276" s="3">
+        <v>80</v>
+      </c>
+      <c r="G276" s="3"/>
+      <c r="H276" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A277" s="3"/>
+      <c r="B277" s="3"/>
+      <c r="C277" s="3"/>
+      <c r="D277" s="12"/>
+      <c r="E277" s="5"/>
+      <c r="F277" s="3"/>
       <c r="G277" s="3"/>
-      <c r="H277" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="278" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A278" s="3"/>
-      <c r="B278" s="3"/>
-      <c r="C278" s="3"/>
-      <c r="D278" s="13"/>
-      <c r="E278" s="6"/>
-      <c r="F278" s="3"/>
-      <c r="G278" s="3"/>
-      <c r="H278" s="3"/>
+      <c r="H277" s="3"/>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A278" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B278" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="C278" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="D278" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="E278" s="15"/>
+      <c r="F278" s="14"/>
+      <c r="G278" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="H278" s="3" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A279" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B279" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C279" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="D279" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="E279" s="6"/>
-      <c r="F279" s="3">
-        <v>80</v>
-      </c>
-      <c r="G279" s="3"/>
+      <c r="A279" s="14"/>
+      <c r="B279" s="14"/>
+      <c r="C279" s="14"/>
+      <c r="D279" s="17"/>
+      <c r="E279" s="15"/>
+      <c r="F279" s="14"/>
+      <c r="G279" s="14"/>
       <c r="H279" s="3" t="s">
-        <v>228</v>
+        <v>185</v>
       </c>
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A280" s="3"/>
-      <c r="B280" s="3"/>
-      <c r="C280" s="3"/>
-      <c r="D280" s="13"/>
-      <c r="E280" s="6"/>
-      <c r="F280" s="3"/>
-      <c r="G280" s="3"/>
-      <c r="H280" s="3"/>
+      <c r="A280" s="14"/>
+      <c r="B280" s="14"/>
+      <c r="C280" s="14"/>
+      <c r="D280" s="17"/>
+      <c r="E280" s="15"/>
+      <c r="F280" s="14"/>
+      <c r="G280" s="14"/>
+      <c r="H280" s="3" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A281" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B281" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="C281" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="D281" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="E281" s="16"/>
-      <c r="F281" s="15"/>
-      <c r="G281" s="15" t="s">
+      <c r="A281" s="14"/>
+      <c r="B281" s="14"/>
+      <c r="C281" s="14"/>
+      <c r="D281" s="17"/>
+      <c r="E281" s="15"/>
+      <c r="F281" s="14"/>
+      <c r="G281" s="14"/>
+      <c r="H281" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A282" s="3"/>
+      <c r="B282" s="3"/>
+      <c r="C282" s="3"/>
+      <c r="D282" s="12"/>
+      <c r="E282" s="5"/>
+      <c r="F282" s="3"/>
+      <c r="G282" s="3"/>
+      <c r="H282" s="3"/>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A283" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B283" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C283" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="H281" s="3" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A282" s="15"/>
-      <c r="B282" s="15"/>
-      <c r="C282" s="15"/>
-      <c r="D282" s="18"/>
-      <c r="E282" s="16"/>
-      <c r="F282" s="15"/>
-      <c r="G282" s="15"/>
-      <c r="H282" s="3" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A283" s="15"/>
-      <c r="B283" s="15"/>
-      <c r="C283" s="15"/>
-      <c r="D283" s="18"/>
-      <c r="E283" s="16"/>
-      <c r="F283" s="15"/>
-      <c r="G283" s="15"/>
+      <c r="D283" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="E283" s="5"/>
+      <c r="F283" s="3"/>
+      <c r="G283" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="H283" s="3" t="s">
-        <v>267</v>
+        <v>169</v>
       </c>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A284" s="15"/>
-      <c r="B284" s="15"/>
-      <c r="C284" s="15"/>
-      <c r="D284" s="18"/>
-      <c r="E284" s="16"/>
-      <c r="F284" s="15"/>
-      <c r="G284" s="15"/>
-      <c r="H284" s="3" t="s">
-        <v>251</v>
-      </c>
+      <c r="A284" s="3"/>
+      <c r="B284" s="3"/>
+      <c r="C284" s="3"/>
+      <c r="D284" s="12"/>
+      <c r="E284" s="5"/>
+      <c r="F284" s="3"/>
+      <c r="G284" s="3"/>
+      <c r="H284" s="3"/>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A285" s="3"/>
-      <c r="B285" s="3"/>
-      <c r="C285" s="3"/>
-      <c r="D285" s="13"/>
-      <c r="E285" s="6"/>
+      <c r="A285" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B285" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C285" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D285" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="E285" s="5"/>
       <c r="F285" s="3"/>
       <c r="G285" s="3"/>
-      <c r="H285" s="3"/>
+      <c r="H285" s="3" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A286" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B286" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C286" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="D286" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="E286" s="6"/>
-      <c r="F286" s="3"/>
-      <c r="G286" s="3" t="s">
-        <v>47</v>
-      </c>
+      <c r="A286" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B286" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C286" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="D286" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="E286" s="15"/>
+      <c r="F286" s="14"/>
+      <c r="G286" s="14"/>
       <c r="H286" s="3" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A287" s="3"/>
-      <c r="B287" s="3"/>
-      <c r="C287" s="3"/>
-      <c r="D287" s="13"/>
-      <c r="E287" s="6"/>
-      <c r="F287" s="3"/>
-      <c r="G287" s="3"/>
-      <c r="H287" s="3"/>
+      <c r="A287" s="14"/>
+      <c r="B287" s="14"/>
+      <c r="C287" s="14"/>
+      <c r="D287" s="17"/>
+      <c r="E287" s="15"/>
+      <c r="F287" s="14"/>
+      <c r="G287" s="14"/>
+      <c r="H287" s="3" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A288" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B288" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C288" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="D288" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="E288" s="6"/>
-      <c r="F288" s="3"/>
-      <c r="G288" s="3"/>
+      <c r="A288" s="14"/>
+      <c r="B288" s="14"/>
+      <c r="C288" s="14"/>
+      <c r="D288" s="17"/>
+      <c r="E288" s="15"/>
+      <c r="F288" s="14"/>
+      <c r="G288" s="14"/>
       <c r="H288" s="3" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A289" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B289" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C289" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="D289" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="E289" s="16"/>
-      <c r="F289" s="15"/>
-      <c r="G289" s="15"/>
+      <c r="A289" s="14"/>
+      <c r="B289" s="14"/>
+      <c r="C289" s="14"/>
+      <c r="D289" s="17"/>
+      <c r="E289" s="15"/>
+      <c r="F289" s="14"/>
+      <c r="G289" s="14"/>
       <c r="H289" s="3" t="s">
-        <v>268</v>
+        <v>206</v>
       </c>
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A290" s="15"/>
-      <c r="B290" s="15"/>
-      <c r="C290" s="15"/>
-      <c r="D290" s="18"/>
-      <c r="E290" s="16"/>
-      <c r="F290" s="15"/>
-      <c r="G290" s="15"/>
+      <c r="A290" s="14"/>
+      <c r="B290" s="14"/>
+      <c r="C290" s="14"/>
+      <c r="D290" s="17"/>
+      <c r="E290" s="15"/>
+      <c r="F290" s="14"/>
+      <c r="G290" s="14"/>
       <c r="H290" s="3" t="s">
-        <v>269</v>
+        <v>207</v>
       </c>
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A291" s="15"/>
-      <c r="B291" s="15"/>
-      <c r="C291" s="15"/>
-      <c r="D291" s="18"/>
-      <c r="E291" s="16"/>
-      <c r="F291" s="15"/>
-      <c r="G291" s="15"/>
+      <c r="A291" s="14"/>
+      <c r="B291" s="14"/>
+      <c r="C291" s="14"/>
+      <c r="D291" s="17"/>
+      <c r="E291" s="15"/>
+      <c r="F291" s="14"/>
+      <c r="G291" s="14"/>
       <c r="H291" s="3" t="s">
-        <v>270</v>
+        <v>208</v>
       </c>
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A292" s="15"/>
-      <c r="B292" s="15"/>
-      <c r="C292" s="15"/>
-      <c r="D292" s="18"/>
-      <c r="E292" s="16"/>
-      <c r="F292" s="15"/>
-      <c r="G292" s="15"/>
+      <c r="A292" s="14"/>
+      <c r="B292" s="14"/>
+      <c r="C292" s="14"/>
+      <c r="D292" s="17"/>
+      <c r="E292" s="15"/>
+      <c r="F292" s="14"/>
+      <c r="G292" s="14"/>
       <c r="H292" s="3" t="s">
-        <v>271</v>
+        <v>209</v>
       </c>
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A293" s="15"/>
-      <c r="B293" s="15"/>
-      <c r="C293" s="15"/>
-      <c r="D293" s="18"/>
-      <c r="E293" s="16"/>
-      <c r="F293" s="15"/>
-      <c r="G293" s="15"/>
+      <c r="A293" s="14"/>
+      <c r="B293" s="14"/>
+      <c r="C293" s="14"/>
+      <c r="D293" s="17"/>
+      <c r="E293" s="15"/>
+      <c r="F293" s="14"/>
+      <c r="G293" s="14"/>
       <c r="H293" s="3" t="s">
-        <v>272</v>
+        <v>210</v>
       </c>
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A294" s="15"/>
-      <c r="B294" s="15"/>
-      <c r="C294" s="15"/>
-      <c r="D294" s="18"/>
-      <c r="E294" s="16"/>
-      <c r="F294" s="15"/>
-      <c r="G294" s="15"/>
+      <c r="A294" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B294" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C294" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="D294" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="E294" s="15"/>
+      <c r="F294" s="14"/>
+      <c r="G294" s="14"/>
       <c r="H294" s="3" t="s">
-        <v>273</v>
+        <v>211</v>
       </c>
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A295" s="15"/>
-      <c r="B295" s="15"/>
-      <c r="C295" s="15"/>
-      <c r="D295" s="18"/>
-      <c r="E295" s="16"/>
-      <c r="F295" s="15"/>
-      <c r="G295" s="15"/>
+      <c r="A295" s="14"/>
+      <c r="B295" s="14"/>
+      <c r="C295" s="14"/>
+      <c r="D295" s="17"/>
+      <c r="E295" s="15"/>
+      <c r="F295" s="14"/>
+      <c r="G295" s="14"/>
       <c r="H295" s="3" t="s">
-        <v>274</v>
+        <v>212</v>
       </c>
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A296" s="15"/>
-      <c r="B296" s="15"/>
-      <c r="C296" s="15"/>
-      <c r="D296" s="18"/>
-      <c r="E296" s="16"/>
-      <c r="F296" s="15"/>
-      <c r="G296" s="15"/>
+      <c r="A296" s="14"/>
+      <c r="B296" s="14"/>
+      <c r="C296" s="14"/>
+      <c r="D296" s="17"/>
+      <c r="E296" s="15"/>
+      <c r="F296" s="14"/>
+      <c r="G296" s="14"/>
       <c r="H296" s="3" t="s">
-        <v>275</v>
+        <v>213</v>
       </c>
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A297" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B297" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C297" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="D297" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="E297" s="16"/>
-      <c r="F297" s="15"/>
-      <c r="G297" s="15"/>
+      <c r="A297" s="14"/>
+      <c r="B297" s="14"/>
+      <c r="C297" s="14"/>
+      <c r="D297" s="17"/>
+      <c r="E297" s="15"/>
+      <c r="F297" s="14"/>
+      <c r="G297" s="14"/>
       <c r="H297" s="3" t="s">
-        <v>276</v>
+        <v>209</v>
       </c>
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A298" s="15"/>
-      <c r="B298" s="15"/>
-      <c r="C298" s="15"/>
-      <c r="D298" s="18"/>
-      <c r="E298" s="16"/>
-      <c r="F298" s="15"/>
-      <c r="G298" s="15"/>
+      <c r="A298" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B298" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C298" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="D298" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="E298" s="15"/>
+      <c r="F298" s="14"/>
+      <c r="G298" s="14"/>
       <c r="H298" s="3" t="s">
-        <v>277</v>
+        <v>214</v>
       </c>
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A299" s="15"/>
-      <c r="B299" s="15"/>
-      <c r="C299" s="15"/>
-      <c r="D299" s="18"/>
-      <c r="E299" s="16"/>
-      <c r="F299" s="15"/>
-      <c r="G299" s="15"/>
+      <c r="A299" s="14"/>
+      <c r="B299" s="14"/>
+      <c r="C299" s="14"/>
+      <c r="D299" s="17"/>
+      <c r="E299" s="15"/>
+      <c r="F299" s="14"/>
+      <c r="G299" s="14"/>
       <c r="H299" s="3" t="s">
-        <v>278</v>
+        <v>215</v>
       </c>
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A300" s="15"/>
-      <c r="B300" s="15"/>
-      <c r="C300" s="15"/>
-      <c r="D300" s="18"/>
-      <c r="E300" s="16"/>
-      <c r="F300" s="15"/>
-      <c r="G300" s="15"/>
+      <c r="A300" s="14"/>
+      <c r="B300" s="14"/>
+      <c r="C300" s="14"/>
+      <c r="D300" s="17"/>
+      <c r="E300" s="15"/>
+      <c r="F300" s="14"/>
+      <c r="G300" s="14"/>
       <c r="H300" s="3" t="s">
-        <v>274</v>
+        <v>216</v>
       </c>
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A301" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B301" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C301" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="D301" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="E301" s="16"/>
-      <c r="F301" s="15"/>
-      <c r="G301" s="15"/>
+      <c r="A301" s="14"/>
+      <c r="B301" s="14"/>
+      <c r="C301" s="14"/>
+      <c r="D301" s="17"/>
+      <c r="E301" s="15"/>
+      <c r="F301" s="14"/>
+      <c r="G301" s="14"/>
       <c r="H301" s="3" t="s">
-        <v>279</v>
+        <v>217</v>
       </c>
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A302" s="15"/>
-      <c r="B302" s="15"/>
-      <c r="C302" s="15"/>
-      <c r="D302" s="18"/>
-      <c r="E302" s="16"/>
-      <c r="F302" s="15"/>
-      <c r="G302" s="15"/>
+      <c r="A302" s="14"/>
+      <c r="B302" s="14"/>
+      <c r="C302" s="14"/>
+      <c r="D302" s="17"/>
+      <c r="E302" s="15"/>
+      <c r="F302" s="14"/>
+      <c r="G302" s="14"/>
       <c r="H302" s="3" t="s">
-        <v>280</v>
+        <v>218</v>
       </c>
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A303" s="15"/>
-      <c r="B303" s="15"/>
-      <c r="C303" s="15"/>
-      <c r="D303" s="18"/>
-      <c r="E303" s="16"/>
-      <c r="F303" s="15"/>
-      <c r="G303" s="15"/>
+      <c r="A303" s="14"/>
+      <c r="B303" s="14"/>
+      <c r="C303" s="14"/>
+      <c r="D303" s="17"/>
+      <c r="E303" s="15"/>
+      <c r="F303" s="14"/>
+      <c r="G303" s="14"/>
       <c r="H303" s="3" t="s">
-        <v>281</v>
+        <v>219</v>
       </c>
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A304" s="15"/>
-      <c r="B304" s="15"/>
-      <c r="C304" s="15"/>
-      <c r="D304" s="18"/>
-      <c r="E304" s="16"/>
-      <c r="F304" s="15"/>
-      <c r="G304" s="15"/>
+      <c r="A304" s="14"/>
+      <c r="B304" s="14"/>
+      <c r="C304" s="14"/>
+      <c r="D304" s="17"/>
+      <c r="E304" s="15"/>
+      <c r="F304" s="14"/>
+      <c r="G304" s="14"/>
       <c r="H304" s="3" t="s">
-        <v>282</v>
+        <v>220</v>
       </c>
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A305" s="15"/>
-      <c r="B305" s="15"/>
-      <c r="C305" s="15"/>
-      <c r="D305" s="18"/>
-      <c r="E305" s="16"/>
-      <c r="F305" s="15"/>
-      <c r="G305" s="15"/>
-      <c r="H305" s="3" t="s">
-        <v>283</v>
-      </c>
+      <c r="A305" s="3"/>
+      <c r="B305" s="3"/>
+      <c r="C305" s="3"/>
+      <c r="D305" s="12"/>
+      <c r="E305" s="5"/>
+      <c r="F305" s="3"/>
+      <c r="G305" s="3"/>
+      <c r="H305" s="3"/>
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A306" s="15"/>
-      <c r="B306" s="15"/>
-      <c r="C306" s="15"/>
-      <c r="D306" s="18"/>
-      <c r="E306" s="16"/>
-      <c r="F306" s="15"/>
-      <c r="G306" s="15"/>
+      <c r="A306" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B306" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C306" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D306" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="E306" s="5"/>
+      <c r="F306" s="3"/>
+      <c r="G306" s="3"/>
       <c r="H306" s="3" t="s">
-        <v>284</v>
+        <v>173</v>
       </c>
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A307" s="15"/>
-      <c r="B307" s="15"/>
-      <c r="C307" s="15"/>
-      <c r="D307" s="18"/>
-      <c r="E307" s="16"/>
-      <c r="F307" s="15"/>
-      <c r="G307" s="15"/>
-      <c r="H307" s="3" t="s">
-        <v>285</v>
-      </c>
+      <c r="A307" s="7"/>
+      <c r="B307" s="7"/>
+      <c r="C307" s="7"/>
+      <c r="D307" s="7"/>
+      <c r="E307" s="8"/>
+      <c r="F307" s="7"/>
+      <c r="G307" s="7"/>
+      <c r="H307" s="7"/>
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A308" s="3"/>
-      <c r="B308" s="3"/>
-      <c r="C308" s="3"/>
-      <c r="D308" s="13"/>
-      <c r="E308" s="6"/>
-      <c r="F308" s="3"/>
-      <c r="G308" s="3"/>
-      <c r="H308" s="3"/>
+      <c r="A308" s="7"/>
+      <c r="B308" s="7"/>
+      <c r="C308" s="7"/>
+      <c r="D308" s="7"/>
+      <c r="E308" s="8"/>
+      <c r="F308" s="7"/>
+      <c r="G308" s="7"/>
+      <c r="H308" s="7"/>
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A309" s="3" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C309" s="3" t="s">
         <v>141</v>
       </c>
       <c r="D309" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="E309" s="6"/>
-      <c r="F309" s="3"/>
+        <v>136</v>
+      </c>
+      <c r="E309" s="5"/>
+      <c r="F309" s="3">
+        <v>50</v>
+      </c>
       <c r="G309" s="3"/>
       <c r="H309" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A310" s="3"/>
+      <c r="B310" s="3"/>
+      <c r="C310" s="3"/>
+      <c r="D310" s="13"/>
+      <c r="E310" s="5"/>
+      <c r="F310" s="3"/>
+      <c r="G310" s="3"/>
+      <c r="H310" s="3"/>
+    </row>
+    <row r="311" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A311" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B311" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C311" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D311" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E311" s="5"/>
+      <c r="F311" s="3">
+        <v>80</v>
+      </c>
+      <c r="G311" s="3"/>
+      <c r="H311" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A312" s="3"/>
+      <c r="B312" s="3"/>
+      <c r="C312" s="3"/>
+      <c r="D312" s="13"/>
+      <c r="E312" s="5"/>
+      <c r="F312" s="3"/>
+      <c r="G312" s="3"/>
+      <c r="H312" s="3"/>
+    </row>
+    <row r="313" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A313" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B313" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="C313" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="D313" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="E313" s="15"/>
+      <c r="F313" s="14"/>
+      <c r="G313" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="H313" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A314" s="14"/>
+      <c r="B314" s="14"/>
+      <c r="C314" s="14"/>
+      <c r="D314" s="16"/>
+      <c r="E314" s="15"/>
+      <c r="F314" s="14"/>
+      <c r="G314" s="14"/>
+      <c r="H314" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A315" s="14"/>
+      <c r="B315" s="14"/>
+      <c r="C315" s="14"/>
+      <c r="D315" s="16"/>
+      <c r="E315" s="15"/>
+      <c r="F315" s="14"/>
+      <c r="G315" s="14"/>
+      <c r="H315" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A316" s="14"/>
+      <c r="B316" s="14"/>
+      <c r="C316" s="14"/>
+      <c r="D316" s="16"/>
+      <c r="E316" s="15"/>
+      <c r="F316" s="14"/>
+      <c r="G316" s="14"/>
+      <c r="H316" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A317" s="3"/>
+      <c r="B317" s="3"/>
+      <c r="C317" s="3"/>
+      <c r="D317" s="13"/>
+      <c r="E317" s="5"/>
+      <c r="F317" s="3"/>
+      <c r="G317" s="3"/>
+      <c r="H317" s="3"/>
+    </row>
+    <row r="318" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A318" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B318" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C318" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="D318" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="E318" s="15"/>
+      <c r="F318" s="14"/>
+      <c r="G318" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H318" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A319" s="14"/>
+      <c r="B319" s="14"/>
+      <c r="C319" s="14"/>
+      <c r="D319" s="16"/>
+      <c r="E319" s="15"/>
+      <c r="F319" s="14"/>
+      <c r="G319" s="14"/>
+      <c r="H319" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A320" s="14"/>
+      <c r="B320" s="14"/>
+      <c r="C320" s="14"/>
+      <c r="D320" s="16"/>
+      <c r="E320" s="15"/>
+      <c r="F320" s="14"/>
+      <c r="G320" s="14"/>
+      <c r="H320" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A321" s="14"/>
+      <c r="B321" s="14"/>
+      <c r="C321" s="14"/>
+      <c r="D321" s="16"/>
+      <c r="E321" s="15"/>
+      <c r="F321" s="14"/>
+      <c r="G321" s="14"/>
+      <c r="H321" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A322" s="14"/>
+      <c r="B322" s="14"/>
+      <c r="C322" s="14"/>
+      <c r="D322" s="16"/>
+      <c r="E322" s="15"/>
+      <c r="F322" s="14"/>
+      <c r="G322" s="14"/>
+      <c r="H322" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A323" s="14"/>
+      <c r="B323" s="14"/>
+      <c r="C323" s="14"/>
+      <c r="D323" s="16"/>
+      <c r="E323" s="15"/>
+      <c r="F323" s="14"/>
+      <c r="G323" s="14"/>
+      <c r="H323" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A324" s="14"/>
+      <c r="B324" s="14"/>
+      <c r="C324" s="14"/>
+      <c r="D324" s="16"/>
+      <c r="E324" s="15"/>
+      <c r="F324" s="14"/>
+      <c r="G324" s="14"/>
+      <c r="H324" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A325" s="14"/>
+      <c r="B325" s="14"/>
+      <c r="C325" s="14"/>
+      <c r="D325" s="16"/>
+      <c r="E325" s="15"/>
+      <c r="F325" s="14"/>
+      <c r="G325" s="14"/>
+      <c r="H325" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A326" s="14"/>
+      <c r="B326" s="14"/>
+      <c r="C326" s="14"/>
+      <c r="D326" s="16"/>
+      <c r="E326" s="15"/>
+      <c r="F326" s="14"/>
+      <c r="G326" s="14"/>
+      <c r="H326" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A327" s="14"/>
+      <c r="B327" s="14"/>
+      <c r="C327" s="14"/>
+      <c r="D327" s="16"/>
+      <c r="E327" s="15"/>
+      <c r="F327" s="14"/>
+      <c r="G327" s="14"/>
+      <c r="H327" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A328" s="14"/>
+      <c r="B328" s="14"/>
+      <c r="C328" s="14"/>
+      <c r="D328" s="16"/>
+      <c r="E328" s="15"/>
+      <c r="F328" s="14"/>
+      <c r="G328" s="14"/>
+      <c r="H328" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A329" s="14"/>
+      <c r="B329" s="14"/>
+      <c r="C329" s="14"/>
+      <c r="D329" s="16"/>
+      <c r="E329" s="15"/>
+      <c r="F329" s="14"/>
+      <c r="G329" s="14"/>
+      <c r="H329" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A330" s="14"/>
+      <c r="B330" s="14"/>
+      <c r="C330" s="14"/>
+      <c r="D330" s="16"/>
+      <c r="E330" s="15"/>
+      <c r="F330" s="14"/>
+      <c r="G330" s="14"/>
+      <c r="H330" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A331" s="14"/>
+      <c r="B331" s="14"/>
+      <c r="C331" s="14"/>
+      <c r="D331" s="16"/>
+      <c r="E331" s="15"/>
+      <c r="F331" s="14"/>
+      <c r="G331" s="14"/>
+      <c r="H331" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A332" s="14"/>
+      <c r="B332" s="14"/>
+      <c r="C332" s="14"/>
+      <c r="D332" s="16"/>
+      <c r="E332" s="15"/>
+      <c r="F332" s="14"/>
+      <c r="G332" s="14"/>
+      <c r="H332" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A333" s="14"/>
+      <c r="B333" s="14"/>
+      <c r="C333" s="14"/>
+      <c r="D333" s="16"/>
+      <c r="E333" s="15"/>
+      <c r="F333" s="14"/>
+      <c r="G333" s="14"/>
+      <c r="H333" s="3" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A310" s="8"/>
-      <c r="B310" s="8"/>
-      <c r="C310" s="8"/>
-      <c r="D310" s="8"/>
-      <c r="E310" s="9"/>
-      <c r="F310" s="8"/>
-      <c r="G310" s="8"/>
-      <c r="H310" s="8"/>
-    </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A311" s="8"/>
-      <c r="B311" s="8"/>
-      <c r="C311" s="8"/>
-      <c r="D311" s="8"/>
-      <c r="E311" s="9"/>
-      <c r="F311" s="8"/>
-      <c r="G311" s="8"/>
-      <c r="H311" s="8"/>
-    </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A312" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B312" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C312" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="D312" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="E312" s="6"/>
-      <c r="F312" s="3">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A334" s="14"/>
+      <c r="B334" s="14"/>
+      <c r="C334" s="14"/>
+      <c r="D334" s="16"/>
+      <c r="E334" s="15"/>
+      <c r="F334" s="14"/>
+      <c r="G334" s="14"/>
+      <c r="H334" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A335" s="14"/>
+      <c r="B335" s="14"/>
+      <c r="C335" s="14"/>
+      <c r="D335" s="16"/>
+      <c r="E335" s="15"/>
+      <c r="F335" s="14"/>
+      <c r="G335" s="14"/>
+      <c r="H335" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A336" s="14"/>
+      <c r="B336" s="14"/>
+      <c r="C336" s="14"/>
+      <c r="D336" s="16"/>
+      <c r="E336" s="15"/>
+      <c r="F336" s="14"/>
+      <c r="G336" s="14"/>
+      <c r="H336" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A337" s="14"/>
+      <c r="B337" s="14"/>
+      <c r="C337" s="14"/>
+      <c r="D337" s="16"/>
+      <c r="E337" s="15"/>
+      <c r="F337" s="14"/>
+      <c r="G337" s="14"/>
+      <c r="H337" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A338" s="14"/>
+      <c r="B338" s="14"/>
+      <c r="C338" s="14"/>
+      <c r="D338" s="16"/>
+      <c r="E338" s="15"/>
+      <c r="F338" s="14"/>
+      <c r="G338" s="14"/>
+      <c r="H338" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A339" s="3"/>
+      <c r="B339" s="3"/>
+      <c r="C339" s="3"/>
+      <c r="D339" s="13"/>
+      <c r="E339" s="5"/>
+      <c r="F339" s="3"/>
+      <c r="G339" s="3"/>
+      <c r="H339" s="3"/>
+    </row>
+    <row r="340" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A340" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B340" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C340" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="D340" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="E340" s="15"/>
+      <c r="F340" s="14"/>
+      <c r="G340" s="14"/>
+      <c r="H340" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A341" s="14"/>
+      <c r="B341" s="14"/>
+      <c r="C341" s="14"/>
+      <c r="D341" s="16"/>
+      <c r="E341" s="15"/>
+      <c r="F341" s="14"/>
+      <c r="G341" s="14"/>
+      <c r="H341" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A342" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B342" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="G312" s="3"/>
-      <c r="H312" s="3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A313" s="3"/>
-      <c r="B313" s="3"/>
-      <c r="C313" s="3"/>
-      <c r="D313" s="14"/>
-      <c r="E313" s="6"/>
-      <c r="F313" s="3"/>
-      <c r="G313" s="3"/>
-      <c r="H313" s="3"/>
-    </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A314" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B314" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C314" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="D314" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="E314" s="6"/>
-      <c r="F314" s="3">
-        <v>80</v>
-      </c>
-      <c r="G314" s="3"/>
-      <c r="H314" s="3" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A315" s="3"/>
-      <c r="B315" s="3"/>
-      <c r="C315" s="3"/>
-      <c r="D315" s="14"/>
-      <c r="E315" s="6"/>
-      <c r="F315" s="3"/>
-      <c r="G315" s="3"/>
-      <c r="H315" s="3"/>
-    </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A316" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B316" s="15" t="s">
+      <c r="C342" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="D342" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="E342" s="15"/>
+      <c r="F342" s="14"/>
+      <c r="G342" s="14"/>
+      <c r="H342" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A343" s="14"/>
+      <c r="B343" s="14"/>
+      <c r="C343" s="14"/>
+      <c r="D343" s="16"/>
+      <c r="E343" s="15"/>
+      <c r="F343" s="14"/>
+      <c r="G343" s="14"/>
+      <c r="H343" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A344" s="14"/>
+      <c r="B344" s="14"/>
+      <c r="C344" s="14"/>
+      <c r="D344" s="16"/>
+      <c r="E344" s="15"/>
+      <c r="F344" s="14"/>
+      <c r="G344" s="14"/>
+      <c r="H344" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A345" s="14"/>
+      <c r="B345" s="14"/>
+      <c r="C345" s="14"/>
+      <c r="D345" s="16"/>
+      <c r="E345" s="15"/>
+      <c r="F345" s="14"/>
+      <c r="G345" s="14"/>
+      <c r="H345" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A346" s="14"/>
+      <c r="B346" s="14"/>
+      <c r="C346" s="14"/>
+      <c r="D346" s="16"/>
+      <c r="E346" s="15"/>
+      <c r="F346" s="14"/>
+      <c r="G346" s="14"/>
+      <c r="H346" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A347" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B347" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C347" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="D347" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="E347" s="15"/>
+      <c r="F347" s="14"/>
+      <c r="G347" s="14"/>
+      <c r="H347" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A348" s="14"/>
+      <c r="B348" s="14"/>
+      <c r="C348" s="14"/>
+      <c r="D348" s="16"/>
+      <c r="E348" s="15"/>
+      <c r="F348" s="14"/>
+      <c r="G348" s="14"/>
+      <c r="H348" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A349" s="14"/>
+      <c r="B349" s="14"/>
+      <c r="C349" s="14"/>
+      <c r="D349" s="16"/>
+      <c r="E349" s="15"/>
+      <c r="F349" s="14"/>
+      <c r="G349" s="14"/>
+      <c r="H349" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A350" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B350" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C350" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D350" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E350" s="5"/>
+      <c r="F350" s="3"/>
+      <c r="G350" s="3"/>
+      <c r="H350" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C316" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="D316" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="E316" s="16"/>
-      <c r="F316" s="15"/>
-      <c r="G316" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="H316" s="3" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A317" s="15"/>
-      <c r="B317" s="15"/>
-      <c r="C317" s="15"/>
-      <c r="D317" s="17"/>
-      <c r="E317" s="16"/>
-      <c r="F317" s="15"/>
-      <c r="G317" s="15"/>
-      <c r="H317" s="3" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A318" s="15"/>
-      <c r="B318" s="15"/>
-      <c r="C318" s="15"/>
-      <c r="D318" s="17"/>
-      <c r="E318" s="16"/>
-      <c r="F318" s="15"/>
-      <c r="G318" s="15"/>
-      <c r="H318" s="3" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A319" s="15"/>
-      <c r="B319" s="15"/>
-      <c r="C319" s="15"/>
-      <c r="D319" s="17"/>
-      <c r="E319" s="16"/>
-      <c r="F319" s="15"/>
-      <c r="G319" s="15"/>
-      <c r="H319" s="3" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A320" s="3"/>
-      <c r="B320" s="3"/>
-      <c r="C320" s="3"/>
-      <c r="D320" s="14"/>
-      <c r="E320" s="6"/>
-      <c r="F320" s="3"/>
-      <c r="G320" s="3"/>
-      <c r="H320" s="3"/>
-    </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A321" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B321" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C321" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="D321" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="E321" s="16"/>
-      <c r="F321" s="15"/>
-      <c r="G321" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="H321" s="3" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A322" s="15"/>
-      <c r="B322" s="15"/>
-      <c r="C322" s="15"/>
-      <c r="D322" s="17"/>
-      <c r="E322" s="16"/>
-      <c r="F322" s="15"/>
-      <c r="G322" s="15"/>
-      <c r="H322" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A323" s="15"/>
-      <c r="B323" s="15"/>
-      <c r="C323" s="15"/>
-      <c r="D323" s="17"/>
-      <c r="E323" s="16"/>
-      <c r="F323" s="15"/>
-      <c r="G323" s="15"/>
-      <c r="H323" s="3" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A324" s="15"/>
-      <c r="B324" s="15"/>
-      <c r="C324" s="15"/>
-      <c r="D324" s="17"/>
-      <c r="E324" s="16"/>
-      <c r="F324" s="15"/>
-      <c r="G324" s="15"/>
-      <c r="H324" s="3" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A325" s="15"/>
-      <c r="B325" s="15"/>
-      <c r="C325" s="15"/>
-      <c r="D325" s="17"/>
-      <c r="E325" s="16"/>
-      <c r="F325" s="15"/>
-      <c r="G325" s="15"/>
-      <c r="H325" s="3" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A326" s="15"/>
-      <c r="B326" s="15"/>
-      <c r="C326" s="15"/>
-      <c r="D326" s="17"/>
-      <c r="E326" s="16"/>
-      <c r="F326" s="15"/>
-      <c r="G326" s="15"/>
-      <c r="H326" s="3" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A327" s="15"/>
-      <c r="B327" s="15"/>
-      <c r="C327" s="15"/>
-      <c r="D327" s="17"/>
-      <c r="E327" s="16"/>
-      <c r="F327" s="15"/>
-      <c r="G327" s="15"/>
-      <c r="H327" s="3" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A328" s="15"/>
-      <c r="B328" s="15"/>
-      <c r="C328" s="15"/>
-      <c r="D328" s="17"/>
-      <c r="E328" s="16"/>
-      <c r="F328" s="15"/>
-      <c r="G328" s="15"/>
-      <c r="H328" s="3" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A329" s="15"/>
-      <c r="B329" s="15"/>
-      <c r="C329" s="15"/>
-      <c r="D329" s="17"/>
-      <c r="E329" s="16"/>
-      <c r="F329" s="15"/>
-      <c r="G329" s="15"/>
-      <c r="H329" s="3" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A330" s="15"/>
-      <c r="B330" s="15"/>
-      <c r="C330" s="15"/>
-      <c r="D330" s="17"/>
-      <c r="E330" s="16"/>
-      <c r="F330" s="15"/>
-      <c r="G330" s="15"/>
-      <c r="H330" s="3" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A331" s="15"/>
-      <c r="B331" s="15"/>
-      <c r="C331" s="15"/>
-      <c r="D331" s="17"/>
-      <c r="E331" s="16"/>
-      <c r="F331" s="15"/>
-      <c r="G331" s="15"/>
-      <c r="H331" s="3" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A332" s="15"/>
-      <c r="B332" s="15"/>
-      <c r="C332" s="15"/>
-      <c r="D332" s="17"/>
-      <c r="E332" s="16"/>
-      <c r="F332" s="15"/>
-      <c r="G332" s="15"/>
-      <c r="H332" s="3" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A333" s="15"/>
-      <c r="B333" s="15"/>
-      <c r="C333" s="15"/>
-      <c r="D333" s="17"/>
-      <c r="E333" s="16"/>
-      <c r="F333" s="15"/>
-      <c r="G333" s="15"/>
-      <c r="H333" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A334" s="15"/>
-      <c r="B334" s="15"/>
-      <c r="C334" s="15"/>
-      <c r="D334" s="17"/>
-      <c r="E334" s="16"/>
-      <c r="F334" s="15"/>
-      <c r="G334" s="15"/>
-      <c r="H334" s="3" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A335" s="15"/>
-      <c r="B335" s="15"/>
-      <c r="C335" s="15"/>
-      <c r="D335" s="17"/>
-      <c r="E335" s="16"/>
-      <c r="F335" s="15"/>
-      <c r="G335" s="15"/>
-      <c r="H335" s="3" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A336" s="15"/>
-      <c r="B336" s="15"/>
-      <c r="C336" s="15"/>
-      <c r="D336" s="17"/>
-      <c r="E336" s="16"/>
-      <c r="F336" s="15"/>
-      <c r="G336" s="15"/>
-      <c r="H336" s="3" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A337" s="15"/>
-      <c r="B337" s="15"/>
-      <c r="C337" s="15"/>
-      <c r="D337" s="17"/>
-      <c r="E337" s="16"/>
-      <c r="F337" s="15"/>
-      <c r="G337" s="15"/>
-      <c r="H337" s="3" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A338" s="15"/>
-      <c r="B338" s="15"/>
-      <c r="C338" s="15"/>
-      <c r="D338" s="17"/>
-      <c r="E338" s="16"/>
-      <c r="F338" s="15"/>
-      <c r="G338" s="15"/>
-      <c r="H338" s="3" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A339" s="15"/>
-      <c r="B339" s="15"/>
-      <c r="C339" s="15"/>
-      <c r="D339" s="17"/>
-      <c r="E339" s="16"/>
-      <c r="F339" s="15"/>
-      <c r="G339" s="15"/>
-      <c r="H339" s="3" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A340" s="15"/>
-      <c r="B340" s="15"/>
-      <c r="C340" s="15"/>
-      <c r="D340" s="17"/>
-      <c r="E340" s="16"/>
-      <c r="F340" s="15"/>
-      <c r="G340" s="15"/>
-      <c r="H340" s="3" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A341" s="15"/>
-      <c r="B341" s="15"/>
-      <c r="C341" s="15"/>
-      <c r="D341" s="17"/>
-      <c r="E341" s="16"/>
-      <c r="F341" s="15"/>
-      <c r="G341" s="15"/>
-      <c r="H341" s="3" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A342" s="3"/>
-      <c r="B342" s="3"/>
-      <c r="C342" s="3"/>
-      <c r="D342" s="14"/>
-      <c r="E342" s="6"/>
-      <c r="F342" s="3"/>
-      <c r="G342" s="3"/>
-      <c r="H342" s="3"/>
-    </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A343" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B343" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C343" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="D343" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="E343" s="16"/>
-      <c r="F343" s="15"/>
-      <c r="G343" s="15"/>
-      <c r="H343" s="3" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A344" s="15"/>
-      <c r="B344" s="15"/>
-      <c r="C344" s="15"/>
-      <c r="D344" s="17"/>
-      <c r="E344" s="16"/>
-      <c r="F344" s="15"/>
-      <c r="G344" s="15"/>
-      <c r="H344" s="3" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A345" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B345" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C345" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="D345" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="E345" s="16"/>
-      <c r="F345" s="15"/>
-      <c r="G345" s="15"/>
-      <c r="H345" s="3" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A346" s="15"/>
-      <c r="B346" s="15"/>
-      <c r="C346" s="15"/>
-      <c r="D346" s="17"/>
-      <c r="E346" s="16"/>
-      <c r="F346" s="15"/>
-      <c r="G346" s="15"/>
-      <c r="H346" s="3" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A347" s="15"/>
-      <c r="B347" s="15"/>
-      <c r="C347" s="15"/>
-      <c r="D347" s="17"/>
-      <c r="E347" s="16"/>
-      <c r="F347" s="15"/>
-      <c r="G347" s="15"/>
-      <c r="H347" s="3" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A348" s="15"/>
-      <c r="B348" s="15"/>
-      <c r="C348" s="15"/>
-      <c r="D348" s="17"/>
-      <c r="E348" s="16"/>
-      <c r="F348" s="15"/>
-      <c r="G348" s="15"/>
-      <c r="H348" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A349" s="15"/>
-      <c r="B349" s="15"/>
-      <c r="C349" s="15"/>
-      <c r="D349" s="17"/>
-      <c r="E349" s="16"/>
-      <c r="F349" s="15"/>
-      <c r="G349" s="15"/>
-      <c r="H349" s="3" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A350" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B350" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C350" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="D350" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="E350" s="16"/>
-      <c r="F350" s="15"/>
-      <c r="G350" s="15"/>
-      <c r="H350" s="3" t="s">
-        <v>310</v>
-      </c>
     </row>
     <row r="351" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A351" s="15"/>
-      <c r="B351" s="15"/>
-      <c r="C351" s="15"/>
-      <c r="D351" s="17"/>
-      <c r="E351" s="16"/>
-      <c r="F351" s="15"/>
-      <c r="G351" s="15"/>
-      <c r="H351" s="3" t="s">
-        <v>311</v>
-      </c>
+      <c r="A351" s="3"/>
+      <c r="B351" s="3"/>
+      <c r="C351" s="3"/>
+      <c r="D351" s="13"/>
+      <c r="E351" s="5"/>
+      <c r="F351" s="3"/>
+      <c r="G351" s="3"/>
+      <c r="H351" s="3"/>
     </row>
     <row r="352" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A352" s="15"/>
-      <c r="B352" s="15"/>
-      <c r="C352" s="15"/>
-      <c r="D352" s="17"/>
-      <c r="E352" s="16"/>
-      <c r="F352" s="15"/>
-      <c r="G352" s="15"/>
+      <c r="A352" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B352" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C352" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D352" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E352" s="5"/>
+      <c r="F352" s="3"/>
+      <c r="G352" s="3"/>
       <c r="H352" s="3" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A353" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B353" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C353" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="D353" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="E353" s="6"/>
-      <c r="F353" s="3"/>
-      <c r="G353" s="3"/>
-      <c r="H353" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A354" s="3"/>
-      <c r="B354" s="3"/>
-      <c r="C354" s="3"/>
-      <c r="D354" s="14"/>
-      <c r="E354" s="6"/>
-      <c r="F354" s="3"/>
-      <c r="G354" s="3"/>
-      <c r="H354" s="3"/>
-    </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A355" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B355" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C355" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="D355" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="E355" s="6"/>
-      <c r="F355" s="3"/>
-      <c r="G355" s="3"/>
-      <c r="H355" s="3" t="s">
-        <v>231</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="98">
-    <mergeCell ref="A204:A207"/>
-    <mergeCell ref="G154:G157"/>
-    <mergeCell ref="F154:F157"/>
-    <mergeCell ref="E154:E157"/>
-    <mergeCell ref="D154:D157"/>
-    <mergeCell ref="C154:C157"/>
-    <mergeCell ref="B154:B157"/>
-    <mergeCell ref="A154:A157"/>
-    <mergeCell ref="G204:G207"/>
-    <mergeCell ref="F204:F207"/>
-    <mergeCell ref="E204:E207"/>
-    <mergeCell ref="D204:D207"/>
-    <mergeCell ref="C204:C207"/>
-    <mergeCell ref="B204:B207"/>
-    <mergeCell ref="A247:A249"/>
-    <mergeCell ref="G239:G241"/>
-    <mergeCell ref="F239:F241"/>
-    <mergeCell ref="E239:E241"/>
-    <mergeCell ref="D239:D241"/>
-    <mergeCell ref="C239:C241"/>
-    <mergeCell ref="B239:B241"/>
-    <mergeCell ref="A239:A241"/>
-    <mergeCell ref="G247:G249"/>
-    <mergeCell ref="F247:F249"/>
-    <mergeCell ref="E247:E249"/>
-    <mergeCell ref="D247:D249"/>
-    <mergeCell ref="C247:C249"/>
-    <mergeCell ref="B247:B249"/>
-    <mergeCell ref="A281:A284"/>
-    <mergeCell ref="G266:G270"/>
-    <mergeCell ref="F266:F270"/>
-    <mergeCell ref="E266:E270"/>
-    <mergeCell ref="D266:D270"/>
-    <mergeCell ref="C266:C270"/>
-    <mergeCell ref="B266:B270"/>
-    <mergeCell ref="A266:A270"/>
-    <mergeCell ref="G281:G284"/>
-    <mergeCell ref="F281:F284"/>
-    <mergeCell ref="E281:E284"/>
-    <mergeCell ref="D281:D284"/>
-    <mergeCell ref="C281:C284"/>
-    <mergeCell ref="B281:B284"/>
-    <mergeCell ref="A297:A300"/>
-    <mergeCell ref="G289:G296"/>
-    <mergeCell ref="F289:F296"/>
-    <mergeCell ref="E289:E296"/>
-    <mergeCell ref="D289:D296"/>
-    <mergeCell ref="C289:C296"/>
-    <mergeCell ref="B289:B296"/>
-    <mergeCell ref="A289:A296"/>
-    <mergeCell ref="G297:G300"/>
-    <mergeCell ref="F297:F300"/>
-    <mergeCell ref="E297:E300"/>
-    <mergeCell ref="D297:D300"/>
-    <mergeCell ref="C297:C300"/>
-    <mergeCell ref="B297:B300"/>
-    <mergeCell ref="A316:A319"/>
-    <mergeCell ref="G301:G307"/>
-    <mergeCell ref="F301:F307"/>
-    <mergeCell ref="E301:E307"/>
-    <mergeCell ref="D301:D307"/>
-    <mergeCell ref="C301:C307"/>
-    <mergeCell ref="B301:B307"/>
-    <mergeCell ref="A301:A307"/>
-    <mergeCell ref="G316:G319"/>
-    <mergeCell ref="F316:F319"/>
-    <mergeCell ref="E316:E319"/>
-    <mergeCell ref="D316:D319"/>
-    <mergeCell ref="C316:C319"/>
-    <mergeCell ref="B316:B319"/>
-    <mergeCell ref="A343:A344"/>
-    <mergeCell ref="G321:G341"/>
-    <mergeCell ref="F321:F341"/>
-    <mergeCell ref="E321:E341"/>
-    <mergeCell ref="D321:D341"/>
-    <mergeCell ref="C321:C341"/>
-    <mergeCell ref="B321:B341"/>
-    <mergeCell ref="A321:A341"/>
-    <mergeCell ref="G343:G344"/>
-    <mergeCell ref="F343:F344"/>
-    <mergeCell ref="E343:E344"/>
-    <mergeCell ref="D343:D344"/>
-    <mergeCell ref="C343:C344"/>
-    <mergeCell ref="B343:B344"/>
-    <mergeCell ref="A350:A352"/>
-    <mergeCell ref="G345:G349"/>
-    <mergeCell ref="F345:F349"/>
-    <mergeCell ref="E345:E349"/>
-    <mergeCell ref="D345:D349"/>
-    <mergeCell ref="C345:C349"/>
-    <mergeCell ref="B345:B349"/>
-    <mergeCell ref="A345:A349"/>
-    <mergeCell ref="G350:G352"/>
-    <mergeCell ref="F350:F352"/>
-    <mergeCell ref="E350:E352"/>
-    <mergeCell ref="D350:D352"/>
-    <mergeCell ref="C350:C352"/>
-    <mergeCell ref="B350:B352"/>
+  <mergeCells count="91">
+    <mergeCell ref="A201:A204"/>
+    <mergeCell ref="G201:G204"/>
+    <mergeCell ref="F201:F204"/>
+    <mergeCell ref="E201:E204"/>
+    <mergeCell ref="D201:D204"/>
+    <mergeCell ref="C201:C204"/>
+    <mergeCell ref="B201:B204"/>
+    <mergeCell ref="A244:A246"/>
+    <mergeCell ref="G236:G238"/>
+    <mergeCell ref="F236:F238"/>
+    <mergeCell ref="E236:E238"/>
+    <mergeCell ref="D236:D238"/>
+    <mergeCell ref="C236:C238"/>
+    <mergeCell ref="B236:B238"/>
+    <mergeCell ref="A236:A238"/>
+    <mergeCell ref="G244:G246"/>
+    <mergeCell ref="F244:F246"/>
+    <mergeCell ref="E244:E246"/>
+    <mergeCell ref="D244:D246"/>
+    <mergeCell ref="C244:C246"/>
+    <mergeCell ref="B244:B246"/>
+    <mergeCell ref="A278:A281"/>
+    <mergeCell ref="G263:G267"/>
+    <mergeCell ref="F263:F267"/>
+    <mergeCell ref="E263:E267"/>
+    <mergeCell ref="D263:D267"/>
+    <mergeCell ref="C263:C267"/>
+    <mergeCell ref="B263:B267"/>
+    <mergeCell ref="A263:A267"/>
+    <mergeCell ref="G278:G281"/>
+    <mergeCell ref="F278:F281"/>
+    <mergeCell ref="E278:E281"/>
+    <mergeCell ref="D278:D281"/>
+    <mergeCell ref="C278:C281"/>
+    <mergeCell ref="B278:B281"/>
+    <mergeCell ref="A294:A297"/>
+    <mergeCell ref="G286:G293"/>
+    <mergeCell ref="F286:F293"/>
+    <mergeCell ref="E286:E293"/>
+    <mergeCell ref="D286:D293"/>
+    <mergeCell ref="C286:C293"/>
+    <mergeCell ref="B286:B293"/>
+    <mergeCell ref="A286:A293"/>
+    <mergeCell ref="G294:G297"/>
+    <mergeCell ref="F294:F297"/>
+    <mergeCell ref="E294:E297"/>
+    <mergeCell ref="D294:D297"/>
+    <mergeCell ref="C294:C297"/>
+    <mergeCell ref="B294:B297"/>
+    <mergeCell ref="A313:A316"/>
+    <mergeCell ref="G298:G304"/>
+    <mergeCell ref="F298:F304"/>
+    <mergeCell ref="E298:E304"/>
+    <mergeCell ref="D298:D304"/>
+    <mergeCell ref="C298:C304"/>
+    <mergeCell ref="B298:B304"/>
+    <mergeCell ref="A298:A304"/>
+    <mergeCell ref="G313:G316"/>
+    <mergeCell ref="F313:F316"/>
+    <mergeCell ref="E313:E316"/>
+    <mergeCell ref="D313:D316"/>
+    <mergeCell ref="C313:C316"/>
+    <mergeCell ref="B313:B316"/>
+    <mergeCell ref="A340:A341"/>
+    <mergeCell ref="G318:G338"/>
+    <mergeCell ref="F318:F338"/>
+    <mergeCell ref="E318:E338"/>
+    <mergeCell ref="D318:D338"/>
+    <mergeCell ref="C318:C338"/>
+    <mergeCell ref="B318:B338"/>
+    <mergeCell ref="A318:A338"/>
+    <mergeCell ref="G340:G341"/>
+    <mergeCell ref="F340:F341"/>
+    <mergeCell ref="E340:E341"/>
+    <mergeCell ref="D340:D341"/>
+    <mergeCell ref="C340:C341"/>
+    <mergeCell ref="B340:B341"/>
+    <mergeCell ref="A347:A349"/>
+    <mergeCell ref="G342:G346"/>
+    <mergeCell ref="F342:F346"/>
+    <mergeCell ref="E342:E346"/>
+    <mergeCell ref="D342:D346"/>
+    <mergeCell ref="C342:C346"/>
+    <mergeCell ref="B342:B346"/>
+    <mergeCell ref="A342:A346"/>
+    <mergeCell ref="G347:G349"/>
+    <mergeCell ref="F347:F349"/>
+    <mergeCell ref="E347:E349"/>
+    <mergeCell ref="D347:D349"/>
+    <mergeCell ref="C347:C349"/>
+    <mergeCell ref="B347:B349"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/disasterinfosite/data/snuggets-es.xlsx
+++ b/disasterinfosite/data/snuggets-es.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1405" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1402" uniqueCount="403">
   <si>
     <t>section</t>
   </si>
@@ -350,9 +350,6 @@
     <t>LSLD_kingco</t>
   </si>
   <si>
-    <t>Do you hear sounds of cracking wood&amp;#44; boulders knocking together&amp;#44; the groaning of ground? Do you see cracks in the landscape and downslope movement of land&amp;#44; rocks&amp;#44; and vegetation? It could be a landslide. Move to stable ground.</t>
-  </si>
-  <si>
     <t>Fire_WUI_kingco_only</t>
   </si>
   <si>
@@ -461,48 +458,6 @@
     <t>LSLD_existing_features</t>
   </si>
   <si>
-    <t>&lt;p&gt;&lt;b&gt;This area has a shallow slope and is less likely to have landslides here&lt;/b&gt;. Landslides tend to happen when the ground is wet from lots of rain OR from ground shaking caused by earthquakes. Scroll down to historical events see if any landslides have been documented in your area. (&lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_SteepSlope.jpg target=_blank&gt;map&lt;/a&gt;)&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;b&gt;Due to the steeper slopes&amp;#44; this area has an increased chance for shallow landslides here&lt;/b&gt;.  Landslides tend to happen when the ground is wet from lots of rain OR from ground shaking caused by earthquakes. Scroll down to historical events to see if any landslide activity has been documented in your area. (&lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_SteepSlope.jpg target=_blank&gt;map&lt;/a&gt;)&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ol&gt;&lt;li&gt;&lt;b&gt;ASSESS&lt;/b&gt; - If the area around your home may be prone to landslides &lt;b&gt;seek advice of geotechnical experts&lt;/b&gt;. They can evaluate landslide hazard and/or design corrective techniques to reduce landslide risk.&lt;/li&gt;&lt;li&gt;&lt;b&gt;REDUCE RISK&lt;/b&gt; - Plant ground cover on slopes and/or build a retaining wall to &lt;b&gt;stabilize hillsides&lt;/b&gt;&lt;/li&gt;&lt;li&gt;&lt;b&gt;PREPARE&lt;/b&gt; - &lt;b&gt;Make a supply kit and family plan&lt;/b&gt; designating at least two evacuation routes&lt;/ol&gt;</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Staying out of the path of a landslide or debris flow is your best protection.&lt;/b&gt; The U.S. Geological Survey also recommend the following&amp;#44; &lt;ul style="padding-left:1.2em"&gt;&lt;li&gt;&lt;b&gt;BE ALERT - Listen for unusual sounds&lt;/b&gt;. Intense&amp;#44; short bursts of rain may be particularly dangerous&amp;#44; especially after longer periods of heavy rainfall and damp weather.&lt;/li&gt;&lt;li&gt;&lt;b&gt;CONSIDER LEAVING&lt;/b&gt; - If you are in areas susceptible to landslides and debris flows&amp;#44; consider leaving if it is safe to do so.  If you decide to stay home&amp;#44; move to a second story if possible.&lt;/li&gt;&lt;li&gt;&lt;b&gt;NOTICE STREAM LEVELS&lt;/b&gt; - If you are near a stream or channel&amp;#44; &lt;b&gt;be alert for any sudden increase or decrease in water flow and for a change from clear to muddy water&lt;/b&gt;. These could indicate landslide activity upstream. DON'T DELAY! Save yourself&amp;#44; not your belongings.&lt;/li&gt;&lt;/ul&gt; You can find more landslide tips from USGS &lt;a href=http://landslides.usgs.gov/learn/prepare.php target=_blank&gt;here&lt;/a&gt;. &lt;img src="https://hazardready.org/images/seattle-ready/snuggets/Landslide_during.jpg" alt="This is a panel of three cartoon images showing what to do during an a landslide. Stay Alert&amp;#44; Leave the area&amp;#44; and Don't Delay." title="During Landslide Image"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;BE PREPARED FOR FLOODING (landslides often block rivers and can cause rivers to back up and flood)&lt;/b&gt;.&lt;ul style="padding-left:1.2em"&gt;&lt;li&gt;Stay away from the slide. Other slides can occur after the main slide.&lt;/li&gt;&lt;li&gt;Once it's safe&amp;#44; check for injured and trapped people.&lt;/li&gt;&lt;li&gt;Check for damaged utility lines and report any damage to your utility company.&lt;/li&gt;&lt;li&gt;Listen to local media or NOAA Weather Radio for current information.&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;b&gt;No landslides have been identified here&lt;/b&gt; (&lt;a href=http://www.kingcounty.gov/~/media/services/gis/documents/DPER-LS-hazard-map-report.ashx?la=en target=_blank&gt;2016 Report&lt;/a&gt;). Landslides are most common on barren&amp;#44; steep slopes where drainages come together. If you live below an area like this be aware of your risks (&lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_existing.jpg=en target=_blank&gt;map&lt;/a&gt;). To examine the data layers more closely go to the&lt;a href=https://gismaps.kingcounty.gov/iMap/ target=_blank&gt; King County iMap&lt;/a&gt; (make sure landslides are checked in the legend).&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;b&gt;Scientists have not identified any landslides here&lt;/b&gt;. For more information see the &lt;a href=http://your.kingcounty.gov/dnrp/library/2016/kcr2783.pdf =en target=_blank&gt;2016 Report&lt;/a&gt; and &lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_existing.jpg target=_blank&gt;map&lt;/a&gt;. To examine the data layers more closely go to the&lt;a href=https://gismaps.kingcounty.gov/iMap/ target=_blank&gt; King County iMap&lt;/a&gt; (make sure landslides are checked in the legend).&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;b&gt;No landslides have been identified here&lt;/b&gt; according to a 1995 study on slides in the City of Seattle (&lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_existing.jpg =en target=_blank&gt;map&lt;/a&gt;).&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;b&gt;No studies have been completed here&lt;/b&gt; to identify if historical landslides exist (&lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_existing.jpg =en target=_blank&gt;map&lt;/a&gt;).&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;b&gt;A LANDSLIDE HAS HAPPENED HERE&lt;/b&gt; at some time in the past (&lt;a href=http://www.kingcounty.gov/~/media/services/gis/documents/DPER-LS-hazard-map-report.ashx?la=en target=_blank&gt;2016 Report&lt;/a&gt;) and  (&lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_existing.jpg =en target=_blank&gt;map&lt;/a&gt;). Historical slides may or may not indicate potential for future sliding. To find out if a hazard still exists a site-specific assessment needs to be done by a geotechnical consultant. To examine the data layers more closely go to the&lt;a href=https://gismaps.kingcounty.gov/iMap/ target=_blank&gt; King County iMap&lt;/a&gt; (make sure landslides are checked in the legend).&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;b&gt;A LANDSLIDE HAS HAPPENED HERE&lt;/b&gt; at some time in the past (&lt;a href=http://www.kingcounty.gov/~/media/services/gis/documents/DPER-LS-hazard-map-report.ashx?la=en target=_blank&gt;2016 Report&lt;/a&gt;) and (&lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_existing.jpg =en target=_blank&gt;map&lt;/a&gt;). Historical slides may or may not indicate potential for future sliding. To find out if a hazard still exists a site-specific assessment needs to be done by a geotechnical consultant. To examine the data layers more closely go to the&lt;a href=https://gismaps.kingcounty.gov/iMap/ target=_blank&gt; King County iMap&lt;/a&gt; (make sure landslides are checked in the legend).&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;b&gt;A LANDSLIDE HAS HAPPENED HERE&lt;/b&gt; at some time in the past (&lt;a href=http://your.kingcounty.gov/dnrp/library/2016/kcr2783.pdf =en target=_blank&gt;2016 Report&lt;/a&gt;) and (&lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_existing.jpg =en target=_blank&gt;map&lt;/a&gt;). Historical slides may or may not indicate potential for future sliding. To find out if a hazard still exists a site-specific assessment needs to be done by a geotechnical consultant. To examine the data layers more closely go to the&lt;a href=https://gismaps.kingcounty.gov/iMap/ target=_blank&gt; King County iMap&lt;/a&gt; (make sure landslides are checked in the legend).&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;b&gt;A ROCK AVALANCHE HAS HAPPENED HERE&lt;/b&gt; at some time in the past (&lt;a href=http://your.kingcounty.gov/dnrp/library/2016/kcr2783.pdf =en target=_blank&gt;2016 Report&lt;/a&gt;) and (&lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_existing.jpg =en target=_blank&gt;map&lt;/a&gt;). Historical slides may or may not indicate potential for future sliding. To find out if a hazard still exists a site-specific assessment needs to be done by a geotechnical consultant. Examine the data layers more closely on the&lt;a href=https://gismaps.kingcounty.gov/iMap/ target=_blank&gt; King County iMap&lt;/a&gt; (make sure landslides are checked in the legend).&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;b&gt;A LANDSLIDE HAS HAPPENED HERE&lt;/b&gt; according to a 1995 study on slides in the City of Seattle (&lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_existing.jpg =en target=_blank&gt;map&lt;/a&gt;). Historical slides may or may not indicate potential for future sliding. To find out if a hazard still exists a site-specific assessment needs to be done by a geotechnical consultant.&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>&lt;p&gt;&lt;b&gt;You could experience a major wildfire here&lt;/b&gt;. It will be fast moving&amp;#44; with large flames and may change direction quickly. It could take firefighters days or weeks to contain it. SMOKE from distant wildfires can travel far and can be a factor even if none are burning nearby. Check on your local air quality &lt;a href=http://www.pscleanair.org/airquality/ourairquality/Pages/default.aspx target=_blank&gt;here&lt;/a&gt;.&lt;/p&gt;</t>
   </si>
   <si>
@@ -557,12 +512,6 @@
     <t>&lt;p&gt;&lt;b&gt;Severe heat could last for days&lt;/b&gt; causing communities to see an increase in heat-related illness including HEAT EXHAUSTION and HEAT STROKE. The high temps&amp;#44; dry conditions&amp;#44; and increased likelihood for lightning may lead to wildfires.&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;For more information check out the Department of Natural Resources page on &lt;a href=http://www.dnr.wa.gov/programs-and-services/geology/geologic-hazards/landslides#some-historic-landslides-in-washington-state target=_blank&gt;landslides&lt;/a&gt; and &lt;a href=http://file.dnr.wa.gov/publications/ger_fs_landslide_hazards.pdf target=_blank&gt;landslide hazards&lt;/a&gt;. For landslides in your neighborhood&amp;#44; see available information from &lt;a href=http://www.seattle.gov/dpd/aboutus/whoweare/emergencymanagement target=_blank&gt;&lt;b&gt;City of Seattle&lt;/b&gt;&lt;/a&gt; and &lt;a href=http://www.kingcounty.gov/services/environment/water-and-land/landslides.aspx target=_blank&gt;&lt;b&gt;King County&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;b&gt;Due to the steeper slopes&amp;#44; this area has an increased chance for shallow landslides here&lt;/b&gt;.  Landslides tend to happen when the ground is wet from lots of rain OR from ground shaking caused by earthquakes.  Scroll down to historical events to see if any landslide activity has been documented in your area. (&lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_SteepSlope.jpg target=_blank&gt;map&lt;/a&gt;)&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>lsld_steepgradezone</t>
   </si>
   <si>
@@ -590,15 +539,6 @@
     <t>&lt;/a&gt;</t>
   </si>
   <si>
-    <t>Landslides often happen along ocean-side bluffs from waves buffeting coastlines. &lt;b&gt;Puget Sound waters have risen 8 inches since 1913&lt;/b&gt;! With higher water levels the potential for bluff erosion will increase. Excess rain from severe storms could also weaken steep slopes triggering more landslides in King County. Click the image to find out more. &lt;br&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img src="https://hazardready.org/images/seattle-ready/snuggets/Climate_Storms.jpg" alt="Climate Change Storms Infographic"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;b&gt;A LANDSLIDE and ROCK AVALANCHE HAS HAPPENED HERE&lt;/b&gt; at some time in the past (&lt;a href=http://your.kingcounty.gov/dnrp/library/2016/kcr2783.pdf =en target=_blank&gt;2016 Report&lt;/a&gt;) and (&lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_existing.jpg =en target=_blank&gt;map&lt;/a&gt;). Historical slides may or may not indicate potential for future sliding. To find out if a hazard still exists a site-specific assessment needs to be done by a geotechnical consultant. Examine the data layers more closely on the&lt;a href=https://gismaps.kingcounty.gov/iMap/ target=_blank&gt; King County iMap&lt;/a&gt; (make sure landslides are checked in the legend).&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>&lt;p&gt;The number of &lt;b&gt;wildfires in the Pacific Northwest has already increased significantly in the last few decades&lt;/b&gt;. This trend is likely to continue with drier and stormier summers (think lightning that sparks fires). Large areas of forest could burn and put smoke into the air. Click the image to find out more. &lt;br&gt;&lt;a href="http://kingcounty.gov/services/environment/climate/why-act/infographic.aspx" target=_blank&gt;</t>
   </si>
   <si>
@@ -1139,12 +1079,6 @@
     <t>&lt;p&gt;Como la mayoría de las cosas, los ríos siguen el camino de menor resistencia y cambian el curso con el tiempo. Cuando más cambian es durante y después de las inundaciones. &lt;b&gt;Esta zona tiene pocas posibilidades de que el río Tolt la atraviese en el futuro. &lt;a href=https://hazardready.org/seattle/static/img/data/Flood_CMZ.jpg target=_blank&gt;(mapa)&lt;/a&gt;&lt;/b&gt;&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;&lt;b&gt;It's unlikely you will see a slide here&amp;#44; but you could see one on nearby steep slopes if conditions are right.&lt;/b&gt; Keep an eye out for unstable areas. Especially roads that have been blocked by fallen debris or washed out. &lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_SteepSlope.jpg target=_blank&gt;(mapa)&lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Are the steep slopes nearby unvegetated? Has it been raining for days? &lt;b&gt;If yes&amp;#44; the steep slopes make it more likely for a landslide to happen here&lt;/b&gt;. Keep an eye out for unstable areas. Especially roads that have been blocked by fallen debris or washed out. &lt;a href=https://hazardready.org/seattle/static/img/data/Landslide_SteepSlope.jpg target=_blank&gt;(mapa)&lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>&lt;p&gt;&lt;b&gt;This is a very high-risk community for wildfire&lt;/b&gt;. It sits at a boundary between humans and the forest. Western Washington is temperate&amp;#44; but wildfires do strike the eastern part of King County every year. &lt;a href=https://hazardready.org/seattle/static/img/data/Wildfire_WUI.jpg target=_blank&gt;(mapa)&lt;/a&gt;&lt;/p&gt;</t>
   </si>
   <si>
@@ -1245,6 +1179,63 @@
   </si>
   <si>
     <t>Debido a la gran cantidad de ríos en el Condado King, las inundaciones son comunes durante períodos de lluvias torrenciales o rápidos deshielos. &lt;b&gt;Las inundaciones son más frecuentes de noviembre a febrero&lt;/b&gt;, pero pueden suceder cada vez que las condiciones sean las correctas.</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Esta área tiene una pendiente leve y es menos probable que tenga deslizamientos de tierra aquí.&lt;/b&gt; Los deslizamientos de tierra tienden a ocasionarse cuando la superficie está húmeda debido a mucha lluvia o a los movimientos de tierra causados por los terremotos. Desplácese hacia abajo para ver eventos históricos, consulte si en su área se registró algún deslizamiento de tierra. ( &lt;a href="https://hazardready.org/seattle/static/img/data/Landslide_SteepSlope.jpg" target="_blank"&gt;mapa&lt;/a&gt;)&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Debido a las pendientes más pronunciadas, esta área tiene mayores posibilidades de deslizamientos de tierra superficiales aquí.&lt;/b&gt; Los deslizamientos de tierra tienden a ocasionarse cuando la superficie está húmeda debido a mucha lluvia o a los movimientos de tierra causados por los terremotos. Desplácese hacia abajo hasta eventos históricos para ver si se registró alguna actividad de deslizamiento de tierra en su área. ( &lt;a href="https://hazardready.org/seattle/static/img/data/Landslide_SteepSlope.jpg" target="_blank"&gt;mapa&lt;/a&gt;)&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Es poco probable que vea un deslizamiento aquí, pero podría ver uno en pendientes pronunciadas cercanas si las condiciones son las correctas.&lt;/b&gt; Esté atento a las áreas inestables. Especialmente los caminos que hayan sido bloqueados por escombros caídos o arrastrados. &lt;a href="https://hazardready.org/seattle/static/img/data/Landslide_SteepSlope.jpg" target="_blank"&gt;(mapa)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;¿Las pendientes pronunciadas cercanas no tienen vegetación? ¿Ha estado lloviendo durante días? &lt;b&gt;Si la respuesta es afirmativa, las pendientes pronunciadas hacen que sea más probable un deslizamiento de tierra aquí.&lt;/b&gt; Esté atento a las áreas inestables. Especialmente los caminos que hayan sido bloqueados por escombros caídos o arrastrados. &lt;a href="https://hazardready.org/seattle/static/img/data/Landslide_SteepSlope.jpg" target="_blank"&gt;(mapa)&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Los deslizamientos de tierra generalmente suceden a lo largo de acantilados costeros debido a las olas golpeando la costa. &lt;b&gt;El agua de Puget Sound ha aumentado ocho pulgadas desde 1913.&lt;/b&gt; Con niveles de agua más altos, aumentan las posibilidades de erosión del acantilado. La lluvia excesiva de fuertes tormentas también puede debilitar las pendientes pronunciadas provocando más deslizamientos de tierra en el Condado King. Haga clic en la imagen para obtener más información.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>¿Escucha sonidos de maderas crujiendo, rocas golpeándose entre sí, el suelo gimiendo? ¿Ve grietas en el paisaje y deslizamiento de tierra, rocas y vegetación por una pendiente? Esto podría ser un deslizamiento de tierra. Vaya a un terreno estable.</t>
+  </si>
+  <si>
+    <t>&lt;ol&gt; &lt;li&gt;&lt;b&gt;EVALÚE:&lt;/b&gt; si el área alrededor de su hogar pudiera estar propensa a deslizamientos de tierra &lt;b&gt;pida asesoría a expertos geotécnicos&lt;/b&gt;. Ellos pueden evaluar el peligro de deslizamientos de tierra o diseñar técnicas correctivas para reducir el riesgo de deslizamiento de tierra. &lt;/li&gt; &lt;li&gt;&lt;b&gt;REDUZCA EL RIESGO:&lt;/b&gt; plante capas vegetales en pendientes o construya un muro de retención para &lt;b&gt;estabilizar laderas.&lt;/b&gt; &lt;/li&gt; &lt;li&gt;&lt;b&gt;PREPÁRESE:&lt;/b&gt; &lt;b&gt;haga un kit de suministros y un plan familiar&lt;/b&gt; designando al menos dos rutas de evacuación. &lt;/li&gt; &lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Su mejor protección es mantenerse fuera del recorrido de un deslizamiento de tierra o un flujo de escombros.&lt;/b&gt; El Estudio Geológico de EE.&amp;nbsp;UU. también recomendó lo siguiente: &lt;ul&gt; &lt;li&gt;&lt;b&gt;MANTÉNGASE ALERTA: preste atención a sonidos inusuales.&lt;/b&gt; Las lluvias intensas y cortas pueden ser particularmente peligrosas, especialmente después de largos períodos de lluvias torrenciales y clima húmedo. &lt;/li&gt; &lt;li&gt;&lt;b&gt;CONSIDERE IRSE:&lt;/b&gt; si está en un área propensa a deslizamientos de tierra y flujos de escombros, considere irse, si es seguro hacerlo. Si decide quedarse en casa, vaya a un segundo piso, si es posible. &lt;/li&gt; &lt;li&gt;&lt;b&gt;PRESTE ATENCIÓN A LOS NIVELES DE ARROYOS:&lt;/b&gt; si está cerca de un arroyo o canal, &lt;b&gt;esté atento a cualquier aumento o disminución de la corriente y todo cambio de agua clara a lodosa.&lt;/b&gt; Esto podría ser un indicador de actividad de deslizamiento de tierras aguas arriba. ¡NO SE DEMORE! Sálvese usted, no sus pertenencias. &lt;/li&gt; &lt;/ul&gt;Puede encontrar más consejos sobre deslizamientos de tierra en USGS &lt;a href="http://landslides.usgs.gov/learn/prepare.php" target="_blank"&gt;aquí&lt;/a&gt; . &lt;img border=0 width=387 height=97 id="Picture 34" src="Snugget_for_translation_Edits_Carson_5_15_17_SPL.fld/image020.png" alt="This is a panel of three cartoon images showing what to do during a landslide if indoors, near slide, or in slide"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;ESTÉ PREPARADO PARA LAS INUNDACIONES (los deslizamientos de tierra con frecuencia bloquean los ríos y pueden provocar que los ríos retrocedan e inunden).&lt;/b&gt;&lt;ul&gt; &lt;li&gt; Manténgase lejos del deslizamiento. Pueden ocurrir otros deslizamientos después del deslizamiento principal. &lt;/li&gt; &lt;li&gt; Una vez que esté seguro, revise si hay personas heridas o atrapadas. &lt;/li&gt; &lt;li&gt; Revise si hay líneas de servicios públicos dañadas e informe todo daño a su empresa de servicios públicos. &lt;/li&gt; &lt;li&gt; Escuche los medios locales o la radio meteorológica de la NOAA para acceder a información actualizada. &lt;/li&gt; &lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Para obtener más información, ingrese a la página del Departamento de Recursos Naturales sobre &lt;a href="http://www.dnr.wa.gov/programs-and-services/geology/geologic-hazards/landslides#some-historic-landslides-in-washington-state" target="_blank"&gt;deslizamientos de tierra&lt;/a&gt;  y &lt;a href="http://file.dnr.wa.gov/publications/ger_fs_landslide_hazards.pdf" target="_blank"&gt;peligros de deslizamientos de tierra&lt;/a&gt; . Para ver los deslizamientos de tierra en su vecindario, consulte la información disponible de Seattle y el Condado King.&lt;/p&gt;&lt;p&gt;&lt;a href="http://www.kingcounty.gov/services/environment/water-and-land/landslides.aspx"&gt;Condado King&lt;/a&gt; &lt;br&gt; &lt;a href="http://www.seattle.gov/dpd/aboutus/whoweare/emergencymanagement/"&gt;Ciudad de Seattle&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;No se han identificado deslizamientos de tierra aquí&lt;/b&gt; ( &lt;a href="http://www.kingcounty.gov/~/media/services/gis/documents/DPER-LS-hazard-map-report.ashx?la=en" target="_blank"&gt;Informe de 2016&lt;/a&gt;). Los deslizamientos de tierra son más comunes en pendientes sin vegetación y pronunciadas, donde se unen los drenajes. Si vive debajo de un área como esta, tenga en cuenta sus riesgos ( &lt;a href="https://hazardready.org/seattle/static/img/data/Landslide_existing.jpg=en" target="_blank"&gt;mapa&lt;/a&gt;). Para analizar las capas de datos en mayor detalle, ingrese al &lt;a href="https://gismaps.kingcounty.gov/iMap/" target="_blank"&gt; iMap del Condado King&lt;/a&gt; (asegúrese de que los deslizamientos de tierra estén tildados en la leyenda).&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Los científicos no han identificado ningún deslizamiento de tierra aquí.&lt;/b&gt;&lt;span lang=ES style='font-size:11.0pt;font-family: Calibri;color:black'&gt; Para obtener más información consulte el &lt;a href="http://your.kingcounty.gov/dnrp/library/2016/kcr2783.pdf"&gt;Informe de 2016&lt;/a&gt; &lt;span lang=ES style='font-size:11.0pt;font-family:Calibri;color:black'&gt;&amp;nbsp;y el &lt;a href="https://hazardready.org/seattle/static/img/data/Landslide_existing.jpg"&gt;mapa&lt;/a&gt; &lt;span lang=ES style='font-size:11.0pt;font-family:Calibri;color:black'&gt;. Para analizar las capas de datos en mayor detalle, ingrese al &lt;a href="https://gismaps.kingcounty.gov/iMap/"&gt;&lt;span style='font-size:11.0pt; font-family:Calibri'&gt;iMap del Condado King&lt;/a&gt; &lt;span lang=ES style='font-size:11.0pt;font-family:Calibri;color:black'&gt; (asegúrese de que los deslizamientos de tierra estén tildados en la leyenda).&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;No se han identificado deslizamientos de tierra aquí&lt;/b&gt; según un estudio de 1995 sobre deslizamientos en la ciudad de &lt;span style='color:black'&gt;Seattle ( &lt;a href="https://hazardready.org/seattle/static/img/data/Landslide_existing.jpg=en" target="_blank"&gt;mapa&lt;/a&gt; &lt;span lang=ES style='font-size:11.0pt;font-family:Calibri;color:black'&gt;).&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;No se ha realizado ningún estudio aquí&lt;/b&gt;para identificar si hubo deslizamientos de tierra históricos &lt;span style='color:black'&gt;( &lt;a href="https://hazardready.org/seattle/static/img/data/Landslide_existing.jpg=en" target="_blank"&gt;mapa&lt;/a&gt;).&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;En algún momento del pasado &lt;b&gt;HUBO UN DESLIZAMIENTO DE TIERRA AQUÍ&lt;/b&gt;&lt;span style='color:black'&gt;( &lt;a href="http://your.kingcounty.gov/dnrp/library/2016/kcr2783.pdf"&gt;Informe de 2016&lt;/a&gt; ) y ( &lt;a href="https://hazardready.org/seattle/static/img/data/Landslide_existing.jpg=en" target="_blank"&gt;mapa&lt;/a&gt; ). Los deslizamientos históricos pueden o no indicar la posibilidad de futuros deslizamientos. Para descubrir si aún hay riesgo, un consultor geotécnico debe realizar una evaluación específica del sitio. Para analizar las capas de datos en mayor detalle, ingrese al &lt;a href="https://gismaps.kingcounty.gov/iMap/" target="_blank"&gt; iMap del Condado King&lt;/a&gt;  (asegúrese de que los deslizamientos de tierra estén tildados en la leyenda).&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;En algún momento del pasado &lt;b&gt;HUBO UN DESLIZAMIENTO DE TIERRA AQUÍ&lt;/b&gt; &lt;span style='color:black'&gt;( &lt;a href="http://your.kingcounty.gov/dnrp/library/2016/kcr2783.pdf"&gt;Informe de 2016&lt;/a&gt; ) y ( &lt;a href="https://hazardready.org/seattle/static/img/data/Landslide_existing.jpg=en" target="_blank"&gt;mapa&lt;/a&gt; ). Los deslizamientos históricos pueden o no indicar la posibilidad de futuros deslizamientos. Para descubrir si aún hay riesgo, un consultor geotécnico debe realizar una evaluación específica del sitio. Para analizar las capas de datos en mayor detalle, ingrese al &lt;a href="https://gismaps.kingcounty.gov/iMap/" target="_blank"&gt; iMap del Condado King&lt;/a&gt;  (asegúrese de que los deslizamientos de tierra estén tildados en la leyenda).&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;En algún momento del pasado &lt;b&gt;HUBO UN DESLIZAMIENTO DE TIERRA y AVALANCHA DE ROCAS AQUÍ&lt;/b&gt;&lt;span style='color:black'&gt;( &lt;a href="http://your.kingcounty.gov/dnrp/library/2016/kcr2783.pdf"&gt;Informe de 2016&lt;/a&gt; ) y ( &lt;a href="https://hazardready.org/seattle/static/img/data/Landslide_existing.jpg=en" target="_blank"&gt;mapa&lt;/a&gt; ). Los deslizamientos históricos pueden o no indicar la posibilidad de futuros deslizamientos. Para descubrir si aún hay riesgo, un consultor geotécnico debe realizar una evaluación específica del sitio. Analice las capas de datos en mayor detalle, en el &lt;a href="https://gismaps.kingcounty.gov/iMap/" target="_blank"&gt;&amp;nbsp;iMap del Condado King&lt;/a&gt;  (asegúrese de que los deslizamientos de tierra estén tildados en la leyenda).&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;En algún momento del pasado &lt;b&gt;HUBO UNA AVALANCHA DE ROCAS AQUÍ&lt;/b&gt;&lt;span style='color:black'&gt;( &lt;a href="http://your.kingcounty.gov/dnrp/library/2016/kcr2783.pdf"&gt;Informe de 2016&lt;/a&gt; ) y ( &lt;a href="https://hazardready.org/seattle/static/img/data/Landslide_existing.jpg=en" target="_blank"&gt;mapa&lt;/a&gt; ). Los deslizamientos históricos pueden o no indicar la posibilidad de futuros deslizamientos. Para descubrir si aún hay riesgo, un consultor geotécnico debe realizar una evaluación específica del sitio. Analice las capas de datos en mayor detalle, en el &lt;a href="https://gismaps.kingcounty.gov/iMap/" target="_blank"&gt;&amp;nbsp;iMap del Condado King&lt;/a&gt;  (asegúrese de que los deslizamientos de tierra estén tildados en la leyenda).&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;AQUÍ HUBO UN DESLIZAMIENTO DE TIERRA&lt;/b&gt; según un estudio de 1995 sobre deslizamientos en la ciudad de &lt;span style='color:black'&gt;Seattle ( &lt;a href="https://hazardready.org/seattle/static/img/data/Landslide_existing.jpg=en" target="_blank"&gt;mapa&lt;/a&gt; ). Los deslizamientos históricos pueden o no indicar la posibilidad de futuros deslizamientos. Para descubrir si aún hay riesgo, un consultor geotécnico debe realizar una evaluación específica del sitio.&lt;/p&gt;</t>
   </si>
 </sst>
 </file>
@@ -2033,7 +2024,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2062,7 +2053,6 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="683">
@@ -3082,13 +3072,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H352"/>
+  <dimension ref="A1:H349"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D142" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D201" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H179" sqref="H179"/>
+      <selection pane="bottomRight" activeCell="H222" sqref="H222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3099,7 +3089,7 @@
     <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.83203125" style="2"/>
     <col min="8" max="8" width="53.1640625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="21"/>
+    <col min="9" max="16384" width="10.83203125" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -3149,7 +3139,7 @@
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -3173,7 +3163,7 @@
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -3197,7 +3187,7 @@
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -3231,7 +3221,7 @@
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -3255,7 +3245,7 @@
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -3279,7 +3269,7 @@
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -3303,7 +3293,7 @@
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -3327,7 +3317,7 @@
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -3361,7 +3351,7 @@
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -3385,7 +3375,7 @@
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -3409,7 +3399,7 @@
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -3443,7 +3433,7 @@
         <v>18</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -3467,7 +3457,7 @@
         <v>18</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -3491,7 +3481,7 @@
         <v>18</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -3515,7 +3505,7 @@
         <v>19</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -3539,7 +3529,7 @@
         <v>18</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -3563,7 +3553,7 @@
         <v>20</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -3597,7 +3587,7 @@
         <v>24</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>259</v>
+        <v>239</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -3621,7 +3611,7 @@
         <v>26</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -3645,7 +3635,7 @@
         <v>28</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -3669,7 +3659,7 @@
         <v>30</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -3693,7 +3683,7 @@
         <v>32</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -3717,7 +3707,7 @@
         <v>34</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -3741,7 +3731,7 @@
         <v>36</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -3765,7 +3755,7 @@
         <v>38</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -3789,7 +3779,7 @@
         <v>40</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
@@ -3823,7 +3813,7 @@
         <v>43</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
@@ -3847,7 +3837,7 @@
         <v>43</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
@@ -3871,7 +3861,7 @@
         <v>43</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
@@ -3895,7 +3885,7 @@
         <v>43</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
@@ -3919,7 +3909,7 @@
         <v>43</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
@@ -3953,7 +3943,7 @@
         <v>47</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
@@ -3985,7 +3975,7 @@
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
       <c r="H41" s="3" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
@@ -4007,7 +3997,7 @@
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
@@ -4029,7 +4019,7 @@
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
       <c r="H43" s="3" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
@@ -4061,7 +4051,7 @@
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
       <c r="H45" s="3" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
@@ -4083,7 +4073,7 @@
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
       <c r="H46" s="3" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
@@ -4105,7 +4095,7 @@
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
       <c r="H47" s="3" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
@@ -4127,7 +4117,7 @@
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
       <c r="H48" s="3" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
@@ -4149,7 +4139,7 @@
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
       <c r="H49" s="3" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
@@ -4171,7 +4161,7 @@
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
       <c r="H50" s="3" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
@@ -4193,7 +4183,7 @@
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
       <c r="H51" s="3" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
@@ -4215,7 +4205,7 @@
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
       <c r="H52" s="3" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
@@ -4237,7 +4227,7 @@
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
       <c r="H53" s="3" t="s">
-        <v>286</v>
+        <v>266</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.2">
@@ -4259,7 +4249,7 @@
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
       <c r="H54" s="3" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
@@ -4281,7 +4271,7 @@
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="H55" s="3" t="s">
-        <v>288</v>
+        <v>268</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
@@ -4303,7 +4293,7 @@
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="H56" s="3" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
@@ -4325,7 +4315,7 @@
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
       <c r="H57" s="3" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
@@ -4347,7 +4337,7 @@
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="H58" s="3" t="s">
-        <v>291</v>
+        <v>271</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
@@ -4369,7 +4359,7 @@
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
       <c r="H59" s="3" t="s">
-        <v>292</v>
+        <v>272</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
@@ -4391,7 +4381,7 @@
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
       <c r="H60" s="3" t="s">
-        <v>293</v>
+        <v>273</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
@@ -4413,7 +4403,7 @@
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
       <c r="H61" s="3" t="s">
-        <v>294</v>
+        <v>274</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
@@ -4435,7 +4425,7 @@
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
       <c r="H62" s="3" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
@@ -4457,7 +4447,7 @@
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
       <c r="H63" s="3" t="s">
-        <v>296</v>
+        <v>276</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
@@ -4479,7 +4469,7 @@
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
       <c r="H64" s="3" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
@@ -4501,7 +4491,7 @@
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
       <c r="H65" s="3" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
@@ -4523,7 +4513,7 @@
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
       <c r="H66" s="3" t="s">
-        <v>299</v>
+        <v>279</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
@@ -4545,7 +4535,7 @@
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
       <c r="H67" s="3" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
@@ -4567,7 +4557,7 @@
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
       <c r="H68" s="3" t="s">
-        <v>301</v>
+        <v>281</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
@@ -4589,7 +4579,7 @@
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
       <c r="H69" s="3" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
@@ -4611,7 +4601,7 @@
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
       <c r="H70" s="3" t="s">
-        <v>303</v>
+        <v>283</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
@@ -4633,7 +4623,7 @@
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
       <c r="H71" s="3" t="s">
-        <v>304</v>
+        <v>284</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
@@ -4655,7 +4645,7 @@
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
       <c r="H72" s="3" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
@@ -4677,7 +4667,7 @@
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
       <c r="H73" s="3" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
@@ -4699,7 +4689,7 @@
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
       <c r="H74" s="3" t="s">
-        <v>307</v>
+        <v>287</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
@@ -4721,7 +4711,7 @@
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
       <c r="H75" s="3" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
@@ -4743,7 +4733,7 @@
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
       <c r="H76" s="3" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
@@ -4765,7 +4755,7 @@
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
       <c r="H77" s="3" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
@@ -4787,7 +4777,7 @@
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
       <c r="H78" s="3" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
@@ -4809,7 +4799,7 @@
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
       <c r="H79" s="3" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
@@ -4831,7 +4821,7 @@
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
       <c r="H80" s="3" t="s">
-        <v>313</v>
+        <v>293</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
@@ -4853,7 +4843,7 @@
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
       <c r="H81" s="3" t="s">
-        <v>314</v>
+        <v>294</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
@@ -4875,7 +4865,7 @@
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
       <c r="H82" s="3" t="s">
-        <v>315</v>
+        <v>295</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
@@ -4897,7 +4887,7 @@
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
       <c r="H83" s="3" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
@@ -4919,7 +4909,7 @@
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
       <c r="H84" s="3" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
@@ -4941,7 +4931,7 @@
       <c r="F85" s="3"/>
       <c r="G85" s="3"/>
       <c r="H85" s="3" t="s">
-        <v>318</v>
+        <v>298</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
@@ -4963,7 +4953,7 @@
       <c r="F86" s="3"/>
       <c r="G86" s="3"/>
       <c r="H86" s="3" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
@@ -4985,7 +4975,7 @@
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
       <c r="H87" s="3" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
@@ -5007,7 +4997,7 @@
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
       <c r="H88" s="3" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
@@ -5029,7 +5019,7 @@
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
       <c r="H89" s="3" t="s">
-        <v>322</v>
+        <v>302</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
@@ -5051,7 +5041,7 @@
       <c r="F90" s="3"/>
       <c r="G90" s="3"/>
       <c r="H90" s="3" t="s">
-        <v>323</v>
+        <v>303</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
@@ -5073,7 +5063,7 @@
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
       <c r="H91" s="3" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
@@ -5095,7 +5085,7 @@
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
       <c r="H92" s="3" t="s">
-        <v>325</v>
+        <v>305</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
@@ -5117,7 +5107,7 @@
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
       <c r="H93" s="3" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
@@ -5139,7 +5129,7 @@
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
       <c r="H94" s="3" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
@@ -5161,7 +5151,7 @@
       <c r="F95" s="3"/>
       <c r="G95" s="3"/>
       <c r="H95" s="3" t="s">
-        <v>328</v>
+        <v>308</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
@@ -5183,7 +5173,7 @@
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
       <c r="H96" s="3" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
@@ -5205,7 +5195,7 @@
       <c r="F97" s="3"/>
       <c r="G97" s="3"/>
       <c r="H97" s="3" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
@@ -5227,7 +5217,7 @@
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
       <c r="H98" s="3" t="s">
-        <v>331</v>
+        <v>311</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
@@ -5249,7 +5239,7 @@
       <c r="F99" s="3"/>
       <c r="G99" s="3"/>
       <c r="H99" s="3" t="s">
-        <v>332</v>
+        <v>312</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
@@ -5271,7 +5261,7 @@
       <c r="F100" s="3"/>
       <c r="G100" s="3"/>
       <c r="H100" s="3" t="s">
-        <v>333</v>
+        <v>313</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
@@ -5293,7 +5283,7 @@
       <c r="F101" s="3"/>
       <c r="G101" s="3"/>
       <c r="H101" s="3" t="s">
-        <v>334</v>
+        <v>314</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
@@ -5315,7 +5305,7 @@
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>
       <c r="H102" s="3" t="s">
-        <v>335</v>
+        <v>315</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
@@ -5337,7 +5327,7 @@
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
       <c r="H103" s="3" t="s">
-        <v>336</v>
+        <v>316</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
@@ -5359,7 +5349,7 @@
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
       <c r="H104" s="3" t="s">
-        <v>337</v>
+        <v>317</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
@@ -5381,7 +5371,7 @@
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
       <c r="H105" s="3" t="s">
-        <v>338</v>
+        <v>318</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
@@ -5403,7 +5393,7 @@
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
       <c r="H106" s="3" t="s">
-        <v>339</v>
+        <v>319</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
@@ -5425,7 +5415,7 @@
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
       <c r="H107" s="3" t="s">
-        <v>340</v>
+        <v>320</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
@@ -5447,7 +5437,7 @@
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
       <c r="H108" s="3" t="s">
-        <v>341</v>
+        <v>321</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
@@ -5469,7 +5459,7 @@
       <c r="F109" s="3"/>
       <c r="G109" s="3"/>
       <c r="H109" s="3" t="s">
-        <v>342</v>
+        <v>322</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
@@ -5501,7 +5491,7 @@
       <c r="F111" s="3"/>
       <c r="G111" s="3"/>
       <c r="H111" s="3" t="s">
-        <v>274</v>
+        <v>254</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
@@ -5545,7 +5535,7 @@
       </c>
       <c r="G114" s="3"/>
       <c r="H114" s="3" t="s">
-        <v>343</v>
+        <v>323</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
@@ -5569,7 +5559,7 @@
       </c>
       <c r="G115" s="3"/>
       <c r="H115" s="3" t="s">
-        <v>344</v>
+        <v>324</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
@@ -5593,7 +5583,7 @@
       </c>
       <c r="G116" s="3"/>
       <c r="H116" s="3" t="s">
-        <v>345</v>
+        <v>325</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
@@ -5617,7 +5607,7 @@
       </c>
       <c r="G117" s="3"/>
       <c r="H117" s="3" t="s">
-        <v>346</v>
+        <v>326</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
@@ -5641,7 +5631,7 @@
       </c>
       <c r="G118" s="3"/>
       <c r="H118" s="3" t="s">
-        <v>345</v>
+        <v>325</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
@@ -5665,7 +5655,7 @@
       </c>
       <c r="G119" s="3"/>
       <c r="H119" s="3" t="s">
-        <v>347</v>
+        <v>327</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
@@ -5689,7 +5679,7 @@
       </c>
       <c r="G120" s="3"/>
       <c r="H120" s="3" t="s">
-        <v>348</v>
+        <v>328</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
@@ -5713,7 +5703,7 @@
       </c>
       <c r="G121" s="3"/>
       <c r="H121" s="3" t="s">
-        <v>349</v>
+        <v>329</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
@@ -5747,7 +5737,7 @@
       </c>
       <c r="G123" s="3"/>
       <c r="H123" s="3" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
@@ -5771,7 +5761,7 @@
       </c>
       <c r="G124" s="3"/>
       <c r="H124" s="3" t="s">
-        <v>351</v>
+        <v>331</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
@@ -5795,7 +5785,7 @@
       </c>
       <c r="G125" s="3"/>
       <c r="H125" s="3" t="s">
-        <v>352</v>
+        <v>332</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
@@ -5819,7 +5809,7 @@
       </c>
       <c r="G126" s="3"/>
       <c r="H126" s="3" t="s">
-        <v>353</v>
+        <v>333</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
@@ -5843,7 +5833,7 @@
       </c>
       <c r="G127" s="3"/>
       <c r="H127" s="3" t="s">
-        <v>353</v>
+        <v>333</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
@@ -5867,7 +5857,7 @@
       </c>
       <c r="G128" s="3"/>
       <c r="H128" s="3" t="s">
-        <v>353</v>
+        <v>333</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
@@ -5891,7 +5881,7 @@
       </c>
       <c r="G129" s="3"/>
       <c r="H129" s="3" t="s">
-        <v>353</v>
+        <v>333</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
@@ -5915,7 +5905,7 @@
       </c>
       <c r="G130" s="3"/>
       <c r="H130" s="3" t="s">
-        <v>354</v>
+        <v>334</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
@@ -5949,7 +5939,7 @@
         <v>62</v>
       </c>
       <c r="H132" s="3" t="s">
-        <v>357</v>
+        <v>337</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
@@ -5973,7 +5963,7 @@
         <v>62</v>
       </c>
       <c r="H133" s="3" t="s">
-        <v>358</v>
+        <v>338</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
@@ -5997,7 +5987,7 @@
         <v>62</v>
       </c>
       <c r="H134" s="3" t="s">
-        <v>359</v>
+        <v>339</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
@@ -6021,7 +6011,7 @@
         <v>62</v>
       </c>
       <c r="H135" s="3" t="s">
-        <v>360</v>
+        <v>340</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
@@ -6045,7 +6035,7 @@
         <v>62</v>
       </c>
       <c r="H136" s="3" t="s">
-        <v>361</v>
+        <v>341</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
@@ -6069,7 +6059,7 @@
         <v>68</v>
       </c>
       <c r="H137" s="3" t="s">
-        <v>362</v>
+        <v>342</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
@@ -6093,7 +6083,7 @@
         <v>68</v>
       </c>
       <c r="H138" s="3" t="s">
-        <v>363</v>
+        <v>343</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
@@ -6117,7 +6107,7 @@
         <v>68</v>
       </c>
       <c r="H139" s="3" t="s">
-        <v>364</v>
+        <v>344</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
@@ -6141,7 +6131,7 @@
         <v>68</v>
       </c>
       <c r="H140" s="3" t="s">
-        <v>365</v>
+        <v>345</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
@@ -6165,7 +6155,7 @@
         <v>68</v>
       </c>
       <c r="H141" s="3" t="s">
-        <v>366</v>
+        <v>346</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
@@ -6189,7 +6179,7 @@
         <v>74</v>
       </c>
       <c r="H142" s="3" t="s">
-        <v>367</v>
+        <v>347</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
@@ -6213,7 +6203,7 @@
         <v>74</v>
       </c>
       <c r="H143" s="3" t="s">
-        <v>368</v>
+        <v>348</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
@@ -6237,7 +6227,7 @@
         <v>74</v>
       </c>
       <c r="H144" s="3" t="s">
-        <v>369</v>
+        <v>349</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
@@ -6261,7 +6251,7 @@
         <v>78</v>
       </c>
       <c r="H145" s="3" t="s">
-        <v>355</v>
+        <v>335</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
@@ -6285,7 +6275,7 @@
         <v>78</v>
       </c>
       <c r="H146" s="3" t="s">
-        <v>356</v>
+        <v>336</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
@@ -6319,7 +6309,7 @@
       </c>
       <c r="G148" s="3"/>
       <c r="H148" s="3" t="s">
-        <v>381</v>
+        <v>359</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
@@ -6343,7 +6333,7 @@
       </c>
       <c r="G149" s="3"/>
       <c r="H149" s="3" t="s">
-        <v>382</v>
+        <v>360</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
@@ -6367,7 +6357,7 @@
       </c>
       <c r="G150" s="3"/>
       <c r="H150" s="3" t="s">
-        <v>383</v>
+        <v>361</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
@@ -6391,7 +6381,7 @@
       </c>
       <c r="G151" s="3"/>
       <c r="H151" s="3" t="s">
-        <v>384</v>
+        <v>362</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
@@ -6415,7 +6405,7 @@
       </c>
       <c r="G152" s="3"/>
       <c r="H152" s="3" t="s">
-        <v>385</v>
+        <v>363</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
@@ -6433,7 +6423,7 @@
         <v>8</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C154" s="3" t="s">
         <v>87</v>
@@ -6444,10 +6434,10 @@
       <c r="E154" s="5"/>
       <c r="F154" s="3"/>
       <c r="G154" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H154" s="3" t="s">
-        <v>386</v>
+        <v>364</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
@@ -6481,7 +6471,7 @@
         <v>47</v>
       </c>
       <c r="H156" s="3" t="s">
-        <v>386</v>
+        <v>364</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
@@ -6513,7 +6503,7 @@
       <c r="F158" s="3"/>
       <c r="G158" s="3"/>
       <c r="H158" s="3" t="s">
-        <v>387</v>
+        <v>365</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
@@ -6535,7 +6525,7 @@
       <c r="F159" s="3"/>
       <c r="G159" s="3"/>
       <c r="H159" s="3" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
@@ -6557,7 +6547,7 @@
       <c r="F160" s="3"/>
       <c r="G160" s="3"/>
       <c r="H160" s="3" t="s">
-        <v>389</v>
+        <v>367</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
@@ -6591,7 +6581,7 @@
         <v>90</v>
       </c>
       <c r="H162" s="3" t="s">
-        <v>401</v>
+        <v>379</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.2">
@@ -6615,7 +6605,7 @@
         <v>90</v>
       </c>
       <c r="H163" s="3" t="s">
-        <v>400</v>
+        <v>378</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.2">
@@ -6639,7 +6629,7 @@
         <v>90</v>
       </c>
       <c r="H164" s="3" t="s">
-        <v>402</v>
+        <v>380</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.2">
@@ -6663,7 +6653,7 @@
         <v>90</v>
       </c>
       <c r="H165" s="3" t="s">
-        <v>390</v>
+        <v>368</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.2">
@@ -6687,7 +6677,7 @@
         <v>90</v>
       </c>
       <c r="H166" s="3" t="s">
-        <v>403</v>
+        <v>381</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">
@@ -6711,7 +6701,7 @@
         <v>90</v>
       </c>
       <c r="H167" s="3" t="s">
-        <v>404</v>
+        <v>382</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.2">
@@ -6735,7 +6725,7 @@
         <v>90</v>
       </c>
       <c r="H168" s="3" t="s">
-        <v>391</v>
+        <v>369</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.2">
@@ -6759,7 +6749,7 @@
         <v>90</v>
       </c>
       <c r="H169" s="3" t="s">
-        <v>392</v>
+        <v>370</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.2">
@@ -6783,7 +6773,7 @@
         <v>90</v>
       </c>
       <c r="H170" s="3" t="s">
-        <v>393</v>
+        <v>371</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
@@ -6807,7 +6797,7 @@
         <v>90</v>
       </c>
       <c r="H171" s="3" t="s">
-        <v>394</v>
+        <v>372</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.2">
@@ -6831,7 +6821,7 @@
         <v>90</v>
       </c>
       <c r="H172" s="3" t="s">
-        <v>395</v>
+        <v>373</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.2">
@@ -6855,7 +6845,7 @@
         <v>90</v>
       </c>
       <c r="H173" s="3" t="s">
-        <v>396</v>
+        <v>374</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.2">
@@ -6879,7 +6869,7 @@
         <v>90</v>
       </c>
       <c r="H174" s="3" t="s">
-        <v>397</v>
+        <v>375</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.2">
@@ -6903,7 +6893,7 @@
         <v>90</v>
       </c>
       <c r="H175" s="3" t="s">
-        <v>398</v>
+        <v>376</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.2">
@@ -6927,7 +6917,7 @@
         <v>90</v>
       </c>
       <c r="H176" s="3" t="s">
-        <v>399</v>
+        <v>377</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.2">
@@ -6959,7 +6949,7 @@
       <c r="F178" s="3"/>
       <c r="G178" s="3"/>
       <c r="H178" s="3" t="s">
-        <v>405</v>
+        <v>383</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.2">
@@ -6990,7 +6980,7 @@
         <v>9</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="D181" s="4" t="s">
         <v>105</v>
@@ -7003,7 +6993,7 @@
       </c>
       <c r="G181" s="3"/>
       <c r="H181" s="3" t="s">
-        <v>144</v>
+        <v>384</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.2">
@@ -7014,7 +7004,7 @@
         <v>9</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="D182" s="4" t="s">
         <v>105</v>
@@ -7027,7 +7017,7 @@
       </c>
       <c r="G182" s="3"/>
       <c r="H182" s="3" t="s">
-        <v>177</v>
+        <v>385</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.2">
@@ -7038,7 +7028,7 @@
         <v>9</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="D183" s="4" t="s">
         <v>105</v>
@@ -7051,7 +7041,7 @@
       </c>
       <c r="G183" s="3"/>
       <c r="H183" s="3" t="s">
-        <v>145</v>
+        <v>385</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.2">
@@ -7062,7 +7052,7 @@
         <v>9</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="D184" s="4" t="s">
         <v>105</v>
@@ -7075,7 +7065,7 @@
       </c>
       <c r="G184" s="3"/>
       <c r="H184" s="3" t="s">
-        <v>145</v>
+        <v>385</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.2">
@@ -7086,7 +7076,7 @@
         <v>9</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="D185" s="4" t="s">
         <v>105</v>
@@ -7099,7 +7089,7 @@
       </c>
       <c r="G185" s="3"/>
       <c r="H185" s="3" t="s">
-        <v>145</v>
+        <v>385</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.2">
@@ -7110,7 +7100,7 @@
         <v>9</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="D186" s="4" t="s">
         <v>105</v>
@@ -7123,7 +7113,7 @@
       </c>
       <c r="G186" s="3"/>
       <c r="H186" s="3" t="s">
-        <v>145</v>
+        <v>385</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.2">
@@ -7134,7 +7124,7 @@
         <v>9</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="D187" s="4" t="s">
         <v>105</v>
@@ -7147,7 +7137,7 @@
       </c>
       <c r="G187" s="3"/>
       <c r="H187" s="3" t="s">
-        <v>145</v>
+        <v>385</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.2">
@@ -7158,7 +7148,7 @@
         <v>9</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="D188" s="4" t="s">
         <v>105</v>
@@ -7171,7 +7161,7 @@
       </c>
       <c r="G188" s="3"/>
       <c r="H188" s="3" t="s">
-        <v>145</v>
+        <v>385</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.2">
@@ -7182,7 +7172,7 @@
         <v>9</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="D189" s="4" t="s">
         <v>105</v>
@@ -7195,7 +7185,7 @@
       </c>
       <c r="G189" s="3"/>
       <c r="H189" s="3" t="s">
-        <v>145</v>
+        <v>385</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.2">
@@ -7216,7 +7206,7 @@
         <v>12</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="D191" s="4" t="s">
         <v>105</v>
@@ -7229,7 +7219,7 @@
       </c>
       <c r="G191" s="3"/>
       <c r="H191" s="3" t="s">
-        <v>370</v>
+        <v>386</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.2">
@@ -7240,7 +7230,7 @@
         <v>12</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="D192" s="4" t="s">
         <v>105</v>
@@ -7253,7 +7243,7 @@
       </c>
       <c r="G192" s="3"/>
       <c r="H192" s="3" t="s">
-        <v>371</v>
+        <v>387</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.2">
@@ -7264,7 +7254,7 @@
         <v>12</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="D193" s="4" t="s">
         <v>105</v>
@@ -7277,7 +7267,7 @@
       </c>
       <c r="G193" s="3"/>
       <c r="H193" s="3" t="s">
-        <v>371</v>
+        <v>387</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.2">
@@ -7288,7 +7278,7 @@
         <v>12</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="D194" s="4" t="s">
         <v>105</v>
@@ -7301,7 +7291,7 @@
       </c>
       <c r="G194" s="3"/>
       <c r="H194" s="3" t="s">
-        <v>371</v>
+        <v>387</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.2">
@@ -7312,7 +7302,7 @@
         <v>12</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="D195" s="4" t="s">
         <v>105</v>
@@ -7325,7 +7315,7 @@
       </c>
       <c r="G195" s="3"/>
       <c r="H195" s="3" t="s">
-        <v>371</v>
+        <v>387</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.2">
@@ -7336,7 +7326,7 @@
         <v>12</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="D196" s="4" t="s">
         <v>105</v>
@@ -7349,7 +7339,7 @@
       </c>
       <c r="G196" s="3"/>
       <c r="H196" s="3" t="s">
-        <v>371</v>
+        <v>387</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.2">
@@ -7360,7 +7350,7 @@
         <v>12</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="D197" s="4" t="s">
         <v>105</v>
@@ -7373,7 +7363,7 @@
       </c>
       <c r="G197" s="3"/>
       <c r="H197" s="3" t="s">
-        <v>371</v>
+        <v>387</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.2">
@@ -7384,7 +7374,7 @@
         <v>12</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="D198" s="4" t="s">
         <v>105</v>
@@ -7397,7 +7387,7 @@
       </c>
       <c r="G198" s="3"/>
       <c r="H198" s="3" t="s">
-        <v>371</v>
+        <v>387</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.2">
@@ -7408,7 +7398,7 @@
         <v>12</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="D199" s="4" t="s">
         <v>105</v>
@@ -7421,7 +7411,7 @@
       </c>
       <c r="G199" s="3"/>
       <c r="H199" s="3" t="s">
-        <v>371</v>
+        <v>387</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.2">
@@ -7435,79 +7425,99 @@
       <c r="H200" s="3"/>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A201" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B201" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="C201" s="14" t="s">
+      <c r="A201" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C201" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D201" s="20" t="s">
+      <c r="D201" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E201" s="15"/>
-      <c r="F201" s="14"/>
-      <c r="G201" s="14" t="s">
-        <v>139</v>
+      <c r="E201" s="5"/>
+      <c r="F201" s="3"/>
+      <c r="G201" s="3" t="s">
+        <v>138</v>
       </c>
       <c r="H201" s="3" t="s">
-        <v>187</v>
+        <v>388</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A202" s="14"/>
-      <c r="B202" s="14"/>
-      <c r="C202" s="14"/>
-      <c r="D202" s="20"/>
-      <c r="E202" s="15"/>
-      <c r="F202" s="14"/>
-      <c r="G202" s="14"/>
-      <c r="H202" s="3" t="s">
-        <v>185</v>
-      </c>
+      <c r="A202" s="3"/>
+      <c r="B202" s="3"/>
+      <c r="C202" s="3"/>
+      <c r="D202" s="4"/>
+      <c r="E202" s="5"/>
+      <c r="F202" s="3"/>
+      <c r="G202" s="3"/>
+      <c r="H202" s="3"/>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A203" s="14"/>
-      <c r="B203" s="14"/>
-      <c r="C203" s="14"/>
-      <c r="D203" s="20"/>
-      <c r="E203" s="15"/>
-      <c r="F203" s="14"/>
-      <c r="G203" s="14"/>
+      <c r="A203" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C203" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D203" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E203" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F203" s="3"/>
+      <c r="G203" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="H203" s="3" t="s">
-        <v>188</v>
+        <v>389</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A204" s="14"/>
-      <c r="B204" s="14"/>
-      <c r="C204" s="14"/>
-      <c r="D204" s="20"/>
-      <c r="E204" s="15"/>
-      <c r="F204" s="14"/>
-      <c r="G204" s="14"/>
-      <c r="H204" s="3" t="s">
-        <v>186</v>
-      </c>
+      <c r="A204" s="3"/>
+      <c r="B204" s="3"/>
+      <c r="C204" s="3"/>
+      <c r="D204" s="4"/>
+      <c r="E204" s="5"/>
+      <c r="F204" s="3"/>
+      <c r="G204" s="3"/>
+      <c r="H204" s="3"/>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A205" s="3"/>
-      <c r="B205" s="3"/>
-      <c r="C205" s="3"/>
-      <c r="D205" s="4"/>
-      <c r="E205" s="5"/>
+      <c r="A205" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C205" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D205" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E205" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="F205" s="3"/>
       <c r="G205" s="3"/>
-      <c r="H205" s="3"/>
+      <c r="H205" s="3" t="s">
+        <v>390</v>
+      </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206" s="3" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C206" s="3" t="s">
         <v>106</v>
@@ -7519,29 +7529,39 @@
         <v>46</v>
       </c>
       <c r="F206" s="3"/>
-      <c r="G206" s="3" t="s">
-        <v>47</v>
-      </c>
+      <c r="G206" s="3"/>
       <c r="H206" s="3" t="s">
-        <v>107</v>
+        <v>391</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A207" s="3"/>
-      <c r="B207" s="3"/>
-      <c r="C207" s="3"/>
-      <c r="D207" s="4"/>
-      <c r="E207" s="5"/>
+      <c r="A207" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C207" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D207" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E207" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="F207" s="3"/>
       <c r="G207" s="3"/>
-      <c r="H207" s="3"/>
+      <c r="H207" s="3" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A208" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C208" s="3" t="s">
         <v>106</v>
@@ -7555,84 +7575,84 @@
       <c r="F208" s="3"/>
       <c r="G208" s="3"/>
       <c r="H208" s="3" t="s">
-        <v>146</v>
+        <v>393</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A209" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B209" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C209" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D209" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E209" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="A209" s="3"/>
+      <c r="B209" s="3"/>
+      <c r="C209" s="3"/>
+      <c r="D209" s="4"/>
+      <c r="E209" s="5"/>
       <c r="F209" s="3"/>
       <c r="G209" s="3"/>
-      <c r="H209" s="3" t="s">
-        <v>147</v>
-      </c>
+      <c r="H209" s="3"/>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A210" s="3" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>106</v>
+        <v>142</v>
       </c>
       <c r="D210" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E210" s="5" t="s">
-        <v>46</v>
+      <c r="E210" s="5">
+        <v>1</v>
       </c>
       <c r="F210" s="3"/>
       <c r="G210" s="3"/>
       <c r="H210" s="3" t="s">
-        <v>148</v>
+        <v>394</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A211" s="3" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>106</v>
+        <v>142</v>
       </c>
       <c r="D211" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E211" s="5" t="s">
-        <v>46</v>
+      <c r="E211" s="5">
+        <v>2</v>
       </c>
       <c r="F211" s="3"/>
       <c r="G211" s="3"/>
       <c r="H211" s="3" t="s">
-        <v>176</v>
+        <v>395</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A212" s="3"/>
-      <c r="B212" s="3"/>
-      <c r="C212" s="3"/>
-      <c r="D212" s="4"/>
-      <c r="E212" s="5"/>
+      <c r="A212" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C212" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D212" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E212" s="5">
+        <v>3</v>
+      </c>
       <c r="F212" s="3"/>
       <c r="G212" s="3"/>
-      <c r="H212" s="3"/>
+      <c r="H212" s="3" t="s">
+        <v>396</v>
+      </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A213" s="3" t="s">
@@ -7642,18 +7662,18 @@
         <v>55</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D213" s="4" t="s">
         <v>105</v>
       </c>
       <c r="E213" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F213" s="3"/>
       <c r="G213" s="3"/>
       <c r="H213" s="3" t="s">
-        <v>149</v>
+        <v>397</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.2">
@@ -7664,18 +7684,18 @@
         <v>55</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D214" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E214" s="5">
-        <v>2</v>
+      <c r="E214" s="5" t="s">
+        <v>129</v>
       </c>
       <c r="F214" s="3"/>
       <c r="G214" s="3"/>
       <c r="H214" s="3" t="s">
-        <v>150</v>
+        <v>398</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.2">
@@ -7686,18 +7706,18 @@
         <v>55</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D215" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E215" s="5">
-        <v>3</v>
+      <c r="E215" s="5" t="s">
+        <v>131</v>
       </c>
       <c r="F215" s="3"/>
       <c r="G215" s="3"/>
       <c r="H215" s="3" t="s">
-        <v>151</v>
+        <v>399</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.2">
@@ -7708,18 +7728,18 @@
         <v>55</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D216" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E216" s="5">
-        <v>4</v>
+      <c r="E216" s="5" t="s">
+        <v>132</v>
       </c>
       <c r="F216" s="3"/>
       <c r="G216" s="3"/>
       <c r="H216" s="3" t="s">
-        <v>152</v>
+        <v>399</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.2">
@@ -7730,18 +7750,18 @@
         <v>55</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D217" s="4" t="s">
         <v>105</v>
       </c>
       <c r="E217" s="5" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F217" s="3"/>
       <c r="G217" s="3"/>
       <c r="H217" s="3" t="s">
-        <v>153</v>
+        <v>400</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.2">
@@ -7752,18 +7772,18 @@
         <v>55</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D218" s="4" t="s">
         <v>105</v>
       </c>
       <c r="E218" s="5" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F218" s="3"/>
       <c r="G218" s="3"/>
       <c r="H218" s="3" t="s">
-        <v>154</v>
+        <v>401</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.2">
@@ -7774,105 +7794,111 @@
         <v>55</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D219" s="4" t="s">
         <v>105</v>
       </c>
       <c r="E219" s="5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F219" s="3"/>
       <c r="G219" s="3"/>
       <c r="H219" s="3" t="s">
-        <v>155</v>
+        <v>402</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A220" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B220" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C220" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D220" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E220" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="F220" s="3"/>
-      <c r="G220" s="3"/>
-      <c r="H220" s="3" t="s">
-        <v>189</v>
-      </c>
+      <c r="A220" s="7"/>
+      <c r="B220" s="7"/>
+      <c r="C220" s="7"/>
+      <c r="D220" s="7"/>
+      <c r="E220" s="8"/>
+      <c r="F220" s="7"/>
+      <c r="G220" s="7"/>
+      <c r="H220" s="7"/>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A221" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B221" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C221" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D221" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E221" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="F221" s="3"/>
-      <c r="G221" s="3"/>
-      <c r="H221" s="3" t="s">
-        <v>156</v>
-      </c>
+      <c r="A221" s="7"/>
+      <c r="B221" s="7"/>
+      <c r="C221" s="7"/>
+      <c r="D221" s="7"/>
+      <c r="E221" s="8"/>
+      <c r="F221" s="7"/>
+      <c r="G221" s="7"/>
+      <c r="H221" s="7"/>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A222" s="3" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D222" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
+      </c>
+      <c r="D222" s="10" t="s">
+        <v>108</v>
       </c>
       <c r="E222" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="F222" s="3"/>
+        <v>109</v>
+      </c>
+      <c r="F222" s="3">
+        <v>70</v>
+      </c>
       <c r="G222" s="3"/>
       <c r="H222" s="3" t="s">
-        <v>157</v>
+        <v>350</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A223" s="7"/>
-      <c r="B223" s="7"/>
-      <c r="C223" s="7"/>
-      <c r="D223" s="7"/>
-      <c r="E223" s="8"/>
-      <c r="F223" s="7"/>
-      <c r="G223" s="7"/>
-      <c r="H223" s="7"/>
+      <c r="A223" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B223" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C223" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D223" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="E223" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="F223" s="3">
+        <v>60</v>
+      </c>
+      <c r="G223" s="3"/>
+      <c r="H223" s="3" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A224" s="7"/>
-      <c r="B224" s="7"/>
-      <c r="C224" s="7"/>
-      <c r="D224" s="7"/>
-      <c r="E224" s="8"/>
-      <c r="F224" s="7"/>
-      <c r="G224" s="7"/>
-      <c r="H224" s="7"/>
+      <c r="A224" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B224" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C224" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D224" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="E224" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F224" s="3">
+        <v>50</v>
+      </c>
+      <c r="G224" s="3"/>
+      <c r="H224" s="3" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A225" s="3" t="s">
@@ -7882,20 +7908,20 @@
         <v>9</v>
       </c>
       <c r="C225" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D225" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="D225" s="10" t="s">
-        <v>109</v>
-      </c>
       <c r="E225" s="5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F225" s="3">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G225" s="3"/>
       <c r="H225" s="3" t="s">
-        <v>372</v>
+        <v>353</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.2">
@@ -7906,68 +7932,54 @@
         <v>9</v>
       </c>
       <c r="C226" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D226" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="D226" s="10" t="s">
-        <v>109</v>
-      </c>
       <c r="E226" s="5" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F226" s="3">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G226" s="3"/>
       <c r="H226" s="3" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A227" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B227" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C227" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D227" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="E227" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="F227" s="3">
-        <v>50</v>
-      </c>
+      <c r="A227" s="3"/>
+      <c r="B227" s="3"/>
+      <c r="C227" s="3"/>
+      <c r="D227" s="10"/>
+      <c r="E227" s="5"/>
+      <c r="F227" s="3"/>
       <c r="G227" s="3"/>
-      <c r="H227" s="3" t="s">
-        <v>374</v>
-      </c>
+      <c r="H227" s="3"/>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A228" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C228" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D228" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="D228" s="10" t="s">
+      <c r="E228" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="E228" s="5" t="s">
-        <v>113</v>
-      </c>
       <c r="F228" s="3">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="G228" s="3"/>
       <c r="H228" s="3" t="s">
-        <v>375</v>
+        <v>143</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.2">
@@ -7975,34 +7987,48 @@
         <v>8</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C229" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D229" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="D229" s="10" t="s">
-        <v>109</v>
-      </c>
       <c r="E229" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F229" s="3">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G229" s="3"/>
       <c r="H229" s="3" t="s">
-        <v>376</v>
+        <v>143</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A230" s="3"/>
-      <c r="B230" s="3"/>
-      <c r="C230" s="3"/>
-      <c r="D230" s="10"/>
-      <c r="E230" s="5"/>
-      <c r="F230" s="3"/>
+      <c r="A230" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B230" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C230" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D230" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="E230" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F230" s="3">
+        <v>70</v>
+      </c>
       <c r="G230" s="3"/>
-      <c r="H230" s="3"/>
+      <c r="H230" s="3" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A231" s="3" t="s">
@@ -8012,389 +8038,389 @@
         <v>12</v>
       </c>
       <c r="C231" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D231" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="D231" s="10" t="s">
-        <v>109</v>
-      </c>
       <c r="E231" s="5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F231" s="3">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="G231" s="3"/>
       <c r="H231" s="3" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A232" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B232" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C232" s="3" t="s">
+      <c r="A232" s="3"/>
+      <c r="B232" s="3"/>
+      <c r="C232" s="3"/>
+      <c r="D232" s="10"/>
+      <c r="E232" s="5"/>
+      <c r="F232" s="3"/>
+      <c r="G232" s="3"/>
+      <c r="H232" s="3"/>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A233" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B233" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="C233" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="D233" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="D232" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="E232" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="F232" s="3">
-        <v>80</v>
-      </c>
-      <c r="G232" s="3"/>
-      <c r="H232" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A233" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B233" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C233" s="3" t="s">
+      <c r="E233" s="15"/>
+      <c r="F233" s="14"/>
+      <c r="G233" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="H233" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A234" s="14"/>
+      <c r="B234" s="14"/>
+      <c r="C234" s="14"/>
+      <c r="D234" s="19"/>
+      <c r="E234" s="15"/>
+      <c r="F234" s="14"/>
+      <c r="G234" s="14"/>
+      <c r="H234" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A235" s="14"/>
+      <c r="B235" s="14"/>
+      <c r="C235" s="14"/>
+      <c r="D235" s="19"/>
+      <c r="E235" s="15"/>
+      <c r="F235" s="14"/>
+      <c r="G235" s="14"/>
+      <c r="H235" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A236" s="3"/>
+      <c r="B236" s="3"/>
+      <c r="C236" s="3"/>
+      <c r="D236" s="10"/>
+      <c r="E236" s="5"/>
+      <c r="F236" s="3"/>
+      <c r="G236" s="3"/>
+      <c r="H236" s="3"/>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A237" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B237" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C237" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D237" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="D233" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="E233" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="F233" s="3">
-        <v>70</v>
-      </c>
-      <c r="G233" s="3"/>
-      <c r="H233" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A234" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B234" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C234" s="3" t="s">
+      <c r="E237" s="5"/>
+      <c r="F237" s="3"/>
+      <c r="G237" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H237" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A238" s="3"/>
+      <c r="B238" s="3"/>
+      <c r="C238" s="3"/>
+      <c r="D238" s="10"/>
+      <c r="E238" s="5"/>
+      <c r="F238" s="3"/>
+      <c r="G238" s="3"/>
+      <c r="H238" s="3"/>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A239" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B239" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C239" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D239" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="D234" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="E234" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F234" s="3">
-        <v>20</v>
-      </c>
-      <c r="G234" s="3"/>
-      <c r="H234" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A235" s="3"/>
-      <c r="B235" s="3"/>
-      <c r="C235" s="3"/>
-      <c r="D235" s="10"/>
-      <c r="E235" s="5"/>
-      <c r="F235" s="3"/>
-      <c r="G235" s="3"/>
-      <c r="H235" s="3"/>
-    </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A236" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B236" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="C236" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="D236" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="E236" s="15"/>
-      <c r="F236" s="14"/>
-      <c r="G236" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="H236" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A237" s="14"/>
-      <c r="B237" s="14"/>
-      <c r="C237" s="14"/>
-      <c r="D237" s="19"/>
-      <c r="E237" s="15"/>
-      <c r="F237" s="14"/>
-      <c r="G237" s="14"/>
-      <c r="H237" s="3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A238" s="14"/>
-      <c r="B238" s="14"/>
-      <c r="C238" s="14"/>
-      <c r="D238" s="19"/>
-      <c r="E238" s="15"/>
-      <c r="F238" s="14"/>
-      <c r="G238" s="14"/>
-      <c r="H238" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A239" s="3"/>
-      <c r="B239" s="3"/>
-      <c r="C239" s="3"/>
-      <c r="D239" s="10"/>
       <c r="E239" s="5"/>
       <c r="F239" s="3"/>
       <c r="G239" s="3"/>
-      <c r="H239" s="3"/>
+      <c r="H239" s="3" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A240" s="3" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C240" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D240" s="10" t="s">
         <v>108</v>
-      </c>
-      <c r="D240" s="10" t="s">
-        <v>109</v>
       </c>
       <c r="E240" s="5"/>
       <c r="F240" s="3"/>
-      <c r="G240" s="3" t="s">
-        <v>47</v>
-      </c>
+      <c r="G240" s="3"/>
       <c r="H240" s="3" t="s">
-        <v>115</v>
+        <v>147</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A241" s="3"/>
-      <c r="B241" s="3"/>
-      <c r="C241" s="3"/>
-      <c r="D241" s="10"/>
-      <c r="E241" s="5"/>
-      <c r="F241" s="3"/>
-      <c r="G241" s="3"/>
-      <c r="H241" s="3"/>
+      <c r="A241" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B241" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C241" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="D241" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="E241" s="15"/>
+      <c r="F241" s="14"/>
+      <c r="G241" s="14"/>
+      <c r="H241" s="3" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A242" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B242" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C242" s="3" t="s">
+      <c r="A242" s="14"/>
+      <c r="B242" s="14"/>
+      <c r="C242" s="14"/>
+      <c r="D242" s="19"/>
+      <c r="E242" s="15"/>
+      <c r="F242" s="14"/>
+      <c r="G242" s="14"/>
+      <c r="H242" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A243" s="14"/>
+      <c r="B243" s="14"/>
+      <c r="C243" s="14"/>
+      <c r="D243" s="19"/>
+      <c r="E243" s="15"/>
+      <c r="F243" s="14"/>
+      <c r="G243" s="14"/>
+      <c r="H243" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A244" s="3"/>
+      <c r="B244" s="3"/>
+      <c r="C244" s="3"/>
+      <c r="D244" s="10"/>
+      <c r="E244" s="5"/>
+      <c r="F244" s="3"/>
+      <c r="G244" s="3"/>
+      <c r="H244" s="3"/>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A245" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B245" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C245" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D245" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="D242" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="E242" s="5"/>
-      <c r="F242" s="3"/>
-      <c r="G242" s="3"/>
-      <c r="H242" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A243" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B243" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C243" s="3" t="s">
+      <c r="E245" s="5"/>
+      <c r="F245" s="3"/>
+      <c r="G245" s="3"/>
+      <c r="H245" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A246" s="3"/>
+      <c r="B246" s="3"/>
+      <c r="C246" s="3"/>
+      <c r="D246" s="10"/>
+      <c r="E246" s="5"/>
+      <c r="F246" s="3"/>
+      <c r="G246" s="3"/>
+      <c r="H246" s="3"/>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A247" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B247" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C247" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D247" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="D243" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="E243" s="5"/>
-      <c r="F243" s="3"/>
-      <c r="G243" s="3"/>
-      <c r="H243" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A244" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B244" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C244" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="D244" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="E244" s="15"/>
-      <c r="F244" s="14"/>
-      <c r="G244" s="14"/>
-      <c r="H244" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A245" s="14"/>
-      <c r="B245" s="14"/>
-      <c r="C245" s="14"/>
-      <c r="D245" s="19"/>
-      <c r="E245" s="15"/>
-      <c r="F245" s="14"/>
-      <c r="G245" s="14"/>
-      <c r="H245" s="3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A246" s="14"/>
-      <c r="B246" s="14"/>
-      <c r="C246" s="14"/>
-      <c r="D246" s="19"/>
-      <c r="E246" s="15"/>
-      <c r="F246" s="14"/>
-      <c r="G246" s="14"/>
-      <c r="H246" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A247" s="3"/>
-      <c r="B247" s="3"/>
-      <c r="C247" s="3"/>
-      <c r="D247" s="10"/>
       <c r="E247" s="5"/>
       <c r="F247" s="3"/>
       <c r="G247" s="3"/>
-      <c r="H247" s="3"/>
+      <c r="H247" s="3" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A248" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B248" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C248" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D248" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="E248" s="5"/>
-      <c r="F248" s="3"/>
-      <c r="G248" s="3"/>
-      <c r="H248" s="3" t="s">
-        <v>172</v>
-      </c>
+      <c r="A248" s="7"/>
+      <c r="B248" s="7"/>
+      <c r="C248" s="7"/>
+      <c r="D248" s="7"/>
+      <c r="E248" s="8"/>
+      <c r="F248" s="7"/>
+      <c r="G248" s="7"/>
+      <c r="H248" s="7"/>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A249" s="3"/>
-      <c r="B249" s="3"/>
-      <c r="C249" s="3"/>
-      <c r="D249" s="10"/>
-      <c r="E249" s="5"/>
-      <c r="F249" s="3"/>
-      <c r="G249" s="3"/>
-      <c r="H249" s="3"/>
+      <c r="A249" s="7"/>
+      <c r="B249" s="7"/>
+      <c r="C249" s="7"/>
+      <c r="D249" s="7"/>
+      <c r="E249" s="8"/>
+      <c r="F249" s="7"/>
+      <c r="G249" s="7"/>
+      <c r="H249" s="7"/>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A250" s="3" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C250" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D250" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="E250" s="5"/>
+        <v>116</v>
+      </c>
+      <c r="D250" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="E250" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="F250" s="3"/>
-      <c r="G250" s="3"/>
+      <c r="G250" s="3" t="s">
+        <v>118</v>
+      </c>
       <c r="H250" s="3" t="s">
-        <v>116</v>
+        <v>148</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A251" s="7"/>
-      <c r="B251" s="7"/>
-      <c r="C251" s="7"/>
-      <c r="D251" s="7"/>
-      <c r="E251" s="8"/>
-      <c r="F251" s="7"/>
-      <c r="G251" s="7"/>
-      <c r="H251" s="7"/>
+      <c r="A251" s="3"/>
+      <c r="B251" s="3"/>
+      <c r="C251" s="3"/>
+      <c r="D251" s="11"/>
+      <c r="E251" s="5"/>
+      <c r="F251" s="3"/>
+      <c r="G251" s="3"/>
+      <c r="H251" s="3"/>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A252" s="7"/>
-      <c r="B252" s="7"/>
-      <c r="C252" s="7"/>
-      <c r="D252" s="7"/>
-      <c r="E252" s="8"/>
-      <c r="F252" s="7"/>
-      <c r="G252" s="7"/>
-      <c r="H252" s="7"/>
+      <c r="A252" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B252" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C252" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D252" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="E252" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F252" s="3"/>
+      <c r="G252" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H252" s="3" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A253" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C253" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D253" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="D253" s="11" t="s">
-        <v>118</v>
-      </c>
       <c r="E253" s="5" t="s">
-        <v>46</v>
+        <v>122</v>
       </c>
       <c r="F253" s="3"/>
       <c r="G253" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H253" s="3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A254" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B254" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C254" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="H253" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A254" s="3"/>
-      <c r="B254" s="3"/>
-      <c r="C254" s="3"/>
-      <c r="D254" s="11"/>
-      <c r="E254" s="5"/>
+      <c r="D254" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="E254" s="5" t="s">
+        <v>123</v>
+      </c>
       <c r="F254" s="3"/>
-      <c r="G254" s="3"/>
-      <c r="H254" s="3"/>
+      <c r="G254" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H254" s="3" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A255" s="3" t="s">
@@ -8404,180 +8430,144 @@
         <v>12</v>
       </c>
       <c r="C255" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D255" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E255" s="5" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F255" s="3"/>
       <c r="G255" s="3" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="H255" s="3" t="s">
-        <v>377</v>
+        <v>358</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A256" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B256" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C256" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D256" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="E256" s="5" t="s">
-        <v>123</v>
-      </c>
+      <c r="A256" s="3"/>
+      <c r="B256" s="3"/>
+      <c r="C256" s="3"/>
+      <c r="D256" s="11"/>
+      <c r="E256" s="5"/>
       <c r="F256" s="3"/>
-      <c r="G256" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="H256" s="3" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="257" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G256" s="3"/>
+      <c r="H256" s="3"/>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A257" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="C257" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D257" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E257" s="5" t="s">
-        <v>124</v>
+        <v>46</v>
       </c>
       <c r="F257" s="3"/>
       <c r="G257" s="3" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="H257" s="3" t="s">
-        <v>379</v>
+        <v>126</v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A258" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B258" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C258" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D258" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="E258" s="5" t="s">
-        <v>125</v>
-      </c>
+      <c r="A258" s="3"/>
+      <c r="B258" s="3"/>
+      <c r="C258" s="3"/>
+      <c r="D258" s="11"/>
+      <c r="E258" s="5"/>
       <c r="F258" s="3"/>
-      <c r="G258" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="H258" s="3" t="s">
-        <v>380</v>
-      </c>
+      <c r="G258" s="3"/>
+      <c r="H258" s="3"/>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A259" s="3"/>
-      <c r="B259" s="3"/>
-      <c r="C259" s="3"/>
-      <c r="D259" s="11"/>
-      <c r="E259" s="5"/>
+      <c r="A259" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B259" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C259" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D259" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="E259" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="F259" s="3"/>
       <c r="G259" s="3"/>
-      <c r="H259" s="3"/>
+      <c r="H259" s="3" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A260" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B260" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C260" s="3" t="s">
+      <c r="A260" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B260" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C260" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D260" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="D260" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="E260" s="5" t="s">
+      <c r="E260" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="F260" s="3"/>
-      <c r="G260" s="3" t="s">
-        <v>47</v>
-      </c>
+      <c r="F260" s="14"/>
+      <c r="G260" s="14"/>
       <c r="H260" s="3" t="s">
-        <v>127</v>
+        <v>176</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A261" s="3"/>
-      <c r="B261" s="3"/>
-      <c r="C261" s="3"/>
-      <c r="D261" s="11"/>
-      <c r="E261" s="5"/>
-      <c r="F261" s="3"/>
-      <c r="G261" s="3"/>
-      <c r="H261" s="3"/>
+      <c r="A261" s="14"/>
+      <c r="B261" s="14"/>
+      <c r="C261" s="14"/>
+      <c r="D261" s="18"/>
+      <c r="E261" s="15"/>
+      <c r="F261" s="14"/>
+      <c r="G261" s="14"/>
+      <c r="H261" s="3" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A262" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B262" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C262" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D262" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="E262" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F262" s="3"/>
-      <c r="G262" s="3"/>
+      <c r="A262" s="14"/>
+      <c r="B262" s="14"/>
+      <c r="C262" s="14"/>
+      <c r="D262" s="18"/>
+      <c r="E262" s="15"/>
+      <c r="F262" s="14"/>
+      <c r="G262" s="14"/>
       <c r="H262" s="3" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A263" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B263" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C263" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="D263" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="E263" s="15" t="s">
-        <v>46</v>
-      </c>
+      <c r="A263" s="14"/>
+      <c r="B263" s="14"/>
+      <c r="C263" s="14"/>
+      <c r="D263" s="18"/>
+      <c r="E263" s="15"/>
       <c r="F263" s="14"/>
       <c r="G263" s="14"/>
       <c r="H263" s="3" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.2">
@@ -8589,57 +8579,75 @@
       <c r="F264" s="14"/>
       <c r="G264" s="14"/>
       <c r="H264" s="3" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A265" s="14"/>
-      <c r="B265" s="14"/>
-      <c r="C265" s="14"/>
-      <c r="D265" s="18"/>
-      <c r="E265" s="15"/>
-      <c r="F265" s="14"/>
-      <c r="G265" s="14"/>
+      <c r="A265" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B265" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C265" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D265" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="E265" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F265" s="3"/>
+      <c r="G265" s="3"/>
       <c r="H265" s="3" t="s">
-        <v>198</v>
+        <v>150</v>
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A266" s="14"/>
-      <c r="B266" s="14"/>
-      <c r="C266" s="14"/>
-      <c r="D266" s="18"/>
-      <c r="E266" s="15"/>
-      <c r="F266" s="14"/>
-      <c r="G266" s="14"/>
+      <c r="A266" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B266" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C266" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D266" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="E266" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F266" s="3"/>
+      <c r="G266" s="3"/>
       <c r="H266" s="3" t="s">
-        <v>199</v>
+        <v>151</v>
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A267" s="14"/>
-      <c r="B267" s="14"/>
-      <c r="C267" s="14"/>
-      <c r="D267" s="18"/>
-      <c r="E267" s="15"/>
-      <c r="F267" s="14"/>
-      <c r="G267" s="14"/>
-      <c r="H267" s="3" t="s">
-        <v>200</v>
-      </c>
+      <c r="A267" s="3"/>
+      <c r="B267" s="3"/>
+      <c r="C267" s="3"/>
+      <c r="D267" s="11"/>
+      <c r="E267" s="5"/>
+      <c r="F267" s="3"/>
+      <c r="G267" s="3"/>
+      <c r="H267" s="3"/>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A268" s="3" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C268" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D268" s="11" t="s">
         <v>117</v>
-      </c>
-      <c r="D268" s="11" t="s">
-        <v>118</v>
       </c>
       <c r="E268" s="5" t="s">
         <v>46</v>
@@ -8647,285 +8655,267 @@
       <c r="F268" s="3"/>
       <c r="G268" s="3"/>
       <c r="H268" s="3" t="s">
-        <v>165</v>
+        <v>127</v>
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A269" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B269" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C269" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D269" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="E269" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F269" s="3"/>
-      <c r="G269" s="3"/>
-      <c r="H269" s="3" t="s">
-        <v>166</v>
-      </c>
+      <c r="A269" s="7"/>
+      <c r="B269" s="7"/>
+      <c r="C269" s="7"/>
+      <c r="D269" s="7"/>
+      <c r="E269" s="8"/>
+      <c r="F269" s="7"/>
+      <c r="G269" s="7"/>
+      <c r="H269" s="7"/>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A270" s="3"/>
-      <c r="B270" s="3"/>
-      <c r="C270" s="3"/>
-      <c r="D270" s="11"/>
-      <c r="E270" s="5"/>
-      <c r="F270" s="3"/>
-      <c r="G270" s="3"/>
-      <c r="H270" s="3"/>
+      <c r="A270" s="7"/>
+      <c r="B270" s="7"/>
+      <c r="C270" s="7"/>
+      <c r="D270" s="7"/>
+      <c r="E270" s="8"/>
+      <c r="F270" s="7"/>
+      <c r="G270" s="7"/>
+      <c r="H270" s="7"/>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A271" s="3" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C271" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D271" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="E271" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F271" s="3"/>
+        <v>139</v>
+      </c>
+      <c r="D271" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="E271" s="5"/>
+      <c r="F271" s="3">
+        <v>50</v>
+      </c>
       <c r="G271" s="3"/>
       <c r="H271" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A272" s="3"/>
+      <c r="B272" s="3"/>
+      <c r="C272" s="3"/>
+      <c r="D272" s="12"/>
+      <c r="E272" s="5"/>
+      <c r="F272" s="3"/>
+      <c r="G272" s="3"/>
+      <c r="H272" s="3"/>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A273" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B273" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C273" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D273" s="12" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A272" s="7"/>
-      <c r="B272" s="7"/>
-      <c r="C272" s="7"/>
-      <c r="D272" s="7"/>
-      <c r="E272" s="8"/>
-      <c r="F272" s="7"/>
-      <c r="G272" s="7"/>
-      <c r="H272" s="7"/>
-    </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A273" s="7"/>
-      <c r="B273" s="7"/>
-      <c r="C273" s="7"/>
-      <c r="D273" s="7"/>
-      <c r="E273" s="8"/>
-      <c r="F273" s="7"/>
-      <c r="G273" s="7"/>
-      <c r="H273" s="7"/>
+      <c r="E273" s="5"/>
+      <c r="F273" s="3">
+        <v>80</v>
+      </c>
+      <c r="G273" s="3"/>
+      <c r="H273" s="3" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A274" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B274" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C274" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D274" s="12" t="s">
-        <v>129</v>
-      </c>
+      <c r="A274" s="3"/>
+      <c r="B274" s="3"/>
+      <c r="C274" s="3"/>
+      <c r="D274" s="12"/>
       <c r="E274" s="5"/>
-      <c r="F274" s="3">
-        <v>50</v>
-      </c>
+      <c r="F274" s="3"/>
       <c r="G274" s="3"/>
-      <c r="H274" s="3" t="s">
-        <v>167</v>
-      </c>
+      <c r="H274" s="3"/>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A275" s="3"/>
-      <c r="B275" s="3"/>
-      <c r="C275" s="3"/>
-      <c r="D275" s="12"/>
-      <c r="E275" s="5"/>
-      <c r="F275" s="3"/>
-      <c r="G275" s="3"/>
-      <c r="H275" s="3"/>
+      <c r="A275" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B275" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="C275" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="D275" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="E275" s="15"/>
+      <c r="F275" s="14"/>
+      <c r="G275" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="H275" s="3" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A276" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B276" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C276" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D276" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="E276" s="5"/>
-      <c r="F276" s="3">
-        <v>80</v>
-      </c>
-      <c r="G276" s="3"/>
+      <c r="A276" s="14"/>
+      <c r="B276" s="14"/>
+      <c r="C276" s="14"/>
+      <c r="D276" s="17"/>
+      <c r="E276" s="15"/>
+      <c r="F276" s="14"/>
+      <c r="G276" s="14"/>
       <c r="H276" s="3" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A277" s="3"/>
-      <c r="B277" s="3"/>
-      <c r="C277" s="3"/>
-      <c r="D277" s="12"/>
-      <c r="E277" s="5"/>
-      <c r="F277" s="3"/>
-      <c r="G277" s="3"/>
-      <c r="H277" s="3"/>
+      <c r="A277" s="14"/>
+      <c r="B277" s="14"/>
+      <c r="C277" s="14"/>
+      <c r="D277" s="17"/>
+      <c r="E277" s="15"/>
+      <c r="F277" s="14"/>
+      <c r="G277" s="14"/>
+      <c r="H277" s="3" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A278" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B278" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="C278" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="D278" s="17" t="s">
-        <v>129</v>
-      </c>
+      <c r="A278" s="14"/>
+      <c r="B278" s="14"/>
+      <c r="C278" s="14"/>
+      <c r="D278" s="17"/>
       <c r="E278" s="15"/>
       <c r="F278" s="14"/>
-      <c r="G278" s="14" t="s">
+      <c r="G278" s="14"/>
+      <c r="H278" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A279" s="3"/>
+      <c r="B279" s="3"/>
+      <c r="C279" s="3"/>
+      <c r="D279" s="12"/>
+      <c r="E279" s="5"/>
+      <c r="F279" s="3"/>
+      <c r="G279" s="3"/>
+      <c r="H279" s="3"/>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A280" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B280" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C280" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="H278" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A279" s="14"/>
-      <c r="B279" s="14"/>
-      <c r="C279" s="14"/>
-      <c r="D279" s="17"/>
-      <c r="E279" s="15"/>
-      <c r="F279" s="14"/>
-      <c r="G279" s="14"/>
-      <c r="H279" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A280" s="14"/>
-      <c r="B280" s="14"/>
-      <c r="C280" s="14"/>
-      <c r="D280" s="17"/>
-      <c r="E280" s="15"/>
-      <c r="F280" s="14"/>
-      <c r="G280" s="14"/>
+      <c r="D280" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="E280" s="5"/>
+      <c r="F280" s="3"/>
+      <c r="G280" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="H280" s="3" t="s">
-        <v>202</v>
+        <v>154</v>
       </c>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A281" s="14"/>
-      <c r="B281" s="14"/>
-      <c r="C281" s="14"/>
-      <c r="D281" s="17"/>
-      <c r="E281" s="15"/>
-      <c r="F281" s="14"/>
-      <c r="G281" s="14"/>
-      <c r="H281" s="3" t="s">
-        <v>186</v>
-      </c>
+      <c r="A281" s="3"/>
+      <c r="B281" s="3"/>
+      <c r="C281" s="3"/>
+      <c r="D281" s="12"/>
+      <c r="E281" s="5"/>
+      <c r="F281" s="3"/>
+      <c r="G281" s="3"/>
+      <c r="H281" s="3"/>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A282" s="3"/>
-      <c r="B282" s="3"/>
-      <c r="C282" s="3"/>
-      <c r="D282" s="12"/>
+      <c r="A282" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B282" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C282" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D282" s="12" t="s">
+        <v>128</v>
+      </c>
       <c r="E282" s="5"/>
       <c r="F282" s="3"/>
       <c r="G282" s="3"/>
-      <c r="H282" s="3"/>
+      <c r="H282" s="3" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A283" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B283" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C283" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D283" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="E283" s="5"/>
-      <c r="F283" s="3"/>
-      <c r="G283" s="3" t="s">
-        <v>47</v>
-      </c>
+      <c r="A283" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B283" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C283" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="D283" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="E283" s="15"/>
+      <c r="F283" s="14"/>
+      <c r="G283" s="14"/>
       <c r="H283" s="3" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A284" s="3"/>
-      <c r="B284" s="3"/>
-      <c r="C284" s="3"/>
-      <c r="D284" s="12"/>
-      <c r="E284" s="5"/>
-      <c r="F284" s="3"/>
-      <c r="G284" s="3"/>
-      <c r="H284" s="3"/>
+      <c r="A284" s="14"/>
+      <c r="B284" s="14"/>
+      <c r="C284" s="14"/>
+      <c r="D284" s="17"/>
+      <c r="E284" s="15"/>
+      <c r="F284" s="14"/>
+      <c r="G284" s="14"/>
+      <c r="H284" s="3" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A285" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B285" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C285" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D285" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="E285" s="5"/>
-      <c r="F285" s="3"/>
-      <c r="G285" s="3"/>
+      <c r="A285" s="14"/>
+      <c r="B285" s="14"/>
+      <c r="C285" s="14"/>
+      <c r="D285" s="17"/>
+      <c r="E285" s="15"/>
+      <c r="F285" s="14"/>
+      <c r="G285" s="14"/>
       <c r="H285" s="3" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A286" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B286" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C286" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="D286" s="17" t="s">
-        <v>129</v>
-      </c>
+      <c r="A286" s="14"/>
+      <c r="B286" s="14"/>
+      <c r="C286" s="14"/>
+      <c r="D286" s="17"/>
       <c r="E286" s="15"/>
       <c r="F286" s="14"/>
       <c r="G286" s="14"/>
       <c r="H286" s="3" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.2">
@@ -8937,7 +8927,7 @@
       <c r="F287" s="14"/>
       <c r="G287" s="14"/>
       <c r="H287" s="3" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.2">
@@ -8949,7 +8939,7 @@
       <c r="F288" s="14"/>
       <c r="G288" s="14"/>
       <c r="H288" s="3" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.2">
@@ -8961,7 +8951,7 @@
       <c r="F289" s="14"/>
       <c r="G289" s="14"/>
       <c r="H289" s="3" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.2">
@@ -8973,19 +8963,27 @@
       <c r="F290" s="14"/>
       <c r="G290" s="14"/>
       <c r="H290" s="3" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A291" s="14"/>
-      <c r="B291" s="14"/>
-      <c r="C291" s="14"/>
-      <c r="D291" s="17"/>
+      <c r="A291" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B291" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C291" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="D291" s="17" t="s">
+        <v>128</v>
+      </c>
       <c r="E291" s="15"/>
       <c r="F291" s="14"/>
       <c r="G291" s="14"/>
       <c r="H291" s="3" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.2">
@@ -8997,7 +8995,7 @@
       <c r="F292" s="14"/>
       <c r="G292" s="14"/>
       <c r="H292" s="3" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.2">
@@ -9009,39 +9007,39 @@
       <c r="F293" s="14"/>
       <c r="G293" s="14"/>
       <c r="H293" s="3" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A294" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B294" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C294" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="D294" s="17" t="s">
-        <v>129</v>
-      </c>
+      <c r="A294" s="14"/>
+      <c r="B294" s="14"/>
+      <c r="C294" s="14"/>
+      <c r="D294" s="17"/>
       <c r="E294" s="15"/>
       <c r="F294" s="14"/>
       <c r="G294" s="14"/>
       <c r="H294" s="3" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A295" s="14"/>
-      <c r="B295" s="14"/>
-      <c r="C295" s="14"/>
-      <c r="D295" s="17"/>
+      <c r="A295" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B295" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C295" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="D295" s="17" t="s">
+        <v>128</v>
+      </c>
       <c r="E295" s="15"/>
       <c r="F295" s="14"/>
       <c r="G295" s="14"/>
       <c r="H295" s="3" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.2">
@@ -9053,7 +9051,7 @@
       <c r="F296" s="14"/>
       <c r="G296" s="14"/>
       <c r="H296" s="3" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.2">
@@ -9065,27 +9063,19 @@
       <c r="F297" s="14"/>
       <c r="G297" s="14"/>
       <c r="H297" s="3" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A298" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B298" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C298" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="D298" s="17" t="s">
-        <v>129</v>
-      </c>
+      <c r="A298" s="14"/>
+      <c r="B298" s="14"/>
+      <c r="C298" s="14"/>
+      <c r="D298" s="17"/>
       <c r="E298" s="15"/>
       <c r="F298" s="14"/>
       <c r="G298" s="14"/>
       <c r="H298" s="3" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.2">
@@ -9097,7 +9087,7 @@
       <c r="F299" s="14"/>
       <c r="G299" s="14"/>
       <c r="H299" s="3" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.2">
@@ -9109,7 +9099,7 @@
       <c r="F300" s="14"/>
       <c r="G300" s="14"/>
       <c r="H300" s="3" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.2">
@@ -9121,203 +9111,211 @@
       <c r="F301" s="14"/>
       <c r="G301" s="14"/>
       <c r="H301" s="3" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A302" s="14"/>
-      <c r="B302" s="14"/>
-      <c r="C302" s="14"/>
-      <c r="D302" s="17"/>
-      <c r="E302" s="15"/>
-      <c r="F302" s="14"/>
-      <c r="G302" s="14"/>
-      <c r="H302" s="3" t="s">
-        <v>218</v>
-      </c>
+      <c r="A302" s="3"/>
+      <c r="B302" s="3"/>
+      <c r="C302" s="3"/>
+      <c r="D302" s="12"/>
+      <c r="E302" s="5"/>
+      <c r="F302" s="3"/>
+      <c r="G302" s="3"/>
+      <c r="H302" s="3"/>
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A303" s="14"/>
-      <c r="B303" s="14"/>
-      <c r="C303" s="14"/>
-      <c r="D303" s="17"/>
-      <c r="E303" s="15"/>
-      <c r="F303" s="14"/>
-      <c r="G303" s="14"/>
+      <c r="A303" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B303" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C303" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D303" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="E303" s="5"/>
+      <c r="F303" s="3"/>
+      <c r="G303" s="3"/>
       <c r="H303" s="3" t="s">
-        <v>219</v>
+        <v>158</v>
       </c>
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A304" s="14"/>
-      <c r="B304" s="14"/>
-      <c r="C304" s="14"/>
-      <c r="D304" s="17"/>
-      <c r="E304" s="15"/>
-      <c r="F304" s="14"/>
-      <c r="G304" s="14"/>
-      <c r="H304" s="3" t="s">
-        <v>220</v>
-      </c>
+      <c r="A304" s="7"/>
+      <c r="B304" s="7"/>
+      <c r="C304" s="7"/>
+      <c r="D304" s="7"/>
+      <c r="E304" s="8"/>
+      <c r="F304" s="7"/>
+      <c r="G304" s="7"/>
+      <c r="H304" s="7"/>
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A305" s="3"/>
-      <c r="B305" s="3"/>
-      <c r="C305" s="3"/>
-      <c r="D305" s="12"/>
-      <c r="E305" s="5"/>
-      <c r="F305" s="3"/>
-      <c r="G305" s="3"/>
-      <c r="H305" s="3"/>
+      <c r="A305" s="7"/>
+      <c r="B305" s="7"/>
+      <c r="C305" s="7"/>
+      <c r="D305" s="7"/>
+      <c r="E305" s="8"/>
+      <c r="F305" s="7"/>
+      <c r="G305" s="7"/>
+      <c r="H305" s="7"/>
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A306" s="3" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C306" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="D306" s="12" t="s">
-        <v>129</v>
+      <c r="D306" s="13" t="s">
+        <v>135</v>
       </c>
       <c r="E306" s="5"/>
-      <c r="F306" s="3"/>
+      <c r="F306" s="3">
+        <v>50</v>
+      </c>
       <c r="G306" s="3"/>
       <c r="H306" s="3" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A307" s="7"/>
-      <c r="B307" s="7"/>
-      <c r="C307" s="7"/>
-      <c r="D307" s="7"/>
-      <c r="E307" s="8"/>
-      <c r="F307" s="7"/>
-      <c r="G307" s="7"/>
-      <c r="H307" s="7"/>
+      <c r="A307" s="3"/>
+      <c r="B307" s="3"/>
+      <c r="C307" s="3"/>
+      <c r="D307" s="13"/>
+      <c r="E307" s="5"/>
+      <c r="F307" s="3"/>
+      <c r="G307" s="3"/>
+      <c r="H307" s="3"/>
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A308" s="7"/>
-      <c r="B308" s="7"/>
-      <c r="C308" s="7"/>
-      <c r="D308" s="7"/>
-      <c r="E308" s="8"/>
-      <c r="F308" s="7"/>
-      <c r="G308" s="7"/>
-      <c r="H308" s="7"/>
+      <c r="A308" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B308" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C308" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D308" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="E308" s="5"/>
+      <c r="F308" s="3">
+        <v>80</v>
+      </c>
+      <c r="G308" s="3"/>
+      <c r="H308" s="3" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A309" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B309" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C309" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="D309" s="13" t="s">
+      <c r="A309" s="3"/>
+      <c r="B309" s="3"/>
+      <c r="C309" s="3"/>
+      <c r="D309" s="13"/>
+      <c r="E309" s="5"/>
+      <c r="F309" s="3"/>
+      <c r="G309" s="3"/>
+      <c r="H309" s="3"/>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A310" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B310" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="E309" s="5"/>
-      <c r="F309" s="3">
-        <v>50</v>
-      </c>
-      <c r="G309" s="3"/>
-      <c r="H309" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A310" s="3"/>
-      <c r="B310" s="3"/>
-      <c r="C310" s="3"/>
-      <c r="D310" s="13"/>
-      <c r="E310" s="5"/>
-      <c r="F310" s="3"/>
-      <c r="G310" s="3"/>
-      <c r="H310" s="3"/>
+      <c r="C310" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="D310" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="E310" s="15"/>
+      <c r="F310" s="14"/>
+      <c r="G310" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="H310" s="3" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A311" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B311" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C311" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="D311" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="E311" s="5"/>
-      <c r="F311" s="3">
-        <v>80</v>
-      </c>
-      <c r="G311" s="3"/>
+      <c r="A311" s="14"/>
+      <c r="B311" s="14"/>
+      <c r="C311" s="14"/>
+      <c r="D311" s="16"/>
+      <c r="E311" s="15"/>
+      <c r="F311" s="14"/>
+      <c r="G311" s="14"/>
       <c r="H311" s="3" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A312" s="3"/>
-      <c r="B312" s="3"/>
-      <c r="C312" s="3"/>
-      <c r="D312" s="13"/>
-      <c r="E312" s="5"/>
-      <c r="F312" s="3"/>
-      <c r="G312" s="3"/>
-      <c r="H312" s="3"/>
+      <c r="A312" s="14"/>
+      <c r="B312" s="14"/>
+      <c r="C312" s="14"/>
+      <c r="D312" s="16"/>
+      <c r="E312" s="15"/>
+      <c r="F312" s="14"/>
+      <c r="G312" s="14"/>
+      <c r="H312" s="3" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="313" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A313" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B313" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="C313" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="D313" s="16" t="s">
-        <v>136</v>
-      </c>
+      <c r="A313" s="14"/>
+      <c r="B313" s="14"/>
+      <c r="C313" s="14"/>
+      <c r="D313" s="16"/>
       <c r="E313" s="15"/>
       <c r="F313" s="14"/>
-      <c r="G313" s="14" t="s">
-        <v>139</v>
-      </c>
+      <c r="G313" s="14"/>
       <c r="H313" s="3" t="s">
-        <v>221</v>
+        <v>169</v>
       </c>
     </row>
     <row r="314" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A314" s="14"/>
-      <c r="B314" s="14"/>
-      <c r="C314" s="14"/>
-      <c r="D314" s="16"/>
-      <c r="E314" s="15"/>
-      <c r="F314" s="14"/>
-      <c r="G314" s="14"/>
-      <c r="H314" s="3" t="s">
-        <v>185</v>
-      </c>
+      <c r="A314" s="3"/>
+      <c r="B314" s="3"/>
+      <c r="C314" s="3"/>
+      <c r="D314" s="13"/>
+      <c r="E314" s="5"/>
+      <c r="F314" s="3"/>
+      <c r="G314" s="3"/>
+      <c r="H314" s="3"/>
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A315" s="14"/>
-      <c r="B315" s="14"/>
-      <c r="C315" s="14"/>
-      <c r="D315" s="16"/>
+      <c r="A315" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B315" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C315" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="D315" s="16" t="s">
+        <v>135</v>
+      </c>
       <c r="E315" s="15"/>
       <c r="F315" s="14"/>
-      <c r="G315" s="14"/>
+      <c r="G315" s="14" t="s">
+        <v>47</v>
+      </c>
       <c r="H315" s="3" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.2">
@@ -9329,39 +9327,31 @@
       <c r="F316" s="14"/>
       <c r="G316" s="14"/>
       <c r="H316" s="3" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A317" s="3"/>
-      <c r="B317" s="3"/>
-      <c r="C317" s="3"/>
-      <c r="D317" s="13"/>
-      <c r="E317" s="5"/>
-      <c r="F317" s="3"/>
-      <c r="G317" s="3"/>
-      <c r="H317" s="3"/>
+      <c r="A317" s="14"/>
+      <c r="B317" s="14"/>
+      <c r="C317" s="14"/>
+      <c r="D317" s="16"/>
+      <c r="E317" s="15"/>
+      <c r="F317" s="14"/>
+      <c r="G317" s="14"/>
+      <c r="H317" s="3" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="318" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A318" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B318" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C318" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="D318" s="16" t="s">
-        <v>136</v>
-      </c>
+      <c r="A318" s="14"/>
+      <c r="B318" s="14"/>
+      <c r="C318" s="14"/>
+      <c r="D318" s="16"/>
       <c r="E318" s="15"/>
       <c r="F318" s="14"/>
-      <c r="G318" s="14" t="s">
-        <v>47</v>
-      </c>
+      <c r="G318" s="14"/>
       <c r="H318" s="3" t="s">
-        <v>223</v>
+        <v>186</v>
       </c>
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.2">
@@ -9373,7 +9363,7 @@
       <c r="F319" s="14"/>
       <c r="G319" s="14"/>
       <c r="H319" s="3" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.2">
@@ -9385,7 +9375,7 @@
       <c r="F320" s="14"/>
       <c r="G320" s="14"/>
       <c r="H320" s="3" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.2">
@@ -9397,7 +9387,7 @@
       <c r="F321" s="14"/>
       <c r="G321" s="14"/>
       <c r="H321" s="3" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.2">
@@ -9409,7 +9399,7 @@
       <c r="F322" s="14"/>
       <c r="G322" s="14"/>
       <c r="H322" s="3" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.2">
@@ -9421,7 +9411,7 @@
       <c r="F323" s="14"/>
       <c r="G323" s="14"/>
       <c r="H323" s="3" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
     </row>
     <row r="324" spans="1:8" x14ac:dyDescent="0.2">
@@ -9433,7 +9423,7 @@
       <c r="F324" s="14"/>
       <c r="G324" s="14"/>
       <c r="H324" s="3" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
     </row>
     <row r="325" spans="1:8" x14ac:dyDescent="0.2">
@@ -9445,7 +9435,7 @@
       <c r="F325" s="14"/>
       <c r="G325" s="14"/>
       <c r="H325" s="3" t="s">
-        <v>229</v>
+        <v>189</v>
       </c>
     </row>
     <row r="326" spans="1:8" x14ac:dyDescent="0.2">
@@ -9457,7 +9447,7 @@
       <c r="F326" s="14"/>
       <c r="G326" s="14"/>
       <c r="H326" s="3" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
     </row>
     <row r="327" spans="1:8" x14ac:dyDescent="0.2">
@@ -9469,7 +9459,7 @@
       <c r="F327" s="14"/>
       <c r="G327" s="14"/>
       <c r="H327" s="3" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
     </row>
     <row r="328" spans="1:8" x14ac:dyDescent="0.2">
@@ -9481,7 +9471,7 @@
       <c r="F328" s="14"/>
       <c r="G328" s="14"/>
       <c r="H328" s="3" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="329" spans="1:8" x14ac:dyDescent="0.2">
@@ -9493,7 +9483,7 @@
       <c r="F329" s="14"/>
       <c r="G329" s="14"/>
       <c r="H329" s="3" t="s">
-        <v>232</v>
+        <v>186</v>
       </c>
     </row>
     <row r="330" spans="1:8" x14ac:dyDescent="0.2">
@@ -9505,7 +9495,7 @@
       <c r="F330" s="14"/>
       <c r="G330" s="14"/>
       <c r="H330" s="3" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.2">
@@ -9517,7 +9507,7 @@
       <c r="F331" s="14"/>
       <c r="G331" s="14"/>
       <c r="H331" s="3" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.2">
@@ -9529,7 +9519,7 @@
       <c r="F332" s="14"/>
       <c r="G332" s="14"/>
       <c r="H332" s="3" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
     </row>
     <row r="333" spans="1:8" x14ac:dyDescent="0.2">
@@ -9541,7 +9531,7 @@
       <c r="F333" s="14"/>
       <c r="G333" s="14"/>
       <c r="H333" s="3" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
     </row>
     <row r="334" spans="1:8" x14ac:dyDescent="0.2">
@@ -9553,7 +9543,7 @@
       <c r="F334" s="14"/>
       <c r="G334" s="14"/>
       <c r="H334" s="3" t="s">
-        <v>235</v>
+        <v>189</v>
       </c>
     </row>
     <row r="335" spans="1:8" x14ac:dyDescent="0.2">
@@ -9565,31 +9555,37 @@
       <c r="F335" s="14"/>
       <c r="G335" s="14"/>
       <c r="H335" s="3" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
     </row>
     <row r="336" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A336" s="14"/>
-      <c r="B336" s="14"/>
-      <c r="C336" s="14"/>
-      <c r="D336" s="16"/>
-      <c r="E336" s="15"/>
-      <c r="F336" s="14"/>
-      <c r="G336" s="14"/>
-      <c r="H336" s="3" t="s">
-        <v>237</v>
-      </c>
+      <c r="A336" s="3"/>
+      <c r="B336" s="3"/>
+      <c r="C336" s="3"/>
+      <c r="D336" s="13"/>
+      <c r="E336" s="5"/>
+      <c r="F336" s="3"/>
+      <c r="G336" s="3"/>
+      <c r="H336" s="3"/>
     </row>
     <row r="337" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A337" s="14"/>
-      <c r="B337" s="14"/>
-      <c r="C337" s="14"/>
-      <c r="D337" s="16"/>
+      <c r="A337" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B337" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C337" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="D337" s="16" t="s">
+        <v>135</v>
+      </c>
       <c r="E337" s="15"/>
       <c r="F337" s="14"/>
       <c r="G337" s="14"/>
       <c r="H337" s="3" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
     </row>
     <row r="338" spans="1:8" x14ac:dyDescent="0.2">
@@ -9601,37 +9597,39 @@
       <c r="F338" s="14"/>
       <c r="G338" s="14"/>
       <c r="H338" s="3" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
     </row>
     <row r="339" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A339" s="3"/>
-      <c r="B339" s="3"/>
-      <c r="C339" s="3"/>
-      <c r="D339" s="13"/>
-      <c r="E339" s="5"/>
-      <c r="F339" s="3"/>
-      <c r="G339" s="3"/>
-      <c r="H339" s="3"/>
+      <c r="A339" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B339" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C339" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="D339" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="E339" s="15"/>
+      <c r="F339" s="14"/>
+      <c r="G339" s="14"/>
+      <c r="H339" s="3" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="340" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A340" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B340" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C340" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="D340" s="16" t="s">
-        <v>136</v>
-      </c>
+      <c r="A340" s="14"/>
+      <c r="B340" s="14"/>
+      <c r="C340" s="14"/>
+      <c r="D340" s="16"/>
       <c r="E340" s="15"/>
       <c r="F340" s="14"/>
       <c r="G340" s="14"/>
       <c r="H340" s="3" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
     </row>
     <row r="341" spans="1:8" x14ac:dyDescent="0.2">
@@ -9643,27 +9641,19 @@
       <c r="F341" s="14"/>
       <c r="G341" s="14"/>
       <c r="H341" s="3" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
     </row>
     <row r="342" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A342" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B342" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C342" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="D342" s="16" t="s">
-        <v>136</v>
-      </c>
+      <c r="A342" s="14"/>
+      <c r="B342" s="14"/>
+      <c r="C342" s="14"/>
+      <c r="D342" s="16"/>
       <c r="E342" s="15"/>
       <c r="F342" s="14"/>
       <c r="G342" s="14"/>
       <c r="H342" s="3" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
     </row>
     <row r="343" spans="1:8" x14ac:dyDescent="0.2">
@@ -9675,19 +9665,27 @@
       <c r="F343" s="14"/>
       <c r="G343" s="14"/>
       <c r="H343" s="3" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
     </row>
     <row r="344" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A344" s="14"/>
-      <c r="B344" s="14"/>
-      <c r="C344" s="14"/>
-      <c r="D344" s="16"/>
+      <c r="A344" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B344" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C344" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="D344" s="16" t="s">
+        <v>135</v>
+      </c>
       <c r="E344" s="15"/>
       <c r="F344" s="14"/>
       <c r="G344" s="14"/>
       <c r="H344" s="3" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
     </row>
     <row r="345" spans="1:8" x14ac:dyDescent="0.2">
@@ -9699,7 +9697,7 @@
       <c r="F345" s="14"/>
       <c r="G345" s="14"/>
       <c r="H345" s="3" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
     </row>
     <row r="346" spans="1:8" x14ac:dyDescent="0.2">
@@ -9711,196 +9709,145 @@
       <c r="F346" s="14"/>
       <c r="G346" s="14"/>
       <c r="H346" s="3" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
     </row>
     <row r="347" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A347" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B347" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C347" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="D347" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="E347" s="15"/>
-      <c r="F347" s="14"/>
-      <c r="G347" s="14"/>
+      <c r="A347" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B347" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C347" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D347" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="E347" s="5"/>
+      <c r="F347" s="3"/>
+      <c r="G347" s="3"/>
       <c r="H347" s="3" t="s">
-        <v>245</v>
+        <v>137</v>
       </c>
     </row>
     <row r="348" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A348" s="14"/>
-      <c r="B348" s="14"/>
-      <c r="C348" s="14"/>
-      <c r="D348" s="16"/>
-      <c r="E348" s="15"/>
-      <c r="F348" s="14"/>
-      <c r="G348" s="14"/>
-      <c r="H348" s="3" t="s">
-        <v>246</v>
-      </c>
+      <c r="A348" s="3"/>
+      <c r="B348" s="3"/>
+      <c r="C348" s="3"/>
+      <c r="D348" s="13"/>
+      <c r="E348" s="5"/>
+      <c r="F348" s="3"/>
+      <c r="G348" s="3"/>
+      <c r="H348" s="3"/>
     </row>
     <row r="349" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A349" s="14"/>
-      <c r="B349" s="14"/>
-      <c r="C349" s="14"/>
-      <c r="D349" s="16"/>
-      <c r="E349" s="15"/>
-      <c r="F349" s="14"/>
-      <c r="G349" s="14"/>
+      <c r="A349" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B349" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C349" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D349" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="E349" s="5"/>
+      <c r="F349" s="3"/>
+      <c r="G349" s="3"/>
       <c r="H349" s="3" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A350" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B350" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C350" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="D350" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="E350" s="5"/>
-      <c r="F350" s="3"/>
-      <c r="G350" s="3"/>
-      <c r="H350" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A351" s="3"/>
-      <c r="B351" s="3"/>
-      <c r="C351" s="3"/>
-      <c r="D351" s="13"/>
-      <c r="E351" s="5"/>
-      <c r="F351" s="3"/>
-      <c r="G351" s="3"/>
-      <c r="H351" s="3"/>
-    </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A352" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B352" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C352" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="D352" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="E352" s="5"/>
-      <c r="F352" s="3"/>
-      <c r="G352" s="3"/>
-      <c r="H352" s="3" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="91">
-    <mergeCell ref="A201:A204"/>
-    <mergeCell ref="G201:G204"/>
-    <mergeCell ref="F201:F204"/>
-    <mergeCell ref="E201:E204"/>
-    <mergeCell ref="D201:D204"/>
-    <mergeCell ref="C201:C204"/>
-    <mergeCell ref="B201:B204"/>
-    <mergeCell ref="A244:A246"/>
-    <mergeCell ref="G236:G238"/>
-    <mergeCell ref="F236:F238"/>
-    <mergeCell ref="E236:E238"/>
-    <mergeCell ref="D236:D238"/>
-    <mergeCell ref="C236:C238"/>
-    <mergeCell ref="B236:B238"/>
-    <mergeCell ref="A236:A238"/>
-    <mergeCell ref="G244:G246"/>
-    <mergeCell ref="F244:F246"/>
-    <mergeCell ref="E244:E246"/>
-    <mergeCell ref="D244:D246"/>
-    <mergeCell ref="C244:C246"/>
-    <mergeCell ref="B244:B246"/>
-    <mergeCell ref="A278:A281"/>
-    <mergeCell ref="G263:G267"/>
-    <mergeCell ref="F263:F267"/>
-    <mergeCell ref="E263:E267"/>
-    <mergeCell ref="D263:D267"/>
-    <mergeCell ref="C263:C267"/>
-    <mergeCell ref="B263:B267"/>
-    <mergeCell ref="A263:A267"/>
-    <mergeCell ref="G278:G281"/>
-    <mergeCell ref="F278:F281"/>
-    <mergeCell ref="E278:E281"/>
-    <mergeCell ref="D278:D281"/>
-    <mergeCell ref="C278:C281"/>
-    <mergeCell ref="B278:B281"/>
-    <mergeCell ref="A294:A297"/>
-    <mergeCell ref="G286:G293"/>
-    <mergeCell ref="F286:F293"/>
-    <mergeCell ref="E286:E293"/>
-    <mergeCell ref="D286:D293"/>
-    <mergeCell ref="C286:C293"/>
-    <mergeCell ref="B286:B293"/>
-    <mergeCell ref="A286:A293"/>
-    <mergeCell ref="G294:G297"/>
-    <mergeCell ref="F294:F297"/>
-    <mergeCell ref="E294:E297"/>
-    <mergeCell ref="D294:D297"/>
-    <mergeCell ref="C294:C297"/>
-    <mergeCell ref="B294:B297"/>
-    <mergeCell ref="A313:A316"/>
-    <mergeCell ref="G298:G304"/>
-    <mergeCell ref="F298:F304"/>
-    <mergeCell ref="E298:E304"/>
-    <mergeCell ref="D298:D304"/>
-    <mergeCell ref="C298:C304"/>
-    <mergeCell ref="B298:B304"/>
-    <mergeCell ref="A298:A304"/>
-    <mergeCell ref="G313:G316"/>
-    <mergeCell ref="F313:F316"/>
-    <mergeCell ref="E313:E316"/>
-    <mergeCell ref="D313:D316"/>
-    <mergeCell ref="C313:C316"/>
-    <mergeCell ref="B313:B316"/>
-    <mergeCell ref="A340:A341"/>
-    <mergeCell ref="G318:G338"/>
-    <mergeCell ref="F318:F338"/>
-    <mergeCell ref="E318:E338"/>
-    <mergeCell ref="D318:D338"/>
-    <mergeCell ref="C318:C338"/>
-    <mergeCell ref="B318:B338"/>
-    <mergeCell ref="A318:A338"/>
-    <mergeCell ref="G340:G341"/>
-    <mergeCell ref="F340:F341"/>
-    <mergeCell ref="E340:E341"/>
-    <mergeCell ref="D340:D341"/>
-    <mergeCell ref="C340:C341"/>
-    <mergeCell ref="B340:B341"/>
-    <mergeCell ref="A347:A349"/>
-    <mergeCell ref="G342:G346"/>
-    <mergeCell ref="F342:F346"/>
-    <mergeCell ref="E342:E346"/>
-    <mergeCell ref="D342:D346"/>
-    <mergeCell ref="C342:C346"/>
-    <mergeCell ref="B342:B346"/>
-    <mergeCell ref="A342:A346"/>
-    <mergeCell ref="G347:G349"/>
-    <mergeCell ref="F347:F349"/>
-    <mergeCell ref="E347:E349"/>
-    <mergeCell ref="D347:D349"/>
-    <mergeCell ref="C347:C349"/>
-    <mergeCell ref="B347:B349"/>
+  <mergeCells count="84">
+    <mergeCell ref="A241:A243"/>
+    <mergeCell ref="G233:G235"/>
+    <mergeCell ref="F233:F235"/>
+    <mergeCell ref="E233:E235"/>
+    <mergeCell ref="D233:D235"/>
+    <mergeCell ref="C233:C235"/>
+    <mergeCell ref="B233:B235"/>
+    <mergeCell ref="A233:A235"/>
+    <mergeCell ref="G241:G243"/>
+    <mergeCell ref="F241:F243"/>
+    <mergeCell ref="E241:E243"/>
+    <mergeCell ref="D241:D243"/>
+    <mergeCell ref="C241:C243"/>
+    <mergeCell ref="B241:B243"/>
+    <mergeCell ref="A275:A278"/>
+    <mergeCell ref="G260:G264"/>
+    <mergeCell ref="F260:F264"/>
+    <mergeCell ref="E260:E264"/>
+    <mergeCell ref="D260:D264"/>
+    <mergeCell ref="C260:C264"/>
+    <mergeCell ref="B260:B264"/>
+    <mergeCell ref="A260:A264"/>
+    <mergeCell ref="G275:G278"/>
+    <mergeCell ref="F275:F278"/>
+    <mergeCell ref="E275:E278"/>
+    <mergeCell ref="D275:D278"/>
+    <mergeCell ref="C275:C278"/>
+    <mergeCell ref="B275:B278"/>
+    <mergeCell ref="A291:A294"/>
+    <mergeCell ref="G283:G290"/>
+    <mergeCell ref="F283:F290"/>
+    <mergeCell ref="E283:E290"/>
+    <mergeCell ref="D283:D290"/>
+    <mergeCell ref="C283:C290"/>
+    <mergeCell ref="B283:B290"/>
+    <mergeCell ref="A283:A290"/>
+    <mergeCell ref="G291:G294"/>
+    <mergeCell ref="F291:F294"/>
+    <mergeCell ref="E291:E294"/>
+    <mergeCell ref="D291:D294"/>
+    <mergeCell ref="C291:C294"/>
+    <mergeCell ref="B291:B294"/>
+    <mergeCell ref="A310:A313"/>
+    <mergeCell ref="G295:G301"/>
+    <mergeCell ref="F295:F301"/>
+    <mergeCell ref="E295:E301"/>
+    <mergeCell ref="D295:D301"/>
+    <mergeCell ref="C295:C301"/>
+    <mergeCell ref="B295:B301"/>
+    <mergeCell ref="A295:A301"/>
+    <mergeCell ref="G310:G313"/>
+    <mergeCell ref="F310:F313"/>
+    <mergeCell ref="E310:E313"/>
+    <mergeCell ref="D310:D313"/>
+    <mergeCell ref="C310:C313"/>
+    <mergeCell ref="B310:B313"/>
+    <mergeCell ref="A337:A338"/>
+    <mergeCell ref="G315:G335"/>
+    <mergeCell ref="F315:F335"/>
+    <mergeCell ref="E315:E335"/>
+    <mergeCell ref="D315:D335"/>
+    <mergeCell ref="C315:C335"/>
+    <mergeCell ref="B315:B335"/>
+    <mergeCell ref="A315:A335"/>
+    <mergeCell ref="G337:G338"/>
+    <mergeCell ref="F337:F338"/>
+    <mergeCell ref="E337:E338"/>
+    <mergeCell ref="D337:D338"/>
+    <mergeCell ref="C337:C338"/>
+    <mergeCell ref="B337:B338"/>
+    <mergeCell ref="A344:A346"/>
+    <mergeCell ref="G339:G343"/>
+    <mergeCell ref="F339:F343"/>
+    <mergeCell ref="E339:E343"/>
+    <mergeCell ref="D339:D343"/>
+    <mergeCell ref="C339:C343"/>
+    <mergeCell ref="B339:B343"/>
+    <mergeCell ref="A339:A343"/>
+    <mergeCell ref="G344:G346"/>
+    <mergeCell ref="F344:F346"/>
+    <mergeCell ref="E344:E346"/>
+    <mergeCell ref="D344:D346"/>
+    <mergeCell ref="C344:C346"/>
+    <mergeCell ref="B344:B346"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/disasterinfosite/data/snuggets-es.xlsx
+++ b/disasterinfosite/data/snuggets-es.xlsx
@@ -404,15 +404,6 @@
     <t>Winter Weather</t>
   </si>
   <si>
-    <t>Learn more about winter condition and how to prepare:
-&lt;ul&gt;&lt;li&gt;
- &lt;a href=http://takewinterbystorm.org target=_blank&gt;Take Winter By Storm&lt;/a&gt;-  Preparedness tips and up-to-date information for Western Washington &lt;/li&gt;
-&lt;li&gt;
- &lt;a href=http://kingcounty.gov/depts/transportation/metro/alerts-updates/winter.aspx target=_blank&gt;King County Metro Winter&lt;/a&gt; - Links for winter trip planning apps and weather alerts  &lt;/li&gt;
- &lt;li&gt;
- &lt;a href=https://www.seattle.gov/transportation/winterweather.htm target=_blank&gt;Seattle Department of Transportation&lt;/a&gt; Check where snow plows have been and other information on road conditions &lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
     <t>1a</t>
   </si>
   <si>
@@ -453,40 +444,6 @@
   </si>
   <si>
     <t>LSLD_existing_features</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Across King County winter can bring below freezing temps&amp;#44; icy roads&amp;#44; and the potential for major storms. Snowfall occurs occasionally&amp;#44; with more at higher elevations. &lt;b&gt;Winter storms can bring high winds that cause trees to fall and power to go out.&lt;/b&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;A substantial snow fall event could cause significant disruptions to transportation&amp;#44; public safety services&amp;#44; and utilities. &lt;b&gt;Power could be out for many days.&lt;/b&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;The Pacific Northwest will see more severe storms in the next 50 years&lt;/b&gt;. They could carry heavy winds&amp;#44; torrential rainfall leading to flooding. Winter activities will be impacted. 2015 saw the lowest recorded snowpack levels with only 4% of the average. Warm winters will set the stage for statewide drought.  Click the image to find out more. &lt;br&gt;
-&lt;a href="http://kingcounty.gov/services/environment/climate/why-act/infographic.aspx" target=_blank&gt;
-&lt;img src="https://hazardready.org/images/seattle-ready/snuggets/Climate_Winter.jpg" alt="Climate Change Winter Infographic"&gt;
-&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Meteorologists have made great strides in forecasting snow and ice storms. &lt;b&gt;Pay attention to local weather forecasts and sign up for available alert and warning systems&lt;/b&gt; (&lt;a href=http://alert.seattle.gov/ target=_blank&gt;Alert Seattle&lt;/a&gt; and &lt;a href=http://www.kingcounty.gov/depts/emergency-management/alert-king-county.aspx target=_blank&gt;Alert King County&lt;/a&gt;) to ensure that you get up to date information about pending severe weather. &lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ol&gt;&lt;li&gt;&lt;b&gt;GET SUPPLIES - Store extra fuel and emergency supplies&lt;/b&gt; to survive several days without electricity&amp;#44; heat&amp;#44; and hot water. Consider purchasing a generator and follow safety standards.&lt;/li&gt;&lt;li&gt;&lt;b&gt;WINTERIZE YOUR HOME&lt;/b&gt; - Install storm windows. Insulate walls&amp;#44; attics&amp;#44; and pipes. Apply caulk and weather-stripping to doors and windows. Allow faucets to drip a little during cold weather to keep pipes from freezing. &lt;b&gt;Learn how to shut off water valves (in case a pipe bursts)&lt;/b&gt;.&lt;/li&gt;&lt;li&gt;&lt;b&gt;WINTERIZE YOUR VEHICLES&lt;/b&gt; - Keep fuel tanks at least half full. Have the battery&amp;#44; ignition system&amp;#44; radiator&amp;#44; lights&amp;#44; brakes&amp;#44; and tires checked. Fill reservoirs with antifreeze&amp;#44; oil&amp;#44; and window washer fluids. &lt;b&gt;Keep winter weather emergency supplies in your trunk.&lt;/b&gt;&lt;/li&gt;&lt;/ol&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;STAY INFORMED&lt;/b&gt; - Monitor local news on your TV&amp;#44; mobile device&amp;#44; or battery-operated radio. Follow emergency instructions and pay attention to travel advisories.&lt;/li&gt;
-&lt;li&gt;&lt;b&gt;AVOID TRAVEL&lt;/b&gt; - If you must drive&amp;#44; fill the gas tank&amp;#44; stay on main roads&amp;#44; and keep others informed of your itinerary. Slow down. If stranded&amp;#44; call for help&amp;#44; turn on hazard lights&amp;#44; and remain with your vehicle. Don't set out on foot unless shelter is close by.&lt;/li&gt;
-&lt;li&gt;&lt;b&gt;KNOW YOUR RISKS &lt;/b&gt;- 
-&lt;ul&gt;
-&lt;li&gt;&lt;b&gt;Hypothermia&lt;/b&gt; - If you notice signs get medical help immediately. For symptoms and other information click &lt;a href=https://www.cdc.gov/disasters/winter/staysafe/hypothermia.html target=_blank&gt;here&lt;/a&gt;.&lt;/li&gt;
-&lt;li&gt;&lt;b&gt; Carbon Monoxide Poisoning&lt;/b&gt; - It happens when fuels like gas&amp;#44; oil&amp;#44; kerosene&amp;#44; wood&amp;#44; or charcoal are burned in an enclosed space. Hundreds of people die accidentally each year. Find out more &lt;a href=http://www.kingcounty.gov/depts/health/emergency-preparedness/preparing-yourself/carbon-monoxide.aspx target=_blank&gt;here&lt;/a&gt;.&lt;/li&gt;
-&lt;/ul&gt;
-&lt;li&gt;&lt;b&gt;AVOID HAZARDS&lt;/b&gt; - Steer clear of fallen power lines&amp;#44; flooded&amp;#44; roads&amp;#44; and other structures weakened from heavy snow or ice.&lt;/li&gt;&lt;/ul&gt;&lt;img src="https://hazardready.org/images/seattle-ready/snuggets/Winter_during.jpg" alt="This is a panel of four images of what to do during bad winter weather. Stay Tuned&amp;#44; Stay Inside&amp;#44; Know Risks&amp;#44; and Avoid Hazards." title="During Winter Weather Image"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;Restock emergency supplies&lt;/b&gt;. Get ready in case another storm hits&lt;/li&gt;
-&lt;li&gt;&lt;b&gt;Improve your family plan&lt;/b&gt; - What worked? What could be done better?&lt;/li&gt;
-&lt;li&gt;&lt;b&gt;Talk to your neighbors&lt;/b&gt;. Share tips and ideas with each other&lt;/li&gt;
-&lt;/ul&gt;</t>
   </si>
   <si>
     <t>July 2015 was the hottest month ever! &lt;b&gt;The average yearly temp is projected to increase between 3 and 10 degrees Fahrenheit by 2100&lt;/b&gt;. Washington residents will see less summer rainfall&amp;#44; but the rainfall that does happen will be heavier (think downpours). Click the image to find out more. &lt;br&gt; 
@@ -533,9 +490,6 @@
     <t>&lt;p&gt;In 2015&amp;#44; King County had a record number of days that exceeded 90F. &lt;b&gt;July 2015 was the hottest month ever recorded in King County!&lt;/b&gt;&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;&lt;b&gt;A series of snow&amp;#44; ice and rainstorms beginning on Dec. 26&amp;#44; 1996&amp;#44; caused 16 deaths in the state and $57 million in damages in Seattle and King County&lt;/b&gt;. Two storms — one dumping 6-12 inches and the other 10 inches of wet snow — were followed by heavy rain which collapsed carports&amp;#44; covered boat moorings&amp;#44; and snapped power lines. Metro transit halted service completely for the first time in its history. Freeze and snowmelt contributed to flooding and landslides during the following week. Are you ready if a storm like this happened again?&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>&lt;p&gt;Don't let the rainy fall and winter fool you&amp;#44;&lt;b&gt; King County summers can be HOT. Sometimes temperatures rise into the 90s for multiple days at a time&lt;/b&gt;. Thunderstorms&amp;#44; windstorms&amp;#44; wildfires&amp;#44; and heat waves are possible across the region. &lt;/p&gt;</t>
   </si>
   <si>
@@ -1135,6 +1089,33 @@
   </si>
   <si>
     <t>&lt;p&gt;El Monte de Rainier ha tenido una larga historia de &lt;a href="https://volcanoes.usgs.gov/volcanoes/mount_rainier/geo_hist_eruption_history.html" target="_blank"&gt;erupciones&lt;/a&gt; y &lt;a href="https://volcanoes.usgs.gov/volcanoes/mount_rainier/geo_hist_lahars.html" target="_blank"&gt;lahares&lt;/a&gt;. Aproximadamente hace 500 años, la avalancha de lodo de Electron descendió atravesando Puyallup hasta Sumner, WA. En los miles de años antes de ella, muchos lahares se desplazaron a lo largo de ríos locales y llegaron hasta Auburn. &lt;b&gt;Algunos&lt;/b&gt; &lt;b&gt;pueblos&lt;/b&gt; &lt;b&gt;(NE Tacoma, Orting y Puyallup) están construidos sobre depósitos históricos de lahares.&lt;/b&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;En el Condado King, el invierno puede tener temperaturas bajo cero, caminos con hielo y la posibilidad de grandes tormentas. Las nevadas ocurren ocasionalmente, con mayor frecuencia a más altitud. &lt;b&gt;Las tormentas invernales pueden provocar fuertes vientos que causen caídas de árboles y cortes de energía.&lt;/b&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Un evento de nevadas copiosas puede provocar problemas importantes en los transportes, los servicios de seguridad pública y los servicios públicos. &lt;b&gt;La energía se puede cortar durante muchos días.&lt;/b&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;El noroeste del Pacífico se verá afectado por tormentas más fuertes en los próximos 50 años.&lt;/b&gt; Pueden provocar fuertes vientos y lluvias torrenciales que provoquen inundaciones. Las actividades invernales se verán afectadas. 2015 tuvo los niveles de nieve acumulada más bajos que se hayan registrado con solo el 4% del promedio. Los inviernos cálidos establecerán las condiciones para sequías en todo el estado. Haga clic en la imagen para obtener más información.&lt;br&gt; &lt;a href="http://kingcounty.gov/services/environment/climate/why-act/infographic.aspx" target="_blank"&gt;&lt;img border=0 width=144 height=144 id="Picture 32" src="Snugget_for_translation_Edits_Carson_5_15_17_SPL.fld/image031.png" alt="limate Change Winter Infographic"&gt;&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Los meteorólogos se han esforzado mucho por pronosticar las tormentas de nieve y hielo. &lt;b&gt;Preste atención a los pronósticos locales del tiempo e inscríbase en los sistemas de alerta de advertencia disponibles&lt;/b&gt; ( &lt;a href="http://alert.seattle.gov/" target="_blank"&gt;Alertas Seattle&lt;/a&gt; y &lt;a href="http://www.kingcounty.gov/depts/emergency-management/alert-king-county.aspx" target="_blank"&gt;Alertas Condado King&lt;/a&gt;) para asegurarse de obtener información actualizada acerca de futuro mal clima.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ol&gt; &lt;li&gt;&lt;b&gt;OBTENGA SUMINISTROS: almacene combustible y suministros de emergencia adicionales&lt;/b&gt; para sobrevivir varios días sin electricidad, calefacción ni agua caliente. Considere la compra de un generador y siga las normas de seguridad. &lt;/li&gt; &lt;li&gt;&lt;b&gt;ADAPTE SU CASA PARA EL INVIERNO:&lt;/b&gt; instale ventanas para tormentas. Aísle paredes, áticos y tuberías. Aplique masilla y burletes impermeabilizantes a puertas y ventanas. Deje los grifos goteando un poco durante el clima frío para evitar que se congelen las cañerías. &lt;b&gt;Aprenda a cortar las válvulas de agua (en caso de explosiones de tuberías).&lt;/b&gt; &lt;/li&gt; &lt;li&gt;&lt;b&gt;ADAPTE SUS VEHÍCULOS PARA EL INVIERNO:&lt;/b&gt; mantenga los tanques de combustible al menos hasta la mitad. Haga revisar batería, sistema de encendido, radiador, luces, frenos y cubiertas. Llene los depósitos con anticongelante, aceite y fluidos limpiaparabrisas. &lt;b&gt;Conserve suministros de emergencia para clima invernal en el maletero del auto.&lt;/b&gt; &lt;/li&gt; &lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt; &lt;li&gt;&lt;b&gt;MANTÉNGASE INFORMADO:&lt;/b&gt; monitoree las noticias locales en su televisor, dispositivo móvil o radio portátil. Siga las instrucciones en caso de emergencia y preste atención a los asesores de viaje. &lt;/li&gt; &lt;li&gt;&lt;b&gt;EVITE VIAJAR:&lt;/b&gt; si debe manejar, llene el tanque de combustible, manténgase en caminos principales y mantenga informados a otros acerca de su itinerario. Disminuya la velocidad. Si queda varado, llame por ayuda, encienda las balizas y permanezca con su vehículo. No camine, a menos que haya un refugio cercano. &lt;/li&gt; &lt;li&gt;&lt;b&gt;SEPA SUS RIESGOS -&lt;/b&gt; &lt;/li&gt; &lt;ul type=circle&gt; &lt;li&gt;&lt;b&gt;HIpotermia:&lt;/b&gt; si observa síntomas, obtenga asistencia médica inmediatamente. Para ver los síntomas y otra información, haga clic &lt;a href="https://www.cdc.gov/disasters/winter/staysafe/hypothermia.html" target="_blank"&gt;aquí&lt;/a&gt;. &lt;/li&gt; &lt;li&gt;&lt;b&gt;Intoxicación por monóxido de carbono:&lt;/b&gt; sucede cuando combustibles como gas, aceite, kerosén, madera o carbón se queman en un espacio cerrado. Cientos de personas mueren accidentalmente cada año. Obtenga más información &lt;a href="http://www.kingcounty.gov/depts/health/emergency-preparedness/preparing-yourself/carbon-monoxide.aspx" target="_blank"&gt;aquí&lt;/a&gt;. &lt;/li&gt; &lt;/ul&gt; &lt;li&gt;&lt;b&gt;EVITE PELIGROS:&lt;/b&gt; - maneje lejos de cables de electricidad caídos, caminos inundados y otras estructuras debilitadas debido a fuertes nevadas o hielo. &lt;/li&gt; &lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt; &lt;li&gt;&lt;b&gt;Reabastezca los suministros de emergencia.&lt;/b&gt; Prepárese en caso de que llegue otra tormenta. &lt;/li&gt; &lt;li&gt;&lt;b&gt;Mejore su plan familiar:&lt;/b&gt; ¿Qué funcionó? ¿Qué se puede mejorar? &lt;/li&gt; &lt;li&gt;&lt;b&gt;Hable con sus vecinos.&lt;/b&gt; Compartan consejos e ideas entre sí. &lt;/li&gt; &lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Aprenda acerca de las condiciones invernales y cómo prepararse para estas:&lt;/p&gt; &lt;ul&gt; &lt;li&gt; &lt;a href="http://takewinterbystorm.org" target="_blank"&gt;Haga frente al invierno&lt;/a&gt; : consejos de preparación e información actualizada para Washington occidental. &lt;/li&gt; &lt;li&gt; &lt;a href="http://kingcounty.gov/depts/transportation/metro/alerts-updates/winter.aspx" target="_blank"&gt;Invierno metropolitano en el Condado King&lt;/a&gt; : enlaces a aplicaciones de planificación de viajes de invierno y alertas climáticas. &lt;/li&gt; &lt;li&gt; &lt;a href="https://www.seattle.gov/transportation/winterweather.htm" target="_blank"&gt;Departamento de Transporte de Seattle&lt;/a&gt;  vea dónde estuvieron las barredoras de nieve y otra información sobre las condiciones de los caminos. &lt;/li&gt; &lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;El 26 de diciembre de 1996 comenzó una serie de tormentas de nieve, hielo y lluvia que causaron 16 muertes en el Estado y $57 millones en daños en Seattle y el Condado King.&lt;/b&gt; Dos tormentas, una que generó entre 6 y 12 pulgadas y la otra 10 pulgadas de nieve húmeda, antecedieron a fuertes lluvias que colapsaron cocheras, amarres cubiertos de embarcaciones y cortaron líneas de electricidad. El tránsito metropolitano detuvo el servicio completamente por primera vez en su historia. El congelamiento y el deshielo de la nieve contribuyeron a inundaciones y deslizamientos de tierra durante la semana siguiente. ¿Está preparado si una tormenta como esta sucediera nuevamente?&lt;/p&gt;</t>
   </si>
 </sst>
 </file>
@@ -2985,10 +2966,10 @@
   <dimension ref="A1:H292"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D225" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D253" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H263" sqref="H263"/>
+      <selection pane="bottomRight" activeCell="H279" sqref="H279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3049,7 +3030,7 @@
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="5" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -3073,7 +3054,7 @@
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -3097,7 +3078,7 @@
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -3131,7 +3112,7 @@
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -3155,7 +3136,7 @@
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -3179,7 +3160,7 @@
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -3203,7 +3184,7 @@
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -3227,7 +3208,7 @@
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -3261,7 +3242,7 @@
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -3285,7 +3266,7 @@
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -3309,7 +3290,7 @@
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -3343,7 +3324,7 @@
         <v>18</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -3367,7 +3348,7 @@
         <v>18</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -3391,7 +3372,7 @@
         <v>18</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -3415,7 +3396,7 @@
         <v>19</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -3439,7 +3420,7 @@
         <v>18</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -3463,7 +3444,7 @@
         <v>20</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -3497,7 +3478,7 @@
         <v>24</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -3521,7 +3502,7 @@
         <v>26</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -3545,7 +3526,7 @@
         <v>28</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -3569,7 +3550,7 @@
         <v>30</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -3593,7 +3574,7 @@
         <v>32</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -3617,7 +3598,7 @@
         <v>34</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -3641,7 +3622,7 @@
         <v>36</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -3665,7 +3646,7 @@
         <v>38</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -3689,7 +3670,7 @@
         <v>40</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
@@ -3723,7 +3704,7 @@
         <v>43</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
@@ -3747,7 +3728,7 @@
         <v>43</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
@@ -3771,7 +3752,7 @@
         <v>43</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
@@ -3795,7 +3776,7 @@
         <v>43</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
@@ -3819,7 +3800,7 @@
         <v>43</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
@@ -3853,7 +3834,7 @@
         <v>47</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
@@ -3885,7 +3866,7 @@
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
       <c r="H41" s="5" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
@@ -3907,7 +3888,7 @@
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
       <c r="H42" s="5" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
@@ -3929,7 +3910,7 @@
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
       <c r="H43" s="5" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
@@ -3961,7 +3942,7 @@
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
       <c r="H45" s="5" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
@@ -3983,7 +3964,7 @@
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
       <c r="H46" s="5" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
@@ -4005,7 +3986,7 @@
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
       <c r="H47" s="5" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
@@ -4027,7 +4008,7 @@
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
       <c r="H48" s="5" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
@@ -4049,7 +4030,7 @@
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
       <c r="H49" s="5" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
@@ -4071,7 +4052,7 @@
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
       <c r="H50" s="5" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
@@ -4093,7 +4074,7 @@
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
       <c r="H51" s="5" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
@@ -4115,7 +4096,7 @@
       <c r="F52" s="5"/>
       <c r="G52" s="5"/>
       <c r="H52" s="5" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
@@ -4137,7 +4118,7 @@
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="5" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.2">
@@ -4159,7 +4140,7 @@
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
       <c r="H54" s="5" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
@@ -4181,7 +4162,7 @@
       <c r="F55" s="5"/>
       <c r="G55" s="5"/>
       <c r="H55" s="5" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
@@ -4203,7 +4184,7 @@
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
       <c r="H56" s="5" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
@@ -4225,7 +4206,7 @@
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
       <c r="H57" s="5" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
@@ -4247,7 +4228,7 @@
       <c r="F58" s="5"/>
       <c r="G58" s="5"/>
       <c r="H58" s="5" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
@@ -4269,7 +4250,7 @@
       <c r="F59" s="5"/>
       <c r="G59" s="5"/>
       <c r="H59" s="5" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
@@ -4291,7 +4272,7 @@
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
       <c r="H60" s="5" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
@@ -4313,7 +4294,7 @@
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
       <c r="H61" s="5" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
@@ -4335,7 +4316,7 @@
       <c r="F62" s="5"/>
       <c r="G62" s="5"/>
       <c r="H62" s="5" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
@@ -4357,7 +4338,7 @@
       <c r="F63" s="5"/>
       <c r="G63" s="5"/>
       <c r="H63" s="5" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
@@ -4379,7 +4360,7 @@
       <c r="F64" s="5"/>
       <c r="G64" s="5"/>
       <c r="H64" s="5" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
@@ -4401,7 +4382,7 @@
       <c r="F65" s="5"/>
       <c r="G65" s="5"/>
       <c r="H65" s="5" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
@@ -4423,7 +4404,7 @@
       <c r="F66" s="5"/>
       <c r="G66" s="5"/>
       <c r="H66" s="5" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
@@ -4445,7 +4426,7 @@
       <c r="F67" s="5"/>
       <c r="G67" s="5"/>
       <c r="H67" s="5" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
@@ -4467,7 +4448,7 @@
       <c r="F68" s="5"/>
       <c r="G68" s="5"/>
       <c r="H68" s="5" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
@@ -4489,7 +4470,7 @@
       <c r="F69" s="5"/>
       <c r="G69" s="5"/>
       <c r="H69" s="5" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
@@ -4511,7 +4492,7 @@
       <c r="F70" s="5"/>
       <c r="G70" s="5"/>
       <c r="H70" s="5" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
@@ -4533,7 +4514,7 @@
       <c r="F71" s="5"/>
       <c r="G71" s="5"/>
       <c r="H71" s="5" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
@@ -4555,7 +4536,7 @@
       <c r="F72" s="5"/>
       <c r="G72" s="5"/>
       <c r="H72" s="5" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
@@ -4577,7 +4558,7 @@
       <c r="F73" s="5"/>
       <c r="G73" s="5"/>
       <c r="H73" s="5" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
@@ -4599,7 +4580,7 @@
       <c r="F74" s="5"/>
       <c r="G74" s="5"/>
       <c r="H74" s="5" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
@@ -4621,7 +4602,7 @@
       <c r="F75" s="5"/>
       <c r="G75" s="5"/>
       <c r="H75" s="5" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
@@ -4643,7 +4624,7 @@
       <c r="F76" s="5"/>
       <c r="G76" s="5"/>
       <c r="H76" s="5" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
@@ -4665,7 +4646,7 @@
       <c r="F77" s="5"/>
       <c r="G77" s="5"/>
       <c r="H77" s="5" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
@@ -4687,7 +4668,7 @@
       <c r="F78" s="5"/>
       <c r="G78" s="5"/>
       <c r="H78" s="5" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
@@ -4709,7 +4690,7 @@
       <c r="F79" s="5"/>
       <c r="G79" s="5"/>
       <c r="H79" s="5" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
@@ -4731,7 +4712,7 @@
       <c r="F80" s="5"/>
       <c r="G80" s="5"/>
       <c r="H80" s="5" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
@@ -4753,7 +4734,7 @@
       <c r="F81" s="5"/>
       <c r="G81" s="5"/>
       <c r="H81" s="5" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
@@ -4775,7 +4756,7 @@
       <c r="F82" s="5"/>
       <c r="G82" s="5"/>
       <c r="H82" s="5" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
@@ -4797,7 +4778,7 @@
       <c r="F83" s="5"/>
       <c r="G83" s="5"/>
       <c r="H83" s="5" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
@@ -4819,7 +4800,7 @@
       <c r="F84" s="5"/>
       <c r="G84" s="5"/>
       <c r="H84" s="5" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
@@ -4841,7 +4822,7 @@
       <c r="F85" s="5"/>
       <c r="G85" s="5"/>
       <c r="H85" s="5" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
@@ -4863,7 +4844,7 @@
       <c r="F86" s="5"/>
       <c r="G86" s="5"/>
       <c r="H86" s="5" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
@@ -4885,7 +4866,7 @@
       <c r="F87" s="5"/>
       <c r="G87" s="5"/>
       <c r="H87" s="5" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
@@ -4907,7 +4888,7 @@
       <c r="F88" s="5"/>
       <c r="G88" s="5"/>
       <c r="H88" s="5" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
@@ -4929,7 +4910,7 @@
       <c r="F89" s="5"/>
       <c r="G89" s="5"/>
       <c r="H89" s="5" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
@@ -4951,7 +4932,7 @@
       <c r="F90" s="5"/>
       <c r="G90" s="5"/>
       <c r="H90" s="5" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
@@ -4973,7 +4954,7 @@
       <c r="F91" s="5"/>
       <c r="G91" s="5"/>
       <c r="H91" s="5" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
@@ -4995,7 +4976,7 @@
       <c r="F92" s="5"/>
       <c r="G92" s="5"/>
       <c r="H92" s="5" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
@@ -5017,7 +4998,7 @@
       <c r="F93" s="5"/>
       <c r="G93" s="5"/>
       <c r="H93" s="5" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
@@ -5039,7 +5020,7 @@
       <c r="F94" s="5"/>
       <c r="G94" s="5"/>
       <c r="H94" s="5" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
@@ -5061,7 +5042,7 @@
       <c r="F95" s="5"/>
       <c r="G95" s="5"/>
       <c r="H95" s="5" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
@@ -5083,7 +5064,7 @@
       <c r="F96" s="5"/>
       <c r="G96" s="5"/>
       <c r="H96" s="5" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
@@ -5105,7 +5086,7 @@
       <c r="F97" s="5"/>
       <c r="G97" s="5"/>
       <c r="H97" s="5" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
@@ -5127,7 +5108,7 @@
       <c r="F98" s="5"/>
       <c r="G98" s="5"/>
       <c r="H98" s="5" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
@@ -5149,7 +5130,7 @@
       <c r="F99" s="5"/>
       <c r="G99" s="5"/>
       <c r="H99" s="5" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
@@ -5171,7 +5152,7 @@
       <c r="F100" s="5"/>
       <c r="G100" s="5"/>
       <c r="H100" s="5" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
@@ -5193,7 +5174,7 @@
       <c r="F101" s="5"/>
       <c r="G101" s="5"/>
       <c r="H101" s="5" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
@@ -5215,7 +5196,7 @@
       <c r="F102" s="5"/>
       <c r="G102" s="5"/>
       <c r="H102" s="5" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
@@ -5237,7 +5218,7 @@
       <c r="F103" s="5"/>
       <c r="G103" s="5"/>
       <c r="H103" s="5" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
@@ -5259,7 +5240,7 @@
       <c r="F104" s="5"/>
       <c r="G104" s="5"/>
       <c r="H104" s="5" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
@@ -5281,7 +5262,7 @@
       <c r="F105" s="5"/>
       <c r="G105" s="5"/>
       <c r="H105" s="5" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
@@ -5303,7 +5284,7 @@
       <c r="F106" s="5"/>
       <c r="G106" s="5"/>
       <c r="H106" s="5" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
@@ -5325,7 +5306,7 @@
       <c r="F107" s="5"/>
       <c r="G107" s="5"/>
       <c r="H107" s="5" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
@@ -5347,7 +5328,7 @@
       <c r="F108" s="5"/>
       <c r="G108" s="5"/>
       <c r="H108" s="5" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
@@ -5369,7 +5350,7 @@
       <c r="F109" s="5"/>
       <c r="G109" s="5"/>
       <c r="H109" s="5" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
@@ -5401,7 +5382,7 @@
       <c r="F111" s="5"/>
       <c r="G111" s="5"/>
       <c r="H111" s="5" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
@@ -5445,7 +5426,7 @@
       </c>
       <c r="G114" s="5"/>
       <c r="H114" s="5" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
@@ -5469,7 +5450,7 @@
       </c>
       <c r="G115" s="5"/>
       <c r="H115" s="5" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
@@ -5493,7 +5474,7 @@
       </c>
       <c r="G116" s="5"/>
       <c r="H116" s="5" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
@@ -5517,7 +5498,7 @@
       </c>
       <c r="G117" s="5"/>
       <c r="H117" s="5" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
@@ -5541,7 +5522,7 @@
       </c>
       <c r="G118" s="5"/>
       <c r="H118" s="5" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
@@ -5565,7 +5546,7 @@
       </c>
       <c r="G119" s="5"/>
       <c r="H119" s="5" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
@@ -5589,7 +5570,7 @@
       </c>
       <c r="G120" s="5"/>
       <c r="H120" s="5" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
@@ -5613,7 +5594,7 @@
       </c>
       <c r="G121" s="5"/>
       <c r="H121" s="5" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
@@ -5647,7 +5628,7 @@
       </c>
       <c r="G123" s="5"/>
       <c r="H123" s="5" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
@@ -5671,7 +5652,7 @@
       </c>
       <c r="G124" s="5"/>
       <c r="H124" s="5" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
@@ -5695,7 +5676,7 @@
       </c>
       <c r="G125" s="5"/>
       <c r="H125" s="5" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
@@ -5719,7 +5700,7 @@
       </c>
       <c r="G126" s="5"/>
       <c r="H126" s="5" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
@@ -5743,7 +5724,7 @@
       </c>
       <c r="G127" s="5"/>
       <c r="H127" s="5" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
@@ -5767,7 +5748,7 @@
       </c>
       <c r="G128" s="5"/>
       <c r="H128" s="5" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
@@ -5791,7 +5772,7 @@
       </c>
       <c r="G129" s="5"/>
       <c r="H129" s="5" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
@@ -5815,7 +5796,7 @@
       </c>
       <c r="G130" s="5"/>
       <c r="H130" s="5" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
@@ -5849,7 +5830,7 @@
         <v>62</v>
       </c>
       <c r="H132" s="5" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
@@ -5873,7 +5854,7 @@
         <v>62</v>
       </c>
       <c r="H133" s="5" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
@@ -5897,7 +5878,7 @@
         <v>62</v>
       </c>
       <c r="H134" s="5" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
@@ -5921,7 +5902,7 @@
         <v>62</v>
       </c>
       <c r="H135" s="5" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
@@ -5945,7 +5926,7 @@
         <v>62</v>
       </c>
       <c r="H136" s="5" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
@@ -5969,7 +5950,7 @@
         <v>68</v>
       </c>
       <c r="H137" s="5" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
@@ -5993,7 +5974,7 @@
         <v>68</v>
       </c>
       <c r="H138" s="5" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
@@ -6017,7 +5998,7 @@
         <v>68</v>
       </c>
       <c r="H139" s="5" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
@@ -6041,7 +6022,7 @@
         <v>68</v>
       </c>
       <c r="H140" s="5" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
@@ -6065,7 +6046,7 @@
         <v>68</v>
       </c>
       <c r="H141" s="5" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
@@ -6089,7 +6070,7 @@
         <v>74</v>
       </c>
       <c r="H142" s="5" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
@@ -6113,7 +6094,7 @@
         <v>74</v>
       </c>
       <c r="H143" s="5" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
@@ -6137,7 +6118,7 @@
         <v>74</v>
       </c>
       <c r="H144" s="5" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
@@ -6161,7 +6142,7 @@
         <v>78</v>
       </c>
       <c r="H145" s="5" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
@@ -6185,7 +6166,7 @@
         <v>78</v>
       </c>
       <c r="H146" s="5" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
@@ -6219,7 +6200,7 @@
       </c>
       <c r="G148" s="5"/>
       <c r="H148" s="5" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
@@ -6243,7 +6224,7 @@
       </c>
       <c r="G149" s="5"/>
       <c r="H149" s="5" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
@@ -6267,7 +6248,7 @@
       </c>
       <c r="G150" s="5"/>
       <c r="H150" s="5" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
@@ -6291,7 +6272,7 @@
       </c>
       <c r="G151" s="5"/>
       <c r="H151" s="5" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
@@ -6315,7 +6296,7 @@
       </c>
       <c r="G152" s="5"/>
       <c r="H152" s="5" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
@@ -6333,7 +6314,7 @@
         <v>8</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C154" s="5" t="s">
         <v>87</v>
@@ -6344,10 +6325,10 @@
       <c r="E154" s="13"/>
       <c r="F154" s="5"/>
       <c r="G154" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H154" s="5" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
@@ -6381,7 +6362,7 @@
         <v>47</v>
       </c>
       <c r="H156" s="5" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
@@ -6413,7 +6394,7 @@
       <c r="F158" s="5"/>
       <c r="G158" s="5"/>
       <c r="H158" s="5" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
@@ -6435,7 +6416,7 @@
       <c r="F159" s="5"/>
       <c r="G159" s="5"/>
       <c r="H159" s="5" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
@@ -6457,7 +6438,7 @@
       <c r="F160" s="5"/>
       <c r="G160" s="5"/>
       <c r="H160" s="5" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
@@ -6491,7 +6472,7 @@
         <v>90</v>
       </c>
       <c r="H162" s="5" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.2">
@@ -6515,7 +6496,7 @@
         <v>90</v>
       </c>
       <c r="H163" s="5" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.2">
@@ -6539,7 +6520,7 @@
         <v>90</v>
       </c>
       <c r="H164" s="5" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.2">
@@ -6563,7 +6544,7 @@
         <v>90</v>
       </c>
       <c r="H165" s="5" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.2">
@@ -6587,7 +6568,7 @@
         <v>90</v>
       </c>
       <c r="H166" s="5" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">
@@ -6611,7 +6592,7 @@
         <v>90</v>
       </c>
       <c r="H167" s="5" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.2">
@@ -6635,7 +6616,7 @@
         <v>90</v>
       </c>
       <c r="H168" s="5" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.2">
@@ -6659,7 +6640,7 @@
         <v>90</v>
       </c>
       <c r="H169" s="5" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.2">
@@ -6683,7 +6664,7 @@
         <v>90</v>
       </c>
       <c r="H170" s="5" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
@@ -6707,7 +6688,7 @@
         <v>90</v>
       </c>
       <c r="H171" s="5" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.2">
@@ -6731,7 +6712,7 @@
         <v>90</v>
       </c>
       <c r="H172" s="5" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.2">
@@ -6755,7 +6736,7 @@
         <v>90</v>
       </c>
       <c r="H173" s="5" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.2">
@@ -6779,7 +6760,7 @@
         <v>90</v>
       </c>
       <c r="H174" s="5" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.2">
@@ -6803,7 +6784,7 @@
         <v>90</v>
       </c>
       <c r="H175" s="5" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.2">
@@ -6827,7 +6808,7 @@
         <v>90</v>
       </c>
       <c r="H176" s="5" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.2">
@@ -6859,7 +6840,7 @@
       <c r="F178" s="5"/>
       <c r="G178" s="5"/>
       <c r="H178" s="5" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.2">
@@ -6890,7 +6871,7 @@
         <v>9</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="D181" s="12" t="s">
         <v>105</v>
@@ -6903,7 +6884,7 @@
       </c>
       <c r="G181" s="5"/>
       <c r="H181" s="5" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.2">
@@ -6914,7 +6895,7 @@
         <v>9</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="D182" s="12" t="s">
         <v>105</v>
@@ -6927,7 +6908,7 @@
       </c>
       <c r="G182" s="5"/>
       <c r="H182" s="5" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.2">
@@ -6938,7 +6919,7 @@
         <v>9</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="D183" s="12" t="s">
         <v>105</v>
@@ -6951,7 +6932,7 @@
       </c>
       <c r="G183" s="5"/>
       <c r="H183" s="5" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.2">
@@ -6962,7 +6943,7 @@
         <v>9</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="D184" s="12" t="s">
         <v>105</v>
@@ -6975,7 +6956,7 @@
       </c>
       <c r="G184" s="5"/>
       <c r="H184" s="5" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.2">
@@ -6986,7 +6967,7 @@
         <v>9</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="D185" s="12" t="s">
         <v>105</v>
@@ -6999,7 +6980,7 @@
       </c>
       <c r="G185" s="5"/>
       <c r="H185" s="5" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.2">
@@ -7010,7 +6991,7 @@
         <v>9</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="D186" s="12" t="s">
         <v>105</v>
@@ -7023,7 +7004,7 @@
       </c>
       <c r="G186" s="5"/>
       <c r="H186" s="5" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.2">
@@ -7034,7 +7015,7 @@
         <v>9</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="D187" s="12" t="s">
         <v>105</v>
@@ -7047,7 +7028,7 @@
       </c>
       <c r="G187" s="5"/>
       <c r="H187" s="5" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.2">
@@ -7058,7 +7039,7 @@
         <v>9</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="D188" s="12" t="s">
         <v>105</v>
@@ -7071,7 +7052,7 @@
       </c>
       <c r="G188" s="5"/>
       <c r="H188" s="5" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.2">
@@ -7082,7 +7063,7 @@
         <v>9</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="D189" s="12" t="s">
         <v>105</v>
@@ -7095,7 +7076,7 @@
       </c>
       <c r="G189" s="5"/>
       <c r="H189" s="5" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.2">
@@ -7116,7 +7097,7 @@
         <v>12</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="D191" s="12" t="s">
         <v>105</v>
@@ -7129,7 +7110,7 @@
       </c>
       <c r="G191" s="5"/>
       <c r="H191" s="5" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.2">
@@ -7140,7 +7121,7 @@
         <v>12</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="D192" s="12" t="s">
         <v>105</v>
@@ -7153,7 +7134,7 @@
       </c>
       <c r="G192" s="5"/>
       <c r="H192" s="5" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.2">
@@ -7164,7 +7145,7 @@
         <v>12</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="D193" s="12" t="s">
         <v>105</v>
@@ -7177,7 +7158,7 @@
       </c>
       <c r="G193" s="5"/>
       <c r="H193" s="5" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.2">
@@ -7188,7 +7169,7 @@
         <v>12</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="D194" s="12" t="s">
         <v>105</v>
@@ -7201,7 +7182,7 @@
       </c>
       <c r="G194" s="5"/>
       <c r="H194" s="5" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.2">
@@ -7212,7 +7193,7 @@
         <v>12</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="D195" s="12" t="s">
         <v>105</v>
@@ -7225,7 +7206,7 @@
       </c>
       <c r="G195" s="5"/>
       <c r="H195" s="5" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.2">
@@ -7236,7 +7217,7 @@
         <v>12</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="D196" s="12" t="s">
         <v>105</v>
@@ -7249,7 +7230,7 @@
       </c>
       <c r="G196" s="5"/>
       <c r="H196" s="5" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.2">
@@ -7260,7 +7241,7 @@
         <v>12</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="D197" s="12" t="s">
         <v>105</v>
@@ -7273,7 +7254,7 @@
       </c>
       <c r="G197" s="5"/>
       <c r="H197" s="5" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.2">
@@ -7284,7 +7265,7 @@
         <v>12</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="D198" s="12" t="s">
         <v>105</v>
@@ -7297,7 +7278,7 @@
       </c>
       <c r="G198" s="5"/>
       <c r="H198" s="5" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.2">
@@ -7308,7 +7289,7 @@
         <v>12</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="D199" s="12" t="s">
         <v>105</v>
@@ -7321,7 +7302,7 @@
       </c>
       <c r="G199" s="5"/>
       <c r="H199" s="5" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.2">
@@ -7339,7 +7320,7 @@
         <v>8</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C201" s="5" t="s">
         <v>106</v>
@@ -7350,10 +7331,10 @@
       <c r="E201" s="13"/>
       <c r="F201" s="5"/>
       <c r="G201" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H201" s="5" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.2">
@@ -7387,7 +7368,7 @@
         <v>47</v>
       </c>
       <c r="H203" s="5" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.2">
@@ -7419,7 +7400,7 @@
       <c r="F205" s="5"/>
       <c r="G205" s="5"/>
       <c r="H205" s="5" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.2">
@@ -7441,7 +7422,7 @@
       <c r="F206" s="5"/>
       <c r="G206" s="5"/>
       <c r="H206" s="5" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.2">
@@ -7463,7 +7444,7 @@
       <c r="F207" s="5"/>
       <c r="G207" s="5"/>
       <c r="H207" s="5" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.2">
@@ -7485,7 +7466,7 @@
       <c r="F208" s="5"/>
       <c r="G208" s="5"/>
       <c r="H208" s="5" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.2">
@@ -7506,7 +7487,7 @@
         <v>55</v>
       </c>
       <c r="C210" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D210" s="12" t="s">
         <v>105</v>
@@ -7517,7 +7498,7 @@
       <c r="F210" s="5"/>
       <c r="G210" s="5"/>
       <c r="H210" s="5" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.2">
@@ -7528,7 +7509,7 @@
         <v>55</v>
       </c>
       <c r="C211" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D211" s="12" t="s">
         <v>105</v>
@@ -7539,7 +7520,7 @@
       <c r="F211" s="5"/>
       <c r="G211" s="5"/>
       <c r="H211" s="5" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.2">
@@ -7550,7 +7531,7 @@
         <v>55</v>
       </c>
       <c r="C212" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D212" s="12" t="s">
         <v>105</v>
@@ -7561,7 +7542,7 @@
       <c r="F212" s="5"/>
       <c r="G212" s="5"/>
       <c r="H212" s="5" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.2">
@@ -7572,7 +7553,7 @@
         <v>55</v>
       </c>
       <c r="C213" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D213" s="12" t="s">
         <v>105</v>
@@ -7583,7 +7564,7 @@
       <c r="F213" s="5"/>
       <c r="G213" s="5"/>
       <c r="H213" s="5" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.2">
@@ -7594,18 +7575,18 @@
         <v>55</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D214" s="12" t="s">
         <v>105</v>
       </c>
       <c r="E214" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F214" s="5"/>
       <c r="G214" s="5"/>
       <c r="H214" s="5" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.2">
@@ -7616,18 +7597,18 @@
         <v>55</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D215" s="12" t="s">
         <v>105</v>
       </c>
       <c r="E215" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F215" s="5"/>
       <c r="G215" s="5"/>
       <c r="H215" s="5" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.2">
@@ -7638,18 +7619,18 @@
         <v>55</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D216" s="12" t="s">
         <v>105</v>
       </c>
       <c r="E216" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F216" s="5"/>
       <c r="G216" s="5"/>
       <c r="H216" s="5" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.2">
@@ -7660,18 +7641,18 @@
         <v>55</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D217" s="12" t="s">
         <v>105</v>
       </c>
       <c r="E217" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F217" s="5"/>
       <c r="G217" s="5"/>
       <c r="H217" s="5" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.2">
@@ -7682,18 +7663,18 @@
         <v>55</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D218" s="12" t="s">
         <v>105</v>
       </c>
       <c r="E218" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F218" s="5"/>
       <c r="G218" s="5"/>
       <c r="H218" s="5" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.2">
@@ -7704,18 +7685,18 @@
         <v>55</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D219" s="12" t="s">
         <v>105</v>
       </c>
       <c r="E219" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F219" s="5"/>
       <c r="G219" s="5"/>
       <c r="H219" s="5" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.2">
@@ -7759,7 +7740,7 @@
       </c>
       <c r="G222" s="5"/>
       <c r="H222" s="5" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.2">
@@ -7783,7 +7764,7 @@
       </c>
       <c r="G223" s="5"/>
       <c r="H223" s="5" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.2">
@@ -7807,7 +7788,7 @@
       </c>
       <c r="G224" s="5"/>
       <c r="H224" s="5" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.2">
@@ -7831,7 +7812,7 @@
       </c>
       <c r="G225" s="5"/>
       <c r="H225" s="5" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.2">
@@ -7855,7 +7836,7 @@
       </c>
       <c r="G226" s="5"/>
       <c r="H226" s="5" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.2">
@@ -7889,7 +7870,7 @@
       </c>
       <c r="G228" s="5"/>
       <c r="H228" s="5" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.2">
@@ -7913,7 +7894,7 @@
       </c>
       <c r="G229" s="5"/>
       <c r="H229" s="5" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.2">
@@ -7937,7 +7918,7 @@
       </c>
       <c r="G230" s="5"/>
       <c r="H230" s="5" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.2">
@@ -7961,7 +7942,7 @@
       </c>
       <c r="G231" s="5"/>
       <c r="H231" s="5" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.2">
@@ -7979,7 +7960,7 @@
         <v>8</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C233" s="5" t="s">
         <v>107</v>
@@ -7990,10 +7971,10 @@
       <c r="E233" s="13"/>
       <c r="F233" s="5"/>
       <c r="G233" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H233" s="5" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.2">
@@ -8024,7 +8005,7 @@
         <v>47</v>
       </c>
       <c r="H235" s="1" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.2">
@@ -8054,7 +8035,7 @@
       <c r="F237" s="5"/>
       <c r="G237" s="5"/>
       <c r="H237" s="5" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.2">
@@ -8074,7 +8055,7 @@
       <c r="F238" s="5"/>
       <c r="G238" s="5"/>
       <c r="H238" s="5" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.2">
@@ -8094,7 +8075,7 @@
       <c r="F239" s="5"/>
       <c r="G239" s="5"/>
       <c r="H239" s="5" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.2">
@@ -8124,7 +8105,7 @@
       <c r="F241" s="5"/>
       <c r="G241" s="5"/>
       <c r="H241" s="5" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.2">
@@ -8154,7 +8135,7 @@
       <c r="F243" s="5"/>
       <c r="G243" s="5"/>
       <c r="H243" s="5" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
     </row>
     <row r="244" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -8185,7 +8166,7 @@
         <v>116</v>
       </c>
       <c r="H246" s="1" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
     </row>
     <row r="247" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
@@ -8213,7 +8194,7 @@
         <v>119</v>
       </c>
       <c r="H248" s="1" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
     </row>
     <row r="249" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
@@ -8236,7 +8217,7 @@
         <v>119</v>
       </c>
       <c r="H249" s="1" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
     </row>
     <row r="250" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
@@ -8259,7 +8240,7 @@
         <v>119</v>
       </c>
       <c r="H250" s="1" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
     </row>
     <row r="251" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
@@ -8282,7 +8263,7 @@
         <v>123</v>
       </c>
       <c r="H251" s="1" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
     </row>
     <row r="252" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
@@ -8310,7 +8291,7 @@
         <v>47</v>
       </c>
       <c r="H253" s="1" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
     </row>
     <row r="254" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
@@ -8335,7 +8316,7 @@
         <v>46</v>
       </c>
       <c r="H255" s="1" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
     </row>
     <row r="256" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
@@ -8355,7 +8336,7 @@
         <v>46</v>
       </c>
       <c r="H256" s="1" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
     </row>
     <row r="257" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
@@ -8375,7 +8356,7 @@
         <v>46</v>
       </c>
       <c r="H257" s="1" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
     </row>
     <row r="258" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
@@ -8395,7 +8376,7 @@
         <v>46</v>
       </c>
       <c r="H258" s="1" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
     </row>
     <row r="259" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
@@ -8420,7 +8401,7 @@
         <v>46</v>
       </c>
       <c r="H260" s="1" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
     </row>
     <row r="261" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -8439,7 +8420,7 @@
         <v>9</v>
       </c>
       <c r="C263" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D263" s="6" t="s">
         <v>124</v>
@@ -8449,7 +8430,7 @@
         <v>50</v>
       </c>
       <c r="H263" s="1" t="s">
-        <v>140</v>
+        <v>344</v>
       </c>
     </row>
     <row r="264" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
@@ -8465,7 +8446,7 @@
         <v>12</v>
       </c>
       <c r="C265" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D265" s="6" t="s">
         <v>124</v>
@@ -8475,7 +8456,7 @@
         <v>80</v>
       </c>
       <c r="H265" s="1" t="s">
-        <v>141</v>
+        <v>345</v>
       </c>
     </row>
     <row r="266" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
@@ -8488,20 +8469,20 @@
         <v>8</v>
       </c>
       <c r="B267" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C267" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D267" s="6" t="s">
         <v>124</v>
       </c>
       <c r="E267" s="2"/>
       <c r="G267" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H267" s="1" t="s">
-        <v>142</v>
+        <v>346</v>
       </c>
     </row>
     <row r="268" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
@@ -8519,7 +8500,7 @@
         <v>44</v>
       </c>
       <c r="C269" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D269" s="6" t="s">
         <v>124</v>
@@ -8529,7 +8510,7 @@
         <v>47</v>
       </c>
       <c r="H269" s="1" t="s">
-        <v>143</v>
+        <v>347</v>
       </c>
     </row>
     <row r="270" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
@@ -8545,14 +8526,14 @@
         <v>49</v>
       </c>
       <c r="C271" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D271" s="6" t="s">
         <v>124</v>
       </c>
       <c r="E271" s="2"/>
       <c r="H271" s="1" t="s">
-        <v>144</v>
+        <v>348</v>
       </c>
     </row>
     <row r="272" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
@@ -8563,14 +8544,14 @@
         <v>50</v>
       </c>
       <c r="C272" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D272" s="6" t="s">
         <v>124</v>
       </c>
       <c r="E272" s="2"/>
       <c r="H272" s="1" t="s">
-        <v>145</v>
+        <v>349</v>
       </c>
     </row>
     <row r="273" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
@@ -8581,14 +8562,14 @@
         <v>51</v>
       </c>
       <c r="C273" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D273" s="6" t="s">
         <v>124</v>
       </c>
       <c r="E273" s="2"/>
       <c r="H273" s="1" t="s">
-        <v>146</v>
+        <v>350</v>
       </c>
     </row>
     <row r="274" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
@@ -8599,14 +8580,14 @@
         <v>52</v>
       </c>
       <c r="C274" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D274" s="6" t="s">
         <v>124</v>
       </c>
       <c r="E274" s="2"/>
       <c r="H274" s="1" t="s">
-        <v>125</v>
+        <v>351</v>
       </c>
     </row>
     <row r="275" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
@@ -8622,14 +8603,14 @@
         <v>55</v>
       </c>
       <c r="C276" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D276" s="6" t="s">
         <v>124</v>
       </c>
       <c r="E276" s="2"/>
       <c r="H276" s="1" t="s">
-        <v>152</v>
+        <v>352</v>
       </c>
     </row>
     <row r="277" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -8648,17 +8629,17 @@
         <v>9</v>
       </c>
       <c r="C279" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D279" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E279" s="2"/>
       <c r="F279">
         <v>50</v>
       </c>
       <c r="H279" s="1" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
     <row r="280" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
@@ -8674,17 +8655,17 @@
         <v>12</v>
       </c>
       <c r="C281" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D281" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E281" s="2"/>
       <c r="F281">
         <v>80</v>
       </c>
       <c r="H281" s="1" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="282" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
@@ -8697,20 +8678,20 @@
         <v>8</v>
       </c>
       <c r="B283" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C283" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D283" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E283" s="2"/>
       <c r="G283" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H283" s="1" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="284" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
@@ -8726,17 +8707,17 @@
         <v>44</v>
       </c>
       <c r="C285" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D285" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E285" s="2"/>
       <c r="G285" t="s">
         <v>47</v>
       </c>
       <c r="H285" s="1" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="286" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
@@ -8752,14 +8733,14 @@
         <v>49</v>
       </c>
       <c r="C287" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D287" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E287" s="2"/>
       <c r="H287" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
     </row>
     <row r="288" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
@@ -8770,14 +8751,14 @@
         <v>50</v>
       </c>
       <c r="C288" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D288" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E288" s="2"/>
       <c r="H288" s="1" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="289" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
@@ -8788,14 +8769,14 @@
         <v>51</v>
       </c>
       <c r="C289" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D289" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E289" s="2"/>
       <c r="H289" s="1" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="290" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
@@ -8806,14 +8787,14 @@
         <v>52</v>
       </c>
       <c r="C290" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D290" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E290" s="2"/>
       <c r="H290" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="291" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
@@ -8829,14 +8810,14 @@
         <v>55</v>
       </c>
       <c r="C292" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D292" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E292" s="2"/>
       <c r="H292" s="1" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/disasterinfosite/data/snuggets-es.xlsx
+++ b/disasterinfosite/data/snuggets-es.xlsx
@@ -428,9 +428,6 @@
     <t>Climate Imacts</t>
   </si>
   <si>
-    <t>&lt;p&gt;For more information on how to stay cool and safe head to King County's &lt;a href=http://www.kingcounty.gov/depts/health/emergency-preparedness/preparing-yourself/hot-weather.aspx target=_blank&gt;Hot Weather&lt;/a&gt; page.&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>&lt;img src="https://hazardready.org/images/seattle-ready/intensity/Climate.jpg" alt="This is an icon of the earth with a thermometer in the top left" title="Climate Change Icon"&gt;</t>
   </si>
   <si>
@@ -446,60 +443,6 @@
     <t>LSLD_existing_features</t>
   </si>
   <si>
-    <t>July 2015 was the hottest month ever! &lt;b&gt;The average yearly temp is projected to increase between 3 and 10 degrees Fahrenheit by 2100&lt;/b&gt;. Washington residents will see less summer rainfall&amp;#44; but the rainfall that does happen will be heavier (think downpours). Click the image to find out more. &lt;br&gt; 
-&lt;a href="http://kingcounty.gov/services/environment/climate/why-act/infographic.aspx" target=_blank&gt;
-&lt;img src="https://hazardready.org/images/seattle-ready/snuggets/Climate_Storms.jpg" alt="Climate Change Storm Infographic"&gt;
-&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Heat exhaustion and heat stroke are serious illnesses that can occur when a person is exposed to extreme heat.&lt;/p&gt;
-&lt;div style="display: inline-block; width: 35%; vertical-align: top;"&gt;
-&lt;b&gt;HEAT EXHAUSTION SIGNS&lt;/b&gt;:
-&lt;ul&gt;
-&lt;li&gt;Heavy sweating&lt;/li&gt;
-&lt;li&gt;Weakness&lt;/li&gt;
-&lt;li&gt;Weak pulse&lt;/li&gt;
-&lt;li&gt;Fainting&lt;/li&gt;
-&lt;li&gt;Vomiting&lt;/li&gt;
-&lt;li&gt;Cold&amp;#44; pale skin&lt;/li&gt;
-&lt;/ul&gt;
-&lt;/div&gt;
-&lt;div style="display: inline-block; width: 35%; vertical-align: top;"&gt;
-&lt;b&gt;HEAT STROKE SIGNS&lt;/b&gt;:
-&lt;ul&gt;
-&lt;li&gt;High body temperature (103F or higher)&lt;/li&gt;
-&lt;li&gt;Hot and dry skin&lt;/li&gt;
-&lt;li&gt;Rapid and strong pulse&lt;/li&gt;
-&lt;li&gt;Possible unconsciousness&lt;/li&gt;
-&lt;/ul&gt;
-&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;STAY COOL&lt;/b&gt; - Stay indoors and&amp;#44; if possible&amp;#44; in an air conditioned place (shopping mall&amp;#44; library&amp;#44; theater&amp;#44; etc). Limit outdoor activity.&lt;/li&gt;
-&lt;li&gt;&lt;b&gt;PROTECT SKIN&lt;/b&gt; - Wear lightweight&amp;#44; light-colored&amp;#44; loose-fitting clothing. A wide brimmed hat&amp;#44; sunglasses&amp;#44; and sunscreen will help.&lt;/li&gt;
-&lt;li&gt;&lt;b&gt;DRINK WATER&lt;/b&gt;: Drink lots of fluids (avoid caffeine&amp;#44; alcohol&amp;#44; and sugary drinks) and carry a water bottle.&lt;/li&gt;
-&lt;li&gt;&lt;b&gt;THINK OF OTHERS&lt;/b&gt; - Keep kids and pets outside of hot cars. Check on at-risk family&amp;#44; friends&amp;#44; and neighbors often.&lt;/li&gt;&lt;/ul&gt;
-&lt;img src="https://hazardready.org/images/seattle-ready/snuggets/Summer_during.jpg" alt="This is a panel of three images of what to do during bad summer weather. Stay Cool&amp;#44; Protect Skin&amp;#44; and Drink Water." title="During Summer Weather Image"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Use window drapes to &lt;b&gt;cover windows and keep cool air inside&lt;/b&gt;.&lt;/li&gt;
-&lt;li&gt;&lt;b&gt;Consider purchasing an air-conditioning system&lt;/b&gt; and/or installing weather-stripping in the home where hot air seeps in. &lt;/li&gt;
-&lt;li&gt;&lt;b&gt;LOW-BUDGET OPTION&lt;/b&gt;: Build heat reflectors (for use between windows and drapes)&amp;#44; such as aluminum foil-covered cardboard&amp;#44; to reflect heat back outside. Click &lt;a href=http://www.instructables.com/id/Heat-blocking-curtains/ target=_blank&gt;here&lt;/a&gt; for DIY instructions.&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;In 2015&amp;#44; King County had a record number of days that exceeded 90F. &lt;b&gt;July 2015 was the hottest month ever recorded in King County!&lt;/b&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Don't let the rainy fall and winter fool you&amp;#44;&lt;b&gt; King County summers can be HOT. Sometimes temperatures rise into the 90s for multiple days at a time&lt;/b&gt;. Thunderstorms&amp;#44; windstorms&amp;#44; wildfires&amp;#44; and heat waves are possible across the region. &lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;b&gt;Severe heat could last for days&lt;/b&gt; causing communities to see an increase in heat-related illness including HEAT EXHAUSTION and HEAT STROKE. The high temps&amp;#44; dry conditions&amp;#44; and increased likelihood for lightning may lead to wildfires.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Older adults&amp;#44; young children&amp;#44; and people with mental illness and chronic diseases are at higher risk of heat-related issues.
-&lt;ol&gt;&lt;li&gt;&lt;b&gt;KNOW SIGNS&lt;/b&gt; - Heat-related illness can happen quickly. Know and which of your neighbors may be at risk. &lt;/li&gt;&lt;li&gt;&lt;b&gt;STAY INFORMED&lt;/b&gt; - Listen to local news for general information and locations of &lt;b&gt;cooling centers&lt;/b&gt; (public spaces that can be used by residents to stay cool)&lt;/li&gt;&lt;/ol&gt;.</t>
-  </si>
-  <si>
     <t>lsld_steepgradezone</t>
   </si>
   <si>
@@ -1116,6 +1059,33 @@
   </si>
   <si>
     <t>&lt;p&gt;&lt;b&gt;El 26 de diciembre de 1996 comenzó una serie de tormentas de nieve, hielo y lluvia que causaron 16 muertes en el Estado y $57 millones en daños en Seattle y el Condado King.&lt;/b&gt; Dos tormentas, una que generó entre 6 y 12 pulgadas y la otra 10 pulgadas de nieve húmeda, antecedieron a fuertes lluvias que colapsaron cocheras, amarres cubiertos de embarcaciones y cortaron líneas de electricidad. El tránsito metropolitano detuvo el servicio completamente por primera vez en su historia. El congelamiento y el deshielo de la nieve contribuyeron a inundaciones y deslizamientos de tierra durante la semana siguiente. ¿Está preparado si una tormenta como esta sucediera nuevamente?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;No deje que el otoño y el invierno lluviosos lo engañen,&lt;b&gt;los veranos del Condado King pueden ser CALUROSOS. En ocasiones, las temperaturas llegan hasta los 90° durante varios días seguidos.&lt;/b&gt; Las tormentas eléctricas, los vendavales, los incendios forestales y las olas de calor son una posibilidad en toda la región.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;El calor intenso puede durar días causando que en las comunidades haya un incremento de enfermedades relacionadas con el calor, esto incluye los GOLPES DE CALOR y las INSOLACIONES. Las altas temperaturas, las condiciones secas y la mayor probabilidad de rayos pueden provocar incendios forestales.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Julio de 2015 fue el mes más caluroso de la historia. &lt;b&gt;La temperatura anual promedio se proyecta con un incremento de entre 3 y 10 grados Fahrenheit para 2100.&lt;/b&gt; Los residentes de Washington tendrán menos lluvias en verano, pero la lluvia que haya será más intensa (piense en aguaceros). Haga clic en la imagen para obtener más información.&lt;br&gt; &lt;a href="http://kingcounty.gov/services/environment/climate/why-act/infographic.aspx" target="_blank"&gt;&lt;img border=0 width=153 height=131 id="Picture 38" src="Snugget_for_translation_Edits_Carson_5_15_17_SPL.fld/image033.png" alt="limate Change Storm Infographic"&gt;&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Los golpes de calor y las insolaciones son enfermedades graves que pueden aparecer cuando una persona se expone al calor extremo.&lt;/p&gt;&lt;div style="display: inline-block; width: 35%; vertical-align: top;"&gt;&lt;b&gt;SÍNTOMAS DE GOLPE DE CALOR:&lt;/b&gt;&lt;/p&gt; &lt;ul style='margin-top:0in' type=disc&gt; &lt;li&gt; Mucha sudoración &lt;/li&gt; &lt;li&gt; Debilidad &lt;/li&gt; &lt;li&gt; Pulso débil &lt;/li&gt; &lt;li&gt; Desmayos &lt;/li&gt; &lt;li&gt; Vómitos &lt;/li&gt; &lt;li&gt; Piel fría y pálida &lt;/li&gt; &lt;/ul&gt;&lt;/div&gt;&lt;div style="display: inline-block; width: 35%; vertical-align: top;"&gt;&lt;b&gt;SÍNTOMAS DE INSOLACIÓN:&lt;/b&gt;&lt;/p&gt; &lt;ul style='margin-top:0in' type=disc&gt; &lt;li&gt; Alta temperatura corporal (103&amp;nbsp;°F o más) &lt;/li&gt; &lt;li&gt; Piel caliente y seca &lt;/li&gt; &lt;li&gt; Pulso acelerado y fuerte &lt;/li&gt; &lt;li&gt; Posible pérdida de la conciencia &lt;/li&gt; &lt;/ul&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Los adultos mayores, los niños pequeños y las personas con enfermedades mentales y crónicas tienen mayor riesgo de problemas cardíacos.&lt;/p&gt; &lt;ol&gt; &lt;li&gt;&lt;b&gt;SEPA LOS SÍNTOMAS:&lt;/b&gt; las enfermedades relacionadas con el calor pueden aparecer rápidamente. Sepa cuál de sus vecinos puede estar en riesgo. &lt;/li&gt; &lt;li&gt;&lt;b&gt;MANTÉNGASE INFORMADO:&lt;/b&gt; escuche las noticias locales para obtener información general y las direcciones de los &lt;b&gt;centros de refrigeración&lt;/b&gt; (espacios públicos que pueden utilizar los residentes para mantenerse frescos). &lt;/li&gt; &lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt; &lt;li&gt;&lt;b&gt;MANTÉNGASE FRESCO:&lt;/b&gt; quédese adentro y, si es posible, en un lugar con aire acondicionado (centro comercial, biblioteca, teatro, etc.). Limite las actividades al aire libre. &lt;/li&gt; &lt;li&gt;&lt;b&gt;PROTEJA LA PIEL:&lt;/b&gt; utilice prendas livianas, holgadas y con colores claros. Un sombrero de ala ancha, lentes de sol y pantalla solar serán de ayuda. &lt;/li&gt; &lt;li&gt;&lt;b&gt;AGUA POTABLE:&lt;/b&gt; tome mucho líquido (evite la cafeína, el alcohol y las bebidas azucaradas) y lleve consigo una botella de agua. &lt;/li&gt; &lt;li&gt;&lt;b&gt;PIENSE EN LOS DEMÁS:&lt;/b&gt; mantenga a los niños y las mascotas fuera de automóviles calientes. Controle con frecuencia a familias, amigos y vecinos en riesgo. &lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;img border=0 width=355 height=87 id="Picture 41" src="Snugget_for_translation_Edits_Carson_5_15_17_SPL.fld/image034.png" alt="his is a panel of three images of what to do during bad summer weather. Stay Cool, Protect Skin, and Drink Water."&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt; &lt;li&gt; Utilice cortinas para &lt;b&gt;cubrir las ventanas y mantener el aire fresco en el interior.&lt;/b&gt; &lt;/li&gt; &lt;li&gt;&lt;b&gt;Piense en comprar un sistema de aire acondicionado&lt;/b&gt; o instalar burletes en los lugares por donde se cuela el aire caliente. &lt;/li&gt; &lt;li&gt;&lt;b&gt;OPCIÓN DE BAJO PRESUPUESTO:&lt;/b&gt; construya reflectores de calor (para utilizar entre ventanas y cortinas), como cartón cubierto de papel de aluminio, para reflejar el calor hacia el exterior. Haga clic &lt;a href="http://www.instructables.com/id/Heat-blocking-curtains/" target="_blank"&gt;aquí&lt;/a&gt; para instrucciones sobre cómo hacerlo usted mismo. &lt;/li&gt; &lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Para obtener más información sobre cómo mantenerse fresco y seguro, vaya a la página &lt;a href="http://www.kingcounty.gov/depts/health/emergency-preparedness/preparing-yourself/hot-weather.aspx" target="_blank"&gt;Clima caluroso&lt;/a&gt;  del Condado King.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;En 2015, el Condado King tuvo una cantidad récord de días que superaron los 90°F. &lt;b&gt;Julio de 2015 fue el mes más caluroso de la historia en el Condado King.&lt;/b&gt;&lt;/p&gt;</t>
   </si>
 </sst>
 </file>
@@ -2966,10 +2936,10 @@
   <dimension ref="A1:H292"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D253" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D254" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H279" sqref="H279"/>
+      <selection pane="bottomRight" activeCell="H293" sqref="H293"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3030,7 +3000,7 @@
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="5" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -3054,7 +3024,7 @@
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -3078,7 +3048,7 @@
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -3112,7 +3082,7 @@
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -3136,7 +3106,7 @@
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -3160,7 +3130,7 @@
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -3184,7 +3154,7 @@
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -3208,7 +3178,7 @@
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -3242,7 +3212,7 @@
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -3266,7 +3236,7 @@
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -3290,7 +3260,7 @@
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -3324,7 +3294,7 @@
         <v>18</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -3348,7 +3318,7 @@
         <v>18</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -3372,7 +3342,7 @@
         <v>18</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -3396,7 +3366,7 @@
         <v>19</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -3420,7 +3390,7 @@
         <v>18</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -3444,7 +3414,7 @@
         <v>20</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -3478,7 +3448,7 @@
         <v>24</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -3502,7 +3472,7 @@
         <v>26</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -3526,7 +3496,7 @@
         <v>28</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -3550,7 +3520,7 @@
         <v>30</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -3574,7 +3544,7 @@
         <v>32</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -3598,7 +3568,7 @@
         <v>34</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -3622,7 +3592,7 @@
         <v>36</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -3646,7 +3616,7 @@
         <v>38</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -3670,7 +3640,7 @@
         <v>40</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
@@ -3704,7 +3674,7 @@
         <v>43</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
@@ -3728,7 +3698,7 @@
         <v>43</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
@@ -3752,7 +3722,7 @@
         <v>43</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
@@ -3776,7 +3746,7 @@
         <v>43</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
@@ -3800,7 +3770,7 @@
         <v>43</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
@@ -3834,7 +3804,7 @@
         <v>47</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
@@ -3866,7 +3836,7 @@
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
       <c r="H41" s="5" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
@@ -3888,7 +3858,7 @@
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
       <c r="H42" s="5" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
@@ -3910,7 +3880,7 @@
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
       <c r="H43" s="5" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
@@ -3942,7 +3912,7 @@
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
       <c r="H45" s="5" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
@@ -3964,7 +3934,7 @@
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
       <c r="H46" s="5" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
@@ -3986,7 +3956,7 @@
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
       <c r="H47" s="5" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
@@ -4008,7 +3978,7 @@
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
       <c r="H48" s="5" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
@@ -4030,7 +4000,7 @@
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
       <c r="H49" s="5" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
@@ -4052,7 +4022,7 @@
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
       <c r="H50" s="5" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
@@ -4074,7 +4044,7 @@
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
       <c r="H51" s="5" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
@@ -4096,7 +4066,7 @@
       <c r="F52" s="5"/>
       <c r="G52" s="5"/>
       <c r="H52" s="5" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
@@ -4118,7 +4088,7 @@
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="5" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.2">
@@ -4140,7 +4110,7 @@
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
       <c r="H54" s="5" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
@@ -4162,7 +4132,7 @@
       <c r="F55" s="5"/>
       <c r="G55" s="5"/>
       <c r="H55" s="5" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
@@ -4184,7 +4154,7 @@
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
       <c r="H56" s="5" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
@@ -4206,7 +4176,7 @@
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
       <c r="H57" s="5" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
@@ -4228,7 +4198,7 @@
       <c r="F58" s="5"/>
       <c r="G58" s="5"/>
       <c r="H58" s="5" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
@@ -4250,7 +4220,7 @@
       <c r="F59" s="5"/>
       <c r="G59" s="5"/>
       <c r="H59" s="5" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
@@ -4272,7 +4242,7 @@
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
       <c r="H60" s="5" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
@@ -4294,7 +4264,7 @@
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
       <c r="H61" s="5" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
@@ -4316,7 +4286,7 @@
       <c r="F62" s="5"/>
       <c r="G62" s="5"/>
       <c r="H62" s="5" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
@@ -4338,7 +4308,7 @@
       <c r="F63" s="5"/>
       <c r="G63" s="5"/>
       <c r="H63" s="5" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
@@ -4360,7 +4330,7 @@
       <c r="F64" s="5"/>
       <c r="G64" s="5"/>
       <c r="H64" s="5" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
@@ -4382,7 +4352,7 @@
       <c r="F65" s="5"/>
       <c r="G65" s="5"/>
       <c r="H65" s="5" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
@@ -4404,7 +4374,7 @@
       <c r="F66" s="5"/>
       <c r="G66" s="5"/>
       <c r="H66" s="5" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
@@ -4426,7 +4396,7 @@
       <c r="F67" s="5"/>
       <c r="G67" s="5"/>
       <c r="H67" s="5" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
@@ -4448,7 +4418,7 @@
       <c r="F68" s="5"/>
       <c r="G68" s="5"/>
       <c r="H68" s="5" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
@@ -4470,7 +4440,7 @@
       <c r="F69" s="5"/>
       <c r="G69" s="5"/>
       <c r="H69" s="5" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
@@ -4492,7 +4462,7 @@
       <c r="F70" s="5"/>
       <c r="G70" s="5"/>
       <c r="H70" s="5" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
@@ -4514,7 +4484,7 @@
       <c r="F71" s="5"/>
       <c r="G71" s="5"/>
       <c r="H71" s="5" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
@@ -4536,7 +4506,7 @@
       <c r="F72" s="5"/>
       <c r="G72" s="5"/>
       <c r="H72" s="5" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
@@ -4558,7 +4528,7 @@
       <c r="F73" s="5"/>
       <c r="G73" s="5"/>
       <c r="H73" s="5" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
@@ -4580,7 +4550,7 @@
       <c r="F74" s="5"/>
       <c r="G74" s="5"/>
       <c r="H74" s="5" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
@@ -4602,7 +4572,7 @@
       <c r="F75" s="5"/>
       <c r="G75" s="5"/>
       <c r="H75" s="5" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
@@ -4624,7 +4594,7 @@
       <c r="F76" s="5"/>
       <c r="G76" s="5"/>
       <c r="H76" s="5" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
@@ -4646,7 +4616,7 @@
       <c r="F77" s="5"/>
       <c r="G77" s="5"/>
       <c r="H77" s="5" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
@@ -4668,7 +4638,7 @@
       <c r="F78" s="5"/>
       <c r="G78" s="5"/>
       <c r="H78" s="5" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
@@ -4690,7 +4660,7 @@
       <c r="F79" s="5"/>
       <c r="G79" s="5"/>
       <c r="H79" s="5" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
@@ -4712,7 +4682,7 @@
       <c r="F80" s="5"/>
       <c r="G80" s="5"/>
       <c r="H80" s="5" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
@@ -4734,7 +4704,7 @@
       <c r="F81" s="5"/>
       <c r="G81" s="5"/>
       <c r="H81" s="5" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
@@ -4756,7 +4726,7 @@
       <c r="F82" s="5"/>
       <c r="G82" s="5"/>
       <c r="H82" s="5" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
@@ -4778,7 +4748,7 @@
       <c r="F83" s="5"/>
       <c r="G83" s="5"/>
       <c r="H83" s="5" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
@@ -4800,7 +4770,7 @@
       <c r="F84" s="5"/>
       <c r="G84" s="5"/>
       <c r="H84" s="5" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
@@ -4822,7 +4792,7 @@
       <c r="F85" s="5"/>
       <c r="G85" s="5"/>
       <c r="H85" s="5" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
@@ -4844,7 +4814,7 @@
       <c r="F86" s="5"/>
       <c r="G86" s="5"/>
       <c r="H86" s="5" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
@@ -4866,7 +4836,7 @@
       <c r="F87" s="5"/>
       <c r="G87" s="5"/>
       <c r="H87" s="5" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
@@ -4888,7 +4858,7 @@
       <c r="F88" s="5"/>
       <c r="G88" s="5"/>
       <c r="H88" s="5" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
@@ -4910,7 +4880,7 @@
       <c r="F89" s="5"/>
       <c r="G89" s="5"/>
       <c r="H89" s="5" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
@@ -4932,7 +4902,7 @@
       <c r="F90" s="5"/>
       <c r="G90" s="5"/>
       <c r="H90" s="5" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
@@ -4954,7 +4924,7 @@
       <c r="F91" s="5"/>
       <c r="G91" s="5"/>
       <c r="H91" s="5" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
@@ -4976,7 +4946,7 @@
       <c r="F92" s="5"/>
       <c r="G92" s="5"/>
       <c r="H92" s="5" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
@@ -4998,7 +4968,7 @@
       <c r="F93" s="5"/>
       <c r="G93" s="5"/>
       <c r="H93" s="5" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
@@ -5020,7 +4990,7 @@
       <c r="F94" s="5"/>
       <c r="G94" s="5"/>
       <c r="H94" s="5" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
@@ -5042,7 +5012,7 @@
       <c r="F95" s="5"/>
       <c r="G95" s="5"/>
       <c r="H95" s="5" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
@@ -5064,7 +5034,7 @@
       <c r="F96" s="5"/>
       <c r="G96" s="5"/>
       <c r="H96" s="5" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
@@ -5086,7 +5056,7 @@
       <c r="F97" s="5"/>
       <c r="G97" s="5"/>
       <c r="H97" s="5" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
@@ -5108,7 +5078,7 @@
       <c r="F98" s="5"/>
       <c r="G98" s="5"/>
       <c r="H98" s="5" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
@@ -5130,7 +5100,7 @@
       <c r="F99" s="5"/>
       <c r="G99" s="5"/>
       <c r="H99" s="5" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
@@ -5152,7 +5122,7 @@
       <c r="F100" s="5"/>
       <c r="G100" s="5"/>
       <c r="H100" s="5" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
@@ -5174,7 +5144,7 @@
       <c r="F101" s="5"/>
       <c r="G101" s="5"/>
       <c r="H101" s="5" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
@@ -5196,7 +5166,7 @@
       <c r="F102" s="5"/>
       <c r="G102" s="5"/>
       <c r="H102" s="5" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
@@ -5218,7 +5188,7 @@
       <c r="F103" s="5"/>
       <c r="G103" s="5"/>
       <c r="H103" s="5" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
@@ -5240,7 +5210,7 @@
       <c r="F104" s="5"/>
       <c r="G104" s="5"/>
       <c r="H104" s="5" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
@@ -5262,7 +5232,7 @@
       <c r="F105" s="5"/>
       <c r="G105" s="5"/>
       <c r="H105" s="5" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
@@ -5284,7 +5254,7 @@
       <c r="F106" s="5"/>
       <c r="G106" s="5"/>
       <c r="H106" s="5" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
@@ -5306,7 +5276,7 @@
       <c r="F107" s="5"/>
       <c r="G107" s="5"/>
       <c r="H107" s="5" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
@@ -5328,7 +5298,7 @@
       <c r="F108" s="5"/>
       <c r="G108" s="5"/>
       <c r="H108" s="5" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
@@ -5350,7 +5320,7 @@
       <c r="F109" s="5"/>
       <c r="G109" s="5"/>
       <c r="H109" s="5" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
@@ -5382,7 +5352,7 @@
       <c r="F111" s="5"/>
       <c r="G111" s="5"/>
       <c r="H111" s="5" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
@@ -5426,7 +5396,7 @@
       </c>
       <c r="G114" s="5"/>
       <c r="H114" s="5" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
@@ -5450,7 +5420,7 @@
       </c>
       <c r="G115" s="5"/>
       <c r="H115" s="5" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
@@ -5474,7 +5444,7 @@
       </c>
       <c r="G116" s="5"/>
       <c r="H116" s="5" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
@@ -5498,7 +5468,7 @@
       </c>
       <c r="G117" s="5"/>
       <c r="H117" s="5" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
@@ -5522,7 +5492,7 @@
       </c>
       <c r="G118" s="5"/>
       <c r="H118" s="5" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
@@ -5546,7 +5516,7 @@
       </c>
       <c r="G119" s="5"/>
       <c r="H119" s="5" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
@@ -5570,7 +5540,7 @@
       </c>
       <c r="G120" s="5"/>
       <c r="H120" s="5" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
@@ -5594,7 +5564,7 @@
       </c>
       <c r="G121" s="5"/>
       <c r="H121" s="5" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
@@ -5628,7 +5598,7 @@
       </c>
       <c r="G123" s="5"/>
       <c r="H123" s="5" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
@@ -5652,7 +5622,7 @@
       </c>
       <c r="G124" s="5"/>
       <c r="H124" s="5" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
@@ -5676,7 +5646,7 @@
       </c>
       <c r="G125" s="5"/>
       <c r="H125" s="5" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
@@ -5700,7 +5670,7 @@
       </c>
       <c r="G126" s="5"/>
       <c r="H126" s="5" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
@@ -5724,7 +5694,7 @@
       </c>
       <c r="G127" s="5"/>
       <c r="H127" s="5" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
@@ -5748,7 +5718,7 @@
       </c>
       <c r="G128" s="5"/>
       <c r="H128" s="5" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
@@ -5772,7 +5742,7 @@
       </c>
       <c r="G129" s="5"/>
       <c r="H129" s="5" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
@@ -5796,7 +5766,7 @@
       </c>
       <c r="G130" s="5"/>
       <c r="H130" s="5" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
@@ -5830,7 +5800,7 @@
         <v>62</v>
       </c>
       <c r="H132" s="5" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
@@ -5854,7 +5824,7 @@
         <v>62</v>
       </c>
       <c r="H133" s="5" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
@@ -5878,7 +5848,7 @@
         <v>62</v>
       </c>
       <c r="H134" s="5" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
@@ -5902,7 +5872,7 @@
         <v>62</v>
       </c>
       <c r="H135" s="5" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
@@ -5926,7 +5896,7 @@
         <v>62</v>
       </c>
       <c r="H136" s="5" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
@@ -5950,7 +5920,7 @@
         <v>68</v>
       </c>
       <c r="H137" s="5" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
@@ -5974,7 +5944,7 @@
         <v>68</v>
       </c>
       <c r="H138" s="5" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
@@ -5998,7 +5968,7 @@
         <v>68</v>
       </c>
       <c r="H139" s="5" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
@@ -6022,7 +5992,7 @@
         <v>68</v>
       </c>
       <c r="H140" s="5" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
@@ -6046,7 +6016,7 @@
         <v>68</v>
       </c>
       <c r="H141" s="5" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
@@ -6070,7 +6040,7 @@
         <v>74</v>
       </c>
       <c r="H142" s="5" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
@@ -6094,7 +6064,7 @@
         <v>74</v>
       </c>
       <c r="H143" s="5" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
@@ -6118,7 +6088,7 @@
         <v>74</v>
       </c>
       <c r="H144" s="5" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
@@ -6142,7 +6112,7 @@
         <v>78</v>
       </c>
       <c r="H145" s="5" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
@@ -6166,7 +6136,7 @@
         <v>78</v>
       </c>
       <c r="H146" s="5" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
@@ -6200,7 +6170,7 @@
       </c>
       <c r="G148" s="5"/>
       <c r="H148" s="5" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
@@ -6224,7 +6194,7 @@
       </c>
       <c r="G149" s="5"/>
       <c r="H149" s="5" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
@@ -6248,7 +6218,7 @@
       </c>
       <c r="G150" s="5"/>
       <c r="H150" s="5" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
@@ -6272,7 +6242,7 @@
       </c>
       <c r="G151" s="5"/>
       <c r="H151" s="5" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
@@ -6296,7 +6266,7 @@
       </c>
       <c r="G152" s="5"/>
       <c r="H152" s="5" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
@@ -6314,7 +6284,7 @@
         <v>8</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C154" s="5" t="s">
         <v>87</v>
@@ -6325,10 +6295,10 @@
       <c r="E154" s="13"/>
       <c r="F154" s="5"/>
       <c r="G154" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H154" s="5" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
@@ -6362,7 +6332,7 @@
         <v>47</v>
       </c>
       <c r="H156" s="5" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
@@ -6394,7 +6364,7 @@
       <c r="F158" s="5"/>
       <c r="G158" s="5"/>
       <c r="H158" s="5" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
@@ -6416,7 +6386,7 @@
       <c r="F159" s="5"/>
       <c r="G159" s="5"/>
       <c r="H159" s="5" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
@@ -6438,7 +6408,7 @@
       <c r="F160" s="5"/>
       <c r="G160" s="5"/>
       <c r="H160" s="5" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
@@ -6472,7 +6442,7 @@
         <v>90</v>
       </c>
       <c r="H162" s="5" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.2">
@@ -6496,7 +6466,7 @@
         <v>90</v>
       </c>
       <c r="H163" s="5" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.2">
@@ -6520,7 +6490,7 @@
         <v>90</v>
       </c>
       <c r="H164" s="5" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.2">
@@ -6544,7 +6514,7 @@
         <v>90</v>
       </c>
       <c r="H165" s="5" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.2">
@@ -6568,7 +6538,7 @@
         <v>90</v>
       </c>
       <c r="H166" s="5" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">
@@ -6592,7 +6562,7 @@
         <v>90</v>
       </c>
       <c r="H167" s="5" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.2">
@@ -6616,7 +6586,7 @@
         <v>90</v>
       </c>
       <c r="H168" s="5" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.2">
@@ -6640,7 +6610,7 @@
         <v>90</v>
       </c>
       <c r="H169" s="5" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.2">
@@ -6664,7 +6634,7 @@
         <v>90</v>
       </c>
       <c r="H170" s="5" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
@@ -6688,7 +6658,7 @@
         <v>90</v>
       </c>
       <c r="H171" s="5" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.2">
@@ -6712,7 +6682,7 @@
         <v>90</v>
       </c>
       <c r="H172" s="5" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.2">
@@ -6736,7 +6706,7 @@
         <v>90</v>
       </c>
       <c r="H173" s="5" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.2">
@@ -6760,7 +6730,7 @@
         <v>90</v>
       </c>
       <c r="H174" s="5" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.2">
@@ -6784,7 +6754,7 @@
         <v>90</v>
       </c>
       <c r="H175" s="5" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.2">
@@ -6808,7 +6778,7 @@
         <v>90</v>
       </c>
       <c r="H176" s="5" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.2">
@@ -6840,7 +6810,7 @@
       <c r="F178" s="5"/>
       <c r="G178" s="5"/>
       <c r="H178" s="5" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.2">
@@ -6871,7 +6841,7 @@
         <v>9</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D181" s="12" t="s">
         <v>105</v>
@@ -6884,7 +6854,7 @@
       </c>
       <c r="G181" s="5"/>
       <c r="H181" s="5" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.2">
@@ -6895,7 +6865,7 @@
         <v>9</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D182" s="12" t="s">
         <v>105</v>
@@ -6908,7 +6878,7 @@
       </c>
       <c r="G182" s="5"/>
       <c r="H182" s="5" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.2">
@@ -6919,7 +6889,7 @@
         <v>9</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D183" s="12" t="s">
         <v>105</v>
@@ -6932,7 +6902,7 @@
       </c>
       <c r="G183" s="5"/>
       <c r="H183" s="5" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.2">
@@ -6943,7 +6913,7 @@
         <v>9</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D184" s="12" t="s">
         <v>105</v>
@@ -6956,7 +6926,7 @@
       </c>
       <c r="G184" s="5"/>
       <c r="H184" s="5" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.2">
@@ -6967,7 +6937,7 @@
         <v>9</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D185" s="12" t="s">
         <v>105</v>
@@ -6980,7 +6950,7 @@
       </c>
       <c r="G185" s="5"/>
       <c r="H185" s="5" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.2">
@@ -6991,7 +6961,7 @@
         <v>9</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D186" s="12" t="s">
         <v>105</v>
@@ -7004,7 +6974,7 @@
       </c>
       <c r="G186" s="5"/>
       <c r="H186" s="5" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.2">
@@ -7015,7 +6985,7 @@
         <v>9</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D187" s="12" t="s">
         <v>105</v>
@@ -7028,7 +6998,7 @@
       </c>
       <c r="G187" s="5"/>
       <c r="H187" s="5" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.2">
@@ -7039,7 +7009,7 @@
         <v>9</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D188" s="12" t="s">
         <v>105</v>
@@ -7052,7 +7022,7 @@
       </c>
       <c r="G188" s="5"/>
       <c r="H188" s="5" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.2">
@@ -7063,7 +7033,7 @@
         <v>9</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D189" s="12" t="s">
         <v>105</v>
@@ -7076,7 +7046,7 @@
       </c>
       <c r="G189" s="5"/>
       <c r="H189" s="5" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.2">
@@ -7097,7 +7067,7 @@
         <v>12</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D191" s="12" t="s">
         <v>105</v>
@@ -7110,7 +7080,7 @@
       </c>
       <c r="G191" s="5"/>
       <c r="H191" s="5" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.2">
@@ -7121,7 +7091,7 @@
         <v>12</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D192" s="12" t="s">
         <v>105</v>
@@ -7134,7 +7104,7 @@
       </c>
       <c r="G192" s="5"/>
       <c r="H192" s="5" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.2">
@@ -7145,7 +7115,7 @@
         <v>12</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D193" s="12" t="s">
         <v>105</v>
@@ -7158,7 +7128,7 @@
       </c>
       <c r="G193" s="5"/>
       <c r="H193" s="5" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.2">
@@ -7169,7 +7139,7 @@
         <v>12</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D194" s="12" t="s">
         <v>105</v>
@@ -7182,7 +7152,7 @@
       </c>
       <c r="G194" s="5"/>
       <c r="H194" s="5" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.2">
@@ -7193,7 +7163,7 @@
         <v>12</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D195" s="12" t="s">
         <v>105</v>
@@ -7206,7 +7176,7 @@
       </c>
       <c r="G195" s="5"/>
       <c r="H195" s="5" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.2">
@@ -7217,7 +7187,7 @@
         <v>12</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D196" s="12" t="s">
         <v>105</v>
@@ -7230,7 +7200,7 @@
       </c>
       <c r="G196" s="5"/>
       <c r="H196" s="5" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.2">
@@ -7241,7 +7211,7 @@
         <v>12</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D197" s="12" t="s">
         <v>105</v>
@@ -7254,7 +7224,7 @@
       </c>
       <c r="G197" s="5"/>
       <c r="H197" s="5" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.2">
@@ -7265,7 +7235,7 @@
         <v>12</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D198" s="12" t="s">
         <v>105</v>
@@ -7278,7 +7248,7 @@
       </c>
       <c r="G198" s="5"/>
       <c r="H198" s="5" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.2">
@@ -7289,7 +7259,7 @@
         <v>12</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D199" s="12" t="s">
         <v>105</v>
@@ -7302,7 +7272,7 @@
       </c>
       <c r="G199" s="5"/>
       <c r="H199" s="5" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.2">
@@ -7320,7 +7290,7 @@
         <v>8</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C201" s="5" t="s">
         <v>106</v>
@@ -7331,10 +7301,10 @@
       <c r="E201" s="13"/>
       <c r="F201" s="5"/>
       <c r="G201" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H201" s="5" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.2">
@@ -7368,7 +7338,7 @@
         <v>47</v>
       </c>
       <c r="H203" s="5" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.2">
@@ -7400,7 +7370,7 @@
       <c r="F205" s="5"/>
       <c r="G205" s="5"/>
       <c r="H205" s="5" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.2">
@@ -7422,7 +7392,7 @@
       <c r="F206" s="5"/>
       <c r="G206" s="5"/>
       <c r="H206" s="5" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.2">
@@ -7444,7 +7414,7 @@
       <c r="F207" s="5"/>
       <c r="G207" s="5"/>
       <c r="H207" s="5" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.2">
@@ -7466,7 +7436,7 @@
       <c r="F208" s="5"/>
       <c r="G208" s="5"/>
       <c r="H208" s="5" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.2">
@@ -7487,7 +7457,7 @@
         <v>55</v>
       </c>
       <c r="C210" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D210" s="12" t="s">
         <v>105</v>
@@ -7498,7 +7468,7 @@
       <c r="F210" s="5"/>
       <c r="G210" s="5"/>
       <c r="H210" s="5" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.2">
@@ -7509,7 +7479,7 @@
         <v>55</v>
       </c>
       <c r="C211" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D211" s="12" t="s">
         <v>105</v>
@@ -7520,7 +7490,7 @@
       <c r="F211" s="5"/>
       <c r="G211" s="5"/>
       <c r="H211" s="5" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.2">
@@ -7531,7 +7501,7 @@
         <v>55</v>
       </c>
       <c r="C212" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D212" s="12" t="s">
         <v>105</v>
@@ -7542,7 +7512,7 @@
       <c r="F212" s="5"/>
       <c r="G212" s="5"/>
       <c r="H212" s="5" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.2">
@@ -7553,7 +7523,7 @@
         <v>55</v>
       </c>
       <c r="C213" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D213" s="12" t="s">
         <v>105</v>
@@ -7564,7 +7534,7 @@
       <c r="F213" s="5"/>
       <c r="G213" s="5"/>
       <c r="H213" s="5" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.2">
@@ -7575,7 +7545,7 @@
         <v>55</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D214" s="12" t="s">
         <v>105</v>
@@ -7586,7 +7556,7 @@
       <c r="F214" s="5"/>
       <c r="G214" s="5"/>
       <c r="H214" s="5" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.2">
@@ -7597,7 +7567,7 @@
         <v>55</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D215" s="12" t="s">
         <v>105</v>
@@ -7608,7 +7578,7 @@
       <c r="F215" s="5"/>
       <c r="G215" s="5"/>
       <c r="H215" s="5" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.2">
@@ -7619,7 +7589,7 @@
         <v>55</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D216" s="12" t="s">
         <v>105</v>
@@ -7630,7 +7600,7 @@
       <c r="F216" s="5"/>
       <c r="G216" s="5"/>
       <c r="H216" s="5" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.2">
@@ -7641,7 +7611,7 @@
         <v>55</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D217" s="12" t="s">
         <v>105</v>
@@ -7652,7 +7622,7 @@
       <c r="F217" s="5"/>
       <c r="G217" s="5"/>
       <c r="H217" s="5" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.2">
@@ -7663,7 +7633,7 @@
         <v>55</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D218" s="12" t="s">
         <v>105</v>
@@ -7674,7 +7644,7 @@
       <c r="F218" s="5"/>
       <c r="G218" s="5"/>
       <c r="H218" s="5" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.2">
@@ -7685,7 +7655,7 @@
         <v>55</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D219" s="12" t="s">
         <v>105</v>
@@ -7696,7 +7666,7 @@
       <c r="F219" s="5"/>
       <c r="G219" s="5"/>
       <c r="H219" s="5" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.2">
@@ -7740,7 +7710,7 @@
       </c>
       <c r="G222" s="5"/>
       <c r="H222" s="5" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.2">
@@ -7764,7 +7734,7 @@
       </c>
       <c r="G223" s="5"/>
       <c r="H223" s="5" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.2">
@@ -7788,7 +7758,7 @@
       </c>
       <c r="G224" s="5"/>
       <c r="H224" s="5" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.2">
@@ -7812,7 +7782,7 @@
       </c>
       <c r="G225" s="5"/>
       <c r="H225" s="5" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.2">
@@ -7836,7 +7806,7 @@
       </c>
       <c r="G226" s="5"/>
       <c r="H226" s="5" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.2">
@@ -7870,7 +7840,7 @@
       </c>
       <c r="G228" s="5"/>
       <c r="H228" s="5" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.2">
@@ -7894,7 +7864,7 @@
       </c>
       <c r="G229" s="5"/>
       <c r="H229" s="5" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.2">
@@ -7918,7 +7888,7 @@
       </c>
       <c r="G230" s="5"/>
       <c r="H230" s="5" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.2">
@@ -7942,7 +7912,7 @@
       </c>
       <c r="G231" s="5"/>
       <c r="H231" s="5" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.2">
@@ -7960,7 +7930,7 @@
         <v>8</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C233" s="5" t="s">
         <v>107</v>
@@ -7971,10 +7941,10 @@
       <c r="E233" s="13"/>
       <c r="F233" s="5"/>
       <c r="G233" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H233" s="5" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.2">
@@ -8005,7 +7975,7 @@
         <v>47</v>
       </c>
       <c r="H235" s="1" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.2">
@@ -8035,7 +8005,7 @@
       <c r="F237" s="5"/>
       <c r="G237" s="5"/>
       <c r="H237" s="5" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.2">
@@ -8055,7 +8025,7 @@
       <c r="F238" s="5"/>
       <c r="G238" s="5"/>
       <c r="H238" s="5" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.2">
@@ -8075,7 +8045,7 @@
       <c r="F239" s="5"/>
       <c r="G239" s="5"/>
       <c r="H239" s="5" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.2">
@@ -8105,7 +8075,7 @@
       <c r="F241" s="5"/>
       <c r="G241" s="5"/>
       <c r="H241" s="5" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.2">
@@ -8135,7 +8105,7 @@
       <c r="F243" s="5"/>
       <c r="G243" s="5"/>
       <c r="H243" s="5" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
     </row>
     <row r="244" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -8166,7 +8136,7 @@
         <v>116</v>
       </c>
       <c r="H246" s="1" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
     </row>
     <row r="247" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
@@ -8194,7 +8164,7 @@
         <v>119</v>
       </c>
       <c r="H248" s="1" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
     </row>
     <row r="249" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
@@ -8217,7 +8187,7 @@
         <v>119</v>
       </c>
       <c r="H249" s="1" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
     </row>
     <row r="250" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
@@ -8240,7 +8210,7 @@
         <v>119</v>
       </c>
       <c r="H250" s="1" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
     </row>
     <row r="251" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
@@ -8263,7 +8233,7 @@
         <v>123</v>
       </c>
       <c r="H251" s="1" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
     </row>
     <row r="252" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
@@ -8291,7 +8261,7 @@
         <v>47</v>
       </c>
       <c r="H253" s="1" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
     </row>
     <row r="254" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
@@ -8316,7 +8286,7 @@
         <v>46</v>
       </c>
       <c r="H255" s="1" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
     </row>
     <row r="256" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
@@ -8336,7 +8306,7 @@
         <v>46</v>
       </c>
       <c r="H256" s="1" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
     </row>
     <row r="257" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
@@ -8356,7 +8326,7 @@
         <v>46</v>
       </c>
       <c r="H257" s="1" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
     </row>
     <row r="258" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
@@ -8376,7 +8346,7 @@
         <v>46</v>
       </c>
       <c r="H258" s="1" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
     </row>
     <row r="259" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
@@ -8401,7 +8371,7 @@
         <v>46</v>
       </c>
       <c r="H260" s="1" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
     </row>
     <row r="261" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -8420,7 +8390,7 @@
         <v>9</v>
       </c>
       <c r="C263" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D263" s="6" t="s">
         <v>124</v>
@@ -8430,7 +8400,7 @@
         <v>50</v>
       </c>
       <c r="H263" s="1" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
     </row>
     <row r="264" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
@@ -8446,7 +8416,7 @@
         <v>12</v>
       </c>
       <c r="C265" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D265" s="6" t="s">
         <v>124</v>
@@ -8456,7 +8426,7 @@
         <v>80</v>
       </c>
       <c r="H265" s="1" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
     </row>
     <row r="266" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
@@ -8469,20 +8439,20 @@
         <v>8</v>
       </c>
       <c r="B267" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C267" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D267" s="6" t="s">
         <v>124</v>
       </c>
       <c r="E267" s="2"/>
       <c r="G267" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H267" s="1" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
     </row>
     <row r="268" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
@@ -8500,7 +8470,7 @@
         <v>44</v>
       </c>
       <c r="C269" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D269" s="6" t="s">
         <v>124</v>
@@ -8510,7 +8480,7 @@
         <v>47</v>
       </c>
       <c r="H269" s="1" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
     </row>
     <row r="270" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
@@ -8526,14 +8496,14 @@
         <v>49</v>
       </c>
       <c r="C271" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D271" s="6" t="s">
         <v>124</v>
       </c>
       <c r="E271" s="2"/>
       <c r="H271" s="1" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
     </row>
     <row r="272" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
@@ -8544,14 +8514,14 @@
         <v>50</v>
       </c>
       <c r="C272" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D272" s="6" t="s">
         <v>124</v>
       </c>
       <c r="E272" s="2"/>
       <c r="H272" s="1" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
     </row>
     <row r="273" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
@@ -8562,14 +8532,14 @@
         <v>51</v>
       </c>
       <c r="C273" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D273" s="6" t="s">
         <v>124</v>
       </c>
       <c r="E273" s="2"/>
       <c r="H273" s="1" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
     </row>
     <row r="274" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
@@ -8580,14 +8550,14 @@
         <v>52</v>
       </c>
       <c r="C274" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D274" s="6" t="s">
         <v>124</v>
       </c>
       <c r="E274" s="2"/>
       <c r="H274" s="1" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
     </row>
     <row r="275" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
@@ -8603,14 +8573,14 @@
         <v>55</v>
       </c>
       <c r="C276" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D276" s="6" t="s">
         <v>124</v>
       </c>
       <c r="E276" s="2"/>
       <c r="H276" s="1" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
     </row>
     <row r="277" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -8629,7 +8599,7 @@
         <v>9</v>
       </c>
       <c r="C279" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D279" s="7" t="s">
         <v>131</v>
@@ -8639,7 +8609,7 @@
         <v>50</v>
       </c>
       <c r="H279" s="1" t="s">
-        <v>144</v>
+        <v>344</v>
       </c>
     </row>
     <row r="280" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
@@ -8655,7 +8625,7 @@
         <v>12</v>
       </c>
       <c r="C281" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D281" s="7" t="s">
         <v>131</v>
@@ -8665,7 +8635,7 @@
         <v>80</v>
       </c>
       <c r="H281" s="1" t="s">
-        <v>145</v>
+        <v>345</v>
       </c>
     </row>
     <row r="282" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
@@ -8681,17 +8651,17 @@
         <v>132</v>
       </c>
       <c r="C283" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D283" s="7" t="s">
         <v>131</v>
       </c>
       <c r="E283" s="2"/>
       <c r="G283" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H283" s="1" t="s">
-        <v>139</v>
+        <v>346</v>
       </c>
     </row>
     <row r="284" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
@@ -8707,7 +8677,7 @@
         <v>44</v>
       </c>
       <c r="C285" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D285" s="7" t="s">
         <v>131</v>
@@ -8717,7 +8687,7 @@
         <v>47</v>
       </c>
       <c r="H285" s="1" t="s">
-        <v>140</v>
+        <v>347</v>
       </c>
     </row>
     <row r="286" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
@@ -8733,14 +8703,14 @@
         <v>49</v>
       </c>
       <c r="C287" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D287" s="7" t="s">
         <v>131</v>
       </c>
       <c r="E287" s="2"/>
       <c r="H287" s="1" t="s">
-        <v>146</v>
+        <v>348</v>
       </c>
     </row>
     <row r="288" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
@@ -8751,14 +8721,14 @@
         <v>50</v>
       </c>
       <c r="C288" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D288" s="7" t="s">
         <v>131</v>
       </c>
       <c r="E288" s="2"/>
       <c r="H288" s="1" t="s">
-        <v>141</v>
+        <v>349</v>
       </c>
     </row>
     <row r="289" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
@@ -8769,14 +8739,14 @@
         <v>51</v>
       </c>
       <c r="C289" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D289" s="7" t="s">
         <v>131</v>
       </c>
       <c r="E289" s="2"/>
       <c r="H289" s="1" t="s">
-        <v>142</v>
+        <v>350</v>
       </c>
     </row>
     <row r="290" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
@@ -8787,14 +8757,14 @@
         <v>52</v>
       </c>
       <c r="C290" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D290" s="7" t="s">
         <v>131</v>
       </c>
       <c r="E290" s="2"/>
       <c r="H290" s="1" t="s">
-        <v>133</v>
+        <v>351</v>
       </c>
     </row>
     <row r="291" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
@@ -8810,14 +8780,14 @@
         <v>55</v>
       </c>
       <c r="C292" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D292" s="8" t="s">
         <v>131</v>
       </c>
       <c r="E292" s="2"/>
       <c r="H292" s="1" t="s">
-        <v>143</v>
+        <v>352</v>
       </c>
     </row>
   </sheetData>

--- a/disasterinfosite/data/snuggets-es.xlsx
+++ b/disasterinfosite/data/snuggets-es.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="354">
   <si>
     <t>section</t>
   </si>
@@ -470,15 +470,6 @@
     <t>&lt;p&gt;Existe una &lt;b&gt;LIGERA PROBABILIDAD&lt;/b&gt; (5%) de que haya un terremoto de magnitud 7+ en la falla de Seattle en los próximos 50 años, pero si sucede, producirá daños. Los fuertes temblores dificultarán el caminar. &lt;b&gt;Los libros, la cristalería y otros elementos se caerán de los estantes. Algunas chimeneas y edificios de construcción deficiente sufrirán daños.&lt;/b&gt; &lt;a href="https://hazardready.org/seattle/static/img/data/Earthquake_Seattle.jpg" target="_blank"&gt;(mapa)&lt;/a&gt;&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Existe una &lt;b&gt;LIGERA PROBABILIDAD&lt;/b&gt; (5%) de que haya un terremoto de magnitud 7+ en la falla de Seattle en los próximos 50 años, pero si sucede, producirá daños. &lt;b&gt;Los temblores muy fuertes harán difícil mantenerse en pie. Los muebles se trasladarán y objetos caerán.&lt;/b&gt; Los daños serán importantes en edificios de mala construcción y moderados en edificios normales. &lt;a href="https://hazardready.org/seattle/static/img/data/Earthquake_Seattle.jpg" target="_blank"&gt;(mapa)&lt;/a&gt;&lt;br /&gt;&lt;a href="https://www.youtube.com/watch?v=hos_uIKwC-c" target="_blank"&gt;&lt;img border=0 width=300 height=196 id="_x005F_x0000_i1057" src="Snugget_for_translation_Edits_Carson_5_15_17_SPL.fld/image004.jpg" alt="lick on this image to be taken to a video of a simulated magnitude 7 earthquake and the impacts along the Alaskan Way Viaduct"&gt;&lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Existe una &lt;b&gt;LIGERA PROBABILIDAD&lt;/b&gt; (5%) de que haya un terremoto de magnitud 7+ en la falla de Seattle en los próximos 50 años, pero si sucede, producirá daños. &lt;b&gt;Los temblores muy fuertes harán difícil mantenerse en pie o conducir. Los muebles pesados caerán. Partes de edificios&lt;/b&gt; &lt;a href="http://www.seattle.gov/dpd/codesrules/changestocode/unreinforcedmasonrybuildings/whatwhy/" target="_blank"&gt;&lt;b&gt; URM&lt;/b&gt;&lt;/a&gt; &lt;b&gt; caerán y las casas con marcos de madera se trasladarán en los cimientos.&lt;/b&gt; &lt;a href="https://hazardready.org/seattle/static/img/data/Earthquake_Seattle.jpg" target="_blank"&gt;(mapa)&lt;/a&gt;&lt;br /&gt;&lt;a href="https://www.youtube.com/watch?v=hos_uIKwC-c" target="_blank"&gt;&lt;img border=0 width=300 height=196 id="Picture 2" src="Snugget_for_translation_Edits_Carson_5_15_17_SPL.fld/image004.jpg" alt="lick on this image to be taken to a video of a simulated magnitude 7 earthquake and the impacts along the Alaskan Way Viaduct"&gt;&lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Existe una &lt;b&gt;LIGERA PROBABILIDAD&lt;/b&gt; (5%) de que haya un terremoto de magnitud 7+ en la falla de Seattle en los próximos 50 años, pero si sucede, producirá daños. &lt;b&gt;Las sacudidas violentas provocarán pánico generalizado y aparecerán grietas en el piso. Se provocarán deslizamientos de tierra en pendientes pronunciadas y se producirá licuefacción en tierras saturadas.&lt;/b&gt; &lt;a href="https://hazardready.org/seattle/static/img/data/Earthquake_Seattle.jpg" target="_blank"&gt;(mapa)&lt;/a&gt;&lt;br /&gt;&lt;a href="https://www.youtube.com/watch?v=hos_uIKwC-c" target="_blank"&gt;&lt;img border=0 width=300 height=196 id="Picture 3" src="Snugget_for_translation_Edits_Carson_5_15_17_SPL.fld/image004.jpg" alt="lick on this image to be taken to a video of a simulated magnitude 7 earthquake and the impacts along the Alaskan Way Viaduct"&gt;&lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>&lt;p&gt;Usted se encuentra en una &lt;b&gt;zona de tsunami de ALTO RIESGO&lt;/b&gt;. Los niveles de agua superarán la altura de su cabeza entre unos pocos minutos hasta decenas de minutos después del terremoto. Una vez que se detengan los temblores, EVACUÉ INMEDIATAMENTE hacia terreno más elevado. &lt;a href="https://hazardready.org/seattle/static/img/data/Earthquake_Tsunami.jpg" target="_blank"&gt;(mapa)&lt;/a&gt;&lt;/p&gt;</t>
   </si>
   <si>
@@ -845,9 +836,6 @@
     <t>Las fallas de represas son muy infrecuentes. Sin embargo, si la &lt;a href="https://goo.gl/maps/DpotpRjYDvG2" target="_blank"&gt;Represa Tolt River&lt;/a&gt; fallara, esta área se podría inundar &lt;a href="https://hazardready.org/seattle/static/img/data/Flood_DamInundation.jpg" target="_blank"&gt;(mapa)&lt;/a&gt; . Inscríbase para recibir alertas de inundaciones enviando un &lt;a href="https://green2.kingcounty.gov/floodalertsystem/" target="_blank"&gt;correo electrónico o mensaje de texto&lt;/a&gt;  o descargue la &lt;a href="http://kingcounty.gov/services/environment/water-and-land/flooding/warning-system/app.aspx" target="_blank"&gt;aplicación de alerta de inundación&lt;/a&gt; en su teléfono inteligente.</t>
   </si>
   <si>
-    <t>Se espera que las grandes tormentas aumenten en los próximos 50 años. Vendrán acompañadas de lluvia y nieve. Los ríos tendrán mayores caudales, lo que provocará mayores inundaciones en el otoño e invierno. Haga clic en la imagen para obtener más información.&lt;br /&gt;&lt;a href="http://kingcounty.gov/services/environment/climate/why-act/infographic.aspx" target="_blank"&gt;&lt;img border=0 width=140 height=125 id="Picture 11" src="Snugget_for_translation_Edits_Carson_5_15_17_SPL.fld/image014.png" alt="Climate Change Rivers Infographic"&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve"> &lt;ol&gt; &lt;li&gt;&lt;b&gt;PLANIFIQUE&lt;/b&gt;: haga un plan de qué hacer y dónde ir si el nivel del agua aumenta. &lt;b&gt;Tenga listos los artículos esenciales&lt;/b&gt; (certificados de nacimiento, documentos importantes, fotografías, etc.). Contrate un seguro contra inundaciones si lo necesita. &lt;/li&gt; &lt;li&gt;&lt;b&gt;PREPÁRESE:&lt;/b&gt; guarde los objetos valiosos y los productos químicos caseros por encima de los niveles de inundaciones y &lt;b&gt;aprenda a cortar los servicios públicos&lt;/b&gt; ( &lt;a href="http://www.seattle.gov/emergency-management/preparedness/prepare-your-home" target="_blank"&gt;agua, gas y electricidad&lt;/a&gt; ). &lt;/li&gt; &lt;/ol&gt;</t>
   </si>
   <si>
@@ -926,9 +914,6 @@
     <t>&lt;ol&gt; &lt;li&gt;&lt;b&gt;EVALÚE:&lt;/b&gt; si el área alrededor de su hogar pudiera estar propensa a deslizamientos de tierra &lt;b&gt;pida asesoría a expertos geotécnicos&lt;/b&gt;. Ellos pueden evaluar el peligro de deslizamientos de tierra o diseñar técnicas correctivas para reducir el riesgo de deslizamiento de tierra. &lt;/li&gt; &lt;li&gt;&lt;b&gt;REDUZCA EL RIESGO:&lt;/b&gt; plante capas vegetales en pendientes o construya un muro de retención para &lt;b&gt;estabilizar laderas.&lt;/b&gt; &lt;/li&gt; &lt;li&gt;&lt;b&gt;PREPÁRESE:&lt;/b&gt; &lt;b&gt;haga un kit de suministros y un plan familiar&lt;/b&gt; designando al menos dos rutas de evacuación. &lt;/li&gt; &lt;/ol&gt;</t>
   </si>
   <si>
-    <t>&lt;b&gt;Su mejor protección es mantenerse fuera del recorrido de un deslizamiento de tierra o un flujo de escombros.&lt;/b&gt; El Estudio Geológico de EE.&amp;nbsp;UU. también recomendó lo siguiente: &lt;ul&gt; &lt;li&gt;&lt;b&gt;MANTÉNGASE ALERTA: preste atención a sonidos inusuales.&lt;/b&gt; Las lluvias intensas y cortas pueden ser particularmente peligrosas, especialmente después de largos períodos de lluvias torrenciales y clima húmedo. &lt;/li&gt; &lt;li&gt;&lt;b&gt;CONSIDERE IRSE:&lt;/b&gt; si está en un área propensa a deslizamientos de tierra y flujos de escombros, considere irse, si es seguro hacerlo. Si decide quedarse en casa, vaya a un segundo piso, si es posible. &lt;/li&gt; &lt;li&gt;&lt;b&gt;PRESTE ATENCIÓN A LOS NIVELES DE ARROYOS:&lt;/b&gt; si está cerca de un arroyo o canal, &lt;b&gt;esté atento a cualquier aumento o disminución de la corriente y todo cambio de agua clara a lodosa.&lt;/b&gt; Esto podría ser un indicador de actividad de deslizamiento de tierras aguas arriba. ¡NO SE DEMORE! Sálvese usted, no sus pertenencias. &lt;/li&gt; &lt;/ul&gt;Puede encontrar más consejos sobre deslizamientos de tierra en USGS &lt;a href="http://landslides.usgs.gov/learn/prepare.php" target="_blank"&gt;aquí&lt;/a&gt; . &lt;img border=0 width=387 height=97 id="Picture 34" src="Snugget_for_translation_Edits_Carson_5_15_17_SPL.fld/image020.png" alt="This is a panel of three cartoon images showing what to do during a landslide if indoors, near slide, or in slide"&gt;</t>
-  </si>
-  <si>
     <t>&lt;b&gt;ESTÉ PREPARADO PARA LAS INUNDACIONES (los deslizamientos de tierra con frecuencia bloquean los ríos y pueden provocar que los ríos retrocedan e inunden).&lt;/b&gt;&lt;ul&gt; &lt;li&gt; Manténgase lejos del deslizamiento. Pueden ocurrir otros deslizamientos después del deslizamiento principal. &lt;/li&gt; &lt;li&gt; Una vez que esté seguro, revise si hay personas heridas o atrapadas. &lt;/li&gt; &lt;li&gt; Revise si hay líneas de servicios públicos dañadas e informe todo daño a su empresa de servicios públicos. &lt;/li&gt; &lt;li&gt; Escuche los medios locales o la radio meteorológica de la NOAA para acceder a información actualizada. &lt;/li&gt; &lt;/ul&gt;</t>
   </si>
   <si>
@@ -980,21 +965,12 @@
     <t>&lt;p&gt;&lt;b&gt;Es improbable, pero si vive cerca de una zona forestal, puede sufrir un incendio forestal.&lt;/b&gt; El HUMO de incendios forestales distantes puede recorrer grandes distancias y puede ser un factor, incluso si nada se está quemando en el área. Consulte su calidad del aire local &lt;a href="http://www.pscleanair.org/airquality/ourairquality/Pages/default.aspx" target="_blank"&gt;aquí&lt;/a&gt;.&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;La cantidad de &lt;b&gt;incendios forestales en el noroeste del Pacífico ya aumentó significativamente en las últimas décadas.&lt;/b&gt; Esta tendencia es probable que continúe con veranos más secos y con más tormentas (piense en los rayos que inician incendios). Grandes áreas de bosques pueden quemarse y enviar humo a la atmósfera. Haga clic en la imagen para obtener más información.&lt;BR /&gt;&lt;a href="http://kingcounty.gov/services/environment/climate/why-act/infographic.aspx" target="_blank"&gt;&lt;img border=0 width=144 height=144 id="Picture 26" src="Snugget_for_translation_Edits_Carson_5_15_17_SPL.fld/image024.png" alt="limate Change Forest Infographic"&gt;&lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>&lt;p&gt;¿Huele o ve humo? ¿Ha sido una temporada de clima seco? Podría ser un incendio forestal. Aléjese de incendios activos y, si ve que se inicia uno, llame al 9-1-1 para informarlo.&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;ol&gt;&lt;li&gt;&lt;b&gt;HAGA LUGAR&lt;/b&gt;: proteja las vidas y los bienes creando un &lt;b&gt;espacio adaptado para los incendios alrededor de su casa&lt;/b&gt;, cobertizo y negocio. Para descubrir cómo hacerlo, ingrese a &lt;a href="http://www.firewise.org/wildfire-preparedness.aspx" target="_blank"&gt;firewise.org&lt;/a&gt;.&lt;/li&gt;&lt;li&gt;&lt;b&gt;OBSERVE EL CLIMA:&lt;/b&gt; unos pocos días soleados pueden secar los bosques lo suficiente para que se incendien. Las condiciones ventosas pueden provocar que los incendios forestales se salgan de control rápidamente. &lt;img border=0 width=301 height=264 id="_x005F_x0000_i1034" src="Snugget_for_translation_Edits_Carson_5_15_17_SPL.fld/image025.png" alt="his is an image of ways to prevent wildfire around your home. They include screening decks, pruning trees 6-10 feet from the ground, using fire-resistant wall and roof materials, keeping plants watered, and making sure your driveway can accommodate an emergency vehicle"&gt;&lt;/li&gt;&lt;/ol&gt;</t>
-  </si>
-  <si>
     <t>&lt;ul&gt;&lt;li&gt; Regrese a su casa una vez que las autoridades digan que es seguro hacerlo.&lt;/li&gt;&lt;li&gt;&lt;b&gt;Tenga cuidado al ingresar a áreas quemadas&lt;/b&gt; ya que aún podría haber peligros.&lt;/li&gt;&lt;li&gt; Revise exhaustivamente para determinar si hay humo o brasas ocultas.&lt;/li&gt;&lt;li&gt;&lt;b&gt;Saque fotografías de los daños&lt;/b&gt; para la aseguradora.&lt;/li&gt;&lt;/ul&gt;</t>
   </si>
   <si>
-    <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;MANTÉNGASE INFORMADO:&lt;/b&gt; escuche las alertas de emergencias locales en la radio o la televisión y esté listo para evacuar si fuera necesario. &lt;/li&gt; &lt;li&gt;&lt;b&gt;ELIMINE LOS ELEMENTOS INFLAMABLES:&lt;/b&gt; quite los materiales de su propiedad y alrededor de esta que pudieran prenderse fuego (sillas de patio, mesas, etcétera). &lt;/li&gt; &lt;li&gt;&lt;b&gt;PREPARE SU CASA:&lt;/b&gt; - traslade los muebles tapizados lejos de las ventanas. Cierre puertas y ventanas, no las trabe. &lt;/li&gt; &lt;/ul&gt; &lt;img border=0 width=419 height=89 id="Picture 37" src="Snugget_for_translation_Edits_Carson_5_15_17_SPL.fld/image026.png"&gt;</t>
-  </si>
-  <si>
     <t>&lt;/p&gt;Si cree que su propiedad puede estar en riesgo, &lt;b&gt;el Condado King tiene información para propietarios, programas de incentivo y talleres de capacitación de anfitriones.&lt;/b&gt; Puede obtener más información &lt;a href="http://www.kingcounty.gov/environment/water-and-land/forestry.aspx" target="_blank"&gt;aquí&lt;/a&gt;.&lt;/p&gt;</t>
   </si>
   <si>
@@ -1025,9 +1001,6 @@
     <t>&lt;p&gt;Durante una erupción, escuche las noticias para ver actualizaciones de emergencia y siga las instrucciones de emergencia.&lt;/p&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;EN UNA ZONA DE LAHARES: acuda a tierras más altas inmediatamente.&lt;/b&gt;&lt;/li&gt; &lt;li&gt;&lt;b&gt;AFUERA:&lt;/b&gt; cúbrase boca, nariz y cuerpo para evitar la irritación. &lt;b&gt;Busque refugio.&lt;/b&gt; &lt;/li&gt; &lt;li&gt;&lt;b&gt;ADENTRO: mantenga las puertas y la ventilación de su casa cerradas y quédese adentro, a menos que se le indique lo contrario.&lt;/b&gt; Coloque toallas húmedas debajo de las puertas y tape con cinta las ventanas con corrientes de aire. Mantenga apagados los motores de automóviles y camiones para evitar daños por taponamiento por cenizas. Proteja animales y maquinarias haciéndolos ingresar o manteniéndolos en un área cubierta.&lt;/li&gt;&lt;/ul&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Una vez que haya desaparecido el riesgo inmediato por una erupción, la acción más importante será limpiar las cenizas. &lt;img border=0 width=337 height=129 id="Picture 43" src="Snugget_for_translation_Edits_Carson_5_15_17_SPL.fld/image030.png" alt="This image shows two graders shoveling inches of ashfall from Saint Helens' eruption"&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt; Utilice gafas protectoras y una máscara facial al aire libre. &lt;b&gt;La calidad del aire será mala.&lt;/b&gt; &lt;/li&gt; &lt;li&gt;&lt;b&gt;Evite hacer andar motores de vehículos.&lt;/b&gt; Si debe manejar, hágalo despacio (a menos de 35 MPH) y controle el aceite, los filtros de aceite y los filtros de aire frecuentemente. &lt;/li&gt; &lt;li&gt; La lluvia de cenizas es muy pesada y puede hacer que los edificios colapsen. Si es seguro hacerlo, &lt;b&gt;quite la ceniza de techos y canalones de lluvia&lt;/b&gt;. &lt;/li&gt; &lt;/ul&gt;</t>
-  </si>
-  <si>
     <t>&lt;p&gt;Puede obtener más información acerca del Monte Rainier y los posibles peligros en diferentes fuentes:&lt;/p&gt; &lt;ul&gt; &lt;li&gt; &lt;a href="https://volcanoes.usgs.gov/volcanoes/mount_rainier/" target="_blank"&gt;Monitoreo y otra información&lt;/a&gt; - Estudio Geológico de EE.&amp;nbsp;UU. &lt;/li&gt; &lt;li&gt; &lt;a href="http://www.kingcounty.gov/depts/emergency-management/hazards/volcano.aspx" target=blank&gt; Información general del Condado King&lt;/a&gt; &amp;nbsp;- Condado King &lt;/li&gt; &lt;li&gt; &lt;a href="https://www.nps.gov/mora/planyourvisit/geohazards.htm" target="_blank"&gt;Peligros geológicos en Rainier&lt;/a&gt;  - Servicio de Parques Nacionales &lt;/li&gt; &lt;li&gt; &lt;a href="http://www.pnsn.org/volcanoes/mount-rainier" target="_blank"&gt;Terremotos cerca de Rainier&lt;/a&gt; - Red Sísmica del Noroeste del Pacífico &lt;/li&gt; &lt;/ul&gt;</t>
   </si>
   <si>
@@ -1040,9 +1013,6 @@
     <t>&lt;p&gt;Un evento de nevadas copiosas puede provocar problemas importantes en los transportes, los servicios de seguridad pública y los servicios públicos. &lt;b&gt;La energía se puede cortar durante muchos días.&lt;/b&gt;&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;&lt;b&gt;El noroeste del Pacífico se verá afectado por tormentas más fuertes en los próximos 50 años.&lt;/b&gt; Pueden provocar fuertes vientos y lluvias torrenciales que provoquen inundaciones. Las actividades invernales se verán afectadas. 2015 tuvo los niveles de nieve acumulada más bajos que se hayan registrado con solo el 4% del promedio. Los inviernos cálidos establecerán las condiciones para sequías en todo el estado. Haga clic en la imagen para obtener más información.&lt;br&gt; &lt;a href="http://kingcounty.gov/services/environment/climate/why-act/infographic.aspx" target="_blank"&gt;&lt;img border=0 width=144 height=144 id="Picture 32" src="Snugget_for_translation_Edits_Carson_5_15_17_SPL.fld/image031.png" alt="limate Change Winter Infographic"&gt;&lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>&lt;p&gt;Los meteorólogos se han esforzado mucho por pronosticar las tormentas de nieve y hielo. &lt;b&gt;Preste atención a los pronósticos locales del tiempo e inscríbase en los sistemas de alerta de advertencia disponibles&lt;/b&gt; ( &lt;a href="http://alert.seattle.gov/" target="_blank"&gt;Alertas Seattle&lt;/a&gt; y &lt;a href="http://www.kingcounty.gov/depts/emergency-management/alert-king-county.aspx" target="_blank"&gt;Alertas Condado King&lt;/a&gt;) para asegurarse de obtener información actualizada acerca de futuro mal clima.&lt;/p&gt;</t>
   </si>
   <si>
@@ -1067,18 +1037,12 @@
     <t>&lt;p&gt;El calor intenso puede durar días causando que en las comunidades haya un incremento de enfermedades relacionadas con el calor, esto incluye los GOLPES DE CALOR y las INSOLACIONES. Las altas temperaturas, las condiciones secas y la mayor probabilidad de rayos pueden provocar incendios forestales.&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Julio de 2015 fue el mes más caluroso de la historia. &lt;b&gt;La temperatura anual promedio se proyecta con un incremento de entre 3 y 10 grados Fahrenheit para 2100.&lt;/b&gt; Los residentes de Washington tendrán menos lluvias en verano, pero la lluvia que haya será más intensa (piense en aguaceros). Haga clic en la imagen para obtener más información.&lt;br&gt; &lt;a href="http://kingcounty.gov/services/environment/climate/why-act/infographic.aspx" target="_blank"&gt;&lt;img border=0 width=153 height=131 id="Picture 38" src="Snugget_for_translation_Edits_Carson_5_15_17_SPL.fld/image033.png" alt="limate Change Storm Infographic"&gt;&lt;/a&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>&lt;p&gt;Los golpes de calor y las insolaciones son enfermedades graves que pueden aparecer cuando una persona se expone al calor extremo.&lt;/p&gt;&lt;div style="display: inline-block; width: 35%; vertical-align: top;"&gt;&lt;b&gt;SÍNTOMAS DE GOLPE DE CALOR:&lt;/b&gt;&lt;/p&gt; &lt;ul style='margin-top:0in' type=disc&gt; &lt;li&gt; Mucha sudoración &lt;/li&gt; &lt;li&gt; Debilidad &lt;/li&gt; &lt;li&gt; Pulso débil &lt;/li&gt; &lt;li&gt; Desmayos &lt;/li&gt; &lt;li&gt; Vómitos &lt;/li&gt; &lt;li&gt; Piel fría y pálida &lt;/li&gt; &lt;/ul&gt;&lt;/div&gt;&lt;div style="display: inline-block; width: 35%; vertical-align: top;"&gt;&lt;b&gt;SÍNTOMAS DE INSOLACIÓN:&lt;/b&gt;&lt;/p&gt; &lt;ul style='margin-top:0in' type=disc&gt; &lt;li&gt; Alta temperatura corporal (103&amp;nbsp;°F o más) &lt;/li&gt; &lt;li&gt; Piel caliente y seca &lt;/li&gt; &lt;li&gt; Pulso acelerado y fuerte &lt;/li&gt; &lt;li&gt; Posible pérdida de la conciencia &lt;/li&gt; &lt;/ul&gt;&lt;/div&gt;</t>
   </si>
   <si>
     <t>&lt;p&gt;Los adultos mayores, los niños pequeños y las personas con enfermedades mentales y crónicas tienen mayor riesgo de problemas cardíacos.&lt;/p&gt; &lt;ol&gt; &lt;li&gt;&lt;b&gt;SEPA LOS SÍNTOMAS:&lt;/b&gt; las enfermedades relacionadas con el calor pueden aparecer rápidamente. Sepa cuál de sus vecinos puede estar en riesgo. &lt;/li&gt; &lt;li&gt;&lt;b&gt;MANTÉNGASE INFORMADO:&lt;/b&gt; escuche las noticias locales para obtener información general y las direcciones de los &lt;b&gt;centros de refrigeración&lt;/b&gt; (espacios públicos que pueden utilizar los residentes para mantenerse frescos). &lt;/li&gt; &lt;/ol&gt;</t>
   </si>
   <si>
-    <t>&lt;ul&gt; &lt;li&gt;&lt;b&gt;MANTÉNGASE FRESCO:&lt;/b&gt; quédese adentro y, si es posible, en un lugar con aire acondicionado (centro comercial, biblioteca, teatro, etc.). Limite las actividades al aire libre. &lt;/li&gt; &lt;li&gt;&lt;b&gt;PROTEJA LA PIEL:&lt;/b&gt; utilice prendas livianas, holgadas y con colores claros. Un sombrero de ala ancha, lentes de sol y pantalla solar serán de ayuda. &lt;/li&gt; &lt;li&gt;&lt;b&gt;AGUA POTABLE:&lt;/b&gt; tome mucho líquido (evite la cafeína, el alcohol y las bebidas azucaradas) y lleve consigo una botella de agua. &lt;/li&gt; &lt;li&gt;&lt;b&gt;PIENSE EN LOS DEMÁS:&lt;/b&gt; mantenga a los niños y las mascotas fuera de automóviles calientes. Controle con frecuencia a familias, amigos y vecinos en riesgo. &lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;img border=0 width=355 height=87 id="Picture 41" src="Snugget_for_translation_Edits_Carson_5_15_17_SPL.fld/image034.png" alt="his is a panel of three images of what to do during bad summer weather. Stay Cool, Protect Skin, and Drink Water."&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>&lt;ul&gt; &lt;li&gt; Utilice cortinas para &lt;b&gt;cubrir las ventanas y mantener el aire fresco en el interior.&lt;/b&gt; &lt;/li&gt; &lt;li&gt;&lt;b&gt;Piense en comprar un sistema de aire acondicionado&lt;/b&gt; o instalar burletes en los lugares por donde se cuela el aire caliente. &lt;/li&gt; &lt;li&gt;&lt;b&gt;OPCIÓN DE BAJO PRESUPUESTO:&lt;/b&gt; construya reflectores de calor (para utilizar entre ventanas y cortinas), como cartón cubierto de papel de aluminio, para reflejar el calor hacia el exterior. Haga clic &lt;a href="http://www.instructables.com/id/Heat-blocking-curtains/" target="_blank"&gt;aquí&lt;/a&gt; para instrucciones sobre cómo hacerlo usted mismo. &lt;/li&gt; &lt;/ul&gt;</t>
   </si>
   <si>
@@ -1086,6 +1050,45 @@
   </si>
   <si>
     <t>&lt;p&gt;En 2015, el Condado King tuvo una cantidad récord de días que superaron los 90°F. &lt;b&gt;Julio de 2015 fue el mes más caluroso de la historia en el Condado King.&lt;/b&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>¿Ha estado lloviendo intensamente o durante muchos días? ¿El aumento de la temperatura causó un rápido deshielo en las montañas? ¿Parecen altos los niveles del agua en los ríos locales? Las posibilidades de inundación podrían estar en aumento. Consulte los informes de noticias del servicio meteorológico para ver si hay alertas locales.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Su mejor protección es mantenerse fuera del recorrido de un deslizamiento de tierra o un flujo de escombros.&lt;/b&gt; El Estudio Geológico de EE.&amp;nbsp;UU. también recomendó lo siguiente: &lt;ul&gt; &lt;li&gt;&lt;b&gt;MANTÉNGASE ALERTA: preste atención a sonidos inusuales.&lt;/b&gt; Las lluvias intensas y cortas pueden ser particularmente peligrosas, especialmente después de largos períodos de lluvias torrenciales y clima húmedo. &lt;/li&gt; &lt;li&gt;&lt;b&gt;CONSIDERE IRSE:&lt;/b&gt; si está en un área propensa a deslizamientos de tierra y flujos de escombros, considere irse, si es seguro hacerlo. Si decide quedarse en casa, vaya a un segundo piso, si es posible. &lt;/li&gt; &lt;li&gt;&lt;b&gt;PRESTE ATENCIÓN A LOS NIVELES DE ARROYOS:&lt;/b&gt; si está cerca de un arroyo o canal, &lt;b&gt;esté atento a cualquier aumento o disminución de la corriente y todo cambio de agua clara a lodosa.&lt;/b&gt; Esto podría ser un indicador de actividad de deslizamiento de tierras aguas arriba. ¡NO SE DEMORE! Sálvese usted, no sus pertenencias. &lt;/li&gt; &lt;/ul&gt;Puede encontrar más consejos sobre deslizamientos de tierra en USGS &lt;a href="http://landslides.usgs.gov/learn/prepare.php" target="_blank"&gt;aquí&lt;/a&gt; . &lt;img src="https://hazardready.org/images/seattle-ready/snuggets/Landslide_during.jpg" alt="This is a panel of three cartoon images showing what to do during a landslide if indoors, near slide, or in slide"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Existe una &lt;b&gt;LIGERA PROBABILIDAD&lt;/b&gt; (5%) de que haya un terremoto de magnitud 7+ en la falla de Seattle en los próximos 50 años, pero si sucede, producirá daños. &lt;b&gt;Los temblores muy fuertes harán difícil mantenerse en pie. Los muebles se trasladarán y objetos caerán.&lt;/b&gt; Los daños serán importantes en edificios de mala construcción y moderados en edificios normales. &lt;a href="https://hazardready.org/seattle/static/img/data/Earthquake_Seattle.jpg" target="_blank"&gt;(mapa)&lt;/a&gt;&lt;br /&gt;&lt;a href="https://www.youtube.com/watch?v=hos_uIKwC-c" target="_blank"&gt;&lt;img src="https://hazardready.org/images/seattle-ready/snuggets/WSDOT_sim.jpg" alt="Click on this image to be taken to a video of a simulated magnitude 7 earthquake and the impacts along the Alaskan Way Viaduct"&gt;&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Existe una &lt;b&gt;LIGERA PROBABILIDAD&lt;/b&gt; (5%) de que haya un terremoto de magnitud 7+ en la falla de Seattle en los próximos 50 años, pero si sucede, producirá daños. &lt;b&gt;Los temblores muy fuertes harán difícil mantenerse en pie o conducir. Los muebles pesados caerán. Partes de edificios&lt;/b&gt; &lt;a href="http://www.seattle.gov/dpd/codesrules/changestocode/unreinforcedmasonrybuildings/whatwhy/" target="_blank"&gt;&lt;b&gt; URM&lt;/b&gt;&lt;/a&gt; &lt;b&gt; caerán y las casas con marcos de madera se trasladarán en los cimientos.&lt;/b&gt; &lt;a href="https://hazardready.org/seattle/static/img/data/Earthquake_Seattle.jpg" target="_blank"&gt;(mapa)&lt;/a&gt;&lt;br /&gt;&lt;a href="https://www.youtube.com/watch?v=hos_uIKwC-c" target="_blank"&gt;&lt;img src="https://hazardready.org/images/seattle-ready/snuggets/WSDOT_sim.jpg" alt="lick on this image to be taken to a video of a simulated magnitude 7 earthquake and the impacts along the Alaskan Way Viaduct"&gt;&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Existe una &lt;b&gt;LIGERA PROBABILIDAD&lt;/b&gt; (5%) de que haya un terremoto de magnitud 7+ en la falla de Seattle en los próximos 50 años, pero si sucede, producirá daños. &lt;b&gt;Las sacudidas violentas provocarán pánico generalizado y aparecerán grietas en el piso. Se provocarán deslizamientos de tierra en pendientes pronunciadas y se producirá licuefacción en tierras saturadas.&lt;/b&gt; &lt;a href="https://hazardready.org/seattle/static/img/data/Earthquake_Seattle.jpg" target="_blank"&gt;(mapa)&lt;/a&gt;&lt;br /&gt;&lt;a href="https://www.youtube.com/watch?v=hos_uIKwC-c" target="_blank"&gt;&lt;img src="https://hazardready.org/images/seattle-ready/snuggets/WSDOT_sim.jpg" alt="lick on this image to be taken to a video of a simulated magnitude 7 earthquake and the impacts along the Alaskan Way Viaduct"&gt;&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Se espera que las grandes tormentas aumenten en los próximos 50 años. Vendrán acompañadas de lluvia y nieve. Los ríos tendrán mayores caudales, lo que provocará mayores inundaciones en el otoño e invierno. Haga clic en la imagen para obtener más información.&lt;br /&gt;&lt;a href="http://kingcounty.gov/services/environment/climate/why-act/infographic.aspx" target="_blank"&gt;&lt;img src="https://hazardready.org/images/seattle-ready/snuggets/Climate_Rivers.jpg" alt="Climate Change Rivers Infographic"&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;La cantidad de &lt;b&gt;incendios forestales en el noroeste del Pacífico ya aumentó significativamente en las últimas décadas.&lt;/b&gt; Esta tendencia es probable que continúe con veranos más secos y con más tormentas (piense en los rayos que inician incendios). Grandes áreas de bosques pueden quemarse y enviar humo a la atmósfera. Haga clic en la imagen para obtener más información.&lt;BR /&gt;&lt;a href="http://kingcounty.gov/services/environment/climate/why-act/infographic.aspx" target="_blank"&gt;&lt;img src="https://hazardready.org/images/seattle-ready/snuggets/Climate_Forests.jpg" alt="Climate Change Forest Infographic"&gt;&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ol&gt;&lt;li&gt;&lt;b&gt;HAGA LUGAR&lt;/b&gt;: proteja las vidas y los bienes creando un &lt;b&gt;espacio adaptado para los incendios alrededor de su casa&lt;/b&gt;, cobertizo y negocio. Para descubrir cómo hacerlo, ingrese a &lt;a href="http://www.firewise.org/wildfire-preparedness.aspx" target="_blank"&gt;firewise.org&lt;/a&gt;.&lt;/li&gt;&lt;li&gt;&lt;b&gt;OBSERVE EL CLIMA:&lt;/b&gt; unos pocos días soleados pueden secar los bosques lo suficiente para que se incendien. Las condiciones ventosas pueden provocar que los incendios forestales se salgan de control rápidamente. &lt;img src="https://hazardready.org/images/seattle-ready/snuggets/Firewise_Brochure.jpg" alt="his is an image of ways to prevent wildfire around your home. They include screening decks, pruning trees 6-10 feet from the ground, using fire-resistant wall and roof materials, keeping plants watered, and making sure your driveway can accommodate an emergency vehicle"&gt;&lt;/li&gt;&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;MANTÉNGASE INFORMADO:&lt;/b&gt; escuche las alertas de emergencias locales en la radio o la televisión y esté listo para evacuar si fuera necesario. &lt;/li&gt; &lt;li&gt;&lt;b&gt;ELIMINE LOS ELEMENTOS INFLAMABLES:&lt;/b&gt; quite los materiales de su propiedad y alrededor de esta que pudieran prenderse fuego (sillas de patio, mesas, etcétera). &lt;/li&gt; &lt;li&gt;&lt;b&gt;PREPARE SU CASA:&lt;/b&gt; - traslade los muebles tapizados lejos de las ventanas. Cierre puertas y ventanas, no las trabe. &lt;/li&gt; &lt;/ul&gt; &lt;img src="https://hazardready.org/images/seattle-ready/snuggets/Fire_during.jpg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Una vez que haya desaparecido el riesgo inmediato por una erupción, la acción más importante será limpiar las cenizas. &lt;img src="https://hazardready.org/images/seattle-ready/snuggets/MtStHel_Yakima_graders.jpg" alt="This image shows two graders shoveling inches of ashfall from Saint Helens' eruption"&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt; Utilice gafas protectoras y una máscara facial al aire libre. &lt;b&gt;La calidad del aire será mala.&lt;/b&gt; &lt;/li&gt; &lt;li&gt;&lt;b&gt;Evite hacer andar motores de vehículos.&lt;/b&gt; Si debe manejar, hágalo despacio (a menos de 35 MPH) y controle el aceite, los filtros de aceite y los filtros de aire frecuentemente. &lt;/li&gt; &lt;li&gt; La lluvia de cenizas es muy pesada y puede hacer que los edificios colapsen. Si es seguro hacerlo, &lt;b&gt;quite la ceniza de techos y canalones de lluvia&lt;/b&gt;. &lt;/li&gt; &lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;El noroeste del Pacífico se verá afectado por tormentas más fuertes en los próximos 50 años.&lt;/b&gt; Pueden provocar fuertes vientos y lluvias torrenciales que provoquen inundaciones. Las actividades invernales se verán afectadas. 2015 tuvo los niveles de nieve acumulada más bajos que se hayan registrado con solo el 4% del promedio. Los inviernos cálidos establecerán las condiciones para sequías en todo el estado. Haga clic en la imagen para obtener más información.&lt;br&gt; &lt;a href="http://kingcounty.gov/services/environment/climate/why-act/infographic.aspx" target="_blank"&gt;&lt;img src="https://hazardready.org/images/seattle-ready/snuggets/Climate_Winter.jpg" alt="Climate Change Winter Infographic"&gt;&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Julio de 2015 fue el mes más caluroso de la historia. &lt;b&gt;La temperatura anual promedio se proyecta con un incremento de entre 3 y 10 grados Fahrenheit para 2100.&lt;/b&gt; Los residentes de Washington tendrán menos lluvias en verano, pero la lluvia que haya será más intensa (piense en aguaceros). Haga clic en la imagen para obtener más información.&lt;br&gt; &lt;a href="http://kingcounty.gov/services/environment/climate/why-act/infographic.aspx" target="_blank"&gt;&lt;img src="https://hazardready.org/images/seattle-ready/snuggets/Climate_Storms.jpg" alt="limate Change Storm Infographic"&gt;&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt; &lt;li&gt;&lt;b&gt;MANTÉNGASE FRESCO:&lt;/b&gt; quédese adentro y, si es posible, en un lugar con aire acondicionado (centro comercial, biblioteca, teatro, etc.). Limite las actividades al aire libre. &lt;/li&gt; &lt;li&gt;&lt;b&gt;PROTEJA LA PIEL:&lt;/b&gt; utilice prendas livianas, holgadas y con colores claros. Un sombrero de ala ancha, lentes de sol y pantalla solar serán de ayuda. &lt;/li&gt; &lt;li&gt;&lt;b&gt;AGUA POTABLE:&lt;/b&gt; tome mucho líquido (evite la cafeína, el alcohol y las bebidas azucaradas) y lleve consigo una botella de agua. &lt;/li&gt; &lt;li&gt;&lt;b&gt;PIENSE EN LOS DEMÁS:&lt;/b&gt; mantenga a los niños y las mascotas fuera de automóviles calientes. Controle con frecuencia a familias, amigos y vecinos en riesgo. &lt;/li&gt; &lt;/ul&gt; &lt;p&gt;&lt;img src="https://hazardready.org/images/seattle-ready/snuggets/Summer_during.jpg" alt="his is a panel of three images of what to do during bad summer weather. Stay Cool, Protect Skin, and Drink Water."&gt;&lt;/p&gt;</t>
   </si>
 </sst>
 </file>
@@ -2936,10 +2939,10 @@
   <dimension ref="A1:H292"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D254" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H293" sqref="H293"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3130,7 +3133,7 @@
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5" t="s">
-        <v>147</v>
+        <v>343</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -3154,7 +3157,7 @@
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5" t="s">
-        <v>148</v>
+        <v>344</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -3178,7 +3181,7 @@
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5" t="s">
-        <v>149</v>
+        <v>345</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -3294,7 +3297,7 @@
         <v>18</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -3318,7 +3321,7 @@
         <v>18</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -3342,7 +3345,7 @@
         <v>18</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -3366,7 +3369,7 @@
         <v>19</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -3390,7 +3393,7 @@
         <v>18</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -3414,7 +3417,7 @@
         <v>20</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -3448,7 +3451,7 @@
         <v>24</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -3472,7 +3475,7 @@
         <v>26</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -3496,7 +3499,7 @@
         <v>28</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -3520,7 +3523,7 @@
         <v>30</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -3544,7 +3547,7 @@
         <v>32</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -3568,7 +3571,7 @@
         <v>34</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -3592,7 +3595,7 @@
         <v>36</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -3616,7 +3619,7 @@
         <v>38</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -3640,7 +3643,7 @@
         <v>40</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
@@ -3674,7 +3677,7 @@
         <v>43</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
@@ -3698,7 +3701,7 @@
         <v>43</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
@@ -3722,7 +3725,7 @@
         <v>43</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
@@ -3746,7 +3749,7 @@
         <v>43</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
@@ -3770,7 +3773,7 @@
         <v>43</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
@@ -3804,7 +3807,7 @@
         <v>47</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
@@ -3836,7 +3839,7 @@
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
       <c r="H41" s="5" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
@@ -3858,7 +3861,7 @@
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
       <c r="H42" s="5" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
@@ -3880,7 +3883,7 @@
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
       <c r="H43" s="5" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
@@ -3912,7 +3915,7 @@
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
       <c r="H45" s="5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
@@ -3934,7 +3937,7 @@
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
       <c r="H46" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
@@ -3956,7 +3959,7 @@
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
       <c r="H47" s="5" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
@@ -3978,7 +3981,7 @@
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
       <c r="H48" s="5" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
@@ -4000,7 +4003,7 @@
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
       <c r="H49" s="5" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
@@ -4022,7 +4025,7 @@
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
       <c r="H50" s="5" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
@@ -4044,7 +4047,7 @@
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
       <c r="H51" s="5" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
@@ -4066,7 +4069,7 @@
       <c r="F52" s="5"/>
       <c r="G52" s="5"/>
       <c r="H52" s="5" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
@@ -4088,7 +4091,7 @@
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="5" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.2">
@@ -4110,7 +4113,7 @@
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
       <c r="H54" s="5" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
@@ -4132,7 +4135,7 @@
       <c r="F55" s="5"/>
       <c r="G55" s="5"/>
       <c r="H55" s="5" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
@@ -4154,7 +4157,7 @@
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
       <c r="H56" s="5" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
@@ -4176,7 +4179,7 @@
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
       <c r="H57" s="5" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
@@ -4198,7 +4201,7 @@
       <c r="F58" s="5"/>
       <c r="G58" s="5"/>
       <c r="H58" s="5" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
@@ -4220,7 +4223,7 @@
       <c r="F59" s="5"/>
       <c r="G59" s="5"/>
       <c r="H59" s="5" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
@@ -4242,7 +4245,7 @@
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
       <c r="H60" s="5" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
@@ -4264,7 +4267,7 @@
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
       <c r="H61" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
@@ -4286,7 +4289,7 @@
       <c r="F62" s="5"/>
       <c r="G62" s="5"/>
       <c r="H62" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
@@ -4308,7 +4311,7 @@
       <c r="F63" s="5"/>
       <c r="G63" s="5"/>
       <c r="H63" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
@@ -4330,7 +4333,7 @@
       <c r="F64" s="5"/>
       <c r="G64" s="5"/>
       <c r="H64" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
@@ -4352,7 +4355,7 @@
       <c r="F65" s="5"/>
       <c r="G65" s="5"/>
       <c r="H65" s="5" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
@@ -4374,7 +4377,7 @@
       <c r="F66" s="5"/>
       <c r="G66" s="5"/>
       <c r="H66" s="5" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
@@ -4396,7 +4399,7 @@
       <c r="F67" s="5"/>
       <c r="G67" s="5"/>
       <c r="H67" s="5" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
@@ -4418,7 +4421,7 @@
       <c r="F68" s="5"/>
       <c r="G68" s="5"/>
       <c r="H68" s="5" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
@@ -4440,7 +4443,7 @@
       <c r="F69" s="5"/>
       <c r="G69" s="5"/>
       <c r="H69" s="5" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
@@ -4462,7 +4465,7 @@
       <c r="F70" s="5"/>
       <c r="G70" s="5"/>
       <c r="H70" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
@@ -4484,7 +4487,7 @@
       <c r="F71" s="5"/>
       <c r="G71" s="5"/>
       <c r="H71" s="5" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
@@ -4506,7 +4509,7 @@
       <c r="F72" s="5"/>
       <c r="G72" s="5"/>
       <c r="H72" s="5" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
@@ -4528,7 +4531,7 @@
       <c r="F73" s="5"/>
       <c r="G73" s="5"/>
       <c r="H73" s="5" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
@@ -4550,7 +4553,7 @@
       <c r="F74" s="5"/>
       <c r="G74" s="5"/>
       <c r="H74" s="5" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
@@ -4572,7 +4575,7 @@
       <c r="F75" s="5"/>
       <c r="G75" s="5"/>
       <c r="H75" s="5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
@@ -4594,7 +4597,7 @@
       <c r="F76" s="5"/>
       <c r="G76" s="5"/>
       <c r="H76" s="5" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
@@ -4616,7 +4619,7 @@
       <c r="F77" s="5"/>
       <c r="G77" s="5"/>
       <c r="H77" s="5" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
@@ -4638,7 +4641,7 @@
       <c r="F78" s="5"/>
       <c r="G78" s="5"/>
       <c r="H78" s="5" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
@@ -4660,7 +4663,7 @@
       <c r="F79" s="5"/>
       <c r="G79" s="5"/>
       <c r="H79" s="5" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
@@ -4682,7 +4685,7 @@
       <c r="F80" s="5"/>
       <c r="G80" s="5"/>
       <c r="H80" s="5" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
@@ -4704,7 +4707,7 @@
       <c r="F81" s="5"/>
       <c r="G81" s="5"/>
       <c r="H81" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
@@ -4726,7 +4729,7 @@
       <c r="F82" s="5"/>
       <c r="G82" s="5"/>
       <c r="H82" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
@@ -4748,7 +4751,7 @@
       <c r="F83" s="5"/>
       <c r="G83" s="5"/>
       <c r="H83" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
@@ -4770,7 +4773,7 @@
       <c r="F84" s="5"/>
       <c r="G84" s="5"/>
       <c r="H84" s="5" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
@@ -4792,7 +4795,7 @@
       <c r="F85" s="5"/>
       <c r="G85" s="5"/>
       <c r="H85" s="5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
@@ -4814,7 +4817,7 @@
       <c r="F86" s="5"/>
       <c r="G86" s="5"/>
       <c r="H86" s="5" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
@@ -4836,7 +4839,7 @@
       <c r="F87" s="5"/>
       <c r="G87" s="5"/>
       <c r="H87" s="5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
@@ -4858,7 +4861,7 @@
       <c r="F88" s="5"/>
       <c r="G88" s="5"/>
       <c r="H88" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
@@ -4880,7 +4883,7 @@
       <c r="F89" s="5"/>
       <c r="G89" s="5"/>
       <c r="H89" s="5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
@@ -4902,7 +4905,7 @@
       <c r="F90" s="5"/>
       <c r="G90" s="5"/>
       <c r="H90" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
@@ -4924,7 +4927,7 @@
       <c r="F91" s="5"/>
       <c r="G91" s="5"/>
       <c r="H91" s="5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
@@ -4946,7 +4949,7 @@
       <c r="F92" s="5"/>
       <c r="G92" s="5"/>
       <c r="H92" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
@@ -4968,7 +4971,7 @@
       <c r="F93" s="5"/>
       <c r="G93" s="5"/>
       <c r="H93" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
@@ -4990,7 +4993,7 @@
       <c r="F94" s="5"/>
       <c r="G94" s="5"/>
       <c r="H94" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
@@ -5012,7 +5015,7 @@
       <c r="F95" s="5"/>
       <c r="G95" s="5"/>
       <c r="H95" s="5" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
@@ -5034,7 +5037,7 @@
       <c r="F96" s="5"/>
       <c r="G96" s="5"/>
       <c r="H96" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
@@ -5056,7 +5059,7 @@
       <c r="F97" s="5"/>
       <c r="G97" s="5"/>
       <c r="H97" s="5" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
@@ -5078,7 +5081,7 @@
       <c r="F98" s="5"/>
       <c r="G98" s="5"/>
       <c r="H98" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
@@ -5100,7 +5103,7 @@
       <c r="F99" s="5"/>
       <c r="G99" s="5"/>
       <c r="H99" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
@@ -5122,7 +5125,7 @@
       <c r="F100" s="5"/>
       <c r="G100" s="5"/>
       <c r="H100" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
@@ -5144,7 +5147,7 @@
       <c r="F101" s="5"/>
       <c r="G101" s="5"/>
       <c r="H101" s="5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
@@ -5166,7 +5169,7 @@
       <c r="F102" s="5"/>
       <c r="G102" s="5"/>
       <c r="H102" s="5" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
@@ -5188,7 +5191,7 @@
       <c r="F103" s="5"/>
       <c r="G103" s="5"/>
       <c r="H103" s="5" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
@@ -5210,7 +5213,7 @@
       <c r="F104" s="5"/>
       <c r="G104" s="5"/>
       <c r="H104" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
@@ -5232,7 +5235,7 @@
       <c r="F105" s="5"/>
       <c r="G105" s="5"/>
       <c r="H105" s="5" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
@@ -5254,7 +5257,7 @@
       <c r="F106" s="5"/>
       <c r="G106" s="5"/>
       <c r="H106" s="5" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
@@ -5276,7 +5279,7 @@
       <c r="F107" s="5"/>
       <c r="G107" s="5"/>
       <c r="H107" s="5" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
@@ -5298,7 +5301,7 @@
       <c r="F108" s="5"/>
       <c r="G108" s="5"/>
       <c r="H108" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
@@ -5320,7 +5323,7 @@
       <c r="F109" s="5"/>
       <c r="G109" s="5"/>
       <c r="H109" s="5" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
@@ -5352,7 +5355,7 @@
       <c r="F111" s="5"/>
       <c r="G111" s="5"/>
       <c r="H111" s="5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
@@ -5396,7 +5399,7 @@
       </c>
       <c r="G114" s="5"/>
       <c r="H114" s="5" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
@@ -5420,7 +5423,7 @@
       </c>
       <c r="G115" s="5"/>
       <c r="H115" s="5" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
@@ -5444,7 +5447,7 @@
       </c>
       <c r="G116" s="5"/>
       <c r="H116" s="5" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
@@ -5468,7 +5471,7 @@
       </c>
       <c r="G117" s="5"/>
       <c r="H117" s="5" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
@@ -5492,7 +5495,7 @@
       </c>
       <c r="G118" s="5"/>
       <c r="H118" s="5" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
@@ -5516,7 +5519,7 @@
       </c>
       <c r="G119" s="5"/>
       <c r="H119" s="5" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
@@ -5540,7 +5543,7 @@
       </c>
       <c r="G120" s="5"/>
       <c r="H120" s="5" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
@@ -5564,7 +5567,7 @@
       </c>
       <c r="G121" s="5"/>
       <c r="H121" s="5" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
@@ -5598,7 +5601,7 @@
       </c>
       <c r="G123" s="5"/>
       <c r="H123" s="5" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
@@ -5622,7 +5625,7 @@
       </c>
       <c r="G124" s="5"/>
       <c r="H124" s="5" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
@@ -5646,7 +5649,7 @@
       </c>
       <c r="G125" s="5"/>
       <c r="H125" s="5" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
@@ -5670,7 +5673,7 @@
       </c>
       <c r="G126" s="5"/>
       <c r="H126" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
@@ -5694,7 +5697,7 @@
       </c>
       <c r="G127" s="5"/>
       <c r="H127" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
@@ -5718,7 +5721,7 @@
       </c>
       <c r="G128" s="5"/>
       <c r="H128" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
@@ -5742,7 +5745,7 @@
       </c>
       <c r="G129" s="5"/>
       <c r="H129" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
@@ -5766,7 +5769,7 @@
       </c>
       <c r="G130" s="5"/>
       <c r="H130" s="5" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
@@ -5800,7 +5803,7 @@
         <v>62</v>
       </c>
       <c r="H132" s="5" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
@@ -5824,7 +5827,7 @@
         <v>62</v>
       </c>
       <c r="H133" s="5" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
@@ -5848,7 +5851,7 @@
         <v>62</v>
       </c>
       <c r="H134" s="5" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
@@ -5872,7 +5875,7 @@
         <v>62</v>
       </c>
       <c r="H135" s="5" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
@@ -5896,7 +5899,7 @@
         <v>62</v>
       </c>
       <c r="H136" s="5" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
@@ -5920,7 +5923,7 @@
         <v>68</v>
       </c>
       <c r="H137" s="5" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
@@ -5944,7 +5947,7 @@
         <v>68</v>
       </c>
       <c r="H138" s="5" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
@@ -5968,7 +5971,7 @@
         <v>68</v>
       </c>
       <c r="H139" s="5" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
@@ -5992,7 +5995,7 @@
         <v>68</v>
       </c>
       <c r="H140" s="5" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
@@ -6016,7 +6019,7 @@
         <v>68</v>
       </c>
       <c r="H141" s="5" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
@@ -6040,7 +6043,7 @@
         <v>74</v>
       </c>
       <c r="H142" s="5" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
@@ -6064,7 +6067,7 @@
         <v>74</v>
       </c>
       <c r="H143" s="5" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
@@ -6088,7 +6091,7 @@
         <v>74</v>
       </c>
       <c r="H144" s="5" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
@@ -6112,7 +6115,7 @@
         <v>78</v>
       </c>
       <c r="H145" s="5" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
@@ -6136,7 +6139,7 @@
         <v>78</v>
       </c>
       <c r="H146" s="5" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
@@ -6170,7 +6173,7 @@
       </c>
       <c r="G148" s="5"/>
       <c r="H148" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
@@ -6194,7 +6197,7 @@
       </c>
       <c r="G149" s="5"/>
       <c r="H149" s="5" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
@@ -6218,7 +6221,7 @@
       </c>
       <c r="G150" s="5"/>
       <c r="H150" s="5" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
@@ -6242,7 +6245,7 @@
       </c>
       <c r="G151" s="5"/>
       <c r="H151" s="5" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
@@ -6266,7 +6269,7 @@
       </c>
       <c r="G152" s="5"/>
       <c r="H152" s="5" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
@@ -6298,7 +6301,7 @@
         <v>133</v>
       </c>
       <c r="H154" s="5" t="s">
-        <v>272</v>
+        <v>346</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
@@ -6332,7 +6335,7 @@
         <v>47</v>
       </c>
       <c r="H156" s="5" t="s">
-        <v>272</v>
+        <v>341</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
@@ -6364,7 +6367,7 @@
       <c r="F158" s="5"/>
       <c r="G158" s="5"/>
       <c r="H158" s="5" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
@@ -6386,7 +6389,7 @@
       <c r="F159" s="5"/>
       <c r="G159" s="5"/>
       <c r="H159" s="5" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
@@ -6408,7 +6411,7 @@
       <c r="F160" s="5"/>
       <c r="G160" s="5"/>
       <c r="H160" s="5" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
@@ -6442,7 +6445,7 @@
         <v>90</v>
       </c>
       <c r="H162" s="5" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.2">
@@ -6466,7 +6469,7 @@
         <v>90</v>
       </c>
       <c r="H163" s="5" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.2">
@@ -6490,7 +6493,7 @@
         <v>90</v>
       </c>
       <c r="H164" s="5" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.2">
@@ -6514,7 +6517,7 @@
         <v>90</v>
       </c>
       <c r="H165" s="5" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.2">
@@ -6538,7 +6541,7 @@
         <v>90</v>
       </c>
       <c r="H166" s="5" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">
@@ -6562,7 +6565,7 @@
         <v>90</v>
       </c>
       <c r="H167" s="5" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.2">
@@ -6586,7 +6589,7 @@
         <v>90</v>
       </c>
       <c r="H168" s="5" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.2">
@@ -6610,7 +6613,7 @@
         <v>90</v>
       </c>
       <c r="H169" s="5" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.2">
@@ -6634,7 +6637,7 @@
         <v>90</v>
       </c>
       <c r="H170" s="5" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
@@ -6658,7 +6661,7 @@
         <v>90</v>
       </c>
       <c r="H171" s="5" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.2">
@@ -6682,7 +6685,7 @@
         <v>90</v>
       </c>
       <c r="H172" s="5" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.2">
@@ -6706,7 +6709,7 @@
         <v>90</v>
       </c>
       <c r="H173" s="5" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.2">
@@ -6730,7 +6733,7 @@
         <v>90</v>
       </c>
       <c r="H174" s="5" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.2">
@@ -6754,7 +6757,7 @@
         <v>90</v>
       </c>
       <c r="H175" s="5" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.2">
@@ -6778,7 +6781,7 @@
         <v>90</v>
       </c>
       <c r="H176" s="5" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.2">
@@ -6810,7 +6813,7 @@
       <c r="F178" s="5"/>
       <c r="G178" s="5"/>
       <c r="H178" s="5" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.2">
@@ -6854,7 +6857,7 @@
       </c>
       <c r="G181" s="5"/>
       <c r="H181" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.2">
@@ -6878,7 +6881,7 @@
       </c>
       <c r="G182" s="5"/>
       <c r="H182" s="5" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.2">
@@ -6902,7 +6905,7 @@
       </c>
       <c r="G183" s="5"/>
       <c r="H183" s="5" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.2">
@@ -6926,7 +6929,7 @@
       </c>
       <c r="G184" s="5"/>
       <c r="H184" s="5" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.2">
@@ -6950,7 +6953,7 @@
       </c>
       <c r="G185" s="5"/>
       <c r="H185" s="5" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.2">
@@ -6974,7 +6977,7 @@
       </c>
       <c r="G186" s="5"/>
       <c r="H186" s="5" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.2">
@@ -6998,7 +7001,7 @@
       </c>
       <c r="G187" s="5"/>
       <c r="H187" s="5" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.2">
@@ -7022,7 +7025,7 @@
       </c>
       <c r="G188" s="5"/>
       <c r="H188" s="5" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.2">
@@ -7046,7 +7049,7 @@
       </c>
       <c r="G189" s="5"/>
       <c r="H189" s="5" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.2">
@@ -7080,7 +7083,7 @@
       </c>
       <c r="G191" s="5"/>
       <c r="H191" s="5" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.2">
@@ -7104,7 +7107,7 @@
       </c>
       <c r="G192" s="5"/>
       <c r="H192" s="5" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.2">
@@ -7128,7 +7131,7 @@
       </c>
       <c r="G193" s="5"/>
       <c r="H193" s="5" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.2">
@@ -7152,7 +7155,7 @@
       </c>
       <c r="G194" s="5"/>
       <c r="H194" s="5" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.2">
@@ -7176,7 +7179,7 @@
       </c>
       <c r="G195" s="5"/>
       <c r="H195" s="5" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.2">
@@ -7200,7 +7203,7 @@
       </c>
       <c r="G196" s="5"/>
       <c r="H196" s="5" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.2">
@@ -7224,7 +7227,7 @@
       </c>
       <c r="G197" s="5"/>
       <c r="H197" s="5" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.2">
@@ -7248,7 +7251,7 @@
       </c>
       <c r="G198" s="5"/>
       <c r="H198" s="5" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.2">
@@ -7272,7 +7275,7 @@
       </c>
       <c r="G199" s="5"/>
       <c r="H199" s="5" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.2">
@@ -7304,7 +7307,7 @@
         <v>133</v>
       </c>
       <c r="H201" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.2">
@@ -7338,7 +7341,7 @@
         <v>47</v>
       </c>
       <c r="H203" s="5" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.2">
@@ -7370,7 +7373,7 @@
       <c r="F205" s="5"/>
       <c r="G205" s="5"/>
       <c r="H205" s="5" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.2">
@@ -7392,7 +7395,7 @@
       <c r="F206" s="5"/>
       <c r="G206" s="5"/>
       <c r="H206" s="5" t="s">
-        <v>299</v>
+        <v>342</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.2">
@@ -7414,7 +7417,7 @@
       <c r="F207" s="5"/>
       <c r="G207" s="5"/>
       <c r="H207" s="5" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.2">
@@ -7436,7 +7439,7 @@
       <c r="F208" s="5"/>
       <c r="G208" s="5"/>
       <c r="H208" s="5" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.2">
@@ -7468,7 +7471,7 @@
       <c r="F210" s="5"/>
       <c r="G210" s="5"/>
       <c r="H210" s="5" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.2">
@@ -7490,7 +7493,7 @@
       <c r="F211" s="5"/>
       <c r="G211" s="5"/>
       <c r="H211" s="5" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.2">
@@ -7512,7 +7515,7 @@
       <c r="F212" s="5"/>
       <c r="G212" s="5"/>
       <c r="H212" s="5" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.2">
@@ -7534,7 +7537,7 @@
       <c r="F213" s="5"/>
       <c r="G213" s="5"/>
       <c r="H213" s="5" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.2">
@@ -7556,7 +7559,7 @@
       <c r="F214" s="5"/>
       <c r="G214" s="5"/>
       <c r="H214" s="5" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.2">
@@ -7578,7 +7581,7 @@
       <c r="F215" s="5"/>
       <c r="G215" s="5"/>
       <c r="H215" s="5" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.2">
@@ -7600,7 +7603,7 @@
       <c r="F216" s="5"/>
       <c r="G216" s="5"/>
       <c r="H216" s="5" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.2">
@@ -7622,7 +7625,7 @@
       <c r="F217" s="5"/>
       <c r="G217" s="5"/>
       <c r="H217" s="5" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.2">
@@ -7644,7 +7647,7 @@
       <c r="F218" s="5"/>
       <c r="G218" s="5"/>
       <c r="H218" s="5" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.2">
@@ -7666,7 +7669,7 @@
       <c r="F219" s="5"/>
       <c r="G219" s="5"/>
       <c r="H219" s="5" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.2">
@@ -7710,7 +7713,7 @@
       </c>
       <c r="G222" s="5"/>
       <c r="H222" s="5" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.2">
@@ -7734,7 +7737,7 @@
       </c>
       <c r="G223" s="5"/>
       <c r="H223" s="5" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.2">
@@ -7758,7 +7761,7 @@
       </c>
       <c r="G224" s="5"/>
       <c r="H224" s="5" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.2">
@@ -7782,7 +7785,7 @@
       </c>
       <c r="G225" s="5"/>
       <c r="H225" s="5" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.2">
@@ -7806,7 +7809,7 @@
       </c>
       <c r="G226" s="5"/>
       <c r="H226" s="5" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.2">
@@ -7840,7 +7843,7 @@
       </c>
       <c r="G228" s="5"/>
       <c r="H228" s="5" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.2">
@@ -7864,7 +7867,7 @@
       </c>
       <c r="G229" s="5"/>
       <c r="H229" s="5" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.2">
@@ -7888,7 +7891,7 @@
       </c>
       <c r="G230" s="5"/>
       <c r="H230" s="5" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.2">
@@ -7912,7 +7915,7 @@
       </c>
       <c r="G231" s="5"/>
       <c r="H231" s="5" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.2">
@@ -7944,7 +7947,7 @@
         <v>133</v>
       </c>
       <c r="H233" s="5" t="s">
-        <v>317</v>
+        <v>347</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.2">
@@ -7975,7 +7978,7 @@
         <v>47</v>
       </c>
       <c r="H235" s="1" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.2">
@@ -8005,7 +8008,7 @@
       <c r="F237" s="5"/>
       <c r="G237" s="5"/>
       <c r="H237" s="5" t="s">
-        <v>319</v>
+        <v>348</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.2">
@@ -8025,7 +8028,7 @@
       <c r="F238" s="5"/>
       <c r="G238" s="5"/>
       <c r="H238" s="5" t="s">
-        <v>321</v>
+        <v>349</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.2">
@@ -8045,7 +8048,7 @@
       <c r="F239" s="5"/>
       <c r="G239" s="5"/>
       <c r="H239" s="5" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.2">
@@ -8075,7 +8078,7 @@
       <c r="F241" s="5"/>
       <c r="G241" s="5"/>
       <c r="H241" s="5" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.2">
@@ -8105,7 +8108,7 @@
       <c r="F243" s="5"/>
       <c r="G243" s="5"/>
       <c r="H243" s="5" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
     </row>
     <row r="244" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -8136,7 +8139,7 @@
         <v>116</v>
       </c>
       <c r="H246" s="1" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
     </row>
     <row r="247" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
@@ -8164,7 +8167,7 @@
         <v>119</v>
       </c>
       <c r="H248" s="1" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
     </row>
     <row r="249" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
@@ -8187,7 +8190,7 @@
         <v>119</v>
       </c>
       <c r="H249" s="1" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
     </row>
     <row r="250" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
@@ -8210,7 +8213,7 @@
         <v>119</v>
       </c>
       <c r="H250" s="1" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
     </row>
     <row r="251" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
@@ -8233,7 +8236,7 @@
         <v>123</v>
       </c>
       <c r="H251" s="1" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
     </row>
     <row r="252" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
@@ -8261,7 +8264,7 @@
         <v>47</v>
       </c>
       <c r="H253" s="1" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
     </row>
     <row r="254" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
@@ -8286,7 +8289,7 @@
         <v>46</v>
       </c>
       <c r="H255" s="1" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
     </row>
     <row r="256" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
@@ -8306,7 +8309,7 @@
         <v>46</v>
       </c>
       <c r="H256" s="1" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
     </row>
     <row r="257" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
@@ -8326,7 +8329,7 @@
         <v>46</v>
       </c>
       <c r="H257" s="1" t="s">
-        <v>332</v>
+        <v>350</v>
       </c>
     </row>
     <row r="258" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
@@ -8346,7 +8349,7 @@
         <v>46</v>
       </c>
       <c r="H258" s="1" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
     </row>
     <row r="259" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
@@ -8371,7 +8374,7 @@
         <v>46</v>
       </c>
       <c r="H260" s="1" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
     </row>
     <row r="261" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -8400,7 +8403,7 @@
         <v>50</v>
       </c>
       <c r="H263" s="1" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
     </row>
     <row r="264" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
@@ -8426,7 +8429,7 @@
         <v>80</v>
       </c>
       <c r="H265" s="1" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
     </row>
     <row r="266" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
@@ -8452,7 +8455,7 @@
         <v>133</v>
       </c>
       <c r="H267" s="1" t="s">
-        <v>337</v>
+        <v>351</v>
       </c>
     </row>
     <row r="268" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
@@ -8480,7 +8483,7 @@
         <v>47</v>
       </c>
       <c r="H269" s="1" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
     </row>
     <row r="270" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
@@ -8503,7 +8506,7 @@
       </c>
       <c r="E271" s="2"/>
       <c r="H271" s="1" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
     </row>
     <row r="272" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
@@ -8521,7 +8524,7 @@
       </c>
       <c r="E272" s="2"/>
       <c r="H272" s="1" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
     </row>
     <row r="273" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
@@ -8539,7 +8542,7 @@
       </c>
       <c r="E273" s="2"/>
       <c r="H273" s="1" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
     </row>
     <row r="274" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
@@ -8557,7 +8560,7 @@
       </c>
       <c r="E274" s="2"/>
       <c r="H274" s="1" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
     </row>
     <row r="275" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
@@ -8580,7 +8583,7 @@
       </c>
       <c r="E276" s="2"/>
       <c r="H276" s="1" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
     </row>
     <row r="277" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -8609,7 +8612,7 @@
         <v>50</v>
       </c>
       <c r="H279" s="1" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="280" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
@@ -8635,7 +8638,7 @@
         <v>80</v>
       </c>
       <c r="H281" s="1" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
     </row>
     <row r="282" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
@@ -8661,7 +8664,7 @@
         <v>133</v>
       </c>
       <c r="H283" s="1" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
     </row>
     <row r="284" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
@@ -8687,7 +8690,7 @@
         <v>47</v>
       </c>
       <c r="H285" s="1" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
     </row>
     <row r="286" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
@@ -8710,7 +8713,7 @@
       </c>
       <c r="E287" s="2"/>
       <c r="H287" s="1" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
     </row>
     <row r="288" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
@@ -8728,7 +8731,7 @@
       </c>
       <c r="E288" s="2"/>
       <c r="H288" s="1" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
     </row>
     <row r="289" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
@@ -8746,7 +8749,7 @@
       </c>
       <c r="E289" s="2"/>
       <c r="H289" s="1" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
     </row>
     <row r="290" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
@@ -8764,7 +8767,7 @@
       </c>
       <c r="E290" s="2"/>
       <c r="H290" s="1" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
     </row>
     <row r="291" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
@@ -8787,7 +8790,7 @@
       </c>
       <c r="E292" s="2"/>
       <c r="H292" s="1" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>
